--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA95FDFC-3989-9B4E-ADF9-085584DA23E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="95">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -274,17 +273,56 @@
   </si>
   <si>
     <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
+  </si>
+  <si>
+    <t>Фиточай "Фитосбор №1" НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Лактафитол НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Стройная жизнь НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Стройная жизнь экстра плюс НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай диабетический НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для иммунитета НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для пищеварения НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай кардиологический НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай очищающий НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай при простуде НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай успокоительный НФП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,12 +340,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -348,32 +380,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,22 +836,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,1308 +861,1462 @@
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
         <v>1533</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5">
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
         <v>3009</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5">
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
         <v>8024</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
         <v>2634.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
         <v>3191.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" ht="22.5">
+      <c r="A15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22.5">
+      <c r="A16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5">
         <v>1222</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
         <v>1410</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5">
         <v>1590.4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D20" s="6">
         <v>220.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D21" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D22" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D23" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
-        <v>7749</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
         <v>1139</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
         <v>785</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
         <v>2267</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
         <v>549</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
         <v>983</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="B33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
         <v>1528</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6">
         <v>652.5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="B35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
         <v>1924</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5">
         <v>1184.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5">
         <v>3375</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="B38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="5">
         <v>13470.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5">
         <v>16331.1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="B40" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
         <v>1095</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="B41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
         <v>1547</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="5">
         <v>1215</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="B43" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
         <v>16508.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="B44" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5">
         <v>1589</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="B45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5">
         <v>1480</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="B46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="5">
         <v>2928.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="B47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5">
         <v>2130.6999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="7">
-        <v>6285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5">
+        <v>5660</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
         <v>305.5</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="5">
         <v>1393</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="7">
+      <c r="B51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="B52" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
         <v>572</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="7">
-        <v>1256.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="B54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="5">
         <v>1312.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="B55" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="5">
         <v>1503</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="5">
         <v>2516</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="7">
+      <c r="B57" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
         <v>9482</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="7">
-        <v>28906</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="5">
+        <v>24418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="7">
-        <v>428.3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="C60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6">
+        <v>223.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="B61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D61" s="6">
         <v>999</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D62" s="5">
         <v>9965</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="5" t="s">
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D63" s="5">
         <v>1982</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="7">
-        <v>15855</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="D64" s="5">
+        <v>9914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="5" t="s">
+      <c r="B65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D65" s="6">
         <v>405</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="B66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="7">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="B67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D67" s="5">
         <v>3872</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="5" t="s">
+      <c r="B68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D68" s="5">
         <v>2957</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="5" t="s">
+      <c r="B69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D69" s="5">
         <v>3496</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="5" t="s">
+      <c r="B70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D70" s="6">
         <v>986</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="B71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D71" s="5">
         <v>1840</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="5" t="s">
+      <c r="B72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D72" s="6">
         <v>812</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="7">
+      <c r="B73" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="5">
         <v>2009.4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="7">
+      <c r="B74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="5">
         <v>5592</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="7">
+      <c r="B75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5">
         <v>2229.5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="7">
+      <c r="B76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="6">
         <v>475</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="7">
+      <c r="B77" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5">
         <v>1511.8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="7">
+      <c r="B78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="5">
         <v>2849.8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="7">
+      <c r="C79" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="5">
         <v>2547</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="B80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D80" s="6">
         <v>363</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="6">
+        <v>580.79999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="6">
+        <v>396.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="7">
+      <c r="B85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="5">
         <v>2164</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="7">
+      <c r="B86" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="5">
         <v>1682</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="7">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+      <c r="C87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="7">
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="5">
         <v>3595</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="7">
+      <c r="B89" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="5">
         <v>1479</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="7">
+      <c r="B90" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="5">
         <v>2443</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="7">
+      <c r="B91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="5">
         <v>1533</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="7">
+      <c r="B92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="5">
         <v>1874.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="7">
+      <c r="B93" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="5">
         <v>1695</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="7">
-        <v>4787.8999999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+      <c r="B94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="7">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+      <c r="C95" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="7">
+      <c r="B96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="5">
         <v>2998</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="6">
+        <v>292.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="6">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="6">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="6">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="6">
+        <v>300.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="7">
+      <c r="B104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="5">
         <v>3559</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="7">
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
         <v>596.4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D91" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29FD0D-41D7-7A43-9557-1AF530745500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
+    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -317,12 +318,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +337,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -352,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -360,27 +358,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,22 +371,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -836,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D105"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -851,7 +821,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -875,11 +845,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -889,11 +859,11 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -903,11 +873,11 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1533</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -917,11 +887,11 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -931,11 +901,11 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -945,11 +915,11 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -959,11 +929,11 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3009</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -973,11 +943,11 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -987,11 +957,11 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>8024</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1001,11 +971,11 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1015,11 +985,11 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2634.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1029,11 +999,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1043,11 +1013,11 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>3191.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="22.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
@@ -1057,11 +1027,11 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1071,11 +1041,11 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1085,11 +1055,11 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1222</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1099,11 +1069,11 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1113,11 +1083,11 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1590.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1127,11 +1097,11 @@
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>220.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1141,11 +1111,11 @@
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1155,11 +1125,11 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -1169,11 +1139,11 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1183,11 +1153,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>3806</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1197,11 +1167,11 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>1139</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1211,11 +1181,11 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1225,9 +1195,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1237,11 +1207,11 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>2267</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1251,11 +1221,11 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1265,11 +1235,11 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="4">
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1279,11 +1249,11 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>1365</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1293,11 +1263,11 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>983</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1307,11 +1277,11 @@
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>1528</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1321,11 +1291,11 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>652.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1335,11 +1305,11 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>1924</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1349,11 +1319,11 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>1184.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1363,11 +1333,11 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>3375</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1377,11 +1347,11 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>13470.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1391,11 +1361,11 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>16331.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1405,11 +1375,11 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>1095</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1419,11 +1389,11 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>1547</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -1433,11 +1403,11 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>1215</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1447,11 +1417,11 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>16508.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1461,11 +1431,11 @@
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>1589</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1475,11 +1445,11 @@
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>1480</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1489,11 +1459,11 @@
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>2928.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
@@ -1503,11 +1473,11 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>2130.6999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
@@ -1517,11 +1487,11 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>5660</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
@@ -1531,11 +1501,11 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>305.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
@@ -1545,11 +1515,11 @@
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>1393</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -1559,11 +1529,11 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
@@ -1573,11 +1543,11 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="4">
         <v>572</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
@@ -1587,11 +1557,11 @@
       <c r="C53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>1233</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -1601,11 +1571,11 @@
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>1312.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -1615,11 +1585,11 @@
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>1503</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1629,11 +1599,11 @@
       <c r="C56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>2516</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
@@ -1643,11 +1613,11 @@
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>9482</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -1657,11 +1627,11 @@
       <c r="C58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>7560</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -1671,11 +1641,11 @@
       <c r="C59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>24418</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
@@ -1685,11 +1655,11 @@
       <c r="C60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="4">
         <v>223.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>53</v>
       </c>
@@ -1699,11 +1669,11 @@
       <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="4">
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>76</v>
       </c>
@@ -1713,11 +1683,11 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="5">
-        <v>9965</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="4">
+        <v>5965</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
@@ -1727,11 +1697,11 @@
       <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>1982</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
@@ -1741,11 +1711,11 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>9914</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>55</v>
       </c>
@@ -1755,11 +1725,11 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="4">
         <v>405</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>56</v>
       </c>
@@ -1769,9 +1739,9 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>57</v>
       </c>
@@ -1781,11 +1751,11 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>3872</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
@@ -1795,11 +1765,11 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>2957</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>81</v>
       </c>
@@ -1809,11 +1779,11 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>3496</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>78</v>
       </c>
@@ -1823,11 +1793,11 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="4">
         <v>986</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>79</v>
       </c>
@@ -1837,11 +1807,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>1840</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>80</v>
       </c>
@@ -1851,11 +1821,11 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>812</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
@@ -1865,11 +1835,11 @@
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>2009.4</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -1879,11 +1849,11 @@
       <c r="C74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="5">
-        <v>5592</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="4">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>59</v>
       </c>
@@ -1893,11 +1863,11 @@
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>2229.5</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>60</v>
       </c>
@@ -1907,11 +1877,11 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="4">
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>61</v>
       </c>
@@ -1921,11 +1891,11 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>1511.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -1935,11 +1905,11 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>2849.8</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>62</v>
       </c>
@@ -1949,11 +1919,11 @@
       <c r="C79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>2547</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>63</v>
       </c>
@@ -1963,11 +1933,11 @@
       <c r="C80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>84</v>
       </c>
@@ -1977,11 +1947,11 @@
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="4">
         <v>580.79999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>85</v>
       </c>
@@ -1991,11 +1961,11 @@
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="4">
         <v>396.2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>86</v>
       </c>
@@ -2005,11 +1975,11 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>87</v>
       </c>
@@ -2019,11 +1989,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>64</v>
       </c>
@@ -2033,11 +2003,11 @@
       <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="5">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="D85" s="4">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>65</v>
       </c>
@@ -2047,11 +2017,11 @@
       <c r="C86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>1682</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>65</v>
       </c>
@@ -2061,11 +2031,11 @@
       <c r="C87" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>66</v>
       </c>
@@ -2075,11 +2045,11 @@
       <c r="C88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="5">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="4">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>67</v>
       </c>
@@ -2089,11 +2059,11 @@
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>1479</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>67</v>
       </c>
@@ -2103,11 +2073,11 @@
       <c r="C90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="4">
         <v>2443</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>68</v>
       </c>
@@ -2117,11 +2087,11 @@
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>1533</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
@@ -2131,11 +2101,11 @@
       <c r="C92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>1874.5</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>69</v>
       </c>
@@ -2145,11 +2115,11 @@
       <c r="C93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>1695</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>69</v>
       </c>
@@ -2159,11 +2129,11 @@
       <c r="C94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="5">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="D94" s="4">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>71</v>
       </c>
@@ -2173,9 +2143,9 @@
       <c r="C95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>70</v>
       </c>
@@ -2185,11 +2155,11 @@
       <c r="C96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>2998</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>88</v>
       </c>
@@ -2199,11 +2169,11 @@
       <c r="C97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="4">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>89</v>
       </c>
@@ -2213,11 +2183,11 @@
       <c r="C98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="4">
         <v>292.3</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>90</v>
       </c>
@@ -2227,11 +2197,11 @@
       <c r="C99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="4">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>91</v>
       </c>
@@ -2241,11 +2211,11 @@
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>92</v>
       </c>
@@ -2255,11 +2225,11 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="4">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>93</v>
       </c>
@@ -2269,11 +2239,11 @@
       <c r="C102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="4">
         <v>212.3</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>94</v>
       </c>
@@ -2283,11 +2253,11 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="4">
         <v>300.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>72</v>
       </c>
@@ -2297,11 +2267,11 @@
       <c r="C104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D104" s="4">
         <v>3559</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>73</v>
       </c>
@@ -2311,12 +2281,12 @@
       <c r="C105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="4">
         <v>596.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91"/>
+  <autoFilter ref="A1:D91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29FD0D-41D7-7A43-9557-1AF530745500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -318,8 +317,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,7 +340,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -350,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -358,11 +360,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -371,10 +389,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,7 +432,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -450,7 +480,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -806,14 +836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D105"/>
+      <selection activeCell="A2" sqref="A2:D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -821,7 +851,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.95">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -845,11 +875,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.95">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -859,11 +889,11 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.95">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -873,11 +903,11 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1533</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.95">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -887,11 +917,11 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.95">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -901,11 +931,11 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.95">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -915,11 +945,11 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.95">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -929,11 +959,11 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="5">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.95">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -943,11 +973,11 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.95">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -957,11 +987,11 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>8024</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.95">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -971,11 +1001,11 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.95">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -985,11 +1015,11 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>2634.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.95">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -999,11 +1029,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.95">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1013,11 +1043,11 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>3191.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
@@ -1027,11 +1057,11 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="22.5">
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1041,11 +1071,11 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1055,11 +1085,11 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>1222</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1069,11 +1099,11 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1083,11 +1113,11 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>1590.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1097,11 +1127,11 @@
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>220.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1111,11 +1141,11 @@
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1125,11 +1155,11 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -1139,11 +1169,11 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1153,11 +1183,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>3806</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1167,11 +1197,11 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>1139</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1181,11 +1211,11 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1195,9 +1225,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1207,11 +1237,11 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>2267</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1221,11 +1251,11 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1235,11 +1265,11 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>549</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1249,11 +1279,11 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="4">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="6">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1263,11 +1293,11 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>983</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1277,11 +1307,11 @@
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="5">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1291,11 +1321,11 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="4">
-        <v>652.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="6">
+        <v>327.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1305,11 +1335,11 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>1924</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1319,11 +1349,11 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>1184.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1333,11 +1363,11 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
         <v>3375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1347,11 +1377,11 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>13470.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1361,11 +1391,11 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>16331.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1375,11 +1405,11 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>1095</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1389,11 +1419,11 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>1547</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -1403,11 +1433,11 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>1215</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1417,11 +1447,11 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>16508.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1431,11 +1461,11 @@
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>1589</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1445,11 +1475,11 @@
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>1480</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1459,11 +1489,11 @@
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>2928.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
@@ -1473,11 +1503,11 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>2130.6999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>45</v>
       </c>
@@ -1487,11 +1517,11 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="5">
         <v>5660</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>46</v>
       </c>
@@ -1501,11 +1531,11 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="6">
         <v>305.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
         <v>47</v>
       </c>
@@ -1515,11 +1545,11 @@
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="5">
         <v>1393</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -1529,11 +1559,11 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="6">
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
         <v>48</v>
       </c>
@@ -1543,11 +1573,9 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="4">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
@@ -1557,11 +1585,11 @@
       <c r="C53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>1233</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
         <v>49</v>
       </c>
@@ -1571,11 +1599,11 @@
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="5">
         <v>1312.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
         <v>50</v>
       </c>
@@ -1585,11 +1613,11 @@
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="5">
         <v>1503</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1599,11 +1627,11 @@
       <c r="C56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="5">
         <v>2516</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>51</v>
       </c>
@@ -1613,11 +1641,11 @@
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <v>9482</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -1627,11 +1655,11 @@
       <c r="C58" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>7560</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -1641,11 +1669,11 @@
       <c r="C59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="5">
         <v>24418</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
@@ -1655,11 +1683,11 @@
       <c r="C60" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="6">
         <v>223.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>53</v>
       </c>
@@ -1669,11 +1697,11 @@
       <c r="C61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="6">
         <v>999</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>76</v>
       </c>
@@ -1683,11 +1711,11 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="5">
         <v>5965</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>54</v>
       </c>
@@ -1697,11 +1725,11 @@
       <c r="C63" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="5">
         <v>1982</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
@@ -1711,11 +1739,11 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="5">
         <v>9914</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>55</v>
       </c>
@@ -1725,11 +1753,11 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="6">
         <v>405</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>56</v>
       </c>
@@ -1739,9 +1767,9 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>57</v>
       </c>
@@ -1751,11 +1779,11 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="5">
         <v>3872</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
@@ -1765,11 +1793,11 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="5">
         <v>2957</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>81</v>
       </c>
@@ -1779,11 +1807,11 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="5">
         <v>3496</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>78</v>
       </c>
@@ -1793,11 +1821,11 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="6">
         <v>986</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>79</v>
       </c>
@@ -1807,11 +1835,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="5">
         <v>1840</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>80</v>
       </c>
@@ -1821,11 +1849,11 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="6">
         <v>812</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>58</v>
       </c>
@@ -1835,11 +1863,11 @@
       <c r="C73" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="5">
         <v>2009.4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -1849,11 +1877,11 @@
       <c r="C74" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="5">
         <v>5510</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>59</v>
       </c>
@@ -1863,11 +1891,11 @@
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="5">
         <v>2229.5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>60</v>
       </c>
@@ -1877,11 +1905,11 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="6">
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>61</v>
       </c>
@@ -1891,11 +1919,11 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="5">
         <v>1511.8</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -1905,11 +1933,11 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="5">
         <v>2849.8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>62</v>
       </c>
@@ -1919,11 +1947,11 @@
       <c r="C79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="5">
         <v>2547</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>63</v>
       </c>
@@ -1933,11 +1961,11 @@
       <c r="C80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="6">
         <v>363</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
         <v>84</v>
       </c>
@@ -1947,11 +1975,11 @@
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="6">
         <v>580.79999999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
         <v>85</v>
       </c>
@@ -1961,11 +1989,11 @@
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
         <v>396.2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>86</v>
       </c>
@@ -1975,11 +2003,11 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="6">
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
         <v>87</v>
       </c>
@@ -1989,11 +2017,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="6">
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>64</v>
       </c>
@@ -2003,11 +2031,11 @@
       <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="5">
         <v>1750</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>65</v>
       </c>
@@ -2017,11 +2045,11 @@
       <c r="C86" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="5">
         <v>1682</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>65</v>
       </c>
@@ -2031,11 +2059,11 @@
       <c r="C87" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="6">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>66</v>
       </c>
@@ -2045,11 +2073,11 @@
       <c r="C88" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="5">
         <v>2819</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
         <v>67</v>
       </c>
@@ -2059,11 +2087,11 @@
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="5">
         <v>1479</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
         <v>67</v>
       </c>
@@ -2073,11 +2101,11 @@
       <c r="C90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="5">
         <v>2443</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
         <v>68</v>
       </c>
@@ -2087,11 +2115,11 @@
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="5">
         <v>1533</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
@@ -2101,11 +2129,11 @@
       <c r="C92" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="5">
         <v>1874.5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>69</v>
       </c>
@@ -2115,11 +2143,11 @@
       <c r="C93" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="5">
         <v>1695</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>69</v>
       </c>
@@ -2129,11 +2157,11 @@
       <c r="C94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="6">
         <v>986</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
         <v>71</v>
       </c>
@@ -2143,9 +2171,9 @@
       <c r="C95" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>70</v>
       </c>
@@ -2155,11 +2183,11 @@
       <c r="C96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="5">
         <v>2998</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>88</v>
       </c>
@@ -2169,11 +2197,11 @@
       <c r="C97" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>89</v>
       </c>
@@ -2183,11 +2211,11 @@
       <c r="C98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="6">
         <v>292.3</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
         <v>90</v>
       </c>
@@ -2197,11 +2225,11 @@
       <c r="C99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="6">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
         <v>91</v>
       </c>
@@ -2211,11 +2239,11 @@
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="6">
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>92</v>
       </c>
@@ -2225,11 +2253,11 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="6">
         <v>148</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>93</v>
       </c>
@@ -2239,11 +2267,11 @@
       <c r="C102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="6">
         <v>212.3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
         <v>94</v>
       </c>
@@ -2253,11 +2281,11 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="6">
         <v>300.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
         <v>72</v>
       </c>
@@ -2267,11 +2295,11 @@
       <c r="C104" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="5">
         <v>3559</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
         <v>73</v>
       </c>
@@ -2281,12 +2309,12 @@
       <c r="C105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="6">
         <v>596.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -839,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D105"/>
     </sheetView>
   </sheetViews>
@@ -851,7 +851,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -893,7 +893,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -904,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="5">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.95">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -921,7 +921,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -935,7 +935,7 @@
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -949,7 +949,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -963,7 +963,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.95">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -988,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="5">
-        <v>8024</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.95">
+        <v>7249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.95">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>2634.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.95">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.95">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="5">
-        <v>3191.2</v>
+        <v>2716.2</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5">
@@ -1336,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="5">
-        <v>1924</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1363,9 +1363,7 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="5">
-        <v>3375</v>
-      </c>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
@@ -1670,7 +1668,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="5">
-        <v>24418</v>
+        <v>15318</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2102,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="5">
-        <v>2443</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="91" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -839,7 +839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D105"/>
     </sheetView>
   </sheetViews>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="5">
-        <v>2267</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1571,7 +1571,9 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="5">
+        <v>1156.5</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
@@ -1597,9 +1599,7 @@
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="5">
-        <v>1312.5</v>
-      </c>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
@@ -1778,7 +1778,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="5">
-        <v>3872</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="68" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512218F-7D16-E141-B281-FE1F92130D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
+    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="96">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -312,17 +313,16 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай успокоительный НФП</t>
+  </si>
+  <si>
+    <t>Ольха соплодия НФП</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +340,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -352,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -360,27 +361,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -389,22 +374,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -836,14 +809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D105"/>
+      <selection activeCell="D2" sqref="D2:D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -851,7 +824,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,7 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -875,11 +848,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -889,11 +862,11 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -903,11 +876,11 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -917,11 +890,11 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -931,11 +904,11 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -945,11 +918,11 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -959,11 +932,11 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2481</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -973,11 +946,11 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -987,11 +960,11 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>7249</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1001,11 +974,11 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1015,11 +988,11 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>2634.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1029,11 +1002,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1043,11 +1016,11 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>2716.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="22.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
@@ -1057,11 +1030,11 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1071,11 +1044,11 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="4">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1085,11 +1058,11 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1222</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1099,11 +1072,11 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1113,11 +1086,11 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1590.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1127,11 +1100,11 @@
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>220.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1141,11 +1114,11 @@
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1155,11 +1128,11 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -1169,11 +1142,11 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1183,11 +1156,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>3806</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1197,11 +1170,11 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="5">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="4">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1211,11 +1184,11 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1225,9 +1198,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1237,11 +1210,11 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1749</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1251,11 +1224,11 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1265,11 +1238,9 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="6">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1279,11 +1250,11 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>804</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1293,11 +1264,11 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>983</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1307,11 +1278,11 @@
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>1028</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1321,11 +1292,11 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>327.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1335,11 +1306,11 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>3125</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1349,11 +1320,11 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>1184.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1363,9 +1334,9 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1375,11 +1346,11 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>13470.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1389,11 +1360,11 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>16331.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1403,11 +1374,11 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>1095</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1417,11 +1388,11 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>1547</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -1431,11 +1402,11 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>1215</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1445,11 +1416,11 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>16508.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1459,11 +1430,11 @@
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>1589</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1473,11 +1444,11 @@
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>1480</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1487,11 +1458,11 @@
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>2928.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
@@ -1501,207 +1472,207 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>2130.6999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="B49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="4">
         <v>5660</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="B50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="4">
         <v>305.5</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1156.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D52" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1156.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4">
         <v>1233</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="5">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="5">
+      <c r="C57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
         <v>2516</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="5">
-        <v>9482</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="5">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D58" s="4">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4">
         <v>15318</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="C61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="4">
         <v>223.7</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="6">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>4</v>
@@ -1709,41 +1680,41 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4">
         <v>5965</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5">
-        <v>1982</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="5">
-        <v>9914</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>4</v>
@@ -1751,13 +1722,13 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="6">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="D65" s="4">
+        <v>9914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1765,11 +1736,13 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" s="4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1777,13 +1750,11 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="5">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1791,13 +1762,13 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="4">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1805,13 +1776,13 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="5">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="4">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1819,13 +1790,13 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="6">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="4">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1833,13 +1804,13 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="5">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="4">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1847,125 +1818,125 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4">
         <v>812</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="5">
-        <v>2009.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="5">
-        <v>5510</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2009.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="4">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="5">
+      <c r="B76" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="4">
         <v>2229.5</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="4" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6">
+      <c r="B77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="4">
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5">
-        <v>1511.8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="5">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1511.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="4">
         <v>2849.8</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B80" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="5">
+      <c r="C80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4">
         <v>2547</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="6">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>4</v>
@@ -1973,13 +1944,13 @@
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="6">
-        <v>580.79999999999995</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="D81" s="4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
@@ -1987,13 +1958,13 @@
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="6">
-        <v>396.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" s="4">
+        <v>580.79999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2001,13 +1972,13 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="D83" s="4">
+        <v>396.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2015,193 +1986,193 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="4">
         <v>307</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="5">
+      <c r="B86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="4">
         <v>1750</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="6">
+      <c r="C88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="4">
         <v>431</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="5">
-        <v>2819</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="B89" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="5">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="D89" s="4">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="5">
+        <v>3</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="4">
         <v>1993</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="5">
-        <v>1533</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="5">
+        <v>3</v>
+      </c>
+      <c r="D92" s="4">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="4">
         <v>1874.5</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="5">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="6">
+        <v>3</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="4">
         <v>986</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="7"/>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="4" t="s">
+      <c r="C96" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="5">
+      <c r="B97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="4">
         <v>2998</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2209,13 +2180,13 @@
       <c r="C98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="6">
-        <v>292.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="D98" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2223,13 +2194,13 @@
       <c r="C99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="6">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="D99" s="4">
+        <v>292.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2237,13 +2208,13 @@
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="6">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="D100" s="4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2251,13 +2222,13 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="6">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="D101" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2265,13 +2236,13 @@
       <c r="C102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="6">
-        <v>212.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="D102" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2279,40 +2250,54 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="4">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="4">
         <v>300.5</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="5">
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="4">
         <v>3559</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4">
         <v>596.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91"/>
+  <autoFilter ref="A1:D91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A512218F-7D16-E141-B281-FE1F92130D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324541FB-1BDD-F64E-A468-C7ACEDE1E354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -813,7 +813,7 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D106"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1198,7 +1198,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
@@ -1238,7 +1240,9 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
@@ -1334,7 +1338,9 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -1584,7 +1590,9 @@
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -1750,7 +1758,9 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
@@ -2154,7 +2164,9 @@
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
@@ -2297,7 +2309,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324541FB-1BDD-F64E-A468-C7ACEDE1E354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -321,8 +320,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,7 +343,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -353,7 +355,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -361,11 +363,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -374,10 +392,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,7 +435,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -453,7 +483,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -809,14 +839,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="A2" sqref="A2:D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -824,7 +854,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.95">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -848,11 +878,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.95">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -862,11 +892,11 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.95">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -876,11 +906,11 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.95">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -890,11 +920,11 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.95">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -904,11 +934,11 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.95">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -918,11 +948,11 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.95">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -932,11 +962,11 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>2481</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.95">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -946,11 +976,11 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.95">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -960,11 +990,11 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>7249</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.95">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -974,11 +1004,11 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.95">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -988,11 +1018,11 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>2634.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.95">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1002,11 +1032,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.95">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1016,11 +1046,11 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>2716.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
@@ -1030,11 +1060,11 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="22.5">
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1044,11 +1074,11 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1058,11 +1088,11 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <v>1222</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1072,11 +1102,11 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1086,11 +1116,11 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>1590.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1100,11 +1130,11 @@
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>220.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1114,11 +1144,11 @@
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1128,11 +1158,11 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -1142,11 +1172,11 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1156,11 +1186,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>3806</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1170,11 +1200,11 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1184,11 +1214,11 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1198,11 +1228,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1212,11 +1240,11 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
         <v>1749</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1226,11 +1254,11 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1240,11 +1268,9 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1254,11 +1280,11 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
         <v>804</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1268,11 +1294,11 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>983</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1282,11 +1308,11 @@
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
         <v>1028</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1296,11 +1322,11 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>327.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1310,11 +1336,11 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>3125</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1324,11 +1350,11 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>1184.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1338,11 +1364,9 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1352,11 +1376,11 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>13470.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1366,11 +1390,11 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>16331.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1380,11 +1404,11 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
         <v>1095</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1394,11 +1418,11 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
         <v>1547</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -1408,11 +1432,11 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="5">
         <v>1215</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1422,11 +1446,11 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>16508.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1436,11 +1460,11 @@
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="5">
         <v>1589</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1450,11 +1474,11 @@
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>1480</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1464,11 +1488,11 @@
       <c r="C46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>2928.5</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
@@ -1478,11 +1502,11 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="5">
         <v>2130.6999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>95</v>
       </c>
@@ -1492,11 +1516,11 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>45</v>
       </c>
@@ -1506,11 +1530,11 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <v>5660</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
         <v>46</v>
       </c>
@@ -1520,11 +1544,11 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>305.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>47</v>
       </c>
@@ -1534,11 +1558,11 @@
       <c r="C51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <v>1393</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -1548,11 +1572,11 @@
       <c r="C52" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
         <v>48</v>
       </c>
@@ -1562,11 +1586,11 @@
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>1156.5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -1576,11 +1600,11 @@
       <c r="C54" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="5">
         <v>1233</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
@@ -1590,11 +1614,9 @@
       <c r="C55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
         <v>50</v>
       </c>
@@ -1604,11 +1626,11 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="5">
         <v>1503</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -1618,11 +1640,11 @@
       <c r="C57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="5">
         <v>2516</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>51</v>
       </c>
@@ -1632,11 +1654,11 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="5">
         <v>9482</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -1646,11 +1668,11 @@
       <c r="C59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="5">
         <v>7560</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>51</v>
       </c>
@@ -1660,11 +1682,11 @@
       <c r="C60" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="5">
         <v>15318</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>52</v>
       </c>
@@ -1674,11 +1696,11 @@
       <c r="C61" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="6">
         <v>223.7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>53</v>
       </c>
@@ -1688,11 +1710,11 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="6">
         <v>999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>76</v>
       </c>
@@ -1702,11 +1724,11 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="5">
         <v>5965</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
@@ -1716,11 +1738,11 @@
       <c r="C64" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="5">
         <v>1982</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>54</v>
       </c>
@@ -1730,11 +1752,11 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="5">
         <v>9914</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>55</v>
       </c>
@@ -1744,11 +1766,11 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="6">
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>56</v>
       </c>
@@ -1758,11 +1780,9 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>57</v>
       </c>
@@ -1772,11 +1792,11 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="5">
         <v>2972</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>77</v>
       </c>
@@ -1786,11 +1806,11 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="5">
         <v>2957</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>81</v>
       </c>
@@ -1800,11 +1820,11 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="5">
         <v>3496</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>78</v>
       </c>
@@ -1814,11 +1834,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="6">
         <v>986</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>79</v>
       </c>
@@ -1828,11 +1848,11 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="5">
         <v>1840</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>80</v>
       </c>
@@ -1842,11 +1862,11 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="6">
         <v>812</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>58</v>
       </c>
@@ -1856,11 +1876,11 @@
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="5">
         <v>2009.4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1870,11 +1890,11 @@
       <c r="C75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="5">
         <v>4321</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>59</v>
       </c>
@@ -1884,11 +1904,11 @@
       <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="5">
         <v>2229.5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
@@ -1898,11 +1918,11 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="6">
         <v>475</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -1912,11 +1932,11 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="5">
         <v>1511.8</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>61</v>
       </c>
@@ -1926,11 +1946,11 @@
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="5">
         <v>2849.8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>62</v>
       </c>
@@ -1940,11 +1960,11 @@
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="5">
         <v>2547</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
         <v>63</v>
       </c>
@@ -1954,11 +1974,11 @@
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="6">
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
@@ -1968,11 +1988,11 @@
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
         <v>580.79999999999995</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>85</v>
       </c>
@@ -1982,11 +2002,11 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="6">
         <v>396.2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
         <v>86</v>
       </c>
@@ -1996,11 +2016,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="6">
         <v>302</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>87</v>
       </c>
@@ -2010,11 +2030,11 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="6">
         <v>307</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>64</v>
       </c>
@@ -2024,11 +2044,11 @@
       <c r="C86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="5">
         <v>1750</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>65</v>
       </c>
@@ -2038,11 +2058,11 @@
       <c r="C87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="5">
         <v>1682</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>65</v>
       </c>
@@ -2052,11 +2072,11 @@
       <c r="C88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="6">
         <v>431</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
         <v>66</v>
       </c>
@@ -2066,11 +2086,11 @@
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="5">
         <v>1886</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
         <v>67</v>
       </c>
@@ -2080,11 +2100,11 @@
       <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="5">
         <v>1479</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
         <v>67</v>
       </c>
@@ -2094,11 +2114,11 @@
       <c r="C91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="5">
         <v>1993</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
         <v>68</v>
       </c>
@@ -2108,11 +2128,11 @@
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="6">
         <v>789</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>68</v>
       </c>
@@ -2122,11 +2142,11 @@
       <c r="C93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="5">
         <v>1874.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>69</v>
       </c>
@@ -2136,11 +2156,11 @@
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="5">
         <v>1695</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
         <v>69</v>
       </c>
@@ -2150,11 +2170,11 @@
       <c r="C95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="6">
         <v>986</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>71</v>
       </c>
@@ -2164,11 +2184,9 @@
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>70</v>
       </c>
@@ -2178,11 +2196,11 @@
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="5">
         <v>2998</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>88</v>
       </c>
@@ -2192,11 +2210,11 @@
       <c r="C98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="6">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
         <v>89</v>
       </c>
@@ -2206,11 +2224,11 @@
       <c r="C99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="6">
         <v>292.3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
         <v>90</v>
       </c>
@@ -2220,11 +2238,11 @@
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="6">
         <v>399</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>91</v>
       </c>
@@ -2234,11 +2252,11 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="6">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>92</v>
       </c>
@@ -2248,11 +2266,11 @@
       <c r="C102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="6">
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
         <v>93</v>
       </c>
@@ -2262,11 +2280,11 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="6">
         <v>212.3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
         <v>94</v>
       </c>
@@ -2276,11 +2294,11 @@
       <c r="C104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="6">
         <v>300.5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
         <v>72</v>
       </c>
@@ -2290,11 +2308,11 @@
       <c r="C105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="4">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="5">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>73</v>
       </c>
@@ -2304,12 +2322,12 @@
       <c r="C106" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="6">
         <v>596.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D106"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Ольха соплодия НФП</t>
+  </si>
+  <si>
+    <t>Пищевая продукция (моно), ф/п</t>
   </si>
 </sst>
 </file>
@@ -840,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D106"/>
+      <selection activeCell="A2" sqref="A2:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -854,7 +857,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -882,7 +885,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -896,7 +899,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -910,7 +913,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -924,7 +927,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -938,7 +941,7 @@
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -952,7 +955,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -966,7 +969,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -980,7 +983,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.95">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -994,7 +997,7 @@
         <v>7249</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1011,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.95">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>2634.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.95">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.95">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="5">
-        <v>3125</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1364,7 +1367,9 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="5">
+        <v>6714</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
@@ -1419,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="D41" s="5">
-        <v>1547</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1480,16 +1485,16 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2928.5</v>
+        <v>96</v>
+      </c>
+      <c r="D46" s="6">
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1497,18 +1502,18 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" s="5">
-        <v>2130.6999999999998</v>
+        <v>2928.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -1516,13 +1521,13 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6">
-        <v>299</v>
+      <c r="D48" s="5">
+        <v>2130.6999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1530,13 +1535,13 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
-        <v>5660</v>
+      <c r="D49" s="6">
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>4</v>
@@ -1544,22 +1549,22 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>305.5</v>
+      <c r="D50" s="5">
+        <v>5035</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1393</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="6">
+        <v>305.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1567,27 +1572,27 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="6">
-        <v>53</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1393</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1156.5</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="6">
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1595,30 +1600,32 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" s="5">
-        <v>1233</v>
+        <v>1156.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1233</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
@@ -1626,36 +1633,34 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="5">
-        <v>1503</v>
-      </c>
+      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" s="5">
-        <v>2516</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5">
-        <v>9482</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1663,13 +1668,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D59" s="5">
-        <v>7560</v>
+        <v>9482</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1677,46 +1682,46 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="5">
-        <v>15318</v>
+        <v>7560</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6">
-        <v>223.7</v>
+        <v>5</v>
+      </c>
+      <c r="D61" s="5">
+        <v>15318</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" s="6">
-        <v>999</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
@@ -1724,22 +1729,20 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="5">
-        <v>5965</v>
-      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="5">
-        <v>1982</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1747,18 +1750,18 @@
         <v>54</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="5">
-        <v>9914</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1766,13 +1769,13 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="6">
-        <v>405</v>
+      <c r="D66" s="5">
+        <v>9914</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1780,11 +1783,13 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="6">
+        <v>405</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1792,13 +1797,13 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
-        <v>2972</v>
+      <c r="D68" s="6">
+        <v>409.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1807,12 +1812,12 @@
         <v>6</v>
       </c>
       <c r="D69" s="5">
-        <v>2957</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1821,12 +1826,12 @@
         <v>6</v>
       </c>
       <c r="D70" s="5">
-        <v>3496</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1834,13 +1839,13 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="6">
-        <v>986</v>
+      <c r="D71" s="5">
+        <v>3496</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1848,13 +1853,13 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="5">
-        <v>1840</v>
+      <c r="D72" s="6">
+        <v>986</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1862,22 +1867,22 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="6">
-        <v>812</v>
+      <c r="D73" s="5">
+        <v>1840</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="5">
-        <v>2009.4</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="6">
+        <v>812</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1885,46 +1890,46 @@
         <v>58</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" s="5">
-        <v>4321</v>
+        <v>2009.4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="5">
-        <v>2229.5</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="6">
-        <v>475</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2229.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>2</v>
@@ -1932,13 +1937,13 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="5">
-        <v>1511.8</v>
+      <c r="D78" s="6">
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>4</v>
@@ -1947,54 +1952,54 @@
         <v>5</v>
       </c>
       <c r="D79" s="5">
-        <v>2849.8</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D80" s="5">
-        <v>2547</v>
+        <v>1511.8</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="6">
-        <v>363</v>
+        <v>5</v>
+      </c>
+      <c r="D81" s="5">
+        <v>2849.8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="6">
-        <v>580.79999999999995</v>
+        <v>3</v>
+      </c>
+      <c r="D82" s="5">
+        <v>7193.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2003,12 +2008,12 @@
         <v>8</v>
       </c>
       <c r="D83" s="6">
-        <v>396.2</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2017,12 +2022,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="6">
-        <v>302</v>
+        <v>580.79999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2031,54 +2036,54 @@
         <v>8</v>
       </c>
       <c r="D85" s="6">
-        <v>307</v>
+        <v>396.2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="5">
-        <v>1750</v>
+        <v>8</v>
+      </c>
+      <c r="D86" s="6">
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="5">
-        <v>1682</v>
+        <v>8</v>
+      </c>
+      <c r="D87" s="6">
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="6">
-        <v>431</v>
+      <c r="D88" s="5">
+        <v>1750</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>2</v>
@@ -2087,40 +2092,40 @@
         <v>3</v>
       </c>
       <c r="D89" s="5">
-        <v>1886</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="5">
-        <v>1479</v>
+        <v>5</v>
+      </c>
+      <c r="D90" s="6">
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="5">
-        <v>1993</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2128,13 +2133,13 @@
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="6">
-        <v>789</v>
+      <c r="D92" s="5">
+        <v>1479</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>4</v>
@@ -2143,12 +2148,12 @@
         <v>5</v>
       </c>
       <c r="D93" s="5">
-        <v>1874.5</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>2</v>
@@ -2156,13 +2161,13 @@
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="5">
-        <v>1695</v>
+      <c r="D94" s="6">
+        <v>789</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>4</v>
@@ -2170,16 +2175,16 @@
       <c r="C95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="6">
-        <v>986</v>
+      <c r="D95" s="5">
+        <v>1874.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>3</v>
@@ -2188,7 +2193,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2196,41 +2201,41 @@
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="5">
-        <v>2998</v>
+      <c r="D97" s="6">
+        <v>986</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="6">
-        <v>113</v>
+        <v>3</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1937</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="6">
-        <v>292.3</v>
+        <v>5</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2573</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2239,12 +2244,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="6">
-        <v>399</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2253,12 +2258,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="6">
-        <v>152</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2267,12 +2272,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="6">
-        <v>148</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2281,12 +2286,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="6">
-        <v>212.3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2295,34 +2300,62 @@
         <v>8</v>
       </c>
       <c r="D104" s="6">
-        <v>300.5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="5">
-        <v>5306</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="6">
+        <v>212.3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="6">
+        <v>300.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="5">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
         <v>596.4</v>
       </c>
     </row>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -881,8 +881,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
-        <v>1155</v>
+      <c r="D2" s="6">
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1480,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="5">
-        <v>1480</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="5">
-        <v>2928.5</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1592,7 +1592,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="6">
-        <v>53</v>
+        <v>899</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="5">
-        <v>15318</v>
+        <v>21793</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="5">
-        <v>2009.4</v>
+        <v>1009.4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1965,8 +1965,8 @@
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="5">
-        <v>1511.8</v>
+      <c r="D80" s="6">
+        <v>863</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2176,7 +2176,7 @@
         <v>5</v>
       </c>
       <c r="D95" s="5">
-        <v>1874.5</v>
+        <v>1305.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2230,7 +2230,7 @@
         <v>5</v>
       </c>
       <c r="D99" s="5">
-        <v>2573</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="100" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1271,7 +1271,9 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="5">
+        <v>1170</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
@@ -1674,7 +1676,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="5">
-        <v>9482</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1702,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="5">
-        <v>21793</v>
+        <v>17173</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1783,9 +1785,7 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="6">
-        <v>405</v>
-      </c>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
@@ -1867,8 +1867,8 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="5">
-        <v>1840</v>
+      <c r="D73" s="6">
+        <v>900</v>
       </c>
     </row>
     <row r="74" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5">
-        <v>2634.5</v>
+        <v>1709.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="5">
-        <v>2130.6999999999998</v>
+        <v>4142.7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1924,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="5">
-        <v>2229.5</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6098F7-667D-9341-A447-84FF17708DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
+    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -323,12 +324,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +343,7 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -358,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -366,27 +364,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -395,22 +377,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,14 +812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -857,7 +827,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -881,11 +851,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>754</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -895,11 +865,11 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -909,11 +879,11 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -923,11 +893,11 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -937,11 +907,11 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -951,11 +921,11 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -965,11 +935,11 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2481</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -979,11 +949,11 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -993,11 +963,11 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>7249</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1007,11 +977,11 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1021,11 +991,11 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1709.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1035,11 +1005,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1049,11 +1019,11 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>2716.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="22.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
@@ -1063,11 +1033,11 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22.5">
+      <c r="D15" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1077,11 +1047,9 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1091,11 +1059,11 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>1222</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1105,11 +1073,11 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1119,11 +1087,11 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>1590.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1133,11 +1101,11 @@
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>220.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1147,11 +1115,11 @@
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1161,11 +1129,11 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="4">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -1175,11 +1143,11 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1189,11 +1157,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>3806</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1203,11 +1171,11 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>814</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1217,11 +1185,11 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1231,9 +1199,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1243,11 +1211,11 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>1749</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1257,11 +1225,11 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1271,11 +1239,11 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>1170</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1285,11 +1253,11 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="4">
         <v>804</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1299,11 +1267,11 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="4">
         <v>983</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1313,11 +1281,11 @@
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>1028</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1327,11 +1295,11 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>327.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1341,11 +1309,11 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>2395</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1355,11 +1323,11 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="5">
-        <v>1184.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="4">
+        <v>921.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1369,11 +1337,11 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="4">
         <v>6714</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1383,11 +1351,11 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>13470.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1397,11 +1365,11 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>16331.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1411,11 +1379,11 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>1095</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1425,11 +1393,11 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>1147</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -1439,11 +1407,11 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>1215</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1453,11 +1421,11 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>16508.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1467,11 +1435,11 @@
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="4">
         <v>1589</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1481,11 +1449,11 @@
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>3080</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
@@ -1495,11 +1463,11 @@
       <c r="C46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
@@ -1509,11 +1477,11 @@
       <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="4">
         <v>4394</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
@@ -1523,11 +1491,11 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>4142.7</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>95</v>
       </c>
@@ -1537,11 +1505,11 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="4">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
@@ -1551,11 +1519,11 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>5035</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -1565,11 +1533,11 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="4">
         <v>305.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -1579,11 +1547,11 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>1393</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -1593,11 +1561,11 @@
       <c r="C53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -1607,11 +1575,11 @@
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="4">
         <v>1156.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -1621,11 +1589,11 @@
       <c r="C55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>1233</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -1635,9 +1603,9 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -1647,11 +1615,11 @@
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="5">
-        <v>1503</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D57" s="4">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
@@ -1661,11 +1629,11 @@
       <c r="C58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>2516</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -1675,11 +1643,11 @@
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>7961</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>51</v>
       </c>
@@ -1689,11 +1657,11 @@
       <c r="C60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>7560</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -1703,11 +1671,11 @@
       <c r="C61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="5">
-        <v>17173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="4">
+        <v>22078</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>52</v>
       </c>
@@ -1717,11 +1685,11 @@
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="4">
         <v>223.7</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>53</v>
       </c>
@@ -1731,9 +1699,9 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>76</v>
       </c>
@@ -1743,11 +1711,11 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>5965</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>54</v>
       </c>
@@ -1757,11 +1725,11 @@
       <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>1982</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>54</v>
       </c>
@@ -1771,11 +1739,11 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>9914</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
@@ -1785,9 +1753,9 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
@@ -1797,11 +1765,11 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="4">
         <v>409.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>57</v>
       </c>
@@ -1811,11 +1779,11 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>2972</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>77</v>
       </c>
@@ -1825,11 +1793,9 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="5">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>81</v>
       </c>
@@ -1839,11 +1805,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="5">
-        <v>3496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="4">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -1853,11 +1819,11 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="4">
         <v>986</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
@@ -1867,11 +1833,11 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
@@ -1881,11 +1847,11 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="4">
         <v>812</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1895,11 +1861,11 @@
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>1009.4</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -1909,11 +1875,11 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>4321</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>59</v>
       </c>
@@ -1923,11 +1889,11 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>1166</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>60</v>
       </c>
@@ -1937,11 +1903,11 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="4">
         <v>525</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>60</v>
       </c>
@@ -1951,11 +1917,11 @@
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>1067</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>61</v>
       </c>
@@ -1965,11 +1931,11 @@
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="4">
         <v>863</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>61</v>
       </c>
@@ -1979,11 +1945,11 @@
       <c r="C81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="4">
         <v>2849.8</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
@@ -1993,11 +1959,11 @@
       <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>7193.5</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>63</v>
       </c>
@@ -2007,11 +1973,11 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="4">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
@@ -2021,11 +1987,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="4">
         <v>580.79999999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -2035,11 +2001,11 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="4">
         <v>396.2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
@@ -2049,11 +2015,11 @@
       <c r="C86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="4">
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>87</v>
       </c>
@@ -2063,11 +2029,11 @@
       <c r="C87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="4">
         <v>307</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>64</v>
       </c>
@@ -2077,11 +2043,11 @@
       <c r="C88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="4">
         <v>1750</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>65</v>
       </c>
@@ -2091,11 +2057,11 @@
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="4">
         <v>1682</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>65</v>
       </c>
@@ -2105,11 +2071,11 @@
       <c r="C90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="4">
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>66</v>
       </c>
@@ -2119,11 +2085,11 @@
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="4">
         <v>1886</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>67</v>
       </c>
@@ -2133,11 +2099,11 @@
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="5">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="D92" s="4">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>67</v>
       </c>
@@ -2147,11 +2113,11 @@
       <c r="C93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>1993</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>68</v>
       </c>
@@ -2161,11 +2127,11 @@
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="4">
         <v>789</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>68</v>
       </c>
@@ -2175,11 +2141,11 @@
       <c r="C95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>1305.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>69</v>
       </c>
@@ -2189,9 +2155,9 @@
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="7"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>69</v>
       </c>
@@ -2201,11 +2167,11 @@
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="4">
         <v>986</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>71</v>
       </c>
@@ -2215,11 +2181,11 @@
       <c r="C98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D98" s="4">
         <v>1937</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>70</v>
       </c>
@@ -2229,11 +2195,11 @@
       <c r="C99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>1748</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>88</v>
       </c>
@@ -2243,11 +2209,9 @@
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>89</v>
       </c>
@@ -2257,11 +2221,11 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="4">
         <v>292.3</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
         <v>90</v>
       </c>
@@ -2271,11 +2235,11 @@
       <c r="C102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="4">
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
         <v>91</v>
       </c>
@@ -2285,11 +2249,11 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="4">
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
         <v>92</v>
       </c>
@@ -2299,11 +2263,11 @@
       <c r="C104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="6">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="D104" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>93</v>
       </c>
@@ -2313,11 +2277,11 @@
       <c r="C105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="4">
         <v>212.3</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>94</v>
       </c>
@@ -2327,11 +2291,11 @@
       <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="4">
         <v>300.5</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>72</v>
       </c>
@@ -2341,11 +2305,11 @@
       <c r="C107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>5306</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>73</v>
       </c>
@@ -2355,12 +2319,12 @@
       <c r="C108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="4">
         <v>596.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D106"/>
+  <autoFilter ref="A1:D106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6098F7-667D-9341-A447-84FF17708DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="920" windowWidth="28240" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="915" windowWidth="28245" windowHeight="17235"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -324,8 +323,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,7 +346,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -356,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -364,11 +366,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -377,10 +395,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_Лист1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,7 +438,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -456,7 +486,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -812,14 +842,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
@@ -827,7 +857,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.95">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -851,11 +881,11 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>754</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.95">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -865,11 +895,11 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.95">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -879,11 +909,11 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.95">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -893,11 +923,11 @@
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.95">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -907,11 +937,11 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.95">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -921,11 +951,11 @@
       <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.95">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -935,11 +965,11 @@
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>2481</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.95">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -949,11 +979,11 @@
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.95">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -963,11 +993,11 @@
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>7249</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.95">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -977,11 +1007,11 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="15.95">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -991,11 +1021,11 @@
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>1709.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="15.95">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1005,11 +1035,11 @@
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="15.95">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1019,11 +1049,11 @@
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>2716.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="4" t="s">
         <v>82</v>
       </c>
@@ -1033,11 +1063,11 @@
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="22.5">
       <c r="A16" s="4" t="s">
         <v>83</v>
       </c>
@@ -1047,9 +1077,9 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1059,11 +1089,11 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>1222</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -1073,11 +1103,11 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>1410</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
@@ -1087,11 +1117,11 @@
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>1590.4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1101,11 +1131,11 @@
       <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>220.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1115,11 +1145,11 @@
       <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1129,11 +1159,11 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -1143,11 +1173,11 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -1157,11 +1187,11 @@
       <c r="C24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>3806</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1171,11 +1201,11 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>814</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -1185,11 +1215,11 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
         <v>785</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -1199,9 +1229,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1211,11 +1241,11 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>1749</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1225,11 +1255,11 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1239,11 +1269,11 @@
       <c r="C30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>1170</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
@@ -1253,11 +1283,11 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>804</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>34</v>
       </c>
@@ -1267,11 +1297,11 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>983</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1281,11 +1311,11 @@
       <c r="C33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>1028</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1295,11 +1325,11 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>327.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1309,11 +1339,11 @@
       <c r="C35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>2395</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>37</v>
       </c>
@@ -1323,11 +1353,11 @@
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>921.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>38</v>
       </c>
@@ -1337,11 +1367,11 @@
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>6714</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>39</v>
       </c>
@@ -1351,11 +1381,11 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>13470.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -1365,11 +1395,11 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>16331.1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>40</v>
       </c>
@@ -1379,11 +1409,11 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>1095</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1393,11 +1423,11 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>1147</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
         <v>75</v>
       </c>
@@ -1407,11 +1437,11 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>1215</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1421,11 +1451,11 @@
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>16508.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
         <v>43</v>
       </c>
@@ -1435,11 +1465,11 @@
       <c r="C44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>1589</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1449,11 +1479,11 @@
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>3080</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
@@ -1463,11 +1493,11 @@
       <c r="C46" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>44</v>
       </c>
@@ -1477,11 +1507,11 @@
       <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="6">
         <v>4394</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>44</v>
       </c>
@@ -1491,11 +1521,11 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="6">
         <v>4142.7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>95</v>
       </c>
@@ -1505,11 +1535,11 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="5">
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
         <v>45</v>
       </c>
@@ -1519,11 +1549,11 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="6">
         <v>5035</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
         <v>46</v>
       </c>
@@ -1533,11 +1563,11 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="5">
         <v>305.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
         <v>47</v>
       </c>
@@ -1547,11 +1577,11 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="6">
         <v>1393</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -1561,11 +1591,11 @@
       <c r="C53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="5">
         <v>899</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -1575,11 +1605,11 @@
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="6">
         <v>1156.5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
         <v>48</v>
       </c>
@@ -1589,11 +1619,11 @@
       <c r="C55" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="6">
         <v>1233</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
         <v>49</v>
       </c>
@@ -1603,9 +1633,9 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
         <v>50</v>
       </c>
@@ -1615,11 +1645,11 @@
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="6">
         <v>1007</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
         <v>50</v>
       </c>
@@ -1629,11 +1659,11 @@
       <c r="C58" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="6">
         <v>2516</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -1643,11 +1673,11 @@
       <c r="C59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="6">
         <v>7961</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
         <v>51</v>
       </c>
@@ -1657,11 +1687,11 @@
       <c r="C60" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="6">
         <v>7560</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -1671,11 +1701,11 @@
       <c r="C61" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="6">
         <v>22078</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
         <v>52</v>
       </c>
@@ -1685,11 +1715,11 @@
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="5">
         <v>223.7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>53</v>
       </c>
@@ -1699,9 +1729,9 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
         <v>76</v>
       </c>
@@ -1711,11 +1741,11 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="6">
         <v>5965</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>54</v>
       </c>
@@ -1725,11 +1755,11 @@
       <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="6">
         <v>1982</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>54</v>
       </c>
@@ -1739,11 +1769,11 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="6">
         <v>9914</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>55</v>
       </c>
@@ -1753,9 +1783,9 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
         <v>56</v>
       </c>
@@ -1765,11 +1795,11 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="5">
         <v>409.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
         <v>57</v>
       </c>
@@ -1779,11 +1809,11 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="6">
         <v>2972</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
         <v>77</v>
       </c>
@@ -1793,9 +1823,9 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
         <v>81</v>
       </c>
@@ -1805,11 +1835,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="6">
         <v>1996</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -1819,11 +1849,11 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="5">
         <v>986</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
@@ -1833,11 +1863,11 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
@@ -1847,11 +1877,11 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="5">
         <v>812</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
         <v>58</v>
       </c>
@@ -1861,11 +1891,11 @@
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="6">
         <v>1009.4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>58</v>
       </c>
@@ -1875,11 +1905,11 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="6">
         <v>4321</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>59</v>
       </c>
@@ -1889,11 +1919,11 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="6">
         <v>1166</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
         <v>60</v>
       </c>
@@ -1903,11 +1933,11 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="5">
         <v>525</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
         <v>60</v>
       </c>
@@ -1917,11 +1947,11 @@
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="6">
         <v>1067</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
         <v>61</v>
       </c>
@@ -1931,11 +1961,11 @@
       <c r="C80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="5">
         <v>863</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
         <v>61</v>
       </c>
@@ -1945,11 +1975,11 @@
       <c r="C81" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="6">
         <v>2849.8</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
@@ -1959,11 +1989,11 @@
       <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
         <v>7193.5</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
         <v>63</v>
       </c>
@@ -1973,11 +2003,11 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="5">
         <v>363</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
         <v>84</v>
       </c>
@@ -1987,11 +2017,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="5">
         <v>580.79999999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>85</v>
       </c>
@@ -2001,11 +2031,11 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="5">
         <v>396.2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>86</v>
       </c>
@@ -2015,11 +2045,11 @@
       <c r="C86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="5">
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
         <v>87</v>
       </c>
@@ -2029,11 +2059,11 @@
       <c r="C87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="5">
         <v>307</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
         <v>64</v>
       </c>
@@ -2043,11 +2073,11 @@
       <c r="C88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="6">
         <v>1750</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
         <v>65</v>
       </c>
@@ -2057,11 +2087,11 @@
       <c r="C89" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="6">
         <v>1682</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
         <v>65</v>
       </c>
@@ -2071,11 +2101,11 @@
       <c r="C90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="5">
         <v>431</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
         <v>66</v>
       </c>
@@ -2085,11 +2115,11 @@
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="6">
         <v>1886</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
         <v>67</v>
       </c>
@@ -2099,11 +2129,11 @@
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="5">
         <v>956</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
         <v>67</v>
       </c>
@@ -2113,11 +2143,11 @@
       <c r="C93" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="6">
         <v>1993</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>68</v>
       </c>
@@ -2127,11 +2157,11 @@
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="5">
         <v>789</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
         <v>68</v>
       </c>
@@ -2141,11 +2171,11 @@
       <c r="C95" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="6">
         <v>1305.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
         <v>69</v>
       </c>
@@ -2155,9 +2185,9 @@
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
         <v>69</v>
       </c>
@@ -2167,11 +2197,11 @@
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="5">
         <v>986</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
         <v>71</v>
       </c>
@@ -2181,11 +2211,11 @@
       <c r="C98" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="6">
         <v>1937</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
         <v>70</v>
       </c>
@@ -2195,11 +2225,11 @@
       <c r="C99" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="6">
         <v>1748</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
         <v>88</v>
       </c>
@@ -2209,9 +2239,9 @@
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
         <v>89</v>
       </c>
@@ -2221,11 +2251,11 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="5">
         <v>292.3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
         <v>90</v>
       </c>
@@ -2235,11 +2265,11 @@
       <c r="C102" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="5">
         <v>399</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
         <v>91</v>
       </c>
@@ -2249,11 +2279,11 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="5">
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
         <v>92</v>
       </c>
@@ -2263,11 +2293,11 @@
       <c r="C104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
         <v>93</v>
       </c>
@@ -2277,11 +2307,11 @@
       <c r="C105" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="5">
         <v>212.3</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>94</v>
       </c>
@@ -2291,11 +2321,11 @@
       <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="5">
         <v>300.5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>72</v>
       </c>
@@ -2305,11 +2335,11 @@
       <c r="C107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="6">
         <v>5306</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
         <v>73</v>
       </c>
@@ -2319,12 +2349,12 @@
       <c r="C108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="5">
         <v>596.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D106"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -857,7 +857,7 @@
     <col min="4" max="4" width="9.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -885,7 +885,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -913,7 +913,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95">
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -927,7 +927,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -941,7 +941,7 @@
         <v>237.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95">
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -955,7 +955,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95">
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -969,7 +969,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.95">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -997,7 +997,7 @@
         <v>7249</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95">
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.95">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1709.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.95">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.95">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="D25" s="5">
-        <v>814</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1216,7 +1216,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="5">
-        <v>785</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1508,7 +1508,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="6">
-        <v>4394</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1536,7 +1536,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="5">
-        <v>299</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1577,8 +1577,8 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="6">
-        <v>1393</v>
+      <c r="D52" s="5">
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1633,7 +1633,9 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="6">
+        <v>2803</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
@@ -2101,8 +2103,8 @@
       <c r="C90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="5">
-        <v>431</v>
+      <c r="D90" s="6">
+        <v>1327.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2157,8 +2159,8 @@
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="5">
-        <v>789</v>
+      <c r="D94" s="6">
+        <v>2115</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -910,7 +910,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6">
-        <v>1027</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5">
-        <v>237.6</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -952,7 +952,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>2684</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1437,8 +1437,8 @@
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="6">
-        <v>1215</v>
+      <c r="D42" s="5">
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="6">
-        <v>1589</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1564,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="5">
-        <v>305.5</v>
+        <v>151.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="6">
-        <v>2516</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1731,7 +1731,9 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="5">
+        <v>985</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
@@ -1812,7 +1814,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>2972</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1978,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>2849.8</v>
+        <v>2324.8000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2034,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>396.2</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2090,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="6">
-        <v>1682</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2103,8 +2105,8 @@
       <c r="C90" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="6">
-        <v>1327.5</v>
+      <c r="D90" s="5">
+        <v>896.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2199,8 +2201,8 @@
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="5">
-        <v>986</v>
+      <c r="D97" s="6">
+        <v>2227</v>
       </c>
     </row>
     <row r="98" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1007,8 +1007,8 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
-        <v>1044</v>
+      <c r="D11" s="5">
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="6">
-        <v>3806</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1201,8 +1201,8 @@
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="5">
-        <v>489</v>
+      <c r="D25" s="6">
+        <v>1497</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="5">
-        <v>804</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="6">
-        <v>1060</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1910,7 +1910,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="6">
-        <v>4321</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>1750</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2148,7 +2148,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>1993</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2189,7 +2189,9 @@
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="6">
+        <v>1962</v>
+      </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
@@ -2354,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="5">
-        <v>596.4</v>
+        <v>297.39999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="96">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>Ольха соплодия НФП</t>
-  </si>
-  <si>
-    <t>Пищевая продукция (моно), ф/п</t>
   </si>
 </sst>
 </file>
@@ -846,7 +843,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D108"/>
+      <selection activeCell="A2" sqref="A2:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -994,7 +991,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="6">
-        <v>7249</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1229,7 +1226,9 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="6">
+        <v>1091</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -1283,8 +1282,8 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="5">
-        <v>424</v>
+      <c r="D31" s="6">
+        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1325,8 +1324,8 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
-        <v>327.5</v>
+      <c r="D34" s="6">
+        <v>1508.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1409,8 +1408,8 @@
       <c r="C40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="6">
-        <v>1095</v>
+      <c r="D40" s="5">
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1423,8 +1422,8 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6">
-        <v>1147</v>
+      <c r="D41" s="5">
+        <v>747</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1485,16 +1484,16 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="5">
-        <v>316</v>
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3658</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1502,18 +1501,18 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6">
-        <v>3658</v>
+        <v>4142.7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -1521,13 +1520,13 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6">
-        <v>4142.7</v>
+      <c r="D48" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1535,13 +1534,13 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
-        <v>149</v>
+      <c r="D49" s="6">
+        <v>5035</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>4</v>
@@ -1549,22 +1548,22 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>5035</v>
+      <c r="D50" s="5">
+        <v>151.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" s="5">
-        <v>151.5</v>
+        <v>683</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1572,27 +1571,27 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" s="5">
-        <v>683</v>
+        <v>899</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5">
-        <v>899</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1156.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1600,32 +1599,32 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="6">
-        <v>1156.5</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>1233</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
@@ -1634,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="6">
-        <v>2803</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1642,27 +1641,27 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" s="6">
-        <v>1007</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>2044</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1670,13 +1669,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>7961</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1684,46 +1683,46 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>7560</v>
+        <v>26015</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6">
-        <v>22078</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="5">
+        <v>223.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62" s="5">
-        <v>223.7</v>
+        <v>985</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
@@ -1731,22 +1730,22 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="5">
-        <v>985</v>
+      <c r="D63" s="6">
+        <v>3965</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="6">
-        <v>5965</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1754,18 +1753,18 @@
         <v>54</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="6">
-        <v>1982</v>
+        <v>9914</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1773,13 +1772,11 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="6">
-        <v>9914</v>
-      </c>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1791,7 +1788,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1799,13 +1796,13 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
-        <v>409.5</v>
+      <c r="D68" s="6">
+        <v>1972</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1813,13 +1810,11 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="6">
-        <v>1972</v>
-      </c>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1827,11 +1822,13 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="6">
+        <v>1996</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1839,13 +1836,13 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="6">
-        <v>1996</v>
+      <c r="D71" s="5">
+        <v>986</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1854,12 +1851,12 @@
         <v>6</v>
       </c>
       <c r="D72" s="5">
-        <v>986</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1868,21 +1865,21 @@
         <v>6</v>
       </c>
       <c r="D73" s="5">
-        <v>900</v>
+        <v>812</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="5">
-        <v>812</v>
+        <v>3</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1009.4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1890,32 +1887,32 @@
         <v>58</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" s="6">
-        <v>1009.4</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6">
-        <v>4171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>2</v>
@@ -1923,8 +1920,8 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="6">
-        <v>1166</v>
+      <c r="D77" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1932,27 +1929,25 @@
         <v>60</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="5">
-        <v>525</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1067</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="5">
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1960,46 +1955,46 @@
         <v>61</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="5">
-        <v>863</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2324.8000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>2324.8000000000002</v>
+        <v>7193.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="6">
-        <v>7193.5</v>
+        <v>8</v>
+      </c>
+      <c r="D82" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2008,12 +2003,12 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>363</v>
+        <v>580.79999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2022,12 +2017,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>580.79999999999995</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2036,12 +2031,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>196.2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2050,35 +2045,35 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1400</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>1400</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2086,32 +2081,32 @@
         <v>65</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>1138</v>
+        <v>1840.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="5">
-        <v>896.5</v>
+        <v>3</v>
+      </c>
+      <c r="D90" s="6">
+        <v>2800</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>2</v>
@@ -2119,8 +2114,8 @@
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="6">
-        <v>1886</v>
+      <c r="D91" s="5">
+        <v>956</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2128,27 +2123,27 @@
         <v>67</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="5">
-        <v>956</v>
+        <v>5</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1197</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>1197</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2156,27 +2151,27 @@
         <v>68</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>2115</v>
+        <v>1305.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>1305.5</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2184,60 +2179,58 @@
         <v>69</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6">
-        <v>1962</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="6">
-        <v>2227</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6">
-        <v>1937</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1748</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2245,11 +2238,13 @@
       <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="5">
+        <v>292.3</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2258,12 +2253,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>292.3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2272,12 +2267,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>399</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2286,12 +2281,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>152</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2300,12 +2295,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>73</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2314,26 +2309,26 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>212.3</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="5">
-        <v>300.5</v>
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>5306</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>2</v>
@@ -2341,23 +2336,15 @@
       <c r="C107" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="6">
-        <v>5306</v>
+      <c r="D107" s="5">
+        <v>297.39999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="5">
-        <v>297.39999999999998</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1004,8 +1004,8 @@
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="5">
-        <v>544</v>
+      <c r="D11" s="6">
+        <v>2089</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1033,7 +1033,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>1932</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1535,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="6">
-        <v>5035</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1934,7 +1934,9 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="7"/>
+      <c r="D78" s="6">
+        <v>1067</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
@@ -2003,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>580.79999999999995</v>
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2280,9 +2282,7 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="5">
-        <v>73</v>
-      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
@@ -2309,7 +2309,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>300.5</v>
+        <v>200.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1605,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="6">
-        <v>1233</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1647,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="6">
-        <v>2044</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2116,8 +2116,8 @@
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="5">
-        <v>956</v>
+      <c r="D91" s="6">
+        <v>2046.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2228,7 +2228,9 @@
       <c r="C99" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="5">
+        <v>210.3</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1019,7 +1019,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="6">
-        <v>1709.5</v>
+        <v>4831.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1381,7 +1381,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>13470.5</v>
+        <v>13270.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1422,8 +1422,8 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="5">
-        <v>747</v>
+      <c r="D41" s="6">
+        <v>2331.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1689,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>26015</v>
+        <v>32641</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1810,7 +1810,9 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="6">
+        <v>1557</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
@@ -1823,7 +1825,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="6">
-        <v>1996</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1879,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="6">
-        <v>1009.4</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1893,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="6">
-        <v>4171</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="76" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -194,12 +194,6 @@
     <t>Сбор Грудной №4 НФП</t>
   </si>
   <si>
-    <t>Сбор Желудочный №3 НФП</t>
-  </si>
-  <si>
-    <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
   </si>
   <si>
@@ -278,9 +272,6 @@
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
   </si>
   <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
-  </si>
-  <si>
     <t>Фиточай "Фитосбор №1" НФП</t>
   </si>
   <si>
@@ -303,9 +294,6 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай кардиологический НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай очищающий НФП</t>
   </si>
   <si>
     <t>Щедрость природы Фиточай при простуде НФП</t>
@@ -843,7 +831,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D107"/>
+      <selection activeCell="A2" sqref="A2:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1052,7 +1040,7 @@
     </row>
     <row r="15" spans="1:4" ht="22.5">
       <c r="A15" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
@@ -1064,21 +1052,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="22.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1222</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>2</v>
@@ -1087,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>1222</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1095,32 +1085,32 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6">
-        <v>1410</v>
+        <v>1590.4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1590.4</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="5">
+        <v>220.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -1129,12 +1119,12 @@
         <v>8</v>
       </c>
       <c r="D20" s="5">
-        <v>220.5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
@@ -1143,12 +1133,12 @@
         <v>8</v>
       </c>
       <c r="D21" s="5">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1157,21 +1147,21 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5">
-        <v>145</v>
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1531</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1179,41 +1169,41 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6">
-        <v>1531</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="6">
-        <v>1497</v>
+      <c r="D25" s="5">
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5">
-        <v>410</v>
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1091</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1221,41 +1211,41 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6">
-        <v>1091</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="6">
-        <v>1749</v>
+      <c r="D28" s="5">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>168</v>
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1263,41 +1253,41 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6">
-        <v>1170</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6">
-        <v>1154</v>
+      <c r="D31" s="5">
+        <v>983</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5">
-        <v>983</v>
+        <v>3</v>
+      </c>
+      <c r="D32" s="6">
+        <v>2073</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1305,69 +1295,69 @@
         <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" s="6">
-        <v>1028</v>
+        <v>1508.5</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="6">
-        <v>1508.5</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="6">
-        <v>2395</v>
+        <v>5</v>
+      </c>
+      <c r="D35" s="5">
+        <v>921.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="5">
-        <v>921.5</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>6714</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>6714</v>
+        <v>13270.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1375,74 +1365,74 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
-        <v>13270.5</v>
+        <v>16331.1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="6">
-        <v>16331.1</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5">
-        <v>555</v>
+        <v>5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>2331.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="6">
-        <v>2331.5</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="5">
-        <v>615</v>
+      <c r="D42" s="6">
+        <v>16508.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>2</v>
@@ -1451,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>16508.5</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1459,27 +1449,27 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6">
-        <v>2185</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>3080</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1487,18 +1477,18 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" s="6">
-        <v>3658</v>
+        <v>4142.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>4</v>
@@ -1506,13 +1496,13 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="6">
-        <v>4142.7</v>
+      <c r="D47" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -1520,13 +1510,13 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="5">
-        <v>149</v>
+      <c r="D48" s="6">
+        <v>4247</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1534,22 +1524,22 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
-        <v>4247</v>
+      <c r="D49" s="5">
+        <v>151.5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" s="5">
-        <v>151.5</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1557,27 +1547,27 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" s="5">
-        <v>683</v>
+        <v>899</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5">
-        <v>899</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1156.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1585,32 +1575,32 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" s="6">
-        <v>1156.5</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" s="6">
-        <v>2572</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>2</v>
@@ -1619,7 +1609,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>2803</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1627,27 +1617,27 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" s="6">
-        <v>1007</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>1944</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1655,13 +1645,13 @@
         <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58" s="6">
-        <v>7961</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1669,46 +1659,46 @@
         <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>4500</v>
+        <v>32641</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6">
-        <v>32641</v>
+        <v>3</v>
+      </c>
+      <c r="D60" s="5">
+        <v>223.7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D61" s="5">
-        <v>223.7</v>
+        <v>985</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>4</v>
@@ -1716,22 +1706,22 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="5">
-        <v>985</v>
+      <c r="D62" s="6">
+        <v>3965</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D63" s="6">
-        <v>3965</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1739,18 +1729,18 @@
         <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="6">
-        <v>1982</v>
+        <v>9914</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>4</v>
@@ -1759,12 +1749,12 @@
         <v>6</v>
       </c>
       <c r="D65" s="6">
-        <v>9914</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1772,11 +1762,13 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="6">
+        <v>1557</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1784,11 +1776,13 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1796,8 +1790,8 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="6">
-        <v>1972</v>
+      <c r="D68" s="5">
+        <v>986</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1810,13 +1804,13 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="6">
-        <v>1557</v>
+      <c r="D69" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1824,50 +1818,50 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="6">
-        <v>5966</v>
+      <c r="D70" s="5">
+        <v>812</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="5">
-        <v>986</v>
+        <v>3</v>
+      </c>
+      <c r="D71" s="6">
+        <v>4058.4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="5">
-        <v>900</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="6">
+        <v>6906</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="5">
-        <v>812</v>
+        <v>3</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1880,8 +1874,8 @@
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="6">
-        <v>4058.4</v>
+      <c r="D74" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1895,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="D75" s="6">
-        <v>6906</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1908,22 +1902,22 @@
       <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="6">
-        <v>1166</v>
+      <c r="D76" s="5">
+        <v>863</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5">
-        <v>525</v>
+        <v>5</v>
+      </c>
+      <c r="D77" s="6">
+        <v>2324.8000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1931,13 +1925,13 @@
         <v>60</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" s="6">
-        <v>1067</v>
+        <v>7193.5</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1945,46 +1939,44 @@
         <v>61</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D79" s="5">
-        <v>863</v>
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="6">
-        <v>2324.8000000000002</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="6">
-        <v>7193.5</v>
+        <v>8</v>
+      </c>
+      <c r="D81" s="5">
+        <v>196.2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
@@ -1993,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="5">
-        <v>363</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2007,49 +1999,49 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>874</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="5">
-        <v>196.2</v>
+        <v>5</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1400</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="5">
-        <v>302</v>
+        <v>3</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1729.3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2057,13 +2049,13 @@
         <v>64</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>1400</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2077,7 +2069,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>1138</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2085,13 +2077,13 @@
         <v>65</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>1840.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2105,21 +2097,21 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>2800</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>2046.5</v>
+        <v>1305.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2127,97 +2119,97 @@
         <v>67</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1197</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>2115</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>1305.5</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>1962</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="6">
-        <v>2227</v>
+        <v>8</v>
+      </c>
+      <c r="D96" s="5">
+        <v>210.3</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1937</v>
+        <v>8</v>
+      </c>
+      <c r="D97" s="5">
+        <v>292.3</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1748</v>
+        <v>8</v>
+      </c>
+      <c r="D98" s="5">
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2231,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="5">
-        <v>210.3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2245,7 +2237,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>292.3</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2259,90 +2251,60 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>399</v>
+        <v>200.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="5">
-        <v>152</v>
+        <v>3</v>
+      </c>
+      <c r="D102" s="6">
+        <v>5306</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D103" s="5">
+        <v>297.39999999999998</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="5">
-        <v>212.3</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="5">
-        <v>200.5</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
-        <v>5306</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="5">
-        <v>297.39999999999998</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -951,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>2481</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1399,7 +1399,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>2331.5</v>
+        <v>2260.4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1441,7 +1441,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>2185</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1483,7 +1483,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="6">
-        <v>4142.7</v>
+        <v>3812.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="6">
-        <v>4247</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1637,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>7961</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1665,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>32641</v>
+        <v>32622.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1790,9 +1790,7 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
-        <v>986</v>
-      </c>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
@@ -1819,7 +1817,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="5">
-        <v>812</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="93">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -303,6 +303,9 @@
   </si>
   <si>
     <t>Ольха соплодия НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D103"/>
+      <selection activeCell="A2" sqref="A2:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1511,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="6">
-        <v>3622</v>
+        <v>6344</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1754,21 +1757,21 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="6">
-        <v>1557</v>
+        <v>7</v>
+      </c>
+      <c r="D66" s="5">
+        <v>355.5</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1777,12 +1780,12 @@
         <v>6</v>
       </c>
       <c r="D67" s="6">
-        <v>3970</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1790,11 +1793,13 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1802,13 +1807,11 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="5">
-        <v>900</v>
-      </c>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1817,21 +1820,21 @@
         <v>6</v>
       </c>
       <c r="D70" s="5">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6">
-        <v>4058.4</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1839,32 +1842,32 @@
         <v>56</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" s="6">
-        <v>6906</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" s="6">
-        <v>1166</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>2</v>
@@ -1872,8 +1875,8 @@
       <c r="C74" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D74" s="5">
-        <v>525</v>
+      <c r="D74" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1881,27 +1884,27 @@
         <v>58</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="6">
-        <v>1067</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="5">
-        <v>863</v>
+        <v>5</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1944</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1909,46 +1912,46 @@
         <v>59</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="6">
-        <v>2324.8000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="5">
+        <v>863</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="6">
-        <v>7193.5</v>
+        <v>2324.8000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="6">
+        <v>7193.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>4</v>
@@ -1956,11 +1959,13 @@
       <c r="C80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="5">
+        <v>363</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>4</v>
@@ -1968,13 +1973,11 @@
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="5">
-        <v>196.2</v>
-      </c>
+      <c r="D81" s="7"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
@@ -1983,12 +1986,12 @@
         <v>8</v>
       </c>
       <c r="D82" s="5">
-        <v>302</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -1997,35 +2000,35 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="6">
-        <v>1400</v>
+        <v>8</v>
+      </c>
+      <c r="D84" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" s="6">
-        <v>1138</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2033,32 +2036,32 @@
         <v>63</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>2400</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>2</v>
@@ -2067,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>2046.5</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2075,27 +2078,27 @@
         <v>65</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" s="6">
-        <v>1197</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>1326</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2103,27 +2106,27 @@
         <v>66</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>1305.5</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="6">
-        <v>1962</v>
+        <v>1305.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2131,60 +2134,60 @@
         <v>67</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>1748</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="5">
-        <v>210.3</v>
+        <v>5</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1748</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2193,12 +2196,12 @@
         <v>8</v>
       </c>
       <c r="D97" s="5">
-        <v>292.3</v>
+        <v>210.3</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2207,12 +2210,12 @@
         <v>8</v>
       </c>
       <c r="D98" s="5">
-        <v>399</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2221,12 +2224,12 @@
         <v>8</v>
       </c>
       <c r="D99" s="5">
-        <v>152</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2235,12 +2238,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>212.3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2249,42 +2252,50 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>200.5</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="6">
-        <v>5306</v>
+        <v>8</v>
+      </c>
+      <c r="D102" s="5">
+        <v>200.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="6">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="5">
+      <c r="B104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="5">
         <v>297.39999999999998</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="5"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="94">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D104"/>
+      <selection activeCell="A2" sqref="A2:D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -954,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>1802</v>
+        <v>3563.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1080,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>1410</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1094,7 +1097,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="6">
-        <v>1590.4</v>
+        <v>2501.4</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1220,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="D27" s="6">
-        <v>1749</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1247,8 +1250,8 @@
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
-        <v>1170</v>
+      <c r="D29" s="5">
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1415,8 +1418,8 @@
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="5">
-        <v>615</v>
+      <c r="D41" s="6">
+        <v>1759</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1514,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="6">
-        <v>6344</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1541,8 +1544,8 @@
       <c r="C50" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="5">
-        <v>683</v>
+      <c r="D50" s="6">
+        <v>2496</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1569,8 +1572,8 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="6">
-        <v>1156.5</v>
+      <c r="D52" s="5">
+        <v>576.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1743,7 +1746,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>4</v>
@@ -1751,41 +1754,41 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="6">
-        <v>1972</v>
+      <c r="D65" s="5">
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5">
-        <v>355.5</v>
+        <v>6</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1972</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="6">
-        <v>1557</v>
+        <v>7</v>
+      </c>
+      <c r="D67" s="5">
+        <v>355.5</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1794,12 +1797,12 @@
         <v>6</v>
       </c>
       <c r="D68" s="6">
-        <v>3970</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1807,11 +1810,13 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1819,13 +1824,11 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="5">
-        <v>900</v>
-      </c>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1834,21 +1837,21 @@
         <v>6</v>
       </c>
       <c r="D71" s="5">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="6">
-        <v>4058.4</v>
+        <v>6</v>
+      </c>
+      <c r="D72" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1856,32 +1859,32 @@
         <v>56</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" s="6">
-        <v>6906</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" s="6">
-        <v>1166</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>2</v>
@@ -1889,8 +1892,8 @@
       <c r="C75" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D75" s="5">
-        <v>525</v>
+      <c r="D75" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1898,27 +1901,27 @@
         <v>58</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6">
-        <v>1944</v>
+        <v>3</v>
+      </c>
+      <c r="D76" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="5">
-        <v>863</v>
+        <v>5</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1926,46 +1929,46 @@
         <v>59</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="6">
-        <v>2324.8000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="D78" s="5">
+        <v>863</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" s="6">
-        <v>7193.5</v>
+        <v>2324.8000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="6">
+        <v>7193.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>4</v>
@@ -1973,11 +1976,13 @@
       <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="7"/>
+      <c r="D81" s="5">
+        <v>363</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
@@ -1985,13 +1990,11 @@
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="5">
-        <v>196.2</v>
-      </c>
+      <c r="D82" s="7"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2000,12 +2003,12 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>302</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2014,35 +2017,35 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1400</v>
+        <v>8</v>
+      </c>
+      <c r="D85" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>1138</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2050,32 +2053,32 @@
         <v>63</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>2400</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>2</v>
@@ -2084,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="6">
-        <v>2046.5</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2092,27 +2095,27 @@
         <v>65</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1197</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>1326</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2120,27 +2123,27 @@
         <v>66</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1305.5</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>1962</v>
+        <v>1305.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2148,60 +2151,60 @@
         <v>67</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" s="6">
-        <v>1748</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D97" s="5">
-        <v>210.3</v>
+        <v>873</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2210,12 +2213,12 @@
         <v>8</v>
       </c>
       <c r="D98" s="5">
-        <v>292.3</v>
+        <v>210.3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2224,12 +2227,12 @@
         <v>8</v>
       </c>
       <c r="D99" s="5">
-        <v>399</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2238,12 +2241,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>152</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2252,12 +2255,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>212.3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2266,42 +2269,50 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>200.5</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="6">
-        <v>5306</v>
+        <v>8</v>
+      </c>
+      <c r="D103" s="5">
+        <v>200.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="6">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="5">
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="5">
         <v>297.39999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="95">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D105"/>
+      <selection activeCell="A2" sqref="A2:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1058,23 +1061,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="22.5">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1222</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>2</v>
@@ -1083,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>2589</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1091,32 +1094,32 @@
         <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>2501.4</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5">
-        <v>220.5</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2501.4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -1125,12 +1128,12 @@
         <v>8</v>
       </c>
       <c r="D20" s="5">
-        <v>103</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
@@ -1139,12 +1142,12 @@
         <v>8</v>
       </c>
       <c r="D21" s="5">
-        <v>151</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1153,21 +1156,21 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1531</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="5">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1175,41 +1178,41 @@
         <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="6">
-        <v>1497</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="5">
-        <v>410</v>
+      <c r="D25" s="6">
+        <v>1497</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1091</v>
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1217,41 +1220,41 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" s="6">
-        <v>1249</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5">
-        <v>168</v>
+      <c r="D28" s="6">
+        <v>1249</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="5">
-        <v>670</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1259,41 +1262,41 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1154</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>670</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="5">
-        <v>983</v>
+      <c r="D31" s="6">
+        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2073</v>
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>983</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1301,69 +1304,69 @@
         <v>35</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="6">
-        <v>1508.5</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" s="6">
-        <v>2395</v>
+        <v>1508.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="5">
-        <v>921.5</v>
+        <v>3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2395</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6">
-        <v>6714</v>
+        <v>5</v>
+      </c>
+      <c r="D36" s="5">
+        <v>921.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>13270.5</v>
+        <v>6714</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1371,74 +1374,74 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>16331.1</v>
+        <v>13270.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="5">
-        <v>555</v>
+        <v>5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>16331.1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="6">
-        <v>2260.4</v>
+        <v>3</v>
+      </c>
+      <c r="D40" s="5">
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="6">
-        <v>1759</v>
+        <v>1910.4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>16508.5</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>2</v>
@@ -1447,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>2113</v>
+        <v>16508.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1455,27 +1458,27 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" s="6">
-        <v>3080</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" s="6">
-        <v>3658</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1483,18 +1486,18 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="6">
-        <v>3812.7</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>4</v>
@@ -1502,13 +1505,13 @@
       <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="5">
-        <v>149</v>
+      <c r="D47" s="6">
+        <v>3812.7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -1516,13 +1519,13 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6">
-        <v>5719</v>
+      <c r="D48" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1530,22 +1533,22 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
-        <v>151.5</v>
+      <c r="D49" s="6">
+        <v>5094</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6">
-        <v>2496</v>
+        <v>5</v>
+      </c>
+      <c r="D50" s="5">
+        <v>462.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1553,27 +1556,27 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>899</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2496</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" s="5">
-        <v>576.5</v>
+        <v>899</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1581,32 +1584,32 @@
         <v>48</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="6">
-        <v>2572</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="5">
+        <v>576.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="6">
-        <v>2803</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>2</v>
@@ -1615,7 +1618,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>1007</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1623,27 +1626,27 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="6">
-        <v>1944</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" s="6">
-        <v>6180</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1651,13 +1654,13 @@
         <v>51</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>4500</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1665,46 +1668,46 @@
         <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>32622.5</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="5">
-        <v>223.7</v>
+        <v>5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>32622.5</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61" s="5">
-        <v>985</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>4</v>
@@ -1712,22 +1715,22 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="6">
-        <v>3965</v>
+      <c r="D62" s="5">
+        <v>985</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63" s="6">
-        <v>1982</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1735,18 +1738,18 @@
         <v>54</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="6">
-        <v>9914</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>4</v>
@@ -1754,13 +1757,13 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="5">
-        <v>404</v>
+      <c r="D65" s="6">
+        <v>9914</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1768,41 +1771,41 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="6">
-        <v>1972</v>
+      <c r="D66" s="5">
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5">
-        <v>355.5</v>
+        <v>6</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1972</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1557</v>
+        <v>7</v>
+      </c>
+      <c r="D68" s="5">
+        <v>355.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1811,12 +1814,12 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>3970</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1824,11 +1827,13 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1836,13 +1841,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="5">
-        <v>900</v>
-      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1851,21 +1854,21 @@
         <v>6</v>
       </c>
       <c r="D72" s="5">
-        <v>400</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="6">
-        <v>4058.4</v>
+        <v>6</v>
+      </c>
+      <c r="D73" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1873,32 +1876,32 @@
         <v>56</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" s="6">
-        <v>6906</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" s="6">
-        <v>1166</v>
+        <v>6906</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>2</v>
@@ -1906,8 +1909,8 @@
       <c r="C76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="5">
-        <v>525</v>
+      <c r="D76" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1915,27 +1918,27 @@
         <v>58</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1444</v>
+        <v>3</v>
+      </c>
+      <c r="D77" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="5">
-        <v>863</v>
+        <v>5</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1943,46 +1946,46 @@
         <v>59</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2324.8000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="5">
+        <v>863</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>7193.5</v>
+        <v>2324.8000000000002</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D81" s="6">
+        <v>7193.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
@@ -1990,11 +1993,13 @@
       <c r="C82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="7"/>
+      <c r="D82" s="5">
+        <v>363</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2002,13 +2007,11 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="5">
-        <v>196.2</v>
-      </c>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2017,12 +2020,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>302</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2031,35 +2034,35 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="6">
-        <v>1400</v>
+        <v>8</v>
+      </c>
+      <c r="D86" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>1138</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2067,32 +2070,32 @@
         <v>63</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>2400</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>2</v>
@@ -2101,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>2046.5</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2109,27 +2112,27 @@
         <v>65</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>1197</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="6">
-        <v>1326</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2137,27 +2140,27 @@
         <v>66</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>1305.5</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>1962</v>
+        <v>1305.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2165,60 +2168,60 @@
         <v>67</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="5">
-        <v>873</v>
+        <v>3</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D98" s="5">
-        <v>210.3</v>
+        <v>873</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2227,12 +2230,12 @@
         <v>8</v>
       </c>
       <c r="D99" s="5">
-        <v>292.3</v>
+        <v>210.3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2241,12 +2244,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>399</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2255,12 +2258,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>152</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2269,12 +2272,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>212.3</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2283,42 +2286,50 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>200.5</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="6">
-        <v>5306</v>
+        <v>8</v>
+      </c>
+      <c r="D104" s="5">
+        <v>200.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="5">
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="5">
         <v>297.39999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="5">
-        <v>754</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1016,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="6">
-        <v>4831.5</v>
+        <v>4081.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1085,8 +1085,8 @@
       <c r="C17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
-        <v>1222</v>
+      <c r="D17" s="5">
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1366,7 +1366,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>6714</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="6">
-        <v>3812.7</v>
+        <v>3108.7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1853,9 +1853,7 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="5">
-        <v>900</v>
-      </c>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
@@ -2159,8 +2157,8 @@
       <c r="C94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="6">
-        <v>1305.5</v>
+      <c r="D94" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2272,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>152</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="96">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
+  </si>
+  <si>
+    <t>Фиточай "Фитосбор №2" НФП</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D106"/>
+      <selection activeCell="A2" sqref="A2:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -875,8 +878,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
-        <v>379</v>
+      <c r="D2" s="6">
+        <v>1129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1184,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="6">
-        <v>1531</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1225,9 +1228,7 @@
       <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="6">
-        <v>1091</v>
-      </c>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -1253,9 +1254,7 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="5">
-        <v>168</v>
-      </c>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
@@ -1492,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="6">
-        <v>3658</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1576,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="5">
-        <v>899</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1715,9 +1714,7 @@
       <c r="C62" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="5">
-        <v>985</v>
-      </c>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
@@ -2009,7 +2006,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2018,12 +2015,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>196.2</v>
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2032,12 +2029,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>302</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2046,35 +2043,35 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1400</v>
+        <v>8</v>
+      </c>
+      <c r="D87" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>1138</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2082,32 +2079,32 @@
         <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>2400</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>2</v>
@@ -2116,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>2046.5</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2124,27 +2121,27 @@
         <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1197</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>1326</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2152,27 +2149,27 @@
         <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1962</v>
+        <v>5</v>
+      </c>
+      <c r="D95" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2180,60 +2177,60 @@
         <v>67</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="5">
-        <v>873</v>
+        <v>3</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D99" s="5">
-        <v>210.3</v>
+        <v>873</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2242,12 +2239,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>292.3</v>
+        <v>210.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2256,12 +2253,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>399</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2270,12 +2267,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>75</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2284,12 +2281,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>212.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2298,42 +2295,50 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>200.5</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>5306</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="5">
+        <v>200.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="5">
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="5">
         <v>297.39999999999998</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Фиточай "Фитосбор №2" НФП</t>
+  </si>
+  <si>
+    <t>Фиточай "Опалиховский" НФП</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
   <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D107"/>
+      <selection activeCell="A2" sqref="A2:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -934,9 +937,7 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
-        <v>112.6</v>
-      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
@@ -977,7 +978,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="6">
-        <v>1722</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1159,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>151</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1187,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="6">
-        <v>4241</v>
+        <v>7347.7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1280,8 +1281,8 @@
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="6">
-        <v>1154</v>
+      <c r="D31" s="5">
+        <v>774</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1295,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="5">
-        <v>983</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1323,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="6">
-        <v>1508.5</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1603,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="6">
-        <v>2572</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1727,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="6">
-        <v>2965</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1782,9 +1783,7 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="6">
-        <v>1972</v>
-      </c>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
@@ -1947,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="5">
-        <v>863</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1961,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>2324.8000000000002</v>
+        <v>2030.8</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1975,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>7193.5</v>
+        <v>5868.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1994,7 +1993,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2002,11 +2001,13 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="5">
+        <v>401.2</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2014,13 +2015,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="5">
-        <v>405</v>
-      </c>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2029,12 +2028,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>196.2</v>
+        <v>405</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2043,12 +2042,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>302</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2057,35 +2056,35 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="6">
-        <v>1400</v>
+        <v>8</v>
+      </c>
+      <c r="D88" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>1138</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2093,32 +2092,32 @@
         <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>2400</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2127,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>2046.5</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2135,27 +2134,27 @@
         <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>1197</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>1326</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2163,27 +2162,27 @@
         <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1962</v>
+        <v>5</v>
+      </c>
+      <c r="D96" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2191,60 +2190,60 @@
         <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="5">
-        <v>873</v>
+        <v>3</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D100" s="5">
-        <v>210.3</v>
+        <v>873</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2253,12 +2252,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>292.3</v>
+        <v>210.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2267,12 +2266,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>399</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2281,12 +2280,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>75</v>
+        <v>399</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2295,12 +2294,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>212.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2309,42 +2308,50 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>200.5</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
-        <v>5306</v>
+        <v>8</v>
+      </c>
+      <c r="D106" s="5">
+        <v>200.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="5">
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="5">
         <v>297.39999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="97">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -843,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D108"/>
+      <selection activeCell="A2" sqref="A2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -887,21 +887,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1188</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -910,26 +910,26 @@
         <v>3</v>
       </c>
       <c r="D4" s="6">
-        <v>2440</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>345</v>
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2440</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -937,48 +937,48 @@
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="5">
+        <v>345</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2100</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>3563.5</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6">
-        <v>1254</v>
+        <v>3563.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -986,27 +986,27 @@
         <v>21</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
-        <v>6449</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="6">
-        <v>2089</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1014,27 +1014,27 @@
         <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6">
-        <v>4081.5</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6">
-        <v>1240</v>
+        <v>4081.5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1042,32 +1042,32 @@
         <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>2716.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="22.5">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2091.1999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5">
       <c r="A16" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -1076,26 +1076,26 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.5">
+      <c r="A17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
         <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5">
-        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>2</v>
@@ -1103,8 +1103,8 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
-        <v>2589</v>
+      <c r="D18" s="5">
+        <v>622</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1112,32 +1112,32 @@
         <v>25</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>2501.4</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5">
-        <v>220.5</v>
+        <v>5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2501.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
@@ -1146,12 +1146,12 @@
         <v>8</v>
       </c>
       <c r="D21" s="5">
-        <v>103</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1160,12 +1160,12 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>4</v>
@@ -1174,21 +1174,21 @@
         <v>8</v>
       </c>
       <c r="D23" s="5">
-        <v>145</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="6">
-        <v>7347.7</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="5">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1196,121 +1196,123 @@
         <v>29</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>1497</v>
+        <v>7347.7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="5">
-        <v>410</v>
+      <c r="D26" s="6">
+        <v>1497</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>410</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="6">
-        <v>1249</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6">
+        <v>1249</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5">
-        <v>670</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="5">
-        <v>774</v>
+        <v>670</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="5">
-        <v>658</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6">
-        <v>2073</v>
+        <v>5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1318,69 +1320,69 @@
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" s="6">
-        <v>1201</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="6">
-        <v>2395</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="5">
-        <v>921.5</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2395</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>3664</v>
+        <v>5</v>
+      </c>
+      <c r="D37" s="5">
+        <v>921.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>13270.5</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1388,74 +1390,74 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>16331.1</v>
+        <v>13270.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="5">
-        <v>555</v>
+        <v>5</v>
+      </c>
+      <c r="D40" s="6">
+        <v>16331.1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1910.4</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1759</v>
+        <v>1910.4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>16508.5</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>2</v>
@@ -1464,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="6">
-        <v>2113</v>
+        <v>16508.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1472,27 +1474,27 @@
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>2300</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" s="6">
-        <v>2583</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1500,18 +1502,18 @@
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" s="6">
-        <v>3108.7</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -1519,13 +1521,13 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="5">
-        <v>149</v>
+      <c r="D48" s="6">
+        <v>3108.7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1533,13 +1535,13 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
-        <v>5094</v>
+      <c r="D49" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>4</v>
@@ -1547,22 +1549,22 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>462.5</v>
+      <c r="D50" s="6">
+        <v>5067</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>2496</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>462.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1570,27 +1572,27 @@
         <v>47</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1813</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" s="5">
-        <v>576.5</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1598,32 +1600,32 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2072</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="5">
+        <v>576.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="6">
-        <v>2283</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
@@ -1632,7 +1634,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="6">
-        <v>1007</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1640,27 +1642,27 @@
         <v>50</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>1944</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6">
-        <v>6180</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1668,13 +1670,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>4500</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1682,44 +1684,46 @@
         <v>51</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="6">
-        <v>32622.5</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5">
-        <v>223.7</v>
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
+        <v>32622.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>223.7</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
@@ -1727,22 +1731,20 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="6">
-        <v>1965</v>
-      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64" s="6">
-        <v>1982</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1750,18 +1752,18 @@
         <v>54</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="6">
-        <v>9914</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1769,13 +1771,13 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="5">
-        <v>404</v>
+      <c r="D66" s="6">
+        <v>9914</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1783,39 +1785,39 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="5">
+        <v>404</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5">
-        <v>355.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1557</v>
+        <v>7</v>
+      </c>
+      <c r="D69" s="5">
+        <v>179.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1824,12 +1826,12 @@
         <v>6</v>
       </c>
       <c r="D70" s="6">
-        <v>3970</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1837,11 +1839,13 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1853,7 +1857,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1861,22 +1865,20 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="5">
-        <v>400</v>
-      </c>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="6">
-        <v>4058.4</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1884,32 +1886,32 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" s="6">
-        <v>6906</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="6">
-        <v>1166</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>2</v>
@@ -1917,8 +1919,8 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="5">
-        <v>525</v>
+      <c r="D77" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1926,27 +1928,27 @@
         <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="6">
-        <v>1444</v>
+        <v>3</v>
+      </c>
+      <c r="D78" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="5">
-        <v>423</v>
+        <v>5</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1954,46 +1956,46 @@
         <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6">
-        <v>2030.8</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>5868.5</v>
+        <v>2030.8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D82" s="6">
+        <v>5868.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2002,12 +2004,12 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>401.2</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2015,11 +2017,13 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="5">
+        <v>401.2</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2027,13 +2031,11 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="5">
-        <v>405</v>
-      </c>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2042,12 +2044,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>196.2</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2056,12 +2058,12 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>302</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
@@ -2070,35 +2072,35 @@
         <v>8</v>
       </c>
       <c r="D88" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="6">
-        <v>1400</v>
+        <v>8</v>
+      </c>
+      <c r="D89" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="6">
-        <v>1138</v>
+        <v>5</v>
+      </c>
+      <c r="D90" s="5">
+        <v>950</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2106,32 +2108,32 @@
         <v>63</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="6">
-        <v>2400</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>2</v>
@@ -2140,7 +2142,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>2046.5</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2148,27 +2150,27 @@
         <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>1197</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>1326</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2176,27 +2178,27 @@
         <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1962</v>
+        <v>5</v>
+      </c>
+      <c r="D97" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2204,60 +2206,60 @@
         <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="5">
-        <v>873</v>
+        <v>3</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D101" s="5">
-        <v>210.3</v>
+        <v>798</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2266,12 +2268,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>292.3</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2280,12 +2282,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>399</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2294,12 +2296,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>75</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2308,12 +2310,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>212.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2322,34 +2324,48 @@
         <v>8</v>
       </c>
       <c r="D106" s="5">
-        <v>200.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>4806</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="5">
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="5">
         <v>297.39999999999998</v>
       </c>
     </row>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Желудочный №3 НФП</t>
   </si>
   <si>
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
@@ -846,7 +843,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D109"/>
+      <selection activeCell="A2" sqref="A2:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="17" spans="1:4" ht="22.5">
       <c r="A17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -1216,7 +1213,7 @@
         <v>5</v>
       </c>
       <c r="D26" s="6">
-        <v>1497</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1381,9 +1378,7 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="6">
-        <v>3664</v>
-      </c>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
@@ -1704,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6">
-        <v>32622.5</v>
+        <v>38435.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1731,7 +1726,9 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="5">
+        <v>493</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
@@ -1777,7 +1774,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1785,39 +1782,39 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="5">
-        <v>404</v>
+      <c r="D67" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D68" s="5">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5">
-        <v>179.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1826,12 +1823,12 @@
         <v>6</v>
       </c>
       <c r="D70" s="6">
-        <v>1557</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1839,13 +1836,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="6">
-        <v>3970</v>
-      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1857,7 +1852,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1865,20 +1860,22 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="5">
+        <v>400</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="5">
-        <v>400</v>
+        <v>3</v>
+      </c>
+      <c r="D74" s="6">
+        <v>4058.4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1886,32 +1883,32 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" s="6">
-        <v>4058.4</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6">
-        <v>6824</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>2</v>
@@ -1919,8 +1916,8 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="6">
-        <v>1166</v>
+      <c r="D77" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1928,27 +1925,27 @@
         <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="5">
-        <v>525</v>
+        <v>5</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="6">
-        <v>1444</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1956,46 +1953,46 @@
         <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>1545.5</v>
+        <v>2030.8</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>2030.8</v>
+        <v>5868.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="6">
-        <v>5868.5</v>
+        <v>8</v>
+      </c>
+      <c r="D82" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2004,12 +2001,12 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>363</v>
+        <v>401.2</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2017,13 +2014,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="5">
-        <v>401.2</v>
-      </c>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2031,11 +2026,13 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="5">
+        <v>405</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2044,12 +2041,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>405</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2058,12 +2055,12 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>196.2</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
@@ -2072,35 +2069,35 @@
         <v>8</v>
       </c>
       <c r="D88" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D89" s="5">
-        <v>307</v>
+        <v>950</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="5">
-        <v>950</v>
+        <v>3</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2108,32 +2105,32 @@
         <v>63</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>1138</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1729.3</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>2</v>
@@ -2142,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>2400</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2150,27 +2147,27 @@
         <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>2046.5</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>1197</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2178,27 +2175,27 @@
         <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1326</v>
+        <v>5</v>
+      </c>
+      <c r="D96" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1962</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2206,60 +2203,60 @@
         <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6">
-        <v>1962</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" s="6">
-        <v>2227</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="6">
-        <v>1937</v>
+        <v>5</v>
+      </c>
+      <c r="D100" s="5">
+        <v>798</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>798</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2268,12 +2265,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>110.3</v>
+        <v>292.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2282,12 +2279,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>292.3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2296,12 +2293,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>317</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2310,12 +2307,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>75</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2324,26 +2321,26 @@
         <v>8</v>
       </c>
       <c r="D106" s="5">
-        <v>112.3</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>100.5</v>
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>4806</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>2</v>
@@ -2351,23 +2348,15 @@
       <c r="C108" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="6">
-        <v>4806</v>
+      <c r="D108" s="5">
+        <v>297.39999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="5">
-        <v>297.39999999999998</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="94">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -309,12 +309,6 @@
   </si>
   <si>
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
-  </si>
-  <si>
-    <t>Фиточай "Фитосбор №2" НФП</t>
-  </si>
-  <si>
-    <t>Фиточай "Опалиховский" НФП</t>
   </si>
 </sst>
 </file>
@@ -843,7 +837,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D108"/>
+      <selection activeCell="A2" sqref="A2:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1003,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="6">
-        <v>6449</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1337,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="D35" s="6">
-        <v>1201</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1671,7 +1665,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>6180</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1992,7 +1986,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2000,13 +1994,11 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="5">
-        <v>401.2</v>
-      </c>
+      <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2014,11 +2006,13 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="5">
+        <v>196.2</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2027,12 +2021,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>405</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2041,54 +2035,54 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>196.2</v>
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D87" s="5">
-        <v>302</v>
+        <v>950</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="5">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="D88" s="6">
+        <v>2273</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="5">
-        <v>950</v>
+      <c r="D89" s="6">
+        <v>1729.3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>2</v>
@@ -2097,40 +2091,40 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1138</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>1729.3</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="6">
-        <v>2400</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>2</v>
@@ -2139,12 +2133,12 @@
         <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>2046.5</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>4</v>
@@ -2152,13 +2146,13 @@
       <c r="C94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="6">
-        <v>1197</v>
+      <c r="D94" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>2</v>
@@ -2167,12 +2161,12 @@
         <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>1326</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2180,27 +2174,27 @@
       <c r="C96" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="5">
-        <v>657.5</v>
+      <c r="D96" s="6">
+        <v>2227</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="6">
-        <v>1962</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2208,41 +2202,41 @@
       <c r="C98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="6">
-        <v>2227</v>
+      <c r="D98" s="5">
+        <v>798</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1937</v>
+        <v>8</v>
+      </c>
+      <c r="D99" s="5">
+        <v>110.3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>798</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2251,12 +2245,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>110.3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2265,12 +2259,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>292.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2279,12 +2273,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>317</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2293,64 +2287,48 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>75</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="5">
-        <v>112.3</v>
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>4806</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="5">
-        <v>100.5</v>
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1386.4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>4806</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="5">
-        <v>297.39999999999998</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="95">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
+  </si>
+  <si>
+    <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D106"/>
+      <selection activeCell="A2" sqref="A2:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1427,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1910.4</v>
+        <v>1885.4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1539,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>5067</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1594,8 +1597,8 @@
       <c r="C54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="5">
-        <v>576.5</v>
+      <c r="D54" s="6">
+        <v>2217.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1768,7 +1771,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1776,39 +1779,41 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="6">
-        <v>1235</v>
+      <c r="D67" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5">
-        <v>179.5</v>
+        <v>6</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D69" s="5">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1816,13 +1821,11 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="6">
-        <v>3970</v>
-      </c>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1830,11 +1833,13 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1846,7 +1851,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1854,22 +1859,20 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="5">
-        <v>400</v>
-      </c>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="6">
-        <v>4058.4</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1877,32 +1880,32 @@
         <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" s="6">
-        <v>6824</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="6">
-        <v>1166</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>2</v>
@@ -1910,8 +1913,8 @@
       <c r="C77" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D77" s="5">
-        <v>525</v>
+      <c r="D77" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1919,27 +1922,27 @@
         <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="6">
-        <v>1444</v>
+        <v>3</v>
+      </c>
+      <c r="D78" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" s="6">
-        <v>1545.5</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1947,46 +1950,46 @@
         <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6">
-        <v>2030.8</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>5868.5</v>
+        <v>2030.8</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D82" s="6">
+        <v>5868.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -1994,11 +1997,13 @@
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="5">
+        <v>363</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2006,13 +2011,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="5">
-        <v>196.2</v>
-      </c>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2021,12 +2024,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>302</v>
+        <v>196.2</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2035,35 +2038,35 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>950</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="6">
-        <v>2273</v>
+        <v>5</v>
+      </c>
+      <c r="D88" s="5">
+        <v>950</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2071,32 +2074,32 @@
         <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>2400</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>2</v>
@@ -2105,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>2046.5</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2113,27 +2116,27 @@
         <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1197</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>1326</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2141,27 +2144,27 @@
         <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1962</v>
+        <v>5</v>
+      </c>
+      <c r="D95" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2169,60 +2172,60 @@
         <v>67</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="5">
-        <v>798</v>
+        <v>3</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D99" s="5">
-        <v>110.3</v>
+        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2231,12 +2234,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>192.3</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2245,12 +2248,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>317</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2259,12 +2262,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>75</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2273,12 +2276,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>112.3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2287,42 +2290,50 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>100.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>4806</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай очищающий НФП</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D107"/>
+      <selection activeCell="A2" sqref="A2:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -958,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>2100</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1097,8 +1100,8 @@
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
-        <v>622</v>
+      <c r="D18" s="6">
+        <v>1669.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1402,7 +1405,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>16331.1</v>
+        <v>15681.1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1696,7 +1699,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6">
-        <v>38435.5</v>
+        <v>44108.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1847,7 +1850,9 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="5">
+        <v>404</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
@@ -1970,7 +1975,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>2030.8</v>
+        <v>1747.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2281,7 +2286,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2290,12 +2295,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>112.3</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2304,42 +2309,50 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>100.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
-        <v>4806</v>
+        <v>8</v>
+      </c>
+      <c r="D106" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1226,9 +1226,7 @@
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="5">
-        <v>410</v>
-      </c>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
@@ -1351,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="6">
-        <v>2395</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1365,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="5">
-        <v>921.5</v>
+        <v>657.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1517,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="6">
-        <v>3108.7</v>
+        <v>2548.6999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1699,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6">
-        <v>44108.5</v>
+        <v>50598.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1864,7 +1862,9 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="6">
+        <v>1195</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="97">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай очищающий НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D108"/>
+      <selection activeCell="A2" sqref="A2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -935,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5">
-        <v>345</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1171,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="5">
-        <v>75</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1239,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="6">
-        <v>2645</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1252,8 +1255,8 @@
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="6">
-        <v>1249</v>
+      <c r="D29" s="5">
+        <v>749</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1431,7 +1434,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1885.4</v>
+        <v>1584.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1655,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="6">
-        <v>1944</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1772,7 +1775,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1781,12 +1784,12 @@
         <v>6</v>
       </c>
       <c r="D67" s="5">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1794,39 +1797,41 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="6">
-        <v>1235</v>
+      <c r="D68" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5">
-        <v>179.5</v>
+        <v>6</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1834,13 +1839,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="6">
-        <v>3970</v>
-      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1848,13 +1851,13 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="5">
-        <v>404</v>
+      <c r="D72" s="6">
+        <v>3970</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1862,13 +1865,13 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="6">
-        <v>1195</v>
+      <c r="D73" s="5">
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1876,22 +1879,22 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="5">
-        <v>400</v>
+      <c r="D74" s="6">
+        <v>1195</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="6">
-        <v>4058.4</v>
+        <v>6</v>
+      </c>
+      <c r="D75" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1899,32 +1902,32 @@
         <v>56</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6">
-        <v>6824</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="6">
-        <v>1166</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>2</v>
@@ -1932,8 +1935,8 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="5">
-        <v>525</v>
+      <c r="D78" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1941,27 +1944,27 @@
         <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1444</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>1545.5</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1969,46 +1972,46 @@
         <v>59</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>1747.5</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>5868.5</v>
+        <v>1747.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D83" s="6">
+        <v>5868.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2016,11 +2019,13 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="5">
+        <v>363</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2028,13 +2033,11 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="5">
-        <v>196.2</v>
-      </c>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2043,12 +2046,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>302</v>
+        <v>502.9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2057,35 +2060,35 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D88" s="5">
-        <v>950</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="6">
-        <v>1138</v>
+        <v>5</v>
+      </c>
+      <c r="D89" s="5">
+        <v>950</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2093,32 +2096,32 @@
         <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>1650</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2127,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>2046.5</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2135,27 +2138,27 @@
         <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>2312</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>1326</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2163,27 +2166,27 @@
         <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1962</v>
+        <v>5</v>
+      </c>
+      <c r="D96" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2191,60 +2194,60 @@
         <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="5">
-        <v>798</v>
+        <v>3</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D100" s="5">
-        <v>110.3</v>
+        <v>798</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2253,12 +2256,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>192.3</v>
+        <v>110.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2267,12 +2270,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>317</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2281,12 +2284,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>75</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2295,12 +2298,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>162.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2309,12 +2312,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>112.3</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2323,42 +2326,50 @@
         <v>8</v>
       </c>
       <c r="D106" s="5">
-        <v>100.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>4806</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>4287</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1852,7 +1852,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>3970</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="73" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1020,7 +1020,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6">
-        <v>2089</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1281,8 +1281,8 @@
       <c r="C31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="5">
-        <v>670</v>
+      <c r="D31" s="6">
+        <v>2253</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>2113</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="6">
-        <v>1523</v>
+        <v>3953.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2255,9 +2255,7 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="5">
-        <v>110.3</v>
-      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -951,7 +951,9 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="5">
+        <v>408</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
@@ -1104,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>1669.5</v>
+        <v>105327</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1476,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>1607</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1658,7 +1660,7 @@
         <v>5</v>
       </c>
       <c r="D58" s="6">
-        <v>2044</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1741,8 +1743,8 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="6">
-        <v>1965</v>
+      <c r="D64" s="5">
+        <v>965</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2006,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>5868.5</v>
+        <v>4646.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1036,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="6">
-        <v>4081.5</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1284,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="6">
-        <v>2253</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1381,7 +1381,9 @@
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="6">
+        <v>5362</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
@@ -1520,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="6">
-        <v>2548.6999999999998</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1645,8 +1647,8 @@
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="6">
-        <v>1007</v>
+      <c r="D57" s="5">
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай очищающий НФП</t>
-  </si>
-  <si>
-    <t>Сбор Желудочный №3 НФП</t>
   </si>
 </sst>
 </file>
@@ -846,7 +843,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D109"/>
+      <selection activeCell="A2" sqref="A2:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1620,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="D55" s="6">
-        <v>2072</v>
+        <v>2031.8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1704,7 +1701,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6">
-        <v>50598.5</v>
+        <v>44108.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1779,7 +1776,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1788,12 +1785,12 @@
         <v>6</v>
       </c>
       <c r="D67" s="5">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1801,41 +1798,39 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
-        <v>408</v>
+      <c r="D68" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1235</v>
+        <v>7</v>
+      </c>
+      <c r="D69" s="5">
+        <v>179.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5">
-        <v>179.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1843,11 +1838,13 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="6">
+        <v>2970</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1855,13 +1852,13 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="6">
-        <v>2970</v>
+      <c r="D72" s="5">
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1869,13 +1866,11 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="5">
-        <v>404</v>
-      </c>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1883,22 +1878,22 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="6">
-        <v>1195</v>
+      <c r="D74" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="5">
-        <v>400</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4058.4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1906,32 +1901,32 @@
         <v>56</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="6">
-        <v>4058.4</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>6824</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>2</v>
@@ -1939,8 +1934,8 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="6">
-        <v>1166</v>
+      <c r="D78" s="5">
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1948,27 +1943,27 @@
         <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="5">
-        <v>525</v>
+        <v>5</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6">
-        <v>1444</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1976,46 +1971,46 @@
         <v>59</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>1545.5</v>
+        <v>1747.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>1747.5</v>
+        <v>4646.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="6">
-        <v>4646.5</v>
+        <v>8</v>
+      </c>
+      <c r="D83" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2023,13 +2018,11 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="5">
-        <v>363</v>
-      </c>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2037,11 +2030,13 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="5">
+        <v>502.9</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2050,12 +2045,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>502.9</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2064,35 +2059,35 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D88" s="5">
-        <v>307</v>
+        <v>950</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="5">
-        <v>950</v>
+        <v>3</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2100,32 +2095,32 @@
         <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>1138</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>1729.3</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2134,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1650</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2142,27 +2137,27 @@
         <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>2046.5</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>2312</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2170,27 +2165,27 @@
         <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1326</v>
+        <v>5</v>
+      </c>
+      <c r="D95" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1962</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2198,60 +2193,58 @@
         <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" s="6">
-        <v>1962</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="6">
-        <v>2227</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1937</v>
+        <v>5</v>
+      </c>
+      <c r="D99" s="5">
+        <v>798</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="5">
-        <v>798</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2259,11 +2252,13 @@
       <c r="C101" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="5">
+        <v>192.3</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2272,12 +2267,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>192.3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2285,13 +2280,11 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="5">
-        <v>317</v>
-      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2300,12 +2293,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2314,12 +2307,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>162.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2328,26 +2321,26 @@
         <v>8</v>
       </c>
       <c r="D106" s="5">
-        <v>112.3</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>100.5</v>
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>4806</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>2</v>
@@ -2356,22 +2349,14 @@
         <v>3</v>
       </c>
       <c r="D108" s="6">
-        <v>4806</v>
+        <v>1386.4</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="6">
-        <v>1386.4</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="97">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай очищающий НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D108"/>
+      <selection activeCell="A2" sqref="A2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1047,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1240</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1103,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>105327</v>
+        <v>1669.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1268,7 +1271,9 @@
       <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="5">
+        <v>337.5</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
@@ -1294,8 +1299,8 @@
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="5">
-        <v>774</v>
+      <c r="D32" s="6">
+        <v>2069</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1420,8 +1425,8 @@
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="5">
-        <v>555</v>
+      <c r="D41" s="6">
+        <v>1914</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1701,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6">
-        <v>44108.5</v>
+        <v>50598.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1776,7 +1781,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1785,12 +1790,12 @@
         <v>6</v>
       </c>
       <c r="D67" s="5">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1798,39 +1803,41 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="6">
-        <v>1235</v>
+      <c r="D68" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5">
-        <v>179.5</v>
+        <v>6</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1838,13 +1845,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="6">
-        <v>2970</v>
-      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1852,13 +1857,13 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="5">
-        <v>404</v>
+      <c r="D72" s="6">
+        <v>2970</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1866,11 +1871,13 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="5">
+        <v>404</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1878,22 +1885,22 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="5">
-        <v>400</v>
+      <c r="D74" s="6">
+        <v>1195</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="6">
-        <v>4058.4</v>
+        <v>6</v>
+      </c>
+      <c r="D75" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1901,32 +1908,32 @@
         <v>56</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6">
-        <v>6824</v>
+        <v>4058.4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="6">
-        <v>1166</v>
+        <v>6824</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>2</v>
@@ -1934,8 +1941,8 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="5">
-        <v>525</v>
+      <c r="D78" s="6">
+        <v>1166</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1943,27 +1950,27 @@
         <v>58</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="6">
-        <v>1444</v>
+        <v>2111.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>1545.5</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1971,46 +1978,46 @@
         <v>59</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>1747.5</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>4646.5</v>
+        <v>1747.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4646.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2018,11 +2025,13 @@
       <c r="C84" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="5">
+        <v>363</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2030,13 +2039,11 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="5">
-        <v>502.9</v>
-      </c>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2045,12 +2052,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>302</v>
+        <v>502.9</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2059,35 +2066,35 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D88" s="5">
-        <v>950</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="6">
-        <v>1138</v>
+        <v>5</v>
+      </c>
+      <c r="D89" s="5">
+        <v>950</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2095,32 +2102,32 @@
         <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1729.3</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>1650</v>
+        <v>1729.3</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2129,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>2046.5</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2137,27 +2144,27 @@
         <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>2312</v>
+        <v>2046.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>1326</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2165,27 +2172,27 @@
         <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1326</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1962</v>
+        <v>5</v>
+      </c>
+      <c r="D96" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2193,58 +2200,60 @@
         <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6">
-        <v>1937</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="5">
-        <v>798</v>
+        <v>3</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D100" s="5">
+        <v>798</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2253,12 +2262,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>192.3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2267,12 +2276,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>317</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2280,11 +2289,13 @@
       <c r="C103" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="5">
+        <v>317</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2292,13 +2303,11 @@
       <c r="C104" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D104" s="5">
-        <v>87.5</v>
-      </c>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2307,12 +2316,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>112.3</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2321,42 +2330,50 @@
         <v>8</v>
       </c>
       <c r="D106" s="5">
-        <v>100.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>4806</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Дуб кора НФП</t>
   </si>
   <si>
-    <t>Душица трава НФП</t>
-  </si>
-  <si>
     <t>Зверобой трава НФП</t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t>Сбор Бруснивер НФП</t>
   </si>
   <si>
-    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
   </si>
   <si>
-    <t>Фиточай "Фитосбор №1" НФП</t>
-  </si>
-  <si>
     <t>Фиточай Лактафитол НФП</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай для пищеварения НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай кардиологический НФП</t>
   </si>
   <si>
     <t>Щедрость природы Фиточай при простуде НФП</t>
@@ -846,7 +834,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D109"/>
+      <selection activeCell="A2" sqref="A2:D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -993,8 +981,8 @@
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
-        <v>1254</v>
+      <c r="D10" s="5">
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1050,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>2466</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1069,7 +1057,7 @@
     </row>
     <row r="16" spans="1:4" ht="22.5">
       <c r="A16" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -1078,12 +1066,12 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5">
       <c r="A17" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -1181,7 +1169,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
@@ -1226,25 +1214,27 @@
         <v>30</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1295</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1295</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1252,13 +1242,13 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="5">
-        <v>749</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1266,27 +1256,27 @@
         <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5">
-        <v>337.5</v>
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6">
-        <v>1583</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1294,13 +1284,13 @@
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="6">
-        <v>2069</v>
+      <c r="D32" s="5">
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1308,27 +1298,27 @@
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="5">
-        <v>658</v>
+        <v>3</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1545</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1545</v>
+        <v>5</v>
+      </c>
+      <c r="D34" s="5">
+        <v>881</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1336,13 +1326,13 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" s="6">
-        <v>1181</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1350,13 +1340,13 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1975</v>
+        <v>5</v>
+      </c>
+      <c r="D36" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1364,13 +1354,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>5362</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1378,27 +1368,27 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>5362</v>
+        <v>13270.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="6">
-        <v>13270.5</v>
+        <v>15681.1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1406,13 +1396,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="6">
-        <v>15681.1</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1420,41 +1410,41 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="6">
-        <v>1914</v>
+        <v>1584.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>1584.5</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>1759</v>
+        <v>16508.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1468,21 +1458,21 @@
         <v>3</v>
       </c>
       <c r="D44" s="6">
-        <v>16508.5</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" s="6">
-        <v>1557</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1490,32 +1480,32 @@
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" s="6">
-        <v>2300</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6">
-        <v>2583</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -1523,13 +1513,13 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="6">
-        <v>2012</v>
+      <c r="D48" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1537,8 +1527,8 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
-        <v>149</v>
+      <c r="D49" s="6">
+        <v>3537</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1551,8 +1541,8 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>3537</v>
+      <c r="D50" s="5">
+        <v>462.5</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1560,27 +1550,27 @@
         <v>46</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>462.5</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1813</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1813</v>
+        <v>5</v>
+      </c>
+      <c r="D52" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1588,27 +1578,27 @@
         <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2217.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" s="6">
-        <v>2217.5</v>
+        <v>2031.8</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1616,13 +1606,13 @@
         <v>48</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>2031.8</v>
+        <v>3193.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1635,22 +1625,22 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="6">
-        <v>3953.5</v>
+      <c r="D56" s="5">
+        <v>511</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="5">
-        <v>511</v>
+        <v>5</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1694</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1658,41 +1648,41 @@
         <v>50</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>1694</v>
+        <v>12074</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>12074</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>4500</v>
+        <v>46179</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1700,13 +1690,13 @@
         <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6">
-        <v>50598.5</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="5">
+        <v>223.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1714,18 +1704,18 @@
         <v>52</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62" s="5">
-        <v>223.7</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
@@ -1734,40 +1724,40 @@
         <v>6</v>
       </c>
       <c r="D63" s="5">
-        <v>493</v>
+        <v>965</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="5">
-        <v>965</v>
+        <v>7</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1982</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="6">
-        <v>1982</v>
+        <v>9914</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1775,13 +1765,13 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="6">
-        <v>9914</v>
+      <c r="D66" s="5">
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1790,12 +1780,12 @@
         <v>6</v>
       </c>
       <c r="D67" s="5">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1803,41 +1793,39 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
-        <v>408</v>
+      <c r="D68" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="6">
-        <v>1235</v>
+        <v>7</v>
+      </c>
+      <c r="D69" s="5">
+        <v>179.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5">
-        <v>179.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1845,11 +1833,13 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="5">
+        <v>404</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1858,7 +1848,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>2970</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1872,35 +1862,35 @@
         <v>6</v>
       </c>
       <c r="D73" s="5">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" s="6">
-        <v>1195</v>
+        <v>3558.4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="5">
-        <v>400</v>
+        <v>5</v>
+      </c>
+      <c r="D75" s="6">
+        <v>6742</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1914,21 +1904,21 @@
         <v>3</v>
       </c>
       <c r="D76" s="6">
-        <v>4058.4</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>6824</v>
+        <v>2111.5</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1936,13 +1926,13 @@
         <v>57</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="6">
-        <v>1166</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1956,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="6">
-        <v>2111.5</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1970,7 +1960,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>1444</v>
+        <v>1747.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1978,46 +1968,46 @@
         <v>59</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>1545.5</v>
+        <v>4646.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="6">
-        <v>1747.5</v>
+        <v>8</v>
+      </c>
+      <c r="D82" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="6">
-        <v>4646.5</v>
+        <v>8</v>
+      </c>
+      <c r="D83" s="5">
+        <v>306.7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2026,7 +2016,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>363</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2039,67 +2029,69 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="5">
+        <v>307</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D86" s="5">
-        <v>502.9</v>
+        <v>950</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="5">
-        <v>302</v>
+        <v>3</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1729.3</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="5">
-        <v>950</v>
+        <v>3</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1650</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>2</v>
@@ -2108,26 +2100,26 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1138</v>
+        <v>1566.5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>1729.3</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2136,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1650</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2144,27 +2136,27 @@
         <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>2046.5</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>2312</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2172,27 +2164,27 @@
         <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>1326</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="5">
-        <v>657.5</v>
+        <v>3</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2200,60 +2192,60 @@
         <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="6">
-        <v>1962</v>
+        <v>5</v>
+      </c>
+      <c r="D97" s="5">
+        <v>798</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="6">
-        <v>2227</v>
+        <v>8</v>
+      </c>
+      <c r="D98" s="5">
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1937</v>
+        <v>8</v>
+      </c>
+      <c r="D99" s="5">
+        <v>192.3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>798</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2262,12 +2254,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>399</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2276,12 +2268,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>192.3</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2290,90 +2282,60 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>317</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D104" s="6">
+        <v>4806</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="5">
-        <v>87.5</v>
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1386.4</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="5">
-        <v>112.3</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>100.5</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>4806</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="6">
-        <v>1386.4</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -968,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6">
-        <v>3563.5</v>
+        <v>3253.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="5">
-        <v>192.3</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1178,7 +1178,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="5">
-        <v>145</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1430,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>1759</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1528,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="6">
-        <v>3537</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>2111.5</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="D96" s="6">
-        <v>1937</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="97" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>12074</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1723,9 +1723,7 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="5">
-        <v>965</v>
-      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
@@ -2071,8 +2069,8 @@
       <c r="C88" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="6">
-        <v>1729.3</v>
+      <c r="D88" s="5">
+        <v>944</v>
       </c>
     </row>
     <row r="89" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1220,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="6">
-        <v>1295</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>1365</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2041,8 +2041,8 @@
       <c r="C86" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="5">
-        <v>950</v>
+      <c r="D86" s="6">
+        <v>2147</v>
       </c>
     </row>
     <row r="87" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="93">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -834,7 +834,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D105"/>
+      <selection activeCell="A2" sqref="A2:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1233,8 +1233,8 @@
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="5">
-        <v>749</v>
+      <c r="D28" s="6">
+        <v>2367</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1365,16 +1365,16 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
-        <v>13270.5</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1382,74 +1382,74 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>15681.1</v>
+        <v>13270.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>1914</v>
+        <v>15681.1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>1584.5</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1144</v>
+        <v>1584.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>16508.5</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>2</v>
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="6">
-        <v>1557</v>
+        <v>16508.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1466,27 +1466,27 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>2300</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" s="6">
-        <v>2583</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1494,18 +1494,18 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" s="6">
-        <v>2012</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -1513,13 +1513,13 @@
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="5">
-        <v>149</v>
+      <c r="D48" s="6">
+        <v>2012</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1527,13 +1527,13 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
-        <v>2722</v>
+      <c r="D49" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>4</v>
@@ -1541,22 +1541,22 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>462.5</v>
+      <c r="D50" s="6">
+        <v>2722</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1813</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>462.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1564,27 +1564,27 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1813</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="6">
-        <v>2217.5</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1592,32 +1592,32 @@
         <v>47</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" s="6">
-        <v>2031.8</v>
+        <v>2217.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="6">
-        <v>3193.5</v>
+        <v>2031.8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>2</v>
@@ -1625,8 +1625,8 @@
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="5">
-        <v>511</v>
+      <c r="D56" s="6">
+        <v>3193.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1634,27 +1634,27 @@
         <v>49</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1694</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="5">
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6">
-        <v>10850</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>4500</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1676,46 +1676,46 @@
         <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="6">
-        <v>46179</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5">
-        <v>223.7</v>
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
+        <v>46179</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62" s="5">
-        <v>493</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
@@ -1723,39 +1723,39 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="5">
+        <v>493</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1982</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="6">
-        <v>9914</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1763,13 +1763,13 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="5">
-        <v>404</v>
+      <c r="D66" s="6">
+        <v>9914</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1778,12 +1778,12 @@
         <v>6</v>
       </c>
       <c r="D67" s="5">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1791,39 +1791,41 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="6">
-        <v>1235</v>
+      <c r="D68" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5">
-        <v>179.5</v>
+        <v>6</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>179.5</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
@@ -1831,13 +1833,11 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="5">
-        <v>404</v>
-      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1845,13 +1845,13 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="6">
-        <v>1195</v>
+      <c r="D72" s="5">
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1859,22 +1859,22 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="5">
-        <v>400</v>
+      <c r="D73" s="6">
+        <v>1195</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="6">
-        <v>3558.4</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1882,32 +1882,32 @@
         <v>55</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" s="6">
-        <v>6742</v>
+        <v>3558.4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" s="6">
-        <v>1166</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>2</v>
@@ -1916,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>2049</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1924,27 +1924,27 @@
         <v>57</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" s="6">
-        <v>1444</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" s="6">
-        <v>1545.5</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1952,46 +1952,46 @@
         <v>58</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6">
-        <v>1747.5</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>4646.5</v>
+        <v>1747.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D82" s="6">
+        <v>4646.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
@@ -2000,12 +2000,12 @@
         <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>306.7</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2014,12 +2014,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>302</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2028,35 +2028,35 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="6">
-        <v>2147</v>
+        <v>8</v>
+      </c>
+      <c r="D86" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>1138</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2064,32 +2064,32 @@
         <v>62</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="5">
-        <v>944</v>
+        <v>3</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1138</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="6">
-        <v>1650</v>
+        <v>5</v>
+      </c>
+      <c r="D89" s="5">
+        <v>944</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>2</v>
@@ -2098,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1566.5</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2106,27 +2106,27 @@
         <v>64</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>2312</v>
+        <v>1566.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="6">
-        <v>1326</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2134,27 +2134,27 @@
         <v>65</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>1885.5</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>1962</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2162,60 +2162,58 @@
         <v>66</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>2227</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6">
-        <v>1312</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="5">
-        <v>798</v>
+        <v>3</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1312</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="5">
-        <v>399</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2224,12 +2222,12 @@
         <v>8</v>
       </c>
       <c r="D99" s="5">
-        <v>192.3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2238,12 +2236,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>317</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2252,12 +2250,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>87.5</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2266,12 +2264,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>112.3</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2280,42 +2278,50 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>100.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="6">
-        <v>4806</v>
+        <v>8</v>
+      </c>
+      <c r="D104" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1841</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>13270.5</v>
+        <v>13070.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1845,9 +1845,7 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="5">
-        <v>404</v>
-      </c>
+      <c r="D72" s="7"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
@@ -1972,7 +1970,7 @@
         <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>1747.5</v>
+        <v>1427.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2153,8 +2151,8 @@
       <c r="C94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="6">
-        <v>1885.5</v>
+      <c r="D94" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2306,7 +2304,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>4806</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="106" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -869,8 +869,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
-        <v>1129</v>
+      <c r="D2" s="5">
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="5">
-        <v>408</v>
+        <v>392.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="5">
-        <v>604</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1584.5</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1696,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="D61" s="6">
-        <v>46179</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2151,8 +2151,8 @@
       <c r="C94" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="5">
-        <v>657.5</v>
+      <c r="D94" s="6">
+        <v>1885.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="94">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Пищевая продукция (моно), ф/п</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D106"/>
+      <selection activeCell="A2" sqref="A2:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1332,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="6">
-        <v>1975</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1679,7 +1682,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="D60" s="6">
         <v>4500</v>
@@ -2068,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>1138</v>
+        <v>2050.6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2096,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>2790</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2211,21 +2214,21 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="5">
-        <v>399</v>
+        <v>93</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1764</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2234,12 +2237,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>192.3</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2248,12 +2251,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>317</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2262,12 +2265,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>87.5</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2276,12 +2279,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>112.3</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2290,42 +2293,50 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>100.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>3956</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="5"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="93">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -306,9 +306,6 @@
   </si>
   <si>
     <t>Сбор Желудочный №3 НФП</t>
-  </si>
-  <si>
-    <t>Пищевая продукция (моно), ф/п</t>
   </si>
 </sst>
 </file>
@@ -837,7 +834,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D107"/>
+      <selection activeCell="A2" sqref="A2:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -900,8 +897,8 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="6">
-        <v>1188</v>
+      <c r="D4" s="5">
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1475,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>1557</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1682,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D60" s="6">
         <v>4500</v>
@@ -2057,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>2147</v>
+        <v>2138.8000000000002</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2210,25 +2207,27 @@
       <c r="C98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="6">
+        <v>1764</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1764</v>
+        <v>8</v>
+      </c>
+      <c r="D99" s="5">
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2237,12 +2236,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>399</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2251,12 +2250,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>192.3</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2265,12 +2264,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>317</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2279,12 +2278,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>87.5</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2293,26 +2292,26 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>112.3</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="5">
-        <v>100.5</v>
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>3956</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>2</v>
@@ -2321,22 +2320,14 @@
         <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>3956</v>
+        <v>1386.4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>1386.4</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="95">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Фиточай "Фитосбор №2" НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай кардиологический НФП</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D106"/>
+      <selection activeCell="A2" sqref="A2:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1205,8 +1211,8 @@
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="6">
-        <v>1008</v>
+      <c r="D26" s="5">
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1276,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="6">
-        <v>2069</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1332,7 +1338,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="6">
-        <v>1351</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1402,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>15681.1</v>
+        <v>15474.1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1833,7 +1839,9 @@
       <c r="C71" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="6">
+        <v>2967</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
@@ -1845,7 +1853,9 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="5">
+        <v>405</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
@@ -1942,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="6">
-        <v>2503</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2003,7 +2013,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2012,12 +2022,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>306.7</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2026,12 +2036,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>302</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2040,35 +2050,35 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="6">
-        <v>2138.8000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="D87" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>2050.6</v>
+        <v>2138.8000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2076,32 +2086,32 @@
         <v>62</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="5">
-        <v>944</v>
+        <v>3</v>
+      </c>
+      <c r="D89" s="6">
+        <v>2050.6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="6">
-        <v>4936</v>
+        <v>5</v>
+      </c>
+      <c r="D90" s="5">
+        <v>944</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>2</v>
@@ -2110,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="6">
-        <v>1566.5</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2118,27 +2128,27 @@
         <v>64</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>2312</v>
+        <v>1566.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>1326</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2146,27 +2156,27 @@
         <v>65</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>1885.5</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>1962</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2174,60 +2184,60 @@
         <v>66</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" s="6">
-        <v>1487</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" s="6">
-        <v>1312</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="6">
-        <v>1764</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="5">
-        <v>224</v>
+        <v>5</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1764</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2236,12 +2246,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="5">
-        <v>192.3</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2250,12 +2260,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>317</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2264,12 +2274,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>87.5</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2278,12 +2288,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>112.3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2292,48 +2302,64 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>100.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>3956</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="5">
+        <v>112.3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="5">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1492,7 +1492,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="6">
-        <v>2300</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1548,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>2722</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1575,9 +1575,7 @@
       <c r="C52" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="6">
-        <v>1813</v>
-      </c>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
@@ -1743,7 +1741,9 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
@@ -1825,9 +1825,7 @@
       <c r="C70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="5">
-        <v>179.5</v>
-      </c>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="96">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай кардиологический НФП</t>
+  </si>
+  <si>
+    <t>Пищевая продукция (моно), ф/п</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
   <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D108"/>
+      <selection activeCell="A2" sqref="A2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -918,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <v>2440</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1044,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1741</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1142,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="5">
-        <v>220.5</v>
+        <v>158.9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1156,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1184,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="5">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1198,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>7347.7</v>
+        <v>12693.2</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1282,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="6">
-        <v>2025</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1323,8 +1326,8 @@
       <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
-        <v>881</v>
+      <c r="D34" s="6">
+        <v>1486</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1408,7 +1411,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>15474.1</v>
+        <v>14058.7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1450,7 +1453,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>1144</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1478,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="6">
-        <v>1075</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1492,21 +1495,21 @@
         <v>5</v>
       </c>
       <c r="D46" s="6">
-        <v>1675</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2583</v>
+        <v>95</v>
+      </c>
+      <c r="D47" s="5">
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1514,18 +1517,18 @@
         <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" s="6">
-        <v>2012</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1533,13 +1536,13 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
-        <v>149</v>
+      <c r="D49" s="6">
+        <v>2012</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>4</v>
@@ -1547,13 +1550,13 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>2097</v>
+      <c r="D50" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>4</v>
@@ -1561,48 +1564,50 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="5">
-        <v>462.5</v>
+      <c r="D51" s="6">
+        <v>2097</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D52" s="5">
+        <v>462.5</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>3205.7</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2217.5</v>
+        <v>5</v>
+      </c>
+      <c r="D54" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1610,32 +1615,32 @@
         <v>47</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>2031.8</v>
+        <v>2217.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" s="6">
-        <v>3193.5</v>
+        <v>2031.8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>2</v>
@@ -1643,8 +1648,8 @@
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="5">
-        <v>511</v>
+      <c r="D57" s="6">
+        <v>3193.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1652,27 +1657,27 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1694</v>
+        <v>3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>511</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>10850</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1680,13 +1685,13 @@
         <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6">
-        <v>4500</v>
+        <v>10850</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1694,46 +1699,44 @@
         <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6">
-        <v>43029</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="5">
-        <v>223.7</v>
+        <v>5</v>
+      </c>
+      <c r="D62" s="6">
+        <v>43029</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" s="5">
-        <v>493</v>
+        <v>223.7</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>4</v>
@@ -1741,22 +1744,22 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="6">
-        <v>2022</v>
+      <c r="D64" s="5">
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="6">
-        <v>1982</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1764,18 +1767,18 @@
         <v>53</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" s="6">
-        <v>9914</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1783,13 +1786,13 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="5">
-        <v>404</v>
+      <c r="D67" s="6">
+        <v>5914</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1798,12 +1801,12 @@
         <v>6</v>
       </c>
       <c r="D68" s="5">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1811,39 +1814,39 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="6">
-        <v>1235</v>
+      <c r="D69" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1235</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2967</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1851,13 +1854,13 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="5">
-        <v>405</v>
+      <c r="D72" s="6">
+        <v>2967</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1865,13 +1868,13 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="6">
-        <v>1195</v>
+      <c r="D73" s="5">
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1879,55 +1882,53 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="5">
-        <v>400</v>
+      <c r="D74" s="6">
+        <v>1195</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="6">
-        <v>3558.4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" s="6">
-        <v>6742</v>
+        <v>3558.4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="6">
-        <v>1166</v>
+        <v>6742</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>2</v>
@@ -1936,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="6">
-        <v>2049</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1944,27 +1945,27 @@
         <v>57</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="6">
-        <v>1936</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>1545.5</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1972,46 +1973,46 @@
         <v>58</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>1427.5</v>
+        <v>1545.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>4646.5</v>
+        <v>1427.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D83" s="6">
+        <v>4646.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2020,12 +2021,12 @@
         <v>8</v>
       </c>
       <c r="D84" s="5">
-        <v>88.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2034,12 +2035,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>306.7</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2048,12 +2049,12 @@
         <v>8</v>
       </c>
       <c r="D86" s="5">
-        <v>302</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2062,35 +2063,35 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="6">
-        <v>2138.8000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="D88" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>2050.6</v>
+        <v>2138.8000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2098,32 +2099,32 @@
         <v>62</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="5">
-        <v>944</v>
+        <v>3</v>
+      </c>
+      <c r="D90" s="6">
+        <v>2049.6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="6">
-        <v>4936</v>
+        <v>5</v>
+      </c>
+      <c r="D91" s="5">
+        <v>943</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2132,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="6">
-        <v>1566.5</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2140,27 +2141,27 @@
         <v>64</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" s="6">
-        <v>2312</v>
+        <v>1566.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>1326</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2168,27 +2169,27 @@
         <v>65</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>1885.5</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6">
-        <v>1962</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2196,60 +2197,58 @@
         <v>66</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" s="6">
-        <v>1487</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1312</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" s="6">
-        <v>1764</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="5">
-        <v>224</v>
+        <v>5</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1764</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2258,12 +2257,12 @@
         <v>8</v>
       </c>
       <c r="D101" s="5">
-        <v>192.3</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2272,12 +2271,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>317</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2286,12 +2285,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>106</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2300,12 +2299,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>87.5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2314,12 +2313,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>112.3</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2327,43 +2326,49 @@
       <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="5">
-        <v>100.5</v>
-      </c>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>3956</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>100.5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
+      <c r="B109" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="6">
         <v>1386.4</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1131,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>2501.4</v>
+        <v>1973.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1173,7 +1173,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="5">
-        <v>117.3</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1565,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="6">
-        <v>2097</v>
+        <v>4401.8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="6">
-        <v>10850</v>
+        <v>9320</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2161,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>2312</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2175,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>1326</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>317</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2338,9 +2338,7 @@
       <c r="C107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="5">
-        <v>100.5</v>
-      </c>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
@@ -2353,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="D108" s="6">
-        <v>3956</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="109" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1882,9 +1882,7 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="6">
-        <v>1195</v>
-      </c>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
@@ -1923,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="6">
-        <v>6742</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1979,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>1545.5</v>
+        <v>2702.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2104,8 +2102,8 @@
       <c r="C90" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="6">
-        <v>2049.6</v>
+      <c r="D90" s="5">
+        <v>912.6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2216,7 +2214,9 @@
       <c r="C98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="6">
+        <v>2799.5</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="5">
-        <v>112</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>2589</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1285,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="D31" s="6">
-        <v>1295</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1565,7 +1565,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="6">
-        <v>4401.8</v>
+        <v>3776.8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1691,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="6">
-        <v>9320</v>
+        <v>9195</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1744,9 +1744,7 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="5">
-        <v>493</v>
-      </c>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
@@ -1758,9 +1756,7 @@
       <c r="C65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="6">
-        <v>2022</v>
-      </c>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
@@ -1786,9 +1782,7 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="6">
-        <v>5914</v>
-      </c>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
@@ -1882,7 +1876,9 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="6">
+        <v>2009.7</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
@@ -1935,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="D78" s="6">
-        <v>1166</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1991,7 +1987,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>1427.5</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2242,8 +2238,8 @@
       <c r="C100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="6">
-        <v>1764</v>
+      <c r="D100" s="5">
+        <v>597</v>
       </c>
     </row>
     <row r="101" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1649,7 +1649,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>3193.5</v>
+        <v>2430.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1717,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="6">
-        <v>43029</v>
+        <v>39919</v>
       </c>
     </row>
     <row r="63" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="98">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Пищевая продукция (моно), ф/п</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Фиточай "Опалиховский" НФП</t>
   </si>
 </sst>
 </file>
@@ -840,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D109"/>
+      <selection activeCell="A2" sqref="A2:D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1158,9 +1164,7 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="5">
-        <v>50</v>
-      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
@@ -1172,9 +1176,7 @@
       <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="5">
-        <v>57.3</v>
-      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
@@ -1411,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>14058.7</v>
+        <v>14017.7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1439,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1579</v>
+        <v>1558.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1662,8 +1664,8 @@
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="5">
-        <v>511</v>
+      <c r="D58" s="6">
+        <v>1601.7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1840,7 +1842,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1849,12 +1851,12 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>2967</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1862,13 +1864,13 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="5">
-        <v>405</v>
+      <c r="D73" s="6">
+        <v>2967</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1876,13 +1878,13 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="6">
-        <v>2009.7</v>
+      <c r="D74" s="5">
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
@@ -1890,53 +1892,53 @@
       <c r="C75" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="6">
+        <v>2009.7</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="6">
-        <v>3558.4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>6003</v>
+        <v>3558.4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="6">
-        <v>3182</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>2</v>
@@ -1945,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="6">
-        <v>2049</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1953,27 +1955,27 @@
         <v>57</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6">
-        <v>1936</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" s="6">
-        <v>2702.5</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1981,46 +1983,46 @@
         <v>58</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>2023</v>
+        <v>2702.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6">
-        <v>4646.5</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D84" s="6">
+        <v>9320.5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2029,12 +2031,12 @@
         <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>88.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2042,13 +2044,13 @@
       <c r="C86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="5">
-        <v>306.7</v>
+      <c r="D86" s="6">
+        <v>1304.3</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2057,12 +2059,12 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>302</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
@@ -2071,54 +2073,54 @@
         <v>8</v>
       </c>
       <c r="D88" s="5">
-        <v>307</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="6">
-        <v>2138.8000000000002</v>
+        <v>8</v>
+      </c>
+      <c r="D89" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D90" s="5">
-        <v>912.6</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="5">
-        <v>943</v>
+      <c r="D91" s="6">
+        <v>2138.8000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2126,41 +2128,41 @@
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="6">
-        <v>4936</v>
+      <c r="D92" s="5">
+        <v>912.6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="6">
-        <v>1566.5</v>
+        <v>5</v>
+      </c>
+      <c r="D93" s="5">
+        <v>943</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>1115</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>2</v>
@@ -2169,12 +2171,12 @@
         <v>3</v>
       </c>
       <c r="D95" s="6">
-        <v>3506</v>
+        <v>1566.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2183,12 +2185,12 @@
         <v>5</v>
       </c>
       <c r="D96" s="6">
-        <v>1885.5</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>2</v>
@@ -2197,12 +2199,12 @@
         <v>3</v>
       </c>
       <c r="D97" s="6">
-        <v>1962</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2211,26 +2213,26 @@
         <v>5</v>
       </c>
       <c r="D98" s="6">
-        <v>2799.5</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D99" s="6">
-        <v>1312</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2238,41 +2240,41 @@
       <c r="C100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="5">
-        <v>597</v>
+      <c r="D100" s="6">
+        <v>2799.5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="5">
-        <v>224</v>
+        <v>3</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1312</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D102" s="5">
-        <v>100</v>
+        <v>597</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2281,12 +2283,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2295,12 +2297,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2309,12 +2311,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>87.5</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2322,11 +2324,13 @@
       <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="7"/>
+      <c r="D106" s="5">
+        <v>106</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
@@ -2334,33 +2338,59 @@
       <c r="C107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="5">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>3906</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D108" s="7"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="6">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="6">
+      <c r="B111" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="6">
         <v>1386.4</v>
       </c>
     </row>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1080,9 +1080,7 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5">
-        <v>33</v>
-      </c>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" ht="22.5">
       <c r="A17" s="4" t="s">
@@ -1188,9 +1186,7 @@
       <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="5">
-        <v>50</v>
-      </c>
+      <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
@@ -1441,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1558.5</v>
+        <v>1006.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1497,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="D46" s="6">
-        <v>3414</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1539,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="6">
-        <v>2012</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1651,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>2430.5</v>
+        <v>1674.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1784,7 +1780,9 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="6">
+        <v>5024</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
@@ -1796,9 +1794,7 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="5">
-        <v>404</v>
-      </c>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
@@ -2143,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="5">
-        <v>943</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2269,7 +2265,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="5">
-        <v>597</v>
+        <v>152.6</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2338,9 +2334,7 @@
       <c r="C107" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="5">
-        <v>87.5</v>
-      </c>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
@@ -2364,7 +2358,9 @@
       <c r="C109" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D109" s="7"/>
+      <c r="D109" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1437,7 +1437,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>1006.5</v>
+        <v>1775.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1715,7 +1715,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="6">
-        <v>39919</v>
+        <v>46056</v>
       </c>
     </row>
     <row r="63" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="6">
-        <v>9195</v>
+        <v>13712</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1781,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="6">
-        <v>5024</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="68" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -849,7 +849,7 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D111"/>
+      <selection activeCell="A2" sqref="A2:D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1367,21 +1367,21 @@
         <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>5362</v>
+        <v>11373</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>6011</v>
+        <v>13070.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1389,74 +1389,74 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="6">
-        <v>13070.5</v>
+        <v>14017.7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" s="6">
-        <v>14017.7</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="6">
-        <v>1914</v>
+        <v>1775.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>1775.5</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>1124</v>
+        <v>16508.5</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>2</v>
@@ -1465,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="6">
-        <v>16508.5</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1473,13 +1473,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" s="6">
-        <v>2153</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1490,24 +1490,24 @@
         <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="6">
-        <v>2839</v>
+        <v>95</v>
+      </c>
+      <c r="D46" s="5">
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="5">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2583</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1515,18 +1515,18 @@
         <v>43</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" s="6">
-        <v>2583</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1534,13 +1534,13 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
-        <v>3070</v>
+      <c r="D49" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>4</v>
@@ -1548,13 +1548,13 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>149</v>
+      <c r="D50" s="6">
+        <v>3776.8</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>4</v>
@@ -1562,22 +1562,22 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6">
-        <v>3776.8</v>
+      <c r="D51" s="5">
+        <v>462.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5">
-        <v>462.5</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>3205.7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1585,27 +1585,27 @@
         <v>46</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="6">
-        <v>3205.7</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2217.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1613,32 +1613,32 @@
         <v>47</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="6">
-        <v>2217.5</v>
+        <v>2031.8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" s="6">
-        <v>2031.8</v>
+        <v>1674.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>2</v>
@@ -1647,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>1674.5</v>
+        <v>1601.7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1655,27 +1655,27 @@
         <v>49</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6">
-        <v>1601.7</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>1694</v>
+        <v>13712</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1683,58 +1683,56 @@
         <v>50</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="6">
-        <v>13712</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
+        <v>46056</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="6">
-        <v>46056</v>
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>223.7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="5">
-        <v>223.7</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>4</v>
@@ -1746,33 +1744,35 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1982</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66" s="6">
-        <v>1982</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>4</v>
@@ -1780,13 +1780,11 @@
       <c r="C67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="6">
-        <v>14847</v>
-      </c>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1794,11 +1792,13 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="5">
+        <v>408</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1806,39 +1806,39 @@
       <c r="C69" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="5">
-        <v>408</v>
+      <c r="D69" s="6">
+        <v>1235</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="6">
-        <v>1235</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1598</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
@@ -1847,12 +1847,12 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>1598</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1860,13 +1860,13 @@
       <c r="C73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="6">
-        <v>2967</v>
+      <c r="D73" s="5">
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1874,13 +1874,13 @@
       <c r="C74" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="5">
-        <v>405</v>
+      <c r="D74" s="6">
+        <v>2009.7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
@@ -1888,53 +1888,53 @@
       <c r="C75" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="6">
-        <v>2009.7</v>
-      </c>
+      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D76" s="6">
+        <v>3558.4</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="6">
-        <v>3558.4</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" s="6">
-        <v>6003</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>2</v>
@@ -1943,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="6">
-        <v>3182</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1951,27 +1951,27 @@
         <v>57</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" s="6">
-        <v>2049</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>1936</v>
+        <v>2702.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1979,46 +1979,46 @@
         <v>58</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>2702.5</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>2023</v>
+        <v>9320.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="6">
-        <v>9320.5</v>
+        <v>8</v>
+      </c>
+      <c r="D84" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
@@ -2026,13 +2026,13 @@
       <c r="C85" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="5">
-        <v>363</v>
+      <c r="D85" s="6">
+        <v>1304.3</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2040,13 +2040,13 @@
       <c r="C86" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="6">
-        <v>1304.3</v>
+      <c r="D86" s="5">
+        <v>88.5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>4</v>
@@ -2055,12 +2055,12 @@
         <v>8</v>
       </c>
       <c r="D87" s="5">
-        <v>88.5</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
@@ -2069,12 +2069,12 @@
         <v>8</v>
       </c>
       <c r="D88" s="5">
-        <v>306.7</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>4</v>
@@ -2083,35 +2083,35 @@
         <v>8</v>
       </c>
       <c r="D89" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D90" s="6">
+        <v>2138.8000000000002</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="6">
-        <v>2138.8000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="D91" s="5">
+        <v>912.6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2119,32 +2119,32 @@
         <v>62</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" s="5">
-        <v>912.6</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="5">
-        <v>468</v>
+        <v>3</v>
+      </c>
+      <c r="D93" s="6">
+        <v>4936</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="6">
-        <v>4936</v>
+        <v>1566.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2161,27 +2161,27 @@
         <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>1566.5</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" s="6">
-        <v>1115</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2189,27 +2189,27 @@
         <v>65</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" s="6">
-        <v>3506</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" s="6">
-        <v>1885.5</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2217,60 +2217,60 @@
         <v>66</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" s="6">
-        <v>1962</v>
+        <v>2799.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" s="6">
-        <v>2799.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="6">
-        <v>1312</v>
+        <v>5</v>
+      </c>
+      <c r="D101" s="5">
+        <v>152.6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>152.6</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2279,12 +2279,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="5">
-        <v>224</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2293,12 +2293,12 @@
         <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>100</v>
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2307,12 +2307,12 @@
         <v>8</v>
       </c>
       <c r="D105" s="5">
-        <v>242</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
@@ -2320,13 +2320,11 @@
       <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="5">
-        <v>106</v>
-      </c>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
@@ -2338,7 +2336,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
@@ -2346,25 +2344,27 @@
       <c r="C108" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="5">
+        <v>200</v>
+      </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="5">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="D109" s="6">
+        <v>3906</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>2</v>
@@ -2373,22 +2373,14 @@
         <v>3</v>
       </c>
       <c r="D110" s="6">
-        <v>3906</v>
+        <v>1386.4</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="6">
-        <v>1386.4</v>
-      </c>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -248,24 +248,15 @@
     <t>Можжевельник плоды НФП</t>
   </si>
   <si>
-    <t>Сбор Бруснивер НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
   </si>
   <si>
     <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
   </si>
   <si>
-    <t>Сбор Элекасол НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
   </si>
   <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
-  </si>
-  <si>
     <t>Фиточай Лактафитол НФП</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>Ольха соплодия НФП</t>
   </si>
   <si>
-    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
-  </si>
-  <si>
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
   </si>
   <si>
@@ -305,9 +293,6 @@
     <t>Щедрость природы Фиточай очищающий НФП</t>
   </si>
   <si>
-    <t>Сбор Желудочный №3 НФП</t>
-  </si>
-  <si>
     <t>Фиточай "Фитосбор №2" НФП</t>
   </si>
   <si>
@@ -321,6 +306,81 @@
   </si>
   <si>
     <t>Фиточай "Опалиховский" НФП</t>
+  </si>
+  <si>
+    <t>Анис обыкновенный плоды НФП</t>
+  </si>
+  <si>
+    <t>Бузина черная цветки НФП</t>
+  </si>
+  <si>
+    <t>Галега трава НФП</t>
+  </si>
+  <si>
+    <t>Гибискус цветки (каркадэ) НФП</t>
+  </si>
+  <si>
+    <t>Донник трава НФП</t>
+  </si>
+  <si>
+    <t>Душица трава НФП</t>
+  </si>
+  <si>
+    <t>Кориандр плоды НФП</t>
+  </si>
+  <si>
+    <t>Лаванда цветки НФП</t>
+  </si>
+  <si>
+    <t>Мальва цветки НФП</t>
+  </si>
+  <si>
+    <t>Облепиха листья НФП</t>
+  </si>
+  <si>
+    <t>Одуванчик корни НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитопектол №1 (Грудной сбор №1) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитопектол №2 (Грудной сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Смородина черная листья НФП</t>
+  </si>
+  <si>
+    <t>Сорго лимонное трава НФП</t>
+  </si>
+  <si>
+    <t>Тимьян обыкновенный трава НФП</t>
+  </si>
+  <si>
+    <t>Тмин плоды НФП</t>
+  </si>
+  <si>
+    <t>Фасоль обыкновенная плодов створки НФП</t>
+  </si>
+  <si>
+    <t>Фенхель плоды НФП</t>
+  </si>
+  <si>
+    <t>Фиалка трехцветная трава НФП</t>
+  </si>
+  <si>
+    <t>Хмель сырец шишки НФП</t>
+  </si>
+  <si>
+    <t>Черника обыкновенная побеги НФП</t>
+  </si>
+  <si>
+    <t>Шлемник байкальский корни НФП</t>
+  </si>
+  <si>
+    <t>Элеутерококк корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Яблоня плоды НФП</t>
   </si>
 </sst>
 </file>
@@ -846,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D110"/>
+      <selection activeCell="A2" sqref="A2:D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -884,8 +944,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
-        <v>750</v>
+      <c r="D2" s="6">
+        <v>1879</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -904,21 +964,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>988</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1428.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -926,153 +986,153 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
-        <v>1780</v>
+      <c r="D5" s="5">
+        <v>884.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>225</v>
+        <v>199.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>392.6</v>
+        <v>217.4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>1575</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="6">
-        <v>3253.5</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>560</v>
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>8640.4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5649</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1545</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>392.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3122</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>173.9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1736</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="6">
-        <v>2091.1999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22.5">
+        <v>3233.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -1080,39 +1140,41 @@
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.5">
+      <c r="D16" s="5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1568</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>1669.5</v>
+        <v>4008.3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>2</v>
@@ -1121,12 +1183,12 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>1789</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -1135,26 +1197,26 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>1973.4</v>
+        <v>3203.7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>158.9</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6689.6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1162,105 +1224,111 @@
       <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="5">
+        <v>130.69999999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1736</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1591.2</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>12693.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>3179.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D26" s="5">
-        <v>683</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="6">
-        <v>3163</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="5">
+        <v>151.30000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="6">
-        <v>2367</v>
+        <v>8</v>
+      </c>
+      <c r="D28" s="5">
+        <v>197.9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="5">
-        <v>337.5</v>
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1047.5</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
@@ -1269,278 +1337,276 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>1583</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="6">
-        <v>2280</v>
+        <v>1973.4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="5">
-        <v>658</v>
+        <v>158.9</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1545</v>
+        <v>8</v>
+      </c>
+      <c r="D33" s="5">
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1486</v>
+        <v>8</v>
+      </c>
+      <c r="D34" s="5">
+        <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1201</v>
+        <v>8</v>
+      </c>
+      <c r="D35" s="5">
+        <v>105.4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="5">
-        <v>657.5</v>
+        <v>453.2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>11373</v>
+        <v>11162.2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
-        <v>13070.5</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="6">
-        <v>14017.7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1914</v>
+        <v>1069.8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>1775.5</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>1124</v>
+        <v>3507.1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" s="6">
-        <v>16508.5</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="6">
-        <v>2153</v>
+        <v>5</v>
+      </c>
+      <c r="D44" s="5">
+        <v>337.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6">
-        <v>2839</v>
+        <v>6</v>
+      </c>
+      <c r="D45" s="5">
+        <v>266.7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="5">
-        <v>214</v>
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2583</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="6">
-        <v>3070</v>
+        <v>8</v>
+      </c>
+      <c r="D48" s="5">
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
-        <v>149</v>
+      <c r="D49" s="6">
+        <v>1534.7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>4</v>
@@ -1548,55 +1614,55 @@
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>3776.8</v>
+      <c r="D50" s="5">
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>462.5</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1525</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" s="6">
-        <v>3205.7</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="5">
-        <v>605</v>
+        <v>796</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>2</v>
@@ -1605,200 +1671,206 @@
         <v>3</v>
       </c>
       <c r="D54" s="6">
-        <v>2217.5</v>
+        <v>2203.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2031.8</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="5">
+        <v>152.05000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1674.5</v>
+        <v>5</v>
+      </c>
+      <c r="D56" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>1601.7</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>1694</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>13712</v>
+        <v>13962.6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D60" s="5">
+        <v>67.7</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="6">
-        <v>46056</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="5">
-        <v>223.7</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1712.5</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1124</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>1982</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>14847</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D67" s="5">
+        <v>52.8</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="5">
-        <v>408</v>
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <v>4012</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1807,66 +1879,68 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>1235</v>
+        <v>8927.9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" s="6">
-        <v>1598</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="6">
-        <v>2967</v>
+        <v>7</v>
+      </c>
+      <c r="D72" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="5">
-        <v>405</v>
+        <v>5</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3070</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1875,38 +1949,40 @@
         <v>6</v>
       </c>
       <c r="D74" s="6">
-        <v>2009.7</v>
+        <v>10373.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D75" s="5">
+        <v>478.1</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="6">
-        <v>3558.4</v>
+        <v>8</v>
+      </c>
+      <c r="D76" s="5">
+        <v>13.1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -1914,429 +1990,423 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="6">
-        <v>6003</v>
+      <c r="D77" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="6">
-        <v>3182</v>
+        <v>3042.8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2049</v>
+        <v>5</v>
+      </c>
+      <c r="D79" s="5">
+        <v>462.5</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" s="6">
-        <v>1936</v>
+        <v>2125.6999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="6">
-        <v>2702.5</v>
+        <v>5</v>
+      </c>
+      <c r="D81" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="6">
-        <v>2023</v>
+        <v>6</v>
+      </c>
+      <c r="D82" s="5">
+        <v>957.7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>9320.5</v>
+        <v>2126.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="5">
-        <v>363</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D85" s="6">
-        <v>1304.3</v>
+        <v>1989.8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="5">
-        <v>88.5</v>
+        <v>3</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1674.5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="5">
-        <v>306.7</v>
+        <v>3</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1591.7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="5">
-        <v>302</v>
+        <v>6</v>
+      </c>
+      <c r="D88" s="6">
+        <v>2088</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1694</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>2138.8000000000002</v>
+        <v>12062</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D91" s="5">
-        <v>912.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="5">
-        <v>468</v>
+        <v>6</v>
+      </c>
+      <c r="D92" s="6">
+        <v>29481.4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>4936</v>
+        <v>42584</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="6">
-        <v>1566.5</v>
+      <c r="D94" s="5">
+        <v>428.3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="6">
-        <v>1115</v>
+        <v>6</v>
+      </c>
+      <c r="D95" s="5">
+        <v>992</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="6">
-        <v>3506</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97" s="6">
-        <v>1885.5</v>
+        <v>9823</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1962</v>
+        <v>6</v>
+      </c>
+      <c r="D98" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="6">
-        <v>2799.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="6">
-        <v>1312</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="5">
-        <v>152.6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D102" s="5">
-        <v>224</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D103" s="5">
-        <v>100</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="5">
-        <v>242</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="5">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D105" s="6">
+        <v>2009.7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>5369.4</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D107" s="6">
+        <v>10264</v>
+      </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
@@ -2345,12 +2415,12 @@
         <v>8</v>
       </c>
       <c r="D108" s="5">
-        <v>200</v>
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>2</v>
@@ -2359,28 +2429,800 @@
         <v>3</v>
       </c>
       <c r="D109" s="6">
-        <v>3906</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="5">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="6">
+        <v>4609.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="5">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="6">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="6">
+        <v>8101.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="6">
+        <v>2279.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2164.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="6">
+        <v>4781.6000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="6">
+        <v>6700.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="5">
+        <v>914.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="5">
+        <v>568.79999999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="5">
+        <v>850.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="6">
+        <v>11575.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="5">
+        <v>879.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="5">
+        <v>306.7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="5">
+        <v>832.9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="5">
+        <v>902.6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1350.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D139" s="6">
+        <v>2621.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="6">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="6">
+        <v>2442.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="6">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="6">
+        <v>2404.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="5">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="6">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="6">
+        <v>1885.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D147" s="6">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="6">
+        <v>5496.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="5">
+        <v>740.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D150" s="6">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="6">
+        <v>2528.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="6">
+        <v>5656.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="5">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="7"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="7"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="6">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="5">
+        <v>503.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="5">
+        <v>254.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="6">
+        <v>2406.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="6">
-        <v>1386.4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="6"/>
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="5">
+        <v>260.10000000000002</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="120">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>Яблоня плоды НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
+  </si>
+  <si>
+    <t>Сбор Бруснивер НФП</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D166"/>
+      <selection activeCell="A2" sqref="A2:D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1272,35 +1278,35 @@
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22.5">
+      <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5">
         <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5">
-        <v>151.30000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -1309,26 +1315,26 @@
         <v>8</v>
       </c>
       <c r="D28" s="5">
-        <v>197.9</v>
+        <v>151.30000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1047.5</v>
+        <v>8</v>
+      </c>
+      <c r="D29" s="5">
+        <v>197.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
@@ -1337,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>1789</v>
+        <v>1047.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1345,32 +1351,32 @@
         <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="6">
-        <v>1973.4</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5">
-        <v>158.9</v>
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1973.4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
@@ -1379,12 +1385,12 @@
         <v>8</v>
       </c>
       <c r="D33" s="5">
-        <v>151</v>
+        <v>158.9</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
@@ -1393,12 +1399,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>301</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
@@ -1407,35 +1413,35 @@
         <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>105.4</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5">
-        <v>453.2</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>11162.2</v>
+        <v>6</v>
+      </c>
+      <c r="D37" s="5">
+        <v>453.2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1443,53 +1449,53 @@
         <v>29</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>1385</v>
+        <v>11162.2</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1385</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1069.8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41" s="6">
-        <v>3143</v>
+        <v>1069.8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1497,13 +1503,13 @@
         <v>30</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>3507.1</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1511,55 +1517,55 @@
         <v>30</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>2367</v>
+        <v>3507.1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="5">
-        <v>337.5</v>
+      <c r="D44" s="6">
+        <v>2367</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
-        <v>266.7</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1583</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
+        <v>791.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1567,13 +1573,13 @@
         <v>32</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5">
-        <v>418</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1584,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" s="5">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1595,41 +1601,41 @@
         <v>32</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1534.7</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="5">
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>333</v>
+      <c r="D50" s="6">
+        <v>1534.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1525</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1637,13 +1643,13 @@
         <v>34</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="6">
-        <v>1486</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1654,80 +1660,80 @@
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="5">
-        <v>796</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1486</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2203.5</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>796</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="5">
-        <v>152.05000000000001</v>
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2203.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D56" s="5">
-        <v>657.5</v>
+        <v>152.05000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="6">
-        <v>8573</v>
+        <v>5</v>
+      </c>
+      <c r="D57" s="5">
+        <v>657.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>12315.5</v>
+        <v>8573</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1735,41 +1741,41 @@
         <v>38</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>13962.6</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="5">
-        <v>67.7</v>
+        <v>5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13962.6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1215</v>
+        <v>8</v>
+      </c>
+      <c r="D61" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1780,55 +1786,55 @@
         <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1215</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1712.5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" s="6">
-        <v>1124</v>
+        <v>1712.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>14400</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -1837,7 +1843,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>3161</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1848,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5">
-        <v>52.8</v>
+        <v>3</v>
+      </c>
+      <c r="D67" s="6">
+        <v>3161</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1859,13 +1865,13 @@
         <v>42</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="6">
-        <v>4012</v>
+        <v>7</v>
+      </c>
+      <c r="D68" s="5">
+        <v>52.8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1876,10 +1882,10 @@
         <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="6">
-        <v>8927.9</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1890,24 +1896,24 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="5">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D70" s="6">
+        <v>8927.9</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2583</v>
+        <v>90</v>
+      </c>
+      <c r="D71" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1918,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5">
-        <v>641.5</v>
+        <v>3</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2583</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1929,13 +1935,13 @@
         <v>43</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="6">
-        <v>3070</v>
+        <v>7</v>
+      </c>
+      <c r="D73" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1946,29 +1952,29 @@
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="6">
-        <v>10373.5</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="5">
-        <v>478.1</v>
+        <v>6</v>
+      </c>
+      <c r="D75" s="6">
+        <v>10373.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1977,26 +1983,26 @@
         <v>8</v>
       </c>
       <c r="D76" s="5">
-        <v>13.1</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D77" s="5">
-        <v>149</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -2004,13 +2010,13 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="6">
-        <v>3042.8</v>
+      <c r="D78" s="5">
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>4</v>
@@ -2018,22 +2024,22 @@
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="5">
-        <v>462.5</v>
+      <c r="D79" s="6">
+        <v>3042.8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="6">
-        <v>2125.6999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="5">
+        <v>462.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2041,13 +2047,13 @@
         <v>46</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2125.6999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2058,24 +2064,24 @@
         <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" s="5">
-        <v>957.7</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="6">
-        <v>2126.5</v>
+        <v>6</v>
+      </c>
+      <c r="D83" s="5">
+        <v>957.7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2086,41 +2092,41 @@
         <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D84" s="6">
+        <v>2126.5</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1989.8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>1674.5</v>
+        <v>1989.8</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>2</v>
@@ -2129,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>1591.7</v>
+        <v>1674.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2137,13 +2143,13 @@
         <v>49</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>2088</v>
+        <v>1591.7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2151,27 +2157,27 @@
         <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>1694</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>12062</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2182,10 +2188,10 @@
         <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="5">
-        <v>10.4</v>
+        <v>3</v>
+      </c>
+      <c r="D91" s="6">
+        <v>12062</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2193,13 +2199,13 @@
         <v>50</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="6">
-        <v>29481.4</v>
+        <v>7</v>
+      </c>
+      <c r="D92" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2207,60 +2213,60 @@
         <v>50</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93" s="6">
-        <v>42584</v>
+        <v>29481.4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="5">
-        <v>428.3</v>
+        <v>5</v>
+      </c>
+      <c r="D94" s="6">
+        <v>42584</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" s="5">
-        <v>992</v>
+        <v>428.3</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D96" s="5">
-        <v>900</v>
+        <v>992</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2269,26 +2275,26 @@
         <v>6</v>
       </c>
       <c r="D97" s="6">
-        <v>9823</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>408</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2296,11 +2302,13 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="6">
+        <v>9823</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2308,11 +2316,13 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="5">
+        <v>408</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2324,126 +2334,122 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="5">
-        <v>329</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="5">
-        <v>357</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D104" s="5">
+        <v>329</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="6">
-        <v>2009.7</v>
+        <v>7</v>
+      </c>
+      <c r="D105" s="5">
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
-        <v>5369.4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107" s="6">
-        <v>10264</v>
+        <v>2009.7</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>4860</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D109" s="6">
-        <v>3182</v>
+        <v>10264</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D110" s="5">
-        <v>63.2</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2451,46 +2457,46 @@
         <v>56</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D111" s="6">
-        <v>4609.2</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D112" s="5">
-        <v>82.2</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="5">
-        <v>11.4</v>
+        <v>6</v>
+      </c>
+      <c r="D113" s="6">
+        <v>4609.2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>4</v>
@@ -2499,35 +2505,35 @@
         <v>8</v>
       </c>
       <c r="D114" s="5">
-        <v>284</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D115" s="5">
+        <v>11.4</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="6">
-        <v>1936</v>
+        <v>8</v>
+      </c>
+      <c r="D116" s="5">
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2535,41 +2541,41 @@
         <v>57</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D117" s="6">
-        <v>8101.5</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D118" s="6">
-        <v>2279.5</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="5">
-        <v>329</v>
+        <v>6</v>
+      </c>
+      <c r="D119" s="6">
+        <v>8101.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2577,13 +2583,13 @@
         <v>58</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D120" s="6">
-        <v>1663</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2591,74 +2597,74 @@
         <v>58</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="6">
-        <v>2164.9</v>
+        <v>7</v>
+      </c>
+      <c r="D121" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122" s="6">
-        <v>4781.6000000000004</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D123" s="6">
-        <v>6700.5</v>
+        <v>2164.9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="5">
-        <v>363</v>
+        <v>6</v>
+      </c>
+      <c r="D124" s="6">
+        <v>4781.6000000000004</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="5">
-        <v>914.4</v>
+        <v>3</v>
+      </c>
+      <c r="D125" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
@@ -2667,66 +2673,68 @@
         <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>568.79999999999995</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D127" s="5">
-        <v>850.5</v>
+        <v>914.4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>568.79999999999995</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" s="5">
-        <v>879.3</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D130" s="6">
+        <v>11575.9</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2735,12 +2743,12 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>306.7</v>
+        <v>879.3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2748,13 +2756,11 @@
       <c r="C132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="5">
-        <v>302</v>
-      </c>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
@@ -2763,68 +2769,68 @@
         <v>8</v>
       </c>
       <c r="D133" s="5">
-        <v>307</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="6">
-        <v>1537</v>
+        <v>8</v>
+      </c>
+      <c r="D134" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D135" s="5">
-        <v>406</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="5">
-        <v>832.9</v>
+        <v>5</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1537</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D137" s="5">
-        <v>902.6</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>4</v>
@@ -2832,8 +2838,8 @@
       <c r="C138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="6">
-        <v>1350.6</v>
+      <c r="D138" s="5">
+        <v>832.9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2841,55 +2847,55 @@
         <v>62</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D139" s="6">
-        <v>2621.6</v>
+        <v>3</v>
+      </c>
+      <c r="D139" s="5">
+        <v>902.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D140" s="6">
-        <v>4936</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" s="6">
-        <v>2442.5</v>
+        <v>2621.6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142" s="6">
-        <v>2220</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2897,60 +2903,60 @@
         <v>64</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>2404.9</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="5">
-        <v>840</v>
+        <v>5</v>
+      </c>
+      <c r="D144" s="6">
+        <v>2220</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D145" s="6">
-        <v>2779</v>
+        <v>2404.9</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D146" s="6">
-        <v>1885.5</v>
+        <v>6</v>
+      </c>
+      <c r="D146" s="5">
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>2</v>
@@ -2959,12 +2965,12 @@
         <v>3</v>
       </c>
       <c r="D147" s="6">
-        <v>1962</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>4</v>
@@ -2973,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="D148" s="6">
-        <v>5496.5</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2981,86 +2987,88 @@
         <v>66</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="5">
-        <v>740.5</v>
+        <v>3</v>
+      </c>
+      <c r="D149" s="6">
+        <v>3872</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>1312</v>
+        <v>5496.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="6">
-        <v>2528.5</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="5">
+        <v>740.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D152" s="6">
-        <v>5656.2</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="5">
-        <v>76.5</v>
+        <v>5</v>
+      </c>
+      <c r="D153" s="6">
+        <v>2528.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D154" s="6">
+        <v>5656.2</v>
+      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3069,12 +3077,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>100</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3082,13 +3090,11 @@
       <c r="C156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="5">
-        <v>242</v>
-      </c>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3096,11 +3102,13 @@
       <c r="C157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="7"/>
+      <c r="D157" s="5">
+        <v>100</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3109,12 +3117,12 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>206</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3122,13 +3130,11 @@
       <c r="C159" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="5">
-        <v>208</v>
-      </c>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
@@ -3137,54 +3143,54 @@
         <v>8</v>
       </c>
       <c r="D160" s="5">
-        <v>92</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="6">
-        <v>3806</v>
+        <v>8</v>
+      </c>
+      <c r="D161" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D162" s="5">
-        <v>503.2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D163" s="5">
-        <v>254.5</v>
+        <v>3</v>
+      </c>
+      <c r="D163" s="6">
+        <v>3806</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>4</v>
@@ -3192,35 +3198,63 @@
       <c r="C164" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D164" s="6">
-        <v>2406.9</v>
+      <c r="D164" s="5">
+        <v>503.2</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1089</v>
+        <v>7</v>
+      </c>
+      <c r="D165" s="5">
+        <v>254.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2406.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="5">
+      <c r="B168" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="5">
         <v>260.10000000000002</v>
       </c>
     </row>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="121">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Одуванчик корни НФП</t>
   </si>
   <si>
-    <t>Сбор Фитопектол №1 (Грудной сбор №1) НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитопектол №2 (Грудной сбор №2) НФП</t>
   </si>
   <si>
@@ -387,6 +384,12 @@
   </si>
   <si>
     <t>Сбор Бруснивер НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Сбор Элекасол НФП</t>
   </si>
 </sst>
 </file>
@@ -912,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D168"/>
+      <selection activeCell="A2" sqref="A2:D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -979,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>1428.5</v>
+        <v>1780.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1091,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5">
-        <v>392.6</v>
+        <v>370.2</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1161,7 +1164,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="6">
-        <v>1568</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1278,7 +1281,7 @@
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1329,7 +1332,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5">
-        <v>197.9</v>
+        <v>177.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1399,7 +1402,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1413,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>301</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1455,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>11162.2</v>
+        <v>8452.2000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1565,7 +1568,7 @@
         <v>6</v>
       </c>
       <c r="D46" s="5">
-        <v>791.7</v>
+        <v>740.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1621,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>1534.7</v>
+        <v>1490.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1789,7 +1792,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="6">
-        <v>1215</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1815,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="6">
-        <v>1712.5</v>
+        <v>1704.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1899,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="6">
-        <v>8927.9</v>
+        <v>8510.2999999999993</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1969,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="6">
-        <v>10373.5</v>
+        <v>10289.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2025,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="6">
-        <v>3042.8</v>
+        <v>4761.8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2039,7 +2042,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="5">
-        <v>462.5</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2081,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="D83" s="5">
-        <v>957.7</v>
+        <v>858.7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2121,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>1989.8</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2135,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>1674.5</v>
+        <v>4627.5</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2163,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>2088</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2177,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>1694</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2219,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="6">
-        <v>29481.4</v>
+        <v>29039.4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2233,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>42584</v>
+        <v>35958</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2266,7 +2269,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2275,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="6">
-        <v>4044</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2308,7 +2311,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2317,12 +2320,12 @@
         <v>6</v>
       </c>
       <c r="D100" s="5">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2346,7 +2349,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2358,21 +2361,19 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" s="5">
-        <v>329</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>2</v>
@@ -2412,16 +2413,16 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>4860</v>
+        <v>6</v>
+      </c>
+      <c r="D108" s="5">
+        <v>417</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2429,41 +2430,41 @@
         <v>55</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D109" s="6">
-        <v>10264</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D110" s="6">
+        <v>9264</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="6">
-        <v>3182</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2474,10 +2475,10 @@
         <v>2</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="5">
-        <v>63.2</v>
+        <v>3</v>
+      </c>
+      <c r="D112" s="6">
+        <v>2016</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2485,32 +2486,32 @@
         <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="6">
-        <v>4609.2</v>
+        <v>7</v>
+      </c>
+      <c r="D113" s="5">
+        <v>713.2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D114" s="6">
+        <v>8494.2000000000007</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>4</v>
@@ -2519,12 +2520,12 @@
         <v>8</v>
       </c>
       <c r="D115" s="5">
-        <v>11.4</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>4</v>
@@ -2533,21 +2534,21 @@
         <v>8</v>
       </c>
       <c r="D116" s="5">
-        <v>284</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D117" s="5">
+        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2555,13 +2556,13 @@
         <v>57</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D118" s="6">
-        <v>1936</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2572,24 +2573,24 @@
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" s="6">
-        <v>8101.5</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>2279.5</v>
+        <v>8101.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2600,10 +2601,10 @@
         <v>2</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="5">
-        <v>329</v>
+        <v>3</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2279.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2611,13 +2612,13 @@
         <v>58</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D122" s="6">
-        <v>1663</v>
+        <v>7</v>
+      </c>
+      <c r="D122" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2628,15 +2629,15 @@
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D123" s="6">
-        <v>2164.9</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
@@ -2645,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="6">
-        <v>4781.6000000000004</v>
+        <v>2164.9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2653,102 +2654,102 @@
         <v>59</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D125" s="6">
-        <v>6700.5</v>
+        <v>4381.6000000000004</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D126" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" s="5">
-        <v>914.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D128" s="5">
-        <v>568.79999999999995</v>
+        <v>914.4</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>850.5</v>
+        <v>568.79999999999995</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D130" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="5">
-        <v>879.3</v>
+        <v>6</v>
+      </c>
+      <c r="D131" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2756,11 +2757,13 @@
       <c r="C132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="5">
+        <v>879.3</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
@@ -2768,13 +2771,11 @@
       <c r="C133" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="5">
-        <v>306.7</v>
-      </c>
+      <c r="D133" s="7"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
@@ -2783,12 +2784,12 @@
         <v>8</v>
       </c>
       <c r="D134" s="5">
-        <v>302</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>4</v>
@@ -2797,21 +2798,21 @@
         <v>8</v>
       </c>
       <c r="D135" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1537</v>
+        <v>8</v>
+      </c>
+      <c r="D136" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2822,15 +2823,15 @@
         <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D137" s="5">
-        <v>406</v>
+        <v>5</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1537</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>4</v>
@@ -2839,21 +2840,21 @@
         <v>6</v>
       </c>
       <c r="D138" s="5">
-        <v>832.9</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D139" s="5">
-        <v>902.6</v>
+        <v>832.9</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2861,13 +2862,13 @@
         <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="6">
-        <v>1350.6</v>
+        <v>3</v>
+      </c>
+      <c r="D140" s="5">
+        <v>902.6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2875,32 +2876,32 @@
         <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" s="6">
-        <v>2621.6</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>4936</v>
+        <v>2621.6</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>2</v>
@@ -2909,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>2442.5</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2917,13 +2918,13 @@
         <v>64</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144" s="6">
-        <v>2220</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2934,15 +2935,15 @@
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D145" s="6">
-        <v>2404.9</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>4</v>
@@ -2950,22 +2951,22 @@
       <c r="C146" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="5">
-        <v>840</v>
+      <c r="D146" s="6">
+        <v>2374.9</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="6">
-        <v>2779</v>
+        <v>6</v>
+      </c>
+      <c r="D147" s="5">
+        <v>840</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2973,27 +2974,27 @@
         <v>65</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D148" s="6">
-        <v>1885.5</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" s="6">
-        <v>3872</v>
+        <v>1885.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3001,13 +3002,13 @@
         <v>66</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150" s="6">
-        <v>5496.5</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3018,38 +3019,38 @@
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="5">
-        <v>740.5</v>
+        <v>5</v>
+      </c>
+      <c r="D151" s="6">
+        <v>4571.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D152" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D152" s="5">
+        <v>656.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D153" s="6">
-        <v>2528.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3060,29 +3061,29 @@
         <v>4</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154" s="6">
-        <v>5656.2</v>
+        <v>2528.5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="5">
-        <v>76.5</v>
+        <v>6</v>
+      </c>
+      <c r="D155" s="6">
+        <v>5656.2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3090,11 +3091,13 @@
       <c r="C156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="7"/>
+      <c r="D156" s="5">
+        <v>68.5</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3103,12 +3106,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>100</v>
+        <v>402.6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3117,12 +3120,12 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>242</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3130,11 +3133,13 @@
       <c r="C159" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="5">
+        <v>242</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
@@ -3142,13 +3147,11 @@
       <c r="C160" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="5">
-        <v>206</v>
-      </c>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>4</v>
@@ -3157,12 +3160,12 @@
         <v>8</v>
       </c>
       <c r="D161" s="5">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>4</v>
@@ -3171,21 +3174,21 @@
         <v>8</v>
       </c>
       <c r="D162" s="5">
-        <v>92</v>
+        <v>208</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="6">
-        <v>3806</v>
+        <v>8</v>
+      </c>
+      <c r="D163" s="5">
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3193,68 +3196,82 @@
         <v>69</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="5">
-        <v>503.2</v>
+        <v>3</v>
+      </c>
+      <c r="D164" s="6">
+        <v>3806</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D165" s="5">
-        <v>254.5</v>
+        <v>419.2</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="6">
-        <v>2406.9</v>
+        <v>7</v>
+      </c>
+      <c r="D166" s="5">
+        <v>254.5</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D167" s="6">
-        <v>1089</v>
+        <v>2406.9</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="5">
+        <v>3</v>
+      </c>
+      <c r="D168" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="5">
         <v>260.10000000000002</v>
       </c>
     </row>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="6">
-        <v>3233.5</v>
+        <v>2753.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1206,7 +1206,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>3203.7</v>
+        <v>4662.7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>3179.4</v>
+        <v>3056.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
@@ -1497,8 +1497,8 @@
       <c r="C41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="6">
-        <v>1069.8</v>
+      <c r="D41" s="5">
+        <v>992.3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>3507.1</v>
+        <v>3498.8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1540,7 +1540,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="6">
-        <v>2367</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1638,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="5">
-        <v>333</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="5">
-        <v>657.5</v>
+        <v>332.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1818,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="D64" s="6">
-        <v>1704.5</v>
+        <v>1514.8</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1902,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="6">
-        <v>8510.2999999999993</v>
+        <v>8321.2999999999993</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2166,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>2068</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2236,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>35958</v>
+        <v>35908.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2278,7 +2278,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="6">
-        <v>4061</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>6</v>
       </c>
       <c r="D114" s="6">
-        <v>8494.2000000000007</v>
+        <v>8412.2000000000007</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="D124" s="6">
-        <v>2164.9</v>
+        <v>2082.4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2784,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="5">
-        <v>306.7</v>
+        <v>156.69999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2854,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="5">
-        <v>832.9</v>
+        <v>668.9</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2896,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>2621.6</v>
+        <v>2324.6</v>
       </c>
     </row>
     <row r="143" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1192,7 +1192,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>1545</v>
+        <v>2113.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>3498.8</v>
+        <v>4790.8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1652,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="6">
-        <v>1525</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2345,7 +2345,9 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="7"/>
+      <c r="D102" s="6">
+        <v>1979</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
@@ -2395,7 +2397,9 @@
       <c r="C106" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="7"/>
+      <c r="D106" s="5">
+        <v>812</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
@@ -3008,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="6">
-        <v>3872</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3147,7 +3151,9 @@
       <c r="C160" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="5">
+        <v>156</v>
+      </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
@@ -3160,7 +3166,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="5">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="120">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Рябина плоды НФП</t>
-  </si>
-  <si>
-    <t>Сбор Арфазетин-Э НФП</t>
   </si>
   <si>
     <t>Сбор Грудной №4 НФП</t>
@@ -918,7 +915,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D169"/>
+      <selection activeCell="A2" sqref="A2:D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -954,7 +951,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1879</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1015,7 +1012,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1220,12 +1217,12 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>6689.6</v>
+        <v>11514.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1281,7 +1278,7 @@
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1295,7 +1292,7 @@
     </row>
     <row r="27" spans="1:4" ht="22.5">
       <c r="A27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -1309,7 +1306,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -1323,7 +1320,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
@@ -1421,7 +1418,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
@@ -1435,7 +1432,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
@@ -1477,7 +1474,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>2</v>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>4</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>4</v>
@@ -1699,7 +1696,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
@@ -1736,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>8573</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1769,7 +1766,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>4</v>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>9</v>
@@ -1888,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="D69" s="6">
-        <v>4012</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1902,7 +1899,7 @@
         <v>6</v>
       </c>
       <c r="D70" s="6">
-        <v>8321.2999999999993</v>
+        <v>7921.3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1913,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="5">
         <v>8</v>
@@ -1972,12 +1969,12 @@
         <v>6</v>
       </c>
       <c r="D75" s="6">
-        <v>10289.5</v>
+        <v>9489.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1991,7 +1988,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -2005,7 +2002,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2263,41 +2260,41 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="5">
-        <v>992</v>
+      <c r="D96" s="6">
+        <v>2061</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2061</v>
+        <v>7</v>
+      </c>
+      <c r="D97" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D98" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2305,13 +2302,13 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="6">
-        <v>9823</v>
+      <c r="D99" s="5">
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2319,13 +2316,11 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="5">
-        <v>409</v>
-      </c>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2333,11 +2328,13 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="6">
+        <v>1979</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2345,13 +2342,11 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="6">
-        <v>1979</v>
-      </c>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2363,28 +2358,30 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D104" s="5">
+        <v>357</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D105" s="5">
-        <v>357</v>
+        <v>812</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2397,13 +2394,13 @@
       <c r="C106" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="5">
-        <v>812</v>
+      <c r="D106" s="6">
+        <v>2009.7</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
@@ -2411,106 +2408,106 @@
       <c r="C107" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="6">
-        <v>2009.7</v>
+      <c r="D107" s="5">
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="5">
-        <v>417</v>
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>4860</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D109" s="6">
-        <v>4860</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="6">
-        <v>9264</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="5">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="D111" s="6">
+        <v>2016</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="6">
-        <v>2016</v>
+        <v>7</v>
+      </c>
+      <c r="D112" s="5">
+        <v>713.2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" s="5">
-        <v>713.2</v>
+        <v>6</v>
+      </c>
+      <c r="D113" s="6">
+        <v>8412.2000000000007</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="6">
-        <v>8412.2000000000007</v>
+        <v>8</v>
+      </c>
+      <c r="D114" s="5">
+        <v>82.2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2524,7 +2521,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="5">
-        <v>82.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2538,49 +2535,49 @@
         <v>8</v>
       </c>
       <c r="D116" s="5">
-        <v>11.4</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="5">
-        <v>284</v>
+        <v>3</v>
+      </c>
+      <c r="D117" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D118" s="6">
-        <v>2039</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" s="6">
-        <v>1936</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2588,55 +2585,55 @@
         <v>57</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D120" s="6">
-        <v>8101.5</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="6">
-        <v>2279.5</v>
+        <v>7</v>
+      </c>
+      <c r="D121" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" s="5">
-        <v>329</v>
+        <v>5</v>
+      </c>
+      <c r="D122" s="6">
+        <v>2236</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D123" s="6">
-        <v>2236</v>
+        <v>2082.4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2650,21 +2647,21 @@
         <v>6</v>
       </c>
       <c r="D124" s="6">
-        <v>2082.4</v>
+        <v>3581.6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D125" s="6">
-        <v>4381.6000000000004</v>
+        <v>6700.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2672,27 +2669,27 @@
         <v>59</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="6">
-        <v>6700.5</v>
+        <v>8</v>
+      </c>
+      <c r="D126" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D127" s="5">
-        <v>363</v>
+        <v>914.4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2703,10 +2700,10 @@
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D128" s="5">
-        <v>914.4</v>
+        <v>568.79999999999995</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2714,46 +2711,46 @@
         <v>110</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" s="5">
-        <v>568.79999999999995</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="5">
-        <v>850.5</v>
+        <v>6</v>
+      </c>
+      <c r="D130" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D131" s="5">
+        <v>879.3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2761,13 +2758,11 @@
       <c r="C132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="5">
-        <v>879.3</v>
-      </c>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
@@ -2775,7 +2770,9 @@
       <c r="C133" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="7"/>
+      <c r="D133" s="5">
+        <v>156.69999999999999</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
@@ -2788,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="5">
-        <v>156.69999999999999</v>
+        <v>302</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2802,40 +2799,40 @@
         <v>8</v>
       </c>
       <c r="D135" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1537</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="6">
-        <v>1537</v>
+        <v>6</v>
+      </c>
+      <c r="D137" s="5">
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>4</v>
@@ -2844,49 +2841,49 @@
         <v>6</v>
       </c>
       <c r="D138" s="5">
-        <v>406</v>
+        <v>668.9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D139" s="5">
-        <v>668.9</v>
+        <v>902.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="5">
-        <v>902.6</v>
+        <v>6</v>
+      </c>
+      <c r="D140" s="6">
+        <v>1350.6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141" s="6">
-        <v>1350.6</v>
+        <v>2324.6</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2894,13 +2891,13 @@
         <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142" s="6">
-        <v>2324.6</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2914,40 +2911,40 @@
         <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>4200</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>2442.5</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D145" s="6">
-        <v>2220</v>
+        <v>2374.9</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>4</v>
@@ -2955,36 +2952,36 @@
       <c r="C146" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="6">
-        <v>2374.9</v>
+      <c r="D146" s="5">
+        <v>840</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="5">
-        <v>840</v>
+        <v>3</v>
+      </c>
+      <c r="D147" s="6">
+        <v>2779</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" s="6">
-        <v>2779</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2992,102 +2989,102 @@
         <v>65</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="6">
-        <v>1885.5</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>2900</v>
+        <v>4571.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="6">
-        <v>4571.5</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="5">
+        <v>656.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="5">
-        <v>656.5</v>
+        <v>3</v>
+      </c>
+      <c r="D152" s="6">
+        <v>1312</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D153" s="6">
-        <v>1312</v>
+        <v>2528.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D154" s="6">
-        <v>2528.5</v>
+        <v>5656.2</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="6">
-        <v>5656.2</v>
+        <v>8</v>
+      </c>
+      <c r="D155" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3096,7 +3093,7 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>68.5</v>
+        <v>202.6</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3109,9 +3106,7 @@
       <c r="C157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="5">
-        <v>402.6</v>
-      </c>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
@@ -3124,12 +3119,12 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>100</v>
+        <v>242</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3138,12 +3133,12 @@
         <v>8</v>
       </c>
       <c r="D159" s="5">
-        <v>242</v>
+        <v>156</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
@@ -3152,12 +3147,12 @@
         <v>8</v>
       </c>
       <c r="D160" s="5">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>4</v>
@@ -3166,7 +3161,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="5">
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3180,106 +3175,98 @@
         <v>8</v>
       </c>
       <c r="D162" s="5">
-        <v>208</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="5">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="D163" s="6">
+        <v>3806</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="6">
-        <v>3806</v>
+        <v>6</v>
+      </c>
+      <c r="D164" s="5">
+        <v>419.2</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D165" s="5">
-        <v>419.2</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D166" s="5">
-        <v>254.5</v>
+        <v>6</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2006.9</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D167" s="6">
-        <v>2406.9</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D168" s="6">
-        <v>1089</v>
+        <v>8</v>
+      </c>
+      <c r="D168" s="5">
+        <v>260.10000000000002</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" s="5">
-        <v>260.10000000000002</v>
-      </c>
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D106"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Детский травяной чай "ФармаЦветик для животика" НФП</t>
   </si>
   <si>
-    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
-  </si>
-  <si>
     <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
   </si>
   <si>
     <t>Сбор Желудочный №3 НФП</t>
-  </si>
-  <si>
-    <t>Сбор Элекасол НФП</t>
   </si>
 </sst>
 </file>
@@ -915,7 +909,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D168"/>
+      <selection activeCell="A2" sqref="A2:D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1012,7 +1006,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1222,7 +1216,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1278,7 +1272,7 @@
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1292,7 +1286,7 @@
     </row>
     <row r="27" spans="1:4" ht="22.5">
       <c r="A27" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -1306,7 +1300,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -1320,7 +1314,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
@@ -1399,12 +1393,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
@@ -1413,117 +1407,117 @@
         <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>151</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="5">
-        <v>105.4</v>
+        <v>453.2</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="5">
-        <v>453.2</v>
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8452.2000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
-        <v>8452.2000000000007</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1385</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1609.3</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="5">
-        <v>992.3</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3143</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>3143</v>
+        <v>4790.8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="6">
-        <v>4790.8</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1531,83 +1525,83 @@
         <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="6">
-        <v>1618</v>
+      <c r="D44" s="5">
+        <v>337.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="5">
-        <v>337.5</v>
+        <v>665.7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5">
-        <v>740.7</v>
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1583</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" s="5">
-        <v>418</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="5">
-        <v>158</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1490.7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1615,13 +1609,13 @@
         <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>1490.7</v>
+      <c r="D50" s="5">
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1629,41 +1623,41 @@
         <v>33</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>999</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2475</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" s="6">
-        <v>2475</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1486</v>
+        <v>6</v>
+      </c>
+      <c r="D53" s="5">
+        <v>796</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1671,41 +1665,41 @@
         <v>34</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="5">
-        <v>796</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2203.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2203.5</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="5">
+        <v>152.05000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="5">
-        <v>152.05000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1122.2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1713,13 +1707,13 @@
         <v>36</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5">
-        <v>332.5</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <v>6011</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1727,109 +1721,109 @@
         <v>37</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>6011</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>12315.5</v>
+        <v>13962.6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6">
-        <v>13962.6</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="5">
-        <v>67.7</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1955</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1955</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1514.8</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" s="6">
-        <v>1514.8</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>1124</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1843,63 +1837,63 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>14400</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6">
-        <v>3161</v>
+        <v>7</v>
+      </c>
+      <c r="D67" s="5">
+        <v>52.8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5">
-        <v>52.8</v>
+        <v>5</v>
+      </c>
+      <c r="D68" s="6">
+        <v>3462</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>3462</v>
+        <v>7921.3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="6">
-        <v>7921.3</v>
+        <v>88</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1907,69 +1901,69 @@
         <v>42</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" s="5">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2583</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="6">
-        <v>2583</v>
+        <v>7</v>
+      </c>
+      <c r="D72" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="5">
-        <v>641.5</v>
+        <v>5</v>
+      </c>
+      <c r="D73" s="6">
+        <v>3070</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74" s="6">
-        <v>3070</v>
+        <v>9489.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="6">
-        <v>9489.5</v>
+        <v>8</v>
+      </c>
+      <c r="D75" s="5">
+        <v>478.1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1983,26 +1977,26 @@
         <v>8</v>
       </c>
       <c r="D76" s="5">
-        <v>478.1</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5">
-        <v>13.1</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -2010,8 +2004,8 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="5">
-        <v>149</v>
+      <c r="D78" s="6">
+        <v>4023.8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2024,8 +2018,8 @@
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="6">
-        <v>4761.8</v>
+      <c r="D79" s="5">
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2033,41 +2027,41 @@
         <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5">
-        <v>311</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2125.6999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="6">
-        <v>2125.6999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="D81" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" s="5">
-        <v>605</v>
+        <v>858.7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2075,53 +2069,53 @@
         <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="5">
-        <v>858.7</v>
+        <v>3</v>
+      </c>
+      <c r="D83" s="6">
+        <v>2126.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="6">
-        <v>2126.5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1574</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" s="6">
-        <v>1574</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2135,35 +2129,35 @@
         <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>4627.5</v>
+        <v>1591.7</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D88" s="6">
-        <v>1591.7</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>1740</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2171,55 +2165,55 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>1244</v>
+        <v>12062</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="6">
-        <v>12062</v>
+        <v>7</v>
+      </c>
+      <c r="D91" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="5">
-        <v>10.4</v>
+        <v>6</v>
+      </c>
+      <c r="D92" s="6">
+        <v>29039.4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>29039.4</v>
+        <v>42053.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2227,60 +2221,60 @@
         <v>50</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="6">
-        <v>35908.5</v>
+        <v>3</v>
+      </c>
+      <c r="D94" s="5">
+        <v>428.3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="5">
-        <v>428.3</v>
+        <v>6</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2061</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="6">
-        <v>2061</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D97" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2288,13 +2282,13 @@
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="6">
-        <v>9823</v>
+      <c r="D98" s="5">
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2302,13 +2296,11 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="5">
-        <v>409</v>
-      </c>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2316,11 +2308,13 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="6">
+        <v>1979</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2328,13 +2322,11 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="6">
-        <v>1979</v>
-      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2346,28 +2338,30 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D103" s="5">
+        <v>357</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D104" s="5">
-        <v>357</v>
+        <v>812</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2380,50 +2374,50 @@
       <c r="C105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="5">
-        <v>812</v>
+      <c r="D105" s="6">
+        <v>2009.7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>2009.7</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="5">
-        <v>417</v>
+        <v>5</v>
+      </c>
+      <c r="D107" s="6">
+        <v>9264</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>4860</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2431,74 +2425,74 @@
         <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D109" s="6">
-        <v>9264</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" s="5">
-        <v>307</v>
+        <v>713.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D111" s="6">
-        <v>2016</v>
+        <v>8412.2000000000007</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>713.2</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113" s="6">
-        <v>8412.2000000000007</v>
+        <v>8</v>
+      </c>
+      <c r="D113" s="5">
+        <v>11.4</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>4</v>
@@ -2507,49 +2501,49 @@
         <v>8</v>
       </c>
       <c r="D114" s="5">
-        <v>82.2</v>
+        <v>284</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="5">
-        <v>11.4</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="5">
-        <v>284</v>
+        <v>5</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1936</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>2039</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2557,13 +2551,13 @@
         <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D118" s="6">
-        <v>1936</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2571,41 +2565,41 @@
         <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="6">
-        <v>6567</v>
+        <v>7</v>
+      </c>
+      <c r="D119" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" s="6">
-        <v>2279.5</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" s="5">
-        <v>329</v>
+        <v>6</v>
+      </c>
+      <c r="D121" s="6">
+        <v>2082.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2616,10 +2610,10 @@
         <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122" s="6">
-        <v>2236</v>
+        <v>3581.6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2627,13 +2621,13 @@
         <v>57</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D123" s="6">
-        <v>2082.4</v>
+        <v>6700.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2644,29 +2638,29 @@
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="6">
-        <v>3581.6</v>
+        <v>8</v>
+      </c>
+      <c r="D124" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="6">
-        <v>6700.5</v>
+        <v>6</v>
+      </c>
+      <c r="D125" s="5">
+        <v>914.4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
@@ -2675,21 +2669,21 @@
         <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>363</v>
+        <v>568.79999999999995</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D127" s="5">
-        <v>914.4</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2700,43 +2694,41 @@
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="5">
-        <v>568.79999999999995</v>
+        <v>6</v>
+      </c>
+      <c r="D128" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>850.5</v>
+        <v>879.3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="6">
-        <v>11575.9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2745,12 +2737,12 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>879.3</v>
+        <v>156.69999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2758,11 +2750,13 @@
       <c r="C132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="5">
+        <v>302</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
@@ -2771,49 +2765,49 @@
         <v>8</v>
       </c>
       <c r="D133" s="5">
-        <v>156.69999999999999</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="5">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1537</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D135" s="5">
-        <v>307</v>
+        <v>406</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1537</v>
+        <v>6</v>
+      </c>
+      <c r="D136" s="5">
+        <v>668.9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2821,18 +2815,18 @@
         <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D137" s="5">
-        <v>406</v>
+        <v>902.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>4</v>
@@ -2840,22 +2834,22 @@
       <c r="C138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="5">
-        <v>668.9</v>
+      <c r="D138" s="6">
+        <v>1350.6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="5">
-        <v>902.6</v>
+        <v>5</v>
+      </c>
+      <c r="D139" s="6">
+        <v>1856.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2863,27 +2857,27 @@
         <v>61</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D140" s="6">
-        <v>1350.6</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>2324.6</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2891,41 +2885,41 @@
         <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>4200</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D143" s="6">
-        <v>2442.5</v>
+        <v>2374.9</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D144" s="6">
-        <v>2220</v>
+        <v>6</v>
+      </c>
+      <c r="D144" s="5">
+        <v>840</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2933,27 +2927,27 @@
         <v>63</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D145" s="6">
-        <v>2374.9</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="5">
-        <v>840</v>
+        <v>5</v>
+      </c>
+      <c r="D146" s="6">
+        <v>1561.5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2967,7 +2961,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="6">
-        <v>2779</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2981,35 +2975,35 @@
         <v>5</v>
       </c>
       <c r="D148" s="6">
-        <v>1561.5</v>
+        <v>4571.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="6">
-        <v>2900</v>
+        <v>6</v>
+      </c>
+      <c r="D149" s="5">
+        <v>656.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D150" s="6">
-        <v>4571.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3020,57 +3014,57 @@
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="5">
-        <v>656.5</v>
+        <v>5</v>
+      </c>
+      <c r="D151" s="6">
+        <v>2528.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D152" s="6">
-        <v>1312</v>
+        <v>5656.2</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D153" s="6">
-        <v>2528.5</v>
+        <v>8</v>
+      </c>
+      <c r="D153" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" s="6">
-        <v>5656.2</v>
+        <v>8</v>
+      </c>
+      <c r="D154" s="5">
+        <v>202.6</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3078,13 +3072,11 @@
       <c r="C155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="5">
-        <v>68.5</v>
-      </c>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3093,12 +3085,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>202.6</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3106,11 +3098,13 @@
       <c r="C157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="7"/>
+      <c r="D157" s="5">
+        <v>156</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3119,12 +3113,12 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>242</v>
+        <v>106</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3133,12 +3127,12 @@
         <v>8</v>
       </c>
       <c r="D159" s="5">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
@@ -3147,54 +3141,54 @@
         <v>8</v>
       </c>
       <c r="D160" s="5">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="5">
-        <v>208</v>
+        <v>3</v>
+      </c>
+      <c r="D161" s="6">
+        <v>3806</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D162" s="5">
-        <v>92</v>
+        <v>419.2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="6">
-        <v>3806</v>
+        <v>7</v>
+      </c>
+      <c r="D163" s="5">
+        <v>254.5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>4</v>
@@ -3202,22 +3196,22 @@
       <c r="C164" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D164" s="5">
-        <v>419.2</v>
+      <c r="D164" s="6">
+        <v>2006.9</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" s="5">
-        <v>254.5</v>
+        <v>3</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1089</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3228,39 +3222,23 @@
         <v>4</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" s="6">
-        <v>2006.9</v>
+        <v>8</v>
+      </c>
+      <c r="D166" s="5">
+        <v>260.10000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="6">
-        <v>1089</v>
-      </c>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" s="5">
-        <v>260.10000000000002</v>
-      </c>
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="5"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="117">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
-  </si>
-  <si>
-    <t>Сбор Бруснивер НФП</t>
   </si>
   <si>
     <t>Сбор Желудочный №3 НФП</t>
@@ -909,7 +906,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D166"/>
+      <selection activeCell="A2" sqref="A2:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1323,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5">
-        <v>177.9</v>
+        <v>135.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1837,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>3161</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2075,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>2126.5</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2227,21 +2224,21 @@
         <v>3</v>
       </c>
       <c r="D94" s="5">
-        <v>428.3</v>
+        <v>204.6</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="6">
-        <v>2061</v>
+        <v>7</v>
+      </c>
+      <c r="D95" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2249,18 +2246,18 @@
         <v>51</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D96" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2268,13 +2265,13 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="6">
-        <v>9823</v>
+      <c r="D97" s="5">
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2282,13 +2279,11 @@
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="5">
-        <v>409</v>
-      </c>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2296,11 +2291,13 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="6">
+        <v>1979</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2308,13 +2305,11 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="6">
-        <v>1979</v>
-      </c>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2322,37 +2317,41 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D102" s="5">
+        <v>357</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" s="5">
-        <v>357</v>
+        <v>812</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2360,22 +2359,22 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="5">
-        <v>812</v>
+      <c r="D104" s="6">
+        <v>2009.7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>2009.7</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2383,41 +2382,41 @@
         <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D106" s="6">
-        <v>4860</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="6">
-        <v>9264</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2016</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2428,10 +2427,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="6">
-        <v>2016</v>
+        <v>7</v>
+      </c>
+      <c r="D109" s="5">
+        <v>713.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2439,32 +2438,32 @@
         <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="5">
-        <v>713.2</v>
+        <v>6</v>
+      </c>
+      <c r="D110" s="6">
+        <v>8412.2000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="6">
-        <v>8412.2000000000007</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="5">
+        <v>82.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
@@ -2473,12 +2472,12 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>82.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
@@ -2487,21 +2486,21 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>11.4</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="5">
-        <v>284</v>
+        <v>3</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2509,13 +2508,13 @@
         <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>2039</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2526,24 +2525,24 @@
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>1936</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D117" s="6">
-        <v>6567</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2554,10 +2553,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="6">
-        <v>2279.5</v>
+        <v>7</v>
+      </c>
+      <c r="D118" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2565,13 +2564,13 @@
         <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="5">
-        <v>329</v>
+        <v>5</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2236</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2582,15 +2581,15 @@
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>2236</v>
+        <v>2082.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
@@ -2599,7 +2598,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>2082.4</v>
+        <v>3581.6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2607,69 +2606,69 @@
         <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122" s="6">
-        <v>3581.6</v>
+        <v>6700.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="6">
-        <v>6700.5</v>
+        <v>8</v>
+      </c>
+      <c r="D123" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="5">
-        <v>363</v>
+        <v>914.4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>914.4</v>
+        <v>568.79999999999995</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" s="5">
-        <v>568.79999999999995</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2677,32 +2676,32 @@
         <v>109</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="5">
-        <v>850.5</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>879.3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2710,13 +2709,11 @@
       <c r="C129" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="5">
-        <v>879.3</v>
-      </c>
+      <c r="D129" s="7"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2728,7 +2725,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2737,12 +2734,12 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>156.69999999999999</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2751,21 +2748,21 @@
         <v>8</v>
       </c>
       <c r="D132" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1537</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2776,15 +2773,15 @@
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="6">
-        <v>1537</v>
+        <v>6</v>
+      </c>
+      <c r="D134" s="5">
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>4</v>
@@ -2793,21 +2790,21 @@
         <v>6</v>
       </c>
       <c r="D135" s="5">
-        <v>406</v>
+        <v>668.9</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D136" s="5">
-        <v>668.9</v>
+        <v>902.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2815,13 +2812,13 @@
         <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="5">
-        <v>902.6</v>
+        <v>6</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1350.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2829,32 +2826,32 @@
         <v>60</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138" s="6">
-        <v>1350.6</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>1856.6</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>2</v>
@@ -2863,7 +2860,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="6">
-        <v>4200</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2871,13 +2868,13 @@
         <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D141" s="6">
-        <v>2442.5</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2888,15 +2885,15 @@
         <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D142" s="6">
-        <v>2220</v>
+        <v>2374.9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>4</v>
@@ -2904,22 +2901,22 @@
       <c r="C143" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="6">
-        <v>2374.9</v>
+      <c r="D143" s="5">
+        <v>840</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="5">
-        <v>840</v>
+        <v>3</v>
+      </c>
+      <c r="D144" s="6">
+        <v>2779</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2927,27 +2924,27 @@
         <v>63</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" s="6">
-        <v>2779</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>1561.5</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2955,13 +2952,13 @@
         <v>64</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>2900</v>
+        <v>4571.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2972,38 +2969,38 @@
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="6">
-        <v>4571.5</v>
+        <v>6</v>
+      </c>
+      <c r="D148" s="5">
+        <v>656.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="5">
-        <v>656.5</v>
+        <v>3</v>
+      </c>
+      <c r="D149" s="6">
+        <v>1312</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>1312</v>
+        <v>2528.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3014,29 +3011,29 @@
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D151" s="6">
-        <v>2528.5</v>
+        <v>5618.7</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="6">
-        <v>5656.2</v>
+        <v>8</v>
+      </c>
+      <c r="D152" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3045,12 +3042,12 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>68.5</v>
+        <v>202.6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3058,13 +3055,11 @@
       <c r="C154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="5">
-        <v>202.6</v>
-      </c>
+      <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3076,7 +3071,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3085,12 +3080,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>242</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3099,12 +3094,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3113,12 +3108,12 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3127,21 +3122,21 @@
         <v>8</v>
       </c>
       <c r="D159" s="5">
-        <v>208</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="5">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="D160" s="6">
+        <v>3806</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3149,27 +3144,27 @@
         <v>67</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="6">
-        <v>3806</v>
+        <v>6</v>
+      </c>
+      <c r="D161" s="5">
+        <v>419.2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D162" s="5">
-        <v>419.2</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3177,56 +3172,48 @@
         <v>113</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D163" s="5">
-        <v>254.5</v>
+        <v>6</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1943.9</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D164" s="6">
-        <v>2006.9</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1089</v>
+        <v>8</v>
+      </c>
+      <c r="D165" s="5">
+        <v>249.6</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="5">
-        <v>260.10000000000002</v>
-      </c>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="116">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Одуванчик корни НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитопектол №2 (Грудной сбор №2) НФП</t>
   </si>
   <si>
     <t>Смородина черная листья НФП</t>
@@ -906,7 +903,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D165"/>
+      <selection activeCell="A2" sqref="A2:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1012,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>217.4</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1110,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1555</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1264,12 +1261,12 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>3056.4</v>
+        <v>2806.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1278,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="5">
-        <v>104</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5">
@@ -1320,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5">
-        <v>135.9</v>
+        <v>87.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1334,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>1047.5</v>
+        <v>2127.1999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1376,7 +1373,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="5">
-        <v>158.9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1390,7 +1387,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>151</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1486,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>3143</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1640,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="6">
-        <v>1486</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1682,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="5">
-        <v>152.05000000000001</v>
+        <v>145.75</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1792,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="6">
-        <v>1514.8</v>
+        <v>1451.8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1876,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>7921.3</v>
+        <v>7577.3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1932,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="D73" s="6">
-        <v>3070</v>
+        <v>3594.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1946,7 +1943,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="6">
-        <v>9489.5</v>
+        <v>13421.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1987,9 +1984,7 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="5">
-        <v>149</v>
-      </c>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
@@ -2058,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="D82" s="5">
-        <v>858.7</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2196,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="6">
-        <v>29039.4</v>
+        <v>28758.400000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2210,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>42053.5</v>
+        <v>48245.5</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2257,7 +2252,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2323,21 +2318,19 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="5">
-        <v>357</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2345,22 +2338,22 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="5">
-        <v>812</v>
+      <c r="D103" s="6">
+        <v>1209.7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D104" s="6">
-        <v>2009.7</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2368,41 +2361,41 @@
         <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" s="6">
-        <v>4860</v>
+        <v>9264</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="6">
-        <v>9264</v>
+        <v>8</v>
+      </c>
+      <c r="D106" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>265</v>
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>3599</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2413,10 +2406,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D108" s="6">
-        <v>2016</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2424,27 +2417,27 @@
         <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="5">
-        <v>713.2</v>
+        <v>6</v>
+      </c>
+      <c r="D109" s="6">
+        <v>8412.2000000000007</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="6">
-        <v>8412.2000000000007</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="5">
+        <v>82.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2458,7 +2451,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="5">
-        <v>82.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2472,21 +2465,21 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>11.4</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="5">
-        <v>284</v>
+        <v>3</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2494,13 +2487,13 @@
         <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" s="6">
-        <v>2039</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2511,24 +2504,24 @@
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D115" s="6">
-        <v>1936</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" s="6">
-        <v>6567</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2539,10 +2532,10 @@
         <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="6">
-        <v>2279.5</v>
+        <v>7</v>
+      </c>
+      <c r="D117" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2550,13 +2543,13 @@
         <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5">
-        <v>329</v>
+        <v>5</v>
+      </c>
+      <c r="D118" s="6">
+        <v>2236</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2567,15 +2560,15 @@
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D119" s="6">
-        <v>2236</v>
+        <v>1876.4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
@@ -2584,7 +2577,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>2082.4</v>
+        <v>5355.6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2592,41 +2585,41 @@
         <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D121" s="6">
-        <v>3581.6</v>
+        <v>6700.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="6">
-        <v>6700.5</v>
+        <v>8</v>
+      </c>
+      <c r="D122" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D123" s="5">
-        <v>363</v>
+        <v>914.4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2637,10 +2630,10 @@
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" s="5">
-        <v>914.4</v>
+        <v>505.8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2648,46 +2641,46 @@
         <v>108</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" s="5">
-        <v>568.79999999999995</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="5">
-        <v>850.5</v>
+        <v>6</v>
+      </c>
+      <c r="D126" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D127" s="5">
+        <v>879.3</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2695,13 +2688,11 @@
       <c r="C128" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="5">
-        <v>879.3</v>
-      </c>
+      <c r="D128" s="7"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2713,7 +2704,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2721,11 +2712,13 @@
       <c r="C130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="5">
+        <v>302</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2734,21 +2727,21 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="5">
-        <v>307</v>
+        <v>5</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1197</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2759,15 +2752,15 @@
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1537</v>
+        <v>6</v>
+      </c>
+      <c r="D133" s="5">
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
@@ -2776,21 +2769,21 @@
         <v>6</v>
       </c>
       <c r="D134" s="5">
-        <v>406</v>
+        <v>668.9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D135" s="5">
-        <v>668.9</v>
+        <v>902.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2798,13 +2791,13 @@
         <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="5">
-        <v>902.6</v>
+        <v>6</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1350.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2812,32 +2805,32 @@
         <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137" s="6">
-        <v>1350.6</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>1856.6</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>2</v>
@@ -2846,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>4200</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2854,13 +2847,13 @@
         <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" s="6">
-        <v>2442.5</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2871,15 +2864,15 @@
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" s="6">
-        <v>2220</v>
+        <v>2374.9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
@@ -2887,22 +2880,22 @@
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="6">
-        <v>2374.9</v>
+      <c r="D142" s="5">
+        <v>840</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="5">
-        <v>840</v>
+        <v>3</v>
+      </c>
+      <c r="D143" s="6">
+        <v>2779</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2910,27 +2903,27 @@
         <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>2779</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D145" s="6">
-        <v>1561.5</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2938,13 +2931,13 @@
         <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" s="6">
-        <v>2900</v>
+        <v>4571.5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2955,38 +2948,38 @@
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="6">
-        <v>4571.5</v>
+        <v>6</v>
+      </c>
+      <c r="D147" s="5">
+        <v>656.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="5">
-        <v>656.5</v>
+        <v>3</v>
+      </c>
+      <c r="D148" s="6">
+        <v>1312</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" s="6">
-        <v>1312</v>
+        <v>2528.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2997,29 +2990,29 @@
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D150" s="6">
-        <v>2528.5</v>
+        <v>5591.1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="6">
-        <v>5618.7</v>
+        <v>8</v>
+      </c>
+      <c r="D151" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3028,12 +3021,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>68.5</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3042,12 +3035,12 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>202.6</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3059,7 +3052,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3067,11 +3060,13 @@
       <c r="C155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="7"/>
+      <c r="D155" s="5">
+        <v>156</v>
+      </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3080,12 +3075,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>156</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3094,12 +3089,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3108,21 +3103,21 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>208</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="5">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="D159" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3130,84 +3125,76 @@
         <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="6">
-        <v>3806</v>
+        <v>6</v>
+      </c>
+      <c r="D160" s="5">
+        <v>419.2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D161" s="5">
-        <v>419.2</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162" s="5">
-        <v>254.5</v>
+        <v>6</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1943.9</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D163" s="6">
-        <v>1943.9</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="6">
-        <v>1089</v>
+        <v>8</v>
+      </c>
+      <c r="D164" s="5">
+        <v>207.2</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="5">
-        <v>249.6</v>
-      </c>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1205,7 +1205,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>11514.1</v>
+        <v>9659.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1261,7 +1261,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>2806.4</v>
+        <v>2785.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
@@ -1469,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1609.3</v>
+        <v>1546.3</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1497,7 +1497,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>4790.8</v>
+        <v>4026.8</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="6">
-        <v>2475</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>13962.6</v>
+        <v>13932.6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1788,8 +1788,8 @@
       <c r="C63" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="6">
-        <v>1451.8</v>
+      <c r="D63" s="5">
+        <v>769</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1901,7 +1901,7 @@
         <v>3</v>
       </c>
       <c r="D71" s="6">
-        <v>2583</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1997,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="6">
-        <v>4023.8</v>
+        <v>3398.8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2191,7 +2191,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="6">
-        <v>28758.400000000001</v>
+        <v>28695.4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2205,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="D93" s="6">
-        <v>48245.5</v>
+        <v>56138.3</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="D104" s="6">
-        <v>4860</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2451,7 +2451,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="5">
-        <v>11.4</v>
+        <v>145.4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2867,7 +2867,7 @@
         <v>6</v>
       </c>
       <c r="D141" s="6">
-        <v>2374.9</v>
+        <v>2092.9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2993,7 +2993,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="6">
-        <v>5591.1</v>
+        <v>4852.1000000000004</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3020,9 +3020,7 @@
       <c r="C152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="5">
-        <v>102.6</v>
-      </c>
+      <c r="D152" s="7"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
@@ -3102,9 +3100,7 @@
       <c r="C158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="5">
-        <v>92</v>
-      </c>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="117">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D164"/>
+      <selection activeCell="A2" sqref="A2:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1191,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>4662.7</v>
+        <v>3662.7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1378,7 +1381,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
@@ -1387,12 +1390,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>62</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
@@ -1401,35 +1404,35 @@
         <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>105.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5">
-        <v>453.2</v>
+        <v>105.4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>8452.2000000000007</v>
+        <v>6</v>
+      </c>
+      <c r="D37" s="5">
+        <v>453.2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1437,53 +1440,53 @@
         <v>28</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>1385</v>
+        <v>8452.2000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1385</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1546.3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41" s="6">
-        <v>1868</v>
+        <v>1546.3</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1491,13 +1494,13 @@
         <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>4026.8</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1505,55 +1508,55 @@
         <v>29</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>1618</v>
+        <v>4645.3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="5">
-        <v>337.5</v>
+      <c r="D44" s="6">
+        <v>1618</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
-        <v>665.7</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1583</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
+        <v>583.70000000000005</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1561,13 +1564,13 @@
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5">
-        <v>418</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1583</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1578,10 +1581,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" s="5">
-        <v>158</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1589,41 +1592,41 @@
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1490.7</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="5">
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>999</v>
+      <c r="D50" s="6">
+        <v>1490.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1995</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1631,13 +1634,13 @@
         <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="6">
-        <v>1186</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1648,80 +1651,80 @@
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="5">
-        <v>796</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1186</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2203.5</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>739</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="5">
-        <v>145.75</v>
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1595.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1122.2</v>
+        <v>8</v>
+      </c>
+      <c r="D56" s="5">
+        <v>145.75</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" s="6">
-        <v>6011</v>
+        <v>1122.2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>12315.5</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1729,41 +1732,41 @@
         <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>13932.6</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="5">
-        <v>67.7</v>
+        <v>5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13932.6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1955</v>
+        <v>8</v>
+      </c>
+      <c r="D61" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1774,55 +1777,55 @@
         <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1955</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="5">
-        <v>769</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1124</v>
+        <v>5</v>
+      </c>
+      <c r="D64" s="5">
+        <v>769</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>14400</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -1831,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>2633</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1842,10 +1845,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5">
-        <v>52.8</v>
+        <v>3</v>
+      </c>
+      <c r="D67" s="6">
+        <v>2633</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1853,13 +1856,13 @@
         <v>41</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="6">
-        <v>3462</v>
+        <v>7</v>
+      </c>
+      <c r="D68" s="5">
+        <v>52.8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1870,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="6">
-        <v>7577.3</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1884,24 +1887,24 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D70" s="5">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D70" s="6">
+        <v>7577.3</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2022</v>
+        <v>88</v>
+      </c>
+      <c r="D71" s="5">
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1912,10 +1915,10 @@
         <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5">
-        <v>641.5</v>
+        <v>3</v>
+      </c>
+      <c r="D72" s="6">
+        <v>2022</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1923,13 +1926,13 @@
         <v>42</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="6">
-        <v>3594.5</v>
+        <v>7</v>
+      </c>
+      <c r="D73" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1940,29 +1943,29 @@
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74" s="6">
-        <v>13421.5</v>
+        <v>3594.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="5">
-        <v>478.1</v>
+        <v>6</v>
+      </c>
+      <c r="D75" s="6">
+        <v>13337.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1971,24 +1974,26 @@
         <v>8</v>
       </c>
       <c r="D76" s="5">
-        <v>13.1</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D77" s="5">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -1996,13 +2001,11 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="6">
-        <v>3398.8</v>
-      </c>
+      <c r="D78" s="7"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>4</v>
@@ -2010,22 +2013,22 @@
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="5">
-        <v>311</v>
+      <c r="D79" s="6">
+        <v>3398.8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="6">
-        <v>2125.6999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="5">
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2033,13 +2036,13 @@
         <v>45</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2125.6999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2050,24 +2053,24 @@
         <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" s="5">
-        <v>761</v>
+        <v>605</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="6">
-        <v>1641</v>
+        <v>6</v>
+      </c>
+      <c r="D83" s="5">
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2078,41 +2081,41 @@
         <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1641</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="6">
-        <v>1574</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D85" s="7"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>2953</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>2</v>
@@ -2121,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>1591.7</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2129,13 +2132,13 @@
         <v>48</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>1740</v>
+        <v>1591.7</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2143,27 +2146,27 @@
         <v>48</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>1244</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>12062</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2174,10 +2177,10 @@
         <v>2</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="5">
-        <v>10.4</v>
+        <v>3</v>
+      </c>
+      <c r="D91" s="6">
+        <v>17422</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2185,13 +2188,13 @@
         <v>49</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="6">
-        <v>28695.4</v>
+        <v>7</v>
+      </c>
+      <c r="D92" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2199,41 +2202,41 @@
         <v>49</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93" s="6">
-        <v>56138.3</v>
+        <v>28653.4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D94" s="5">
-        <v>204.6</v>
+        <v>5</v>
+      </c>
+      <c r="D94" s="6">
+        <v>56138.3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D95" s="5">
-        <v>900</v>
+        <v>204.6</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2241,18 +2244,18 @@
         <v>51</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="6">
-        <v>9823</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2260,13 +2263,13 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="5">
-        <v>409</v>
+      <c r="D97" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2274,11 +2277,13 @@
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="5">
+        <v>409</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2286,13 +2291,11 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="6">
-        <v>1979</v>
-      </c>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2300,11 +2303,13 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="6">
+        <v>1979</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2312,13 +2317,11 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="6">
-        <v>3970</v>
-      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2326,11 +2329,13 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="7"/>
+      <c r="D102" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2338,22 +2343,20 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="6">
-        <v>1209.7</v>
-      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D104" s="6">
-        <v>3848</v>
+        <v>1209.7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2361,41 +2364,41 @@
         <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>9264</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="5">
-        <v>265</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="6">
+        <v>9182</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2406,10 +2409,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D108" s="6">
-        <v>1238.2</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2417,32 +2420,32 @@
         <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" s="6">
-        <v>8412.2000000000007</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D110" s="6">
+        <v>8246.2000000000007</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
@@ -2451,12 +2454,12 @@
         <v>8</v>
       </c>
       <c r="D111" s="5">
-        <v>145.4</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
@@ -2465,21 +2468,21 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>284</v>
+        <v>145.4</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D113" s="5">
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2487,13 +2490,13 @@
         <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114" s="6">
-        <v>1936</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2504,24 +2507,24 @@
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>6567</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>2279.5</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2532,10 +2535,10 @@
         <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="5">
-        <v>329</v>
+        <v>3</v>
+      </c>
+      <c r="D117" s="6">
+        <v>2279.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2543,13 +2546,13 @@
         <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="6">
-        <v>2236</v>
+        <v>7</v>
+      </c>
+      <c r="D118" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2560,15 +2563,15 @@
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" s="6">
-        <v>1876.4</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
@@ -2577,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>5355.6</v>
+        <v>1794.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2585,69 +2588,69 @@
         <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>6700.5</v>
+        <v>5355.6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D122" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" s="5">
-        <v>914.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="5">
-        <v>505.8</v>
+        <v>914.4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>850.5</v>
+        <v>505.8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2655,32 +2658,32 @@
         <v>108</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D126" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="5">
-        <v>879.3</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2688,11 +2691,13 @@
       <c r="C128" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="5">
+        <v>879.3</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2704,7 +2709,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2712,13 +2717,11 @@
       <c r="C130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="5">
-        <v>302</v>
-      </c>
+      <c r="D130" s="7"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2727,21 +2730,21 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="6">
-        <v>1197</v>
+        <v>8</v>
+      </c>
+      <c r="D132" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2752,15 +2755,15 @@
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="5">
-        <v>406</v>
+        <v>5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1197</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
@@ -2769,21 +2772,21 @@
         <v>6</v>
       </c>
       <c r="D134" s="5">
-        <v>668.9</v>
+        <v>406</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D135" s="5">
-        <v>902.6</v>
+        <v>668.9</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2791,13 +2794,13 @@
         <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1350.6</v>
+        <v>3</v>
+      </c>
+      <c r="D136" s="5">
+        <v>902.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2805,32 +2808,32 @@
         <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" s="6">
-        <v>1856.6</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D138" s="6">
-        <v>4200</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>2</v>
@@ -2839,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>2442.5</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2847,13 +2850,13 @@
         <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D140" s="6">
-        <v>2220</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2864,15 +2867,15 @@
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141" s="6">
-        <v>2092.9</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
@@ -2880,22 +2883,22 @@
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="5">
-        <v>840</v>
+      <c r="D142" s="6">
+        <v>2062.9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="6">
-        <v>2779</v>
+        <v>6</v>
+      </c>
+      <c r="D143" s="5">
+        <v>840</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2903,27 +2906,27 @@
         <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144" s="6">
-        <v>1561.5</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" s="6">
-        <v>2900</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2931,13 +2934,13 @@
         <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>4571.5</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2948,38 +2951,38 @@
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="5">
-        <v>656.5</v>
+        <v>5</v>
+      </c>
+      <c r="D147" s="6">
+        <v>4571.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D148" s="5">
+        <v>572.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="6">
-        <v>2528.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2990,29 +2993,29 @@
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>4852.1000000000004</v>
+        <v>2528.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="5">
-        <v>68.5</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="6">
+        <v>4852.1000000000004</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3020,11 +3023,13 @@
       <c r="C152" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="5">
+        <v>68.5</v>
+      </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3032,13 +3037,11 @@
       <c r="C153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="5">
-        <v>209</v>
-      </c>
+      <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3046,11 +3049,13 @@
       <c r="C154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="5">
+        <v>209</v>
+      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3058,13 +3063,11 @@
       <c r="C155" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D155" s="5">
-        <v>156</v>
-      </c>
+      <c r="D155" s="7"/>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3073,12 +3076,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3087,12 +3090,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>208</v>
+        <v>106</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3100,48 +3103,48 @@
       <c r="C158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="5">
+        <v>208</v>
+      </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="6">
-        <v>3031</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="5">
-        <v>419.2</v>
+        <v>3</v>
+      </c>
+      <c r="D160" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D161" s="5">
-        <v>254.5</v>
+        <v>335.2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3149,48 +3152,56 @@
         <v>112</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="6">
-        <v>1943.9</v>
+        <v>7</v>
+      </c>
+      <c r="D162" s="5">
+        <v>254.5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D163" s="6">
-        <v>1089</v>
+        <v>1943.9</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="5">
+      <c r="B165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="5">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="119">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
+  </si>
+  <si>
+    <t>Сбор Бруснивер НФП</t>
+  </si>
+  <si>
+    <t>Сбор Элекасол НФП</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D165"/>
+      <selection activeCell="A2" sqref="A2:D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1012,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>81.7</v>
+        <v>632.70000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1082,7 +1088,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5">
-        <v>370.2</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1306,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="5">
-        <v>151.30000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1404,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>62</v>
+        <v>364.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1500,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>1868</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1570,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="6">
-        <v>1583</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1598,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="5">
-        <v>158</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1612,7 +1618,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>1490.7</v>
+        <v>2761.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1903,9 +1909,7 @@
       <c r="C71" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D71" s="5">
-        <v>8</v>
-      </c>
+      <c r="D71" s="7"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
@@ -1960,7 +1964,7 @@
         <v>6</v>
       </c>
       <c r="D75" s="6">
-        <v>13337.5</v>
+        <v>13284.5</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2014,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="D79" s="6">
-        <v>3398.8</v>
+        <v>5370.8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2110,7 +2114,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>1574</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2152,7 +2156,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>1740</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2208,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="D93" s="6">
-        <v>28653.4</v>
+        <v>28600.400000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2241,16 +2245,16 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D96" s="6">
+        <v>4046</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2258,18 +2262,18 @@
         <v>51</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="6">
-        <v>9823</v>
+        <v>7</v>
+      </c>
+      <c r="D97" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2277,13 +2281,13 @@
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="5">
-        <v>409</v>
+      <c r="D98" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2291,11 +2295,13 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="5">
+        <v>409</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2303,13 +2309,13 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="6">
-        <v>1979</v>
+      <c r="D100" s="5">
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2317,11 +2323,13 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="5">
+        <v>979</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2329,13 +2337,11 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="6">
-        <v>3970</v>
-      </c>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2343,11 +2349,13 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="6">
+        <v>3970</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2355,78 +2363,76 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="6">
-        <v>1209.7</v>
-      </c>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D105" s="6">
-        <v>3848</v>
+        <v>1209.7</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="6">
-        <v>9182</v>
+        <v>6</v>
+      </c>
+      <c r="D106" s="5">
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>265</v>
+        <v>3</v>
+      </c>
+      <c r="D107" s="6">
+        <v>3848</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D108" s="6">
-        <v>3599</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="6">
-        <v>1238.2</v>
+        <v>8</v>
+      </c>
+      <c r="D109" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2434,46 +2440,46 @@
         <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D110" s="6">
-        <v>8246.2000000000007</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="5">
-        <v>82.2</v>
+        <v>7</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1238.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="5">
-        <v>145.4</v>
+        <v>6</v>
+      </c>
+      <c r="D112" s="6">
+        <v>8246.2000000000007</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
@@ -2482,35 +2488,35 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>284</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D114" s="5">
+        <v>145.4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="6">
-        <v>1936</v>
+        <v>8</v>
+      </c>
+      <c r="D115" s="5">
+        <v>284</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2518,41 +2524,41 @@
         <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D116" s="6">
-        <v>6567</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D117" s="6">
-        <v>2279.5</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5">
-        <v>329</v>
+        <v>6</v>
+      </c>
+      <c r="D118" s="6">
+        <v>6567</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2560,13 +2566,13 @@
         <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D119" s="6">
-        <v>2236</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2574,74 +2580,74 @@
         <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="6">
-        <v>1794.4</v>
+        <v>7</v>
+      </c>
+      <c r="D120" s="5">
+        <v>329</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121" s="6">
-        <v>5355.6</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122" s="6">
-        <v>6700.5</v>
+        <v>1794.4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="5">
-        <v>363</v>
+        <v>6</v>
+      </c>
+      <c r="D123" s="6">
+        <v>5355.6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="5">
-        <v>914.4</v>
+        <v>3</v>
+      </c>
+      <c r="D124" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
@@ -2650,66 +2656,68 @@
         <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>505.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D126" s="5">
-        <v>850.5</v>
+        <v>808.4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D127" s="5">
+        <v>490.8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128" s="5">
-        <v>879.3</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D129" s="6">
+        <v>11575.9</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2717,11 +2725,13 @@
       <c r="C130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="7"/>
+      <c r="D130" s="5">
+        <v>879.3</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2729,13 +2739,11 @@
       <c r="C131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="5">
-        <v>302</v>
-      </c>
+      <c r="D131" s="7"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2743,69 +2751,67 @@
       <c r="C132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="5">
-        <v>307</v>
-      </c>
+      <c r="D132" s="7"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1197</v>
+        <v>8</v>
+      </c>
+      <c r="D133" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D134" s="5">
-        <v>406</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="5">
-        <v>668.9</v>
+        <v>5</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1197</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D136" s="5">
-        <v>902.6</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>4</v>
@@ -2813,8 +2819,8 @@
       <c r="C137" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="6">
-        <v>1350.6</v>
+      <c r="D137" s="5">
+        <v>668.9</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2822,55 +2828,55 @@
         <v>60</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>1856.6</v>
+        <v>1982.6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D139" s="6">
-        <v>3286</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" s="6">
-        <v>2442.5</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>2220</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2878,60 +2884,60 @@
         <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D142" s="6">
-        <v>2062.9</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="5">
-        <v>840</v>
+        <v>5</v>
+      </c>
+      <c r="D143" s="6">
+        <v>2220</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D144" s="6">
-        <v>2779</v>
+        <v>2062.9</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1561.5</v>
+        <v>6</v>
+      </c>
+      <c r="D145" s="5">
+        <v>734</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>2</v>
@@ -2940,12 +2946,12 @@
         <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>2900</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>4</v>
@@ -2954,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>4571.5</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2962,86 +2968,88 @@
         <v>64</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="5">
-        <v>572.5</v>
+        <v>3</v>
+      </c>
+      <c r="D148" s="6">
+        <v>2900</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" s="6">
-        <v>1312</v>
+        <v>4571.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="6">
-        <v>2528.5</v>
+        <v>6</v>
+      </c>
+      <c r="D150" s="5">
+        <v>570</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D151" s="6">
-        <v>4852.1000000000004</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="5">
-        <v>68.5</v>
+        <v>5</v>
+      </c>
+      <c r="D152" s="6">
+        <v>3417.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D153" s="6">
+        <v>4815.1000000000004</v>
+      </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3050,12 +3058,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>209</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3067,7 +3075,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3076,12 +3084,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3089,13 +3097,11 @@
       <c r="C157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="5">
-        <v>106</v>
-      </c>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3104,12 +3110,12 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3117,53 +3123,55 @@
       <c r="C159" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="5">
+        <v>106</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="6">
-        <v>3031</v>
+        <v>8</v>
+      </c>
+      <c r="D160" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D161" s="5">
-        <v>335.2</v>
+        <v>200.6</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162" s="5">
-        <v>254.5</v>
+        <v>3</v>
+      </c>
+      <c r="D162" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>4</v>
@@ -3171,49 +3179,65 @@
       <c r="C163" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D163" s="6">
-        <v>1943.9</v>
+      <c r="D163" s="5">
+        <v>335.2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="6">
-        <v>1089</v>
+        <v>7</v>
+      </c>
+      <c r="D164" s="5">
+        <v>254.5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1943.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="5">
+      <c r="B167" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="5">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="5"/>
-    </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="6"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="114">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -242,18 +242,12 @@
     <t>Можжевельник плоды НФП</t>
   </si>
   <si>
-    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
   </si>
   <si>
     <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
   </si>
   <si>
-    <t>Фиточай Лактафитол НФП</t>
-  </si>
-  <si>
     <t>Фиточай Стройная жизнь НФП</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>Щедрость природы Фиточай для иммунитета НФП</t>
   </si>
   <si>
-    <t>Щедрость природы Фиточай для пищеварения НФП</t>
-  </si>
-  <si>
     <t>Щедрость природы Фиточай при простуде НФП</t>
   </si>
   <si>
@@ -287,13 +278,7 @@
     <t>Щедрость природы Фиточай очищающий НФП</t>
   </si>
   <si>
-    <t>Фиточай "Фитосбор №2" НФП</t>
-  </si>
-  <si>
     <t>Щедрость природы Фиточай кардиологический НФП</t>
-  </si>
-  <si>
-    <t>Пищевая продукция (моно), ф/п</t>
   </si>
   <si>
     <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
@@ -912,7 +897,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D167"/>
+      <selection activeCell="A2" sqref="A2:D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1009,7 +994,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1018,7 +1003,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>632.70000000000005</v>
+        <v>552.70000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1219,7 +1204,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1270,12 +1255,12 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>2785.4</v>
+        <v>2662.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1289,7 +1274,7 @@
     </row>
     <row r="27" spans="1:4" ht="22.5">
       <c r="A27" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -1303,7 +1288,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -1317,7 +1302,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
@@ -1326,7 +1311,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5">
-        <v>87.9</v>
+        <v>380.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1387,7 +1372,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
@@ -1429,7 +1414,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
@@ -1438,7 +1423,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="5">
-        <v>453.2</v>
+        <v>388.2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1471,28 +1456,30 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1432.3</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>1546.3</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1500,13 +1487,13 @@
         <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>4526</v>
+        <v>4604.3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1514,55 +1501,55 @@
         <v>29</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="6">
-        <v>4645.3</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="6">
-        <v>1618</v>
+      <c r="D44" s="5">
+        <v>337.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="5">
-        <v>337.5</v>
+        <v>583.70000000000005</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5">
-        <v>583.70000000000005</v>
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1058</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1570,13 +1557,13 @@
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1058</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1587,10 +1574,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" s="5">
-        <v>418</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1598,41 +1585,41 @@
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="5">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
+        <v>2256</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>2761.7</v>
+      <c r="D50" s="5">
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
-        <v>999</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1995</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1640,13 +1627,13 @@
         <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" s="6">
-        <v>1995</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1657,80 +1644,80 @@
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1186</v>
+        <v>6</v>
+      </c>
+      <c r="D53" s="5">
+        <v>739</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="5">
-        <v>739</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1595.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6">
-        <v>1595.5</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="5">
+        <v>145.75</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="5">
-        <v>145.75</v>
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1122.2</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>1122.2</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>6011</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1738,109 +1725,111 @@
         <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>12315.5</v>
+        <v>13910.6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6">
-        <v>13932.6</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="5">
-        <v>67.7</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1955</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1955</v>
+        <v>5</v>
+      </c>
+      <c r="D62" s="5">
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1124</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="5">
-        <v>769</v>
+        <v>3</v>
+      </c>
+      <c r="D64" s="6">
+        <v>14400</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>1124</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="6">
-        <v>14400</v>
+        <v>7</v>
+      </c>
+      <c r="D66" s="5">
+        <v>52.8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1848,13 +1837,13 @@
         <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" s="6">
-        <v>2633</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1862,154 +1851,158 @@
         <v>41</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5">
-        <v>52.8</v>
+        <v>6</v>
+      </c>
+      <c r="D68" s="6">
+        <v>7426.6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" s="6">
-        <v>3462</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="6">
-        <v>7577.3</v>
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2954.5</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>2022</v>
+        <v>13252.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" s="5">
-        <v>641.5</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="6">
-        <v>3594.5</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="5">
+        <v>13.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="6">
-        <v>13284.5</v>
+        <v>5</v>
+      </c>
+      <c r="D75" s="5">
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="5">
-        <v>478.1</v>
+        <v>5</v>
+      </c>
+      <c r="D76" s="6">
+        <v>5370.8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5">
-        <v>13.1</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D78" s="6">
+        <v>2125.6999999999998</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>4</v>
@@ -2017,27 +2010,27 @@
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="6">
-        <v>5370.8</v>
+      <c r="D79" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" s="5">
-        <v>311</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>2</v>
@@ -2046,12 +2039,12 @@
         <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>2125.6999999999998</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>4</v>
@@ -2059,27 +2052,27 @@
       <c r="C82" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D82" s="5">
-        <v>605</v>
+      <c r="D82" s="6">
+        <v>1521</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="5">
-        <v>761</v>
+        <v>3</v>
+      </c>
+      <c r="D83" s="6">
+        <v>2953</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
@@ -2088,38 +2081,40 @@
         <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>1641</v>
+        <v>1566.7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D85" s="6">
+        <v>2789</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>1521</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>2</v>
@@ -2128,26 +2123,26 @@
         <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>2953</v>
+        <v>13213</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="6">
-        <v>1591.7</v>
+        <v>7</v>
+      </c>
+      <c r="D88" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>4</v>
@@ -2156,12 +2151,12 @@
         <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>3038</v>
+        <v>28516.400000000001</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>11</v>
@@ -2170,82 +2165,80 @@
         <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>1244</v>
+        <v>56138.3</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="6">
-        <v>17422</v>
+      <c r="D91" s="5">
+        <v>204.6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="5">
-        <v>10.4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="6">
-        <v>28600.400000000001</v>
+        <v>7</v>
+      </c>
+      <c r="D93" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94" s="6">
-        <v>56138.3</v>
+        <v>9823</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D95" s="5">
-        <v>204.6</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2253,27 +2246,27 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="6">
-        <v>4046</v>
+      <c r="D96" s="5">
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D97" s="5">
-        <v>900</v>
+        <v>979</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2282,12 +2275,12 @@
         <v>6</v>
       </c>
       <c r="D98" s="6">
-        <v>9823</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2295,13 +2288,13 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="5">
-        <v>409</v>
+      <c r="D99" s="6">
+        <v>1970</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2309,13 +2302,13 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="5">
-        <v>409</v>
+      <c r="D100" s="6">
+        <v>1209.7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2324,106 +2317,110 @@
         <v>6</v>
       </c>
       <c r="D101" s="5">
-        <v>979</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D102" s="6">
+        <v>3823</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103" s="6">
-        <v>3970</v>
+        <v>8682</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D104" s="5">
+        <v>265</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>1209.7</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="5">
-        <v>415</v>
+        <v>7</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1238.2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D107" s="6">
-        <v>3848</v>
+        <v>8164.2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="6">
-        <v>9182</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <v>82.2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>4</v>
@@ -2432,124 +2429,124 @@
         <v>8</v>
       </c>
       <c r="D109" s="5">
-        <v>265</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D111" s="6">
-        <v>1238.2</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" s="6">
-        <v>8246.2000000000007</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D113" s="6">
+        <v>6567</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="5">
-        <v>145.4</v>
+        <v>3</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2279.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D115" s="5">
-        <v>284</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D116" s="6">
-        <v>2039</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>1436</v>
+        <v>1794.4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>4</v>
@@ -2558,96 +2555,96 @@
         <v>6</v>
       </c>
       <c r="D118" s="6">
-        <v>6567</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="6">
-        <v>2279.5</v>
+        <v>6700.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120" s="5">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="6">
-        <v>2602.5</v>
+        <v>6</v>
+      </c>
+      <c r="D121" s="5">
+        <v>704.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="6">
-        <v>1794.4</v>
+        <v>8</v>
+      </c>
+      <c r="D122" s="5">
+        <v>490.8</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="6">
-        <v>5355.6</v>
+        <v>7</v>
+      </c>
+      <c r="D123" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D124" s="6">
-        <v>6700.5</v>
+        <v>11575.9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
@@ -2656,26 +2653,26 @@
         <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>363</v>
+        <v>879.3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>808.4</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
@@ -2684,26 +2681,26 @@
         <v>8</v>
       </c>
       <c r="D127" s="5">
-        <v>490.8</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="5">
-        <v>850.5</v>
+        <v>5</v>
+      </c>
+      <c r="D128" s="6">
+        <v>2278.6999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2711,107 +2708,111 @@
       <c r="C129" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="6">
-        <v>11575.9</v>
+      <c r="D129" s="5">
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D130" s="5">
-        <v>879.3</v>
+        <v>504.9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1982.6</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1350.6</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="5">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1856.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="5">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="D134" s="6">
+        <v>3286</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D135" s="6">
-        <v>1197</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="5">
-        <v>406</v>
+        <v>5</v>
+      </c>
+      <c r="D136" s="6">
+        <v>2220</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>4</v>
@@ -2819,55 +2820,55 @@
       <c r="C137" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="5">
-        <v>668.9</v>
+      <c r="D137" s="6">
+        <v>2599.4</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="6">
-        <v>1982.6</v>
+        <v>6</v>
+      </c>
+      <c r="D138" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>1350.6</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D140" s="6">
-        <v>1856.6</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>2</v>
@@ -2876,246 +2877,248 @@
         <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>3286</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>2442.5</v>
+        <v>4571.5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="6">
-        <v>2220</v>
+        <v>6</v>
+      </c>
+      <c r="D143" s="5">
+        <v>544.4</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D144" s="6">
-        <v>2062.9</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="5">
-        <v>734</v>
+        <v>5</v>
+      </c>
+      <c r="D145" s="6">
+        <v>3417.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D146" s="6">
-        <v>2180</v>
+        <v>4762.1000000000004</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1561.5</v>
+        <v>8</v>
+      </c>
+      <c r="D147" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="6">
-        <v>2900</v>
+        <v>8</v>
+      </c>
+      <c r="D148" s="5">
+        <v>509.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D149" s="6">
-        <v>4571.5</v>
+        <v>8</v>
+      </c>
+      <c r="D149" s="5">
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D150" s="5">
-        <v>570</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="6">
-        <v>1312</v>
+        <v>8</v>
+      </c>
+      <c r="D151" s="5">
+        <v>106</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="6">
-        <v>3417.5</v>
+        <v>8</v>
+      </c>
+      <c r="D152" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="6">
-        <v>4815.1000000000004</v>
+        <v>8</v>
+      </c>
+      <c r="D153" s="5">
+        <v>200.6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="5">
-        <v>68.5</v>
+        <v>3</v>
+      </c>
+      <c r="D154" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D155" s="5">
+        <v>335.2</v>
+      </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="5">
-        <v>109</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D157" s="6">
+        <v>1865.9</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="5">
-        <v>156</v>
+        <v>3</v>
+      </c>
+      <c r="D158" s="6">
+        <v>1089</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3124,120 +3127,56 @@
         <v>8</v>
       </c>
       <c r="D159" s="5">
-        <v>106</v>
+        <v>207.2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="5">
-        <v>208</v>
-      </c>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="5">
-        <v>200.6</v>
-      </c>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="6">
-        <v>3031</v>
-      </c>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="5">
-        <v>335.2</v>
-      </c>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164" s="5">
-        <v>254.5</v>
-      </c>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1943.9</v>
-      </c>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="6">
-        <v>1089</v>
-      </c>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" s="5">
-        <v>207.2</v>
-      </c>
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="5"/>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -961,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>1780.5</v>
+        <v>1751.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1115,7 +1115,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="6">
-        <v>2753.5</v>
+        <v>2609.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1255,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>2662.4</v>
+        <v>2621.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
@@ -1451,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="6">
-        <v>1385</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1563,7 +1563,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="5">
-        <v>418</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1647,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="5">
-        <v>739</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>2633</v>
+        <v>2613.8000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1828,9 +1828,7 @@
       <c r="C66" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="5">
-        <v>52.8</v>
-      </c>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
@@ -1843,7 +1841,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="6">
-        <v>3462</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1857,7 +1855,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="6">
-        <v>7426.6</v>
+        <v>7344.6</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2232,9 +2230,7 @@
       <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="5">
-        <v>409</v>
-      </c>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
@@ -2499,7 +2495,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="6">
-        <v>2279.5</v>
+        <v>1721.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2513,7 +2509,7 @@
         <v>7</v>
       </c>
       <c r="D115" s="5">
-        <v>329</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2891,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>4571.5</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="143" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="117">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -369,6 +369,15 @@
   </si>
   <si>
     <t>Сбор Элекасол НФП</t>
+  </si>
+  <si>
+    <t>Сбор Арфазетин-Э НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для пищеварения НФП</t>
   </si>
 </sst>
 </file>
@@ -897,7 +906,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D159"/>
+      <selection activeCell="A2" sqref="A2:D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1199,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>9659.1</v>
+        <v>6134.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1493,7 +1502,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>4604.3</v>
+        <v>3044.3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1549,7 +1558,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="6">
-        <v>1058</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1772,8 +1781,8 @@
       <c r="C62" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="5">
-        <v>769</v>
+      <c r="D62" s="6">
+        <v>1608</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1911,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>13252.5</v>
+        <v>17372.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2107,7 +2116,7 @@
         <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>1244</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2182,7 +2191,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>4</v>
@@ -2190,39 +2199,39 @@
       <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="5">
+        <v>516</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5">
-        <v>900</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="6">
-        <v>9823</v>
+        <v>7</v>
+      </c>
+      <c r="D94" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>4</v>
@@ -2230,11 +2239,13 @@
       <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="6">
+        <v>9823</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2242,13 +2253,11 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="5">
-        <v>409</v>
-      </c>
+      <c r="D96" s="7"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2257,12 +2266,12 @@
         <v>6</v>
       </c>
       <c r="D97" s="5">
-        <v>979</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2270,13 +2279,13 @@
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="6">
-        <v>1210</v>
+      <c r="D98" s="5">
+        <v>979</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2285,12 +2294,12 @@
         <v>6</v>
       </c>
       <c r="D99" s="6">
-        <v>1970</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2299,12 +2308,12 @@
         <v>6</v>
       </c>
       <c r="D100" s="6">
-        <v>1209.7</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2313,77 +2322,77 @@
         <v>6</v>
       </c>
       <c r="D101" s="5">
-        <v>415</v>
+        <v>808.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D102" s="6">
-        <v>3823</v>
+        <v>1209.7</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="6">
-        <v>8682</v>
+        <v>6</v>
+      </c>
+      <c r="D103" s="5">
+        <v>415</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="5">
-        <v>265</v>
+        <v>3</v>
+      </c>
+      <c r="D104" s="6">
+        <v>3823</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" s="6">
-        <v>3599</v>
+        <v>8682</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="6">
-        <v>1238.2</v>
+        <v>8</v>
+      </c>
+      <c r="D106" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2391,46 +2400,46 @@
         <v>54</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D107" s="6">
-        <v>8164.2</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>82.2</v>
+        <v>7</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1238.2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="5">
-        <v>113.4</v>
+        <v>6</v>
+      </c>
+      <c r="D109" s="6">
+        <v>8164.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
@@ -2439,35 +2448,35 @@
         <v>8</v>
       </c>
       <c r="D110" s="5">
-        <v>204</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="5">
+        <v>113.4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="6">
-        <v>1436</v>
+        <v>8</v>
+      </c>
+      <c r="D112" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2475,41 +2484,41 @@
         <v>55</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D113" s="6">
-        <v>6567</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" s="6">
-        <v>1721.5</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="5">
-        <v>257</v>
+        <v>6</v>
+      </c>
+      <c r="D115" s="6">
+        <v>6567</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2517,13 +2526,13 @@
         <v>56</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116" s="6">
-        <v>2602.5</v>
+        <v>1721.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2531,74 +2540,74 @@
         <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1794.4</v>
+        <v>7</v>
+      </c>
+      <c r="D117" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118" s="6">
-        <v>5275.6</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D119" s="6">
-        <v>6700.5</v>
+        <v>1794.4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="5">
-        <v>363</v>
+        <v>6</v>
+      </c>
+      <c r="D120" s="6">
+        <v>5275.6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="5">
-        <v>704.4</v>
+        <v>3</v>
+      </c>
+      <c r="D121" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
@@ -2607,68 +2616,68 @@
         <v>8</v>
       </c>
       <c r="D122" s="5">
-        <v>490.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D123" s="5">
-        <v>850.5</v>
+        <v>704.4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D124" s="5">
+        <v>490.8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" s="5">
-        <v>879.3</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="5">
-        <v>302</v>
+        <v>6</v>
+      </c>
+      <c r="D126" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
@@ -2677,68 +2686,68 @@
         <v>8</v>
       </c>
       <c r="D127" s="5">
-        <v>307</v>
+        <v>879.3</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="6">
-        <v>2278.6999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>354</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="5">
-        <v>504.9</v>
+        <v>5</v>
+      </c>
+      <c r="D130" s="6">
+        <v>2278.6999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="6">
-        <v>1982.6</v>
+        <v>6</v>
+      </c>
+      <c r="D131" s="5">
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2746,8 +2755,8 @@
       <c r="C132" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="6">
-        <v>1350.6</v>
+      <c r="D132" s="5">
+        <v>504.9</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2755,55 +2764,55 @@
         <v>60</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D133" s="6">
-        <v>1856.6</v>
+        <v>1982.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D134" s="6">
-        <v>3286</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D135" s="6">
-        <v>2442.5</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D136" s="6">
-        <v>2220</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2811,60 +2820,60 @@
         <v>62</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D137" s="6">
-        <v>2599.4</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="5">
-        <v>630</v>
+        <v>5</v>
+      </c>
+      <c r="D138" s="6">
+        <v>2220</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D139" s="6">
-        <v>2180</v>
+        <v>1944.4</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="6">
-        <v>1561.5</v>
+        <v>6</v>
+      </c>
+      <c r="D140" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>2</v>
@@ -2873,12 +2882,12 @@
         <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>2900</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
@@ -2887,7 +2896,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>2697</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2895,88 +2904,88 @@
         <v>64</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="5">
-        <v>544.4</v>
+        <v>3</v>
+      </c>
+      <c r="D143" s="6">
+        <v>2900</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>1312</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="6">
-        <v>3417.5</v>
+        <v>6</v>
+      </c>
+      <c r="D145" s="5">
+        <v>544.4</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>4762.1000000000004</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" s="5">
-        <v>68.5</v>
+        <v>5</v>
+      </c>
+      <c r="D147" s="6">
+        <v>3417.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="5">
-        <v>509.5</v>
+        <v>6</v>
+      </c>
+      <c r="D148" s="6">
+        <v>3452.1</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>4</v>
@@ -2985,12 +2994,12 @@
         <v>8</v>
       </c>
       <c r="D149" s="5">
-        <v>109</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
@@ -2999,12 +3008,12 @@
         <v>8</v>
       </c>
       <c r="D150" s="5">
-        <v>156</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
@@ -3013,12 +3022,12 @@
         <v>8</v>
       </c>
       <c r="D151" s="5">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3027,12 +3036,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3041,108 +3050,132 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>200.6</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="6">
-        <v>3031</v>
+        <v>8</v>
+      </c>
+      <c r="D154" s="5">
+        <v>106</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>335.2</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D156" s="5">
+        <v>200.6</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D157" s="6">
-        <v>1865.9</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="6">
-        <v>1089</v>
+        <v>6</v>
+      </c>
+      <c r="D158" s="5">
+        <v>335.2</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1865.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="5">
+      <c r="B162" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="5">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="5"/>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="5"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай для пищеварения НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Лактафитол НФП</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D162"/>
+      <selection activeCell="A2" sqref="A2:D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1544,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="D45" s="5">
-        <v>583.70000000000005</v>
+        <v>501.7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1642,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="6">
-        <v>1186</v>
+        <v>1893.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1656,7 +1659,7 @@
         <v>6</v>
       </c>
       <c r="D53" s="5">
-        <v>652</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2253,7 +2256,9 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="5">
+        <v>408</v>
+      </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
@@ -2378,7 +2383,7 @@
         <v>5</v>
       </c>
       <c r="D105" s="6">
-        <v>8682</v>
+        <v>8600</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2434,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="D109" s="6">
-        <v>8164.2</v>
+        <v>8082.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2574,7 +2579,7 @@
         <v>6</v>
       </c>
       <c r="D119" s="6">
-        <v>1794.4</v>
+        <v>1712.4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2691,7 +2696,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2700,12 +2705,12 @@
         <v>8</v>
       </c>
       <c r="D128" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2714,21 +2719,21 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="6">
-        <v>2278.6999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="D130" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2739,15 +2744,15 @@
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="5">
-        <v>354</v>
+        <v>5</v>
+      </c>
+      <c r="D131" s="6">
+        <v>2278.6999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2756,21 +2761,21 @@
         <v>6</v>
       </c>
       <c r="D132" s="5">
-        <v>504.9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="6">
-        <v>1982.6</v>
+        <v>6</v>
+      </c>
+      <c r="D133" s="5">
+        <v>504.9</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2778,13 +2783,13 @@
         <v>60</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D134" s="6">
-        <v>1350.6</v>
+        <v>1982.6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2792,32 +2797,32 @@
         <v>60</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D135" s="6">
-        <v>1856.6</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" s="6">
-        <v>3286</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>2</v>
@@ -2826,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="D137" s="6">
-        <v>2442.5</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2834,13 +2839,13 @@
         <v>62</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>2220</v>
+        <v>2442.5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2851,15 +2856,15 @@
         <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139" s="6">
-        <v>1944.4</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>4</v>
@@ -2867,22 +2872,22 @@
       <c r="C140" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="5">
-        <v>630</v>
+      <c r="D140" s="6">
+        <v>1944.4</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="6">
-        <v>2180</v>
+        <v>6</v>
+      </c>
+      <c r="D141" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2890,27 +2895,27 @@
         <v>63</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142" s="6">
-        <v>1561.5</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D143" s="6">
-        <v>2900</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2918,13 +2923,13 @@
         <v>64</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144" s="6">
-        <v>2697</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2935,38 +2940,38 @@
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="5">
-        <v>544.4</v>
+        <v>5</v>
+      </c>
+      <c r="D145" s="6">
+        <v>2697</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D146" s="5">
+        <v>544.4</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D147" s="6">
-        <v>3417.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2977,29 +2982,29 @@
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D148" s="6">
-        <v>3452.1</v>
+        <v>3417.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="5">
-        <v>68.5</v>
+        <v>6</v>
+      </c>
+      <c r="D149" s="6">
+        <v>3452.1</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
@@ -3008,12 +3013,12 @@
         <v>8</v>
       </c>
       <c r="D150" s="5">
-        <v>509.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
@@ -3022,12 +3027,12 @@
         <v>8</v>
       </c>
       <c r="D151" s="5">
-        <v>109</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3036,12 +3041,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>207</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3050,12 +3055,12 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3064,12 +3069,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3078,12 +3083,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>208</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3092,21 +3097,21 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>200.6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="6">
-        <v>3031</v>
+        <v>8</v>
+      </c>
+      <c r="D157" s="5">
+        <v>200.6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3114,74 +3119,82 @@
         <v>67</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="5">
-        <v>335.2</v>
+        <v>3</v>
+      </c>
+      <c r="D158" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D159" s="5">
+        <v>335.2</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="6">
-        <v>1865.9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D160" s="7"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D161" s="6">
-        <v>1089</v>
+        <v>1865.9</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="5">
+      <c r="B163" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="5">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="5"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="119">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Фиточай Лактафитол НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D163"/>
+      <selection activeCell="A2" sqref="A2:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1071,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>225</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1211,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>6134.1</v>
+        <v>8203.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1477,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1432.3</v>
+        <v>1591.8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1575,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="D47" s="5">
-        <v>295</v>
+        <v>772.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1715,7 +1718,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>6011</v>
+        <v>12786</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1743,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>13910.6</v>
+        <v>13860.6</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2091,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>1566.7</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2270,9 +2273,7 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="5">
-        <v>409</v>
-      </c>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
@@ -2290,21 +2291,21 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="6">
-        <v>1210</v>
+      <c r="D99" s="5">
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2313,12 +2314,12 @@
         <v>6</v>
       </c>
       <c r="D100" s="6">
-        <v>1970</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2326,13 +2327,13 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="5">
-        <v>808.5</v>
+      <c r="D101" s="6">
+        <v>1970</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2340,13 +2341,13 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="6">
-        <v>1209.7</v>
+      <c r="D102" s="5">
+        <v>808.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2354,64 +2355,62 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="5">
-        <v>415</v>
+      <c r="D103" s="6">
+        <v>1209.7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="6">
-        <v>3823</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>8600</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="5">
-        <v>265</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="6">
+        <v>8600</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2422,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D108" s="6">
-        <v>1238.2</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2433,32 +2432,32 @@
         <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" s="6">
-        <v>8082.2</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D110" s="6">
+        <v>8082.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
@@ -2467,12 +2466,12 @@
         <v>8</v>
       </c>
       <c r="D111" s="5">
-        <v>113.4</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
@@ -2481,21 +2480,21 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>204</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D113" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2503,13 +2502,13 @@
         <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114" s="6">
-        <v>1436</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2520,24 +2519,24 @@
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>6567</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>1721.5</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2548,10 +2547,10 @@
         <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="5">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1721.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2559,13 +2558,13 @@
         <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="6">
-        <v>2602.5</v>
+        <v>7</v>
+      </c>
+      <c r="D118" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2576,15 +2575,15 @@
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" s="6">
-        <v>1712.4</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
@@ -2593,7 +2592,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>5275.6</v>
+        <v>1712.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2601,69 +2600,69 @@
         <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>6700.5</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D122" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" s="5">
-        <v>704.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="5">
-        <v>490.8</v>
+        <v>704.4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>850.5</v>
+        <v>490.8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2671,32 +2670,32 @@
         <v>103</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D126" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="5">
-        <v>879.3</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2705,12 +2704,12 @@
         <v>8</v>
       </c>
       <c r="D128" s="5">
-        <v>307</v>
+        <v>879.3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2719,12 +2718,12 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2733,21 +2732,21 @@
         <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="6">
-        <v>2278.6999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="D131" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2758,15 +2757,15 @@
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="5">
-        <v>354</v>
+        <v>5</v>
+      </c>
+      <c r="D132" s="6">
+        <v>2278.6999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
@@ -2775,21 +2774,21 @@
         <v>6</v>
       </c>
       <c r="D133" s="5">
-        <v>504.9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="6">
-        <v>1982.6</v>
+        <v>6</v>
+      </c>
+      <c r="D134" s="5">
+        <v>504.9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2797,13 +2796,13 @@
         <v>60</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D135" s="6">
-        <v>1350.6</v>
+        <v>1982.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2811,32 +2810,32 @@
         <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" s="6">
-        <v>1856.6</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137" s="6">
-        <v>3286</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>2</v>
@@ -2845,7 +2844,7 @@
         <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>2442.5</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2853,13 +2852,13 @@
         <v>62</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>2220</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2870,15 +2869,15 @@
         <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D140" s="6">
-        <v>1944.4</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>4</v>
@@ -2886,22 +2885,22 @@
       <c r="C141" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="5">
-        <v>630</v>
+      <c r="D141" s="6">
+        <v>1944.4</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="6">
-        <v>2180</v>
+        <v>6</v>
+      </c>
+      <c r="D142" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2909,27 +2908,27 @@
         <v>63</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>1561.5</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>2900</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2937,13 +2936,13 @@
         <v>64</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D145" s="6">
-        <v>2697</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2954,38 +2953,38 @@
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="5">
-        <v>544.4</v>
+        <v>5</v>
+      </c>
+      <c r="D146" s="6">
+        <v>2697</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D147" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D147" s="5">
+        <v>544.4</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D148" s="6">
-        <v>3417.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2996,29 +2995,29 @@
         <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D149" s="6">
-        <v>3452.1</v>
+        <v>2517.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="5">
-        <v>68.5</v>
+        <v>6</v>
+      </c>
+      <c r="D150" s="6">
+        <v>3452.1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
@@ -3027,12 +3026,12 @@
         <v>8</v>
       </c>
       <c r="D151" s="5">
-        <v>509.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3041,12 +3040,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>109</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3054,13 +3053,11 @@
       <c r="C153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="5">
-        <v>207</v>
-      </c>
+      <c r="D153" s="7"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3069,12 +3066,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3083,12 +3080,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>106</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3097,12 +3094,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>208</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3111,21 +3108,21 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>200.6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="6">
-        <v>3031</v>
+        <v>8</v>
+      </c>
+      <c r="D158" s="5">
+        <v>200.6</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3133,74 +3130,82 @@
         <v>67</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="5">
-        <v>335.2</v>
+        <v>3</v>
+      </c>
+      <c r="D159" s="6">
+        <v>3031</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D160" s="5">
+        <v>335.2</v>
+      </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1865.9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D162" s="6">
-        <v>1089</v>
+        <v>3121.4</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="5">
+      <c r="B164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="5">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай для пищеварения НФП</t>
   </si>
   <si>
     <t>Фиточай Лактафитол НФП</t>
@@ -1270,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>2621.4</v>
+        <v>2543.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
@@ -1340,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>2127.1999999999998</v>
+        <v>1598.2</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1485,16 +1482,16 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" s="6">
-        <v>4526</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1502,13 +1499,13 @@
         <v>29</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>3044.3</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1516,55 +1513,55 @@
         <v>29</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>2926</v>
+        <v>3044.3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="5">
-        <v>337.5</v>
+      <c r="D44" s="6">
+        <v>2926</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
-        <v>501.7</v>
+        <v>337.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1815</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
+        <v>501.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1572,13 +1569,13 @@
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5">
-        <v>772.5</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>1815</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1589,10 +1586,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" s="5">
-        <v>25</v>
+        <v>772.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1600,41 +1597,41 @@
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2256</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>999</v>
+      <c r="D50" s="6">
+        <v>2256</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1995</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1642,13 +1639,13 @@
         <v>33</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="6">
-        <v>1893.5</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1659,80 +1656,80 @@
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="5">
-        <v>595</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1893.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1595.5</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>595</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="5">
-        <v>145.75</v>
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1595.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="6">
-        <v>1122.2</v>
+        <v>8</v>
+      </c>
+      <c r="D56" s="5">
+        <v>145.75</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" s="6">
-        <v>12786</v>
+        <v>1122.2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>12315.5</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1740,88 +1737,88 @@
         <v>37</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>13860.6</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="5">
-        <v>67.7</v>
+        <v>5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13860.6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1955</v>
+        <v>8</v>
+      </c>
+      <c r="D61" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" s="6">
-        <v>1608</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" s="6">
-        <v>1124</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="6">
-        <v>14400</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>2</v>
@@ -1830,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>2613.8000000000002</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1841,23 +1838,23 @@
         <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2613.8000000000002</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="6">
-        <v>2912</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
@@ -1867,24 +1864,24 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="6">
-        <v>7344.6</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>2022</v>
+        <v>6915.6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1895,10 +1892,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5">
-        <v>641.5</v>
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2022</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1906,13 +1903,13 @@
         <v>42</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2954.5</v>
+        <v>7</v>
+      </c>
+      <c r="D71" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1923,29 +1920,29 @@
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="6">
-        <v>17372.5</v>
+        <v>2954.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="5">
-        <v>478.1</v>
+        <v>6</v>
+      </c>
+      <c r="D73" s="6">
+        <v>17372.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1954,26 +1951,26 @@
         <v>8</v>
       </c>
       <c r="D74" s="5">
-        <v>13.1</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D75" s="5">
-        <v>194</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1981,13 +1978,13 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="6">
-        <v>5370.8</v>
+      <c r="D76" s="5">
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -1995,22 +1992,22 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="5">
-        <v>559</v>
+      <c r="D77" s="6">
+        <v>4795.8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="6">
-        <v>2125.6999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="D78" s="5">
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2018,13 +2015,13 @@
         <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="6">
+        <v>2125.6999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2035,24 +2032,24 @@
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="5">
-        <v>761</v>
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1641</v>
+        <v>6</v>
+      </c>
+      <c r="D81" s="5">
+        <v>761</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2060,32 +2057,32 @@
         <v>46</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>1521</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6">
-        <v>2953</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
@@ -2094,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>1090.7</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2102,13 +2099,13 @@
         <v>48</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>2789</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2116,27 +2113,27 @@
         <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="6">
-        <v>2371</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>13213</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2147,10 +2144,10 @@
         <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="5">
-        <v>10.4</v>
+        <v>3</v>
+      </c>
+      <c r="D88" s="6">
+        <v>13213</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2158,13 +2155,13 @@
         <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="6">
-        <v>28516.400000000001</v>
+        <v>7</v>
+      </c>
+      <c r="D89" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2172,46 +2169,46 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="6">
-        <v>56138.3</v>
+        <v>26956.400000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="5">
-        <v>204.6</v>
+        <v>5</v>
+      </c>
+      <c r="D91" s="6">
+        <v>56138.3</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" s="5">
-        <v>516</v>
+        <v>204.6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>4</v>
@@ -2219,20 +2216,22 @@
       <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="5">
+        <v>516</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D94" s="6">
+        <v>7974</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2240,18 +2239,18 @@
         <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="6">
-        <v>9823</v>
+        <v>7</v>
+      </c>
+      <c r="D95" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2259,13 +2258,13 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="5">
-        <v>408</v>
+      <c r="D96" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2273,11 +2272,13 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="5">
+        <v>408</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2286,40 +2287,40 @@
         <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>979</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="5">
-        <v>357</v>
+        <v>979</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="6">
-        <v>1210</v>
+        <v>7</v>
+      </c>
+      <c r="D100" s="5">
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2327,13 +2328,11 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="6">
-        <v>1970</v>
-      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2341,13 +2340,13 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="5">
-        <v>808.5</v>
+      <c r="D102" s="6">
+        <v>1970</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2355,13 +2354,13 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="6">
-        <v>1209.7</v>
+      <c r="D103" s="5">
+        <v>808.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2369,62 +2368,62 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="6">
+        <v>1209.7</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>3823</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>8600</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>265</v>
+        <v>5</v>
+      </c>
+      <c r="D107" s="6">
+        <v>8600</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2435,10 +2434,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D109" s="6">
-        <v>1238.2</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2446,32 +2445,32 @@
         <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D110" s="6">
-        <v>8082.2</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D111" s="6">
+        <v>8030.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
@@ -2480,12 +2479,12 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>113.4</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
@@ -2494,21 +2493,21 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>204</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D114" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2516,13 +2515,13 @@
         <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D115" s="6">
-        <v>1436</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2533,24 +2532,24 @@
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116" s="6">
-        <v>6567</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>1721.5</v>
+        <v>6567</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2561,10 +2560,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1721.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2572,13 +2571,13 @@
         <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="6">
-        <v>2602.5</v>
+        <v>7</v>
+      </c>
+      <c r="D119" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2589,15 +2588,15 @@
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120" s="6">
-        <v>1712.4</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
@@ -2606,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>5275.6</v>
+        <v>1712.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2614,69 +2613,69 @@
         <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D122" s="6">
-        <v>6700.5</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D123" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" s="5">
-        <v>704.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D125" s="5">
-        <v>490.8</v>
+        <v>704.4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>850.5</v>
+        <v>490.8</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2684,32 +2683,32 @@
         <v>103</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D127" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="5">
-        <v>879.3</v>
+        <v>6</v>
+      </c>
+      <c r="D128" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2718,12 +2717,12 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>307</v>
+        <v>879.3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2732,12 +2731,12 @@
         <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2746,21 +2745,21 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="6">
-        <v>2278.6999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="D132" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2771,15 +2770,15 @@
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="5">
-        <v>354</v>
+        <v>5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>2278.6999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
@@ -2788,21 +2787,21 @@
         <v>6</v>
       </c>
       <c r="D134" s="5">
-        <v>504.9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="6">
-        <v>1982.6</v>
+        <v>6</v>
+      </c>
+      <c r="D135" s="5">
+        <v>400.9</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2810,13 +2809,13 @@
         <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D136" s="6">
-        <v>1350.6</v>
+        <v>1982.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2824,32 +2823,32 @@
         <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" s="6">
-        <v>1856.6</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D138" s="6">
-        <v>3286</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>2</v>
@@ -2858,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>1966.5</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2866,13 +2865,13 @@
         <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D140" s="6">
-        <v>2220</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2883,15 +2882,15 @@
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141" s="6">
-        <v>1944.4</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
@@ -2899,22 +2898,22 @@
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="5">
-        <v>630</v>
+      <c r="D142" s="6">
+        <v>1944.4</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="6">
-        <v>2180</v>
+        <v>6</v>
+      </c>
+      <c r="D143" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2922,27 +2921,27 @@
         <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144" s="6">
-        <v>1561.5</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" s="6">
-        <v>2900</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2950,13 +2949,13 @@
         <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>2697</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2967,38 +2966,38 @@
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="5">
-        <v>544.4</v>
+        <v>5</v>
+      </c>
+      <c r="D147" s="6">
+        <v>2697</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D148" s="5">
+        <v>544.4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="6">
-        <v>2517.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3009,29 +3008,29 @@
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>3452.1</v>
+        <v>2517.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="5">
-        <v>68.5</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="6">
+        <v>3452.1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3040,12 +3039,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>509.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3053,11 +3052,13 @@
       <c r="C153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="5">
+        <v>509.5</v>
+      </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3065,9 +3066,7 @@
       <c r="C154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="5">
-        <v>207</v>
-      </c>
+      <c r="D154" s="7"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1155,7 +1155,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="6">
-        <v>1504</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>4008.3</v>
+        <v>2847.3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>3662.7</v>
+        <v>4786.7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1881,7 +1881,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>6915.6</v>
+        <v>8700.6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2717,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>879.3</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3148,8 +3148,8 @@
       <c r="C160" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D160" s="5">
-        <v>335.2</v>
+      <c r="D160" s="6">
+        <v>1138.2</v>
       </c>
     </row>
     <row r="161" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="119">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Пищевая продукция (моно), ф/п</t>
   </si>
 </sst>
 </file>
@@ -909,7 +912,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D164"/>
+      <selection activeCell="A2" sqref="A2:D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1239,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>1736</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1323,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="5">
-        <v>380.9</v>
+        <v>338.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1659,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="6">
-        <v>1893.5</v>
+        <v>1593.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1867,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="D68" s="6">
-        <v>4466</v>
+        <v>7607.5</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1881,21 +1884,21 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>8700.6</v>
+        <v>5559.1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6">
-        <v>2022</v>
+        <v>118</v>
+      </c>
+      <c r="D70" s="5">
+        <v>313.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1906,10 +1909,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5">
-        <v>641.5</v>
+        <v>3</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2022</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1917,13 +1920,13 @@
         <v>42</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="6">
-        <v>2954.5</v>
+        <v>7</v>
+      </c>
+      <c r="D72" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1934,29 +1937,29 @@
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" s="6">
-        <v>17372.5</v>
+        <v>2954.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="5">
-        <v>478.1</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="6">
+        <v>17372.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
@@ -1965,26 +1968,26 @@
         <v>8</v>
       </c>
       <c r="D75" s="5">
-        <v>13.1</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D76" s="5">
-        <v>194</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -1992,13 +1995,13 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="6">
-        <v>4795.8</v>
+      <c r="D77" s="5">
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -2006,22 +2009,22 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="5">
-        <v>559</v>
+      <c r="D78" s="6">
+        <v>4795.8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2125.6999999999998</v>
+        <v>5</v>
+      </c>
+      <c r="D79" s="5">
+        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2029,13 +2032,13 @@
         <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5">
-        <v>605</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1065.7</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2046,24 +2049,24 @@
         <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="5">
-        <v>761</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="6">
-        <v>1641</v>
+        <v>6</v>
+      </c>
+      <c r="D82" s="5">
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2071,32 +2074,32 @@
         <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>1521</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" s="6">
-        <v>2953</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>2</v>
@@ -2105,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>1090.7</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2113,13 +2116,13 @@
         <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" s="6">
-        <v>2657</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2127,27 +2130,27 @@
         <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87" s="6">
-        <v>2371</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>13213</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2158,10 +2161,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5">
-        <v>10.4</v>
+        <v>3</v>
+      </c>
+      <c r="D89" s="6">
+        <v>13213</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2169,13 +2172,13 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="6">
-        <v>26956.400000000001</v>
+        <v>7</v>
+      </c>
+      <c r="D90" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2183,46 +2186,46 @@
         <v>49</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" s="6">
-        <v>56138.3</v>
+        <v>26956.400000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="5">
-        <v>204.6</v>
+        <v>5</v>
+      </c>
+      <c r="D92" s="6">
+        <v>62614.1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93" s="5">
-        <v>516</v>
+        <v>204.6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>4</v>
@@ -2230,22 +2233,22 @@
       <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="6">
-        <v>7974</v>
+      <c r="D94" s="5">
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D95" s="6">
+        <v>3807</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2253,18 +2256,18 @@
         <v>51</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="6">
-        <v>9823</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2272,13 +2275,13 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="5">
-        <v>408</v>
+      <c r="D97" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2287,12 +2290,12 @@
         <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>408.5</v>
+        <v>408</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2301,38 +2304,40 @@
         <v>6</v>
       </c>
       <c r="D99" s="5">
-        <v>979</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D100" s="5">
-        <v>357</v>
+        <v>979</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D101" s="5">
+        <v>357</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2340,13 +2345,11 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="6">
-        <v>1970</v>
-      </c>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2354,13 +2357,13 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="5">
-        <v>808.5</v>
+      <c r="D103" s="6">
+        <v>1970</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2368,13 +2371,13 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="6">
-        <v>1209.7</v>
+      <c r="D104" s="5">
+        <v>808.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2382,62 +2385,62 @@
       <c r="C105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="7"/>
+      <c r="D105" s="6">
+        <v>1209.7</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="6">
-        <v>3823</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D107" s="6">
-        <v>8600</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>265</v>
+        <v>5</v>
+      </c>
+      <c r="D108" s="6">
+        <v>8600</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D109" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2448,10 +2451,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D110" s="6">
-        <v>1238.2</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2459,32 +2462,32 @@
         <v>54</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" s="6">
-        <v>8030.2</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D112" s="6">
+        <v>8030.2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
@@ -2493,12 +2496,12 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>113.4</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>4</v>
@@ -2507,21 +2510,21 @@
         <v>8</v>
       </c>
       <c r="D114" s="5">
-        <v>204</v>
+        <v>113.4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D115" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2529,13 +2532,13 @@
         <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116" s="6">
-        <v>1436</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2546,24 +2549,24 @@
         <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117" s="6">
-        <v>6567</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D118" s="6">
-        <v>1721.5</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2574,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="5">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1721.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2585,13 +2588,13 @@
         <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" s="6">
-        <v>2602.5</v>
+        <v>7</v>
+      </c>
+      <c r="D120" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2602,15 +2605,15 @@
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121" s="6">
-        <v>1712.4</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
@@ -2619,7 +2622,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="6">
-        <v>5275.6</v>
+        <v>1712.4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2627,69 +2630,69 @@
         <v>57</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D123" s="6">
-        <v>6700.5</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D124" s="6">
+        <v>6700.5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>704.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D126" s="5">
-        <v>490.8</v>
+        <v>704.4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="5">
-        <v>850.5</v>
+        <v>490.8</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2697,32 +2700,32 @@
         <v>103</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D128" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="5">
-        <v>312.3</v>
+        <v>6</v>
+      </c>
+      <c r="D129" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2731,12 +2734,12 @@
         <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>307</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2745,12 +2748,12 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
@@ -2759,21 +2762,21 @@
         <v>8</v>
       </c>
       <c r="D132" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" s="6">
-        <v>2278.6999999999998</v>
+        <v>8</v>
+      </c>
+      <c r="D133" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2784,15 +2787,15 @@
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="5">
-        <v>354</v>
+        <v>5</v>
+      </c>
+      <c r="D134" s="6">
+        <v>2278.6999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>4</v>
@@ -2801,21 +2804,21 @@
         <v>6</v>
       </c>
       <c r="D135" s="5">
-        <v>400.9</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1982.6</v>
+        <v>6</v>
+      </c>
+      <c r="D136" s="5">
+        <v>400.9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2823,13 +2826,13 @@
         <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D137" s="6">
-        <v>1350.6</v>
+        <v>1982.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2837,32 +2840,32 @@
         <v>60</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D138" s="6">
-        <v>1856.6</v>
+        <v>1350.6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D139" s="6">
-        <v>3286</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>2</v>
@@ -2871,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="6">
-        <v>1966.5</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2879,13 +2882,13 @@
         <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>2220</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2896,15 +2899,15 @@
         <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>1944.4</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>4</v>
@@ -2912,41 +2915,41 @@
       <c r="C143" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="5">
-        <v>630</v>
+      <c r="D143" s="6">
+        <v>1944.4</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="6">
-        <v>2180</v>
+        <v>6</v>
+      </c>
+      <c r="D144" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1561.5</v>
+        <v>8</v>
+      </c>
+      <c r="D145" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>2</v>
@@ -2955,12 +2958,12 @@
         <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>2900</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>4</v>
@@ -2969,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>2697</v>
+        <v>1561.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2977,88 +2980,88 @@
         <v>64</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="5">
-        <v>544.4</v>
+        <v>3</v>
+      </c>
+      <c r="D148" s="6">
+        <v>2900</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D149" s="6">
-        <v>1312</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="6">
-        <v>2517.5</v>
+        <v>6</v>
+      </c>
+      <c r="D150" s="5">
+        <v>544.4</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D151" s="6">
-        <v>3452.1</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="5">
-        <v>68.5</v>
+        <v>5</v>
+      </c>
+      <c r="D152" s="6">
+        <v>2517.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="5">
-        <v>509.5</v>
+        <v>6</v>
+      </c>
+      <c r="D153" s="6">
+        <v>3413.6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3066,11 +3069,13 @@
       <c r="C154" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="5">
+        <v>68.5</v>
+      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3079,12 +3084,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>156</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3092,13 +3097,11 @@
       <c r="C156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="5">
-        <v>106</v>
-      </c>
+      <c r="D156" s="7"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3107,12 +3110,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3121,52 +3124,54 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>200.6</v>
+        <v>106</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="6">
-        <v>3031</v>
+        <v>8</v>
+      </c>
+      <c r="D159" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="6">
-        <v>1138.2</v>
+        <v>8</v>
+      </c>
+      <c r="D160" s="5">
+        <v>200.6</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D161" s="6">
+        <v>4336</v>
+      </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>4</v>
@@ -3175,48 +3180,62 @@
         <v>6</v>
       </c>
       <c r="D162" s="6">
-        <v>3121.4</v>
+        <v>1138.2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="6">
-        <v>1089</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D163" s="7"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="6">
+        <v>3058.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="5">
-        <v>207.2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="6"/>
+      <c r="B166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="5">
+        <v>196.7</v>
+      </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -371,9 +371,6 @@
     <t>Сбор Элекасол НФП</t>
   </si>
   <si>
-    <t>Сбор Арфазетин-Э НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
   </si>
   <si>
@@ -384,6 +381,9 @@
   </si>
   <si>
     <t>Пищевая продукция (моно), ф/п</t>
+  </si>
+  <si>
+    <t>Фиточай "Фитосбор №2" НФП</t>
   </si>
 </sst>
 </file>
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1504</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="5">
-        <v>509</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1200,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>4786.7</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1214,7 +1214,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>8203.1</v>
+        <v>8183.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>2543.4</v>
+        <v>2443.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1591.8</v>
+        <v>1559.8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1493,8 +1493,8 @@
       <c r="C41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="6">
-        <v>1361</v>
+      <c r="D41" s="5">
+        <v>886</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1634,7 +1634,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="5">
-        <v>999</v>
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1732,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>9786</v>
+        <v>9790.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1760,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>13860.6</v>
+        <v>13838.6</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>2613.8000000000002</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1884,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>5559.1</v>
+        <v>5531.4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1895,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D70" s="5">
         <v>313.5</v>
@@ -1954,7 +1954,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="6">
-        <v>17372.5</v>
+        <v>17254.5</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1982,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="5">
-        <v>13.1</v>
+        <v>162.1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2010,7 +2010,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="6">
-        <v>4795.8</v>
+        <v>6720.8</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2108,7 +2108,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>2953</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="D88" s="6">
-        <v>2371</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2192,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="6">
-        <v>26956.400000000001</v>
+        <v>26881.4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2206,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="D92" s="6">
-        <v>62614.1</v>
+        <v>71426.600000000006</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2225,7 +2225,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>4</v>
@@ -2233,22 +2233,22 @@
       <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="5">
-        <v>516</v>
+      <c r="D94" s="6">
+        <v>3974</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="6">
-        <v>3807</v>
+        <v>7</v>
+      </c>
+      <c r="D95" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2256,18 +2256,18 @@
         <v>51</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D96" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2275,13 +2275,13 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="6">
-        <v>9823</v>
+      <c r="D97" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2290,12 +2290,12 @@
         <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>408</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2304,40 +2304,38 @@
         <v>6</v>
       </c>
       <c r="D99" s="5">
-        <v>408.5</v>
+        <v>979</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100" s="5">
-        <v>979</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" s="5">
-        <v>357</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2345,11 +2343,13 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="7"/>
+      <c r="D102" s="6">
+        <v>1970</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2357,13 +2357,13 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="6">
-        <v>1970</v>
+      <c r="D103" s="5">
+        <v>808.5</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2371,13 +2371,13 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="5">
-        <v>808.5</v>
+      <c r="D104" s="6">
+        <v>1209.7</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
@@ -2385,62 +2385,62 @@
       <c r="C105" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="6">
-        <v>1209.7</v>
-      </c>
+      <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D106" s="6">
+        <v>3823</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D107" s="6">
-        <v>3823</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="6">
-        <v>8600</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="5">
-        <v>223</v>
+        <v>3</v>
+      </c>
+      <c r="D109" s="6">
+        <v>3599</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2451,10 +2451,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D110" s="6">
-        <v>3599</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2462,32 +2462,32 @@
         <v>54</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D111" s="6">
-        <v>1238.2</v>
+        <v>7944.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="6">
-        <v>8030.2</v>
+        <v>8</v>
+      </c>
+      <c r="D112" s="5">
+        <v>82.2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
@@ -2496,12 +2496,12 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>82.2</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>4</v>
@@ -2510,21 +2510,21 @@
         <v>8</v>
       </c>
       <c r="D114" s="5">
-        <v>113.4</v>
+        <v>204</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" s="5">
-        <v>204</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2532,13 +2532,13 @@
         <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D116" s="6">
-        <v>2039</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2549,24 +2549,24 @@
         <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>1436</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D118" s="6">
-        <v>9039</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2577,10 +2577,10 @@
         <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="6">
-        <v>1721.5</v>
+        <v>7</v>
+      </c>
+      <c r="D119" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2588,13 +2588,13 @@
         <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" s="5">
-        <v>257</v>
+        <v>5</v>
+      </c>
+      <c r="D120" s="6">
+        <v>2602.5</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2605,15 +2605,15 @@
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>2602.5</v>
+        <v>2292.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
@@ -2622,7 +2622,7 @@
         <v>6</v>
       </c>
       <c r="D122" s="6">
-        <v>1712.4</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2630,69 +2630,69 @@
         <v>57</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D123" s="6">
-        <v>5275.6</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="6">
-        <v>6700.5</v>
+        <v>8</v>
+      </c>
+      <c r="D124" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D125" s="5">
-        <v>363</v>
+        <v>704.4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>704.4</v>
+        <v>490.8</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" s="5">
-        <v>490.8</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2700,32 +2700,32 @@
         <v>103</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" s="5">
-        <v>850.5</v>
+        <v>6</v>
+      </c>
+      <c r="D128" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D129" s="5">
+        <v>312.3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2734,12 +2734,12 @@
         <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>312.3</v>
+        <v>508.5</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2790,7 +2790,7 @@
         <v>5</v>
       </c>
       <c r="D134" s="6">
-        <v>2278.6999999999998</v>
+        <v>1978.7</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2818,7 +2818,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="5">
-        <v>400.9</v>
+        <v>895.9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2902,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>2220</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2916,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="6">
-        <v>1944.4</v>
+        <v>1913.4</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2972,7 +2972,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>1561.5</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3000,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="D149" s="6">
-        <v>2697</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3013,8 +3013,8 @@
       <c r="C150" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="5">
-        <v>544.4</v>
+      <c r="D150" s="6">
+        <v>1072.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3042,7 +3042,7 @@
         <v>5</v>
       </c>
       <c r="D152" s="6">
-        <v>2517.5</v>
+        <v>1628.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3056,7 +3056,7 @@
         <v>6</v>
       </c>
       <c r="D153" s="6">
-        <v>3413.6</v>
+        <v>3722.6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3123,9 +3123,7 @@
       <c r="C158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="5">
-        <v>106</v>
-      </c>
+      <c r="D158" s="7"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
@@ -3180,7 +3178,7 @@
         <v>6</v>
       </c>
       <c r="D162" s="6">
-        <v>1138.2</v>
+        <v>1052.2</v>
       </c>
     </row>
     <row r="163" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="117">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -378,12 +378,6 @@
   </si>
   <si>
     <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Пищевая продукция (моно), ф/п</t>
-  </si>
-  <si>
-    <t>Фиточай "Фитосбор №2" НФП</t>
   </si>
 </sst>
 </file>
@@ -912,7 +906,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D166"/>
+      <selection activeCell="A2" sqref="A2:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -948,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1129</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1060,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="6">
-        <v>8640.4</v>
+        <v>9704.4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1130,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="6">
-        <v>2609.5</v>
+        <v>2189.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1465,8 +1459,8 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="6">
-        <v>1035</v>
+      <c r="D39" s="5">
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1620,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>2256</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1889,16 +1883,16 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="5">
-        <v>313.5</v>
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2022</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1909,10 +1903,10 @@
         <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="6">
-        <v>2022</v>
+        <v>7</v>
+      </c>
+      <c r="D71" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1920,13 +1914,13 @@
         <v>42</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5">
-        <v>641.5</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="6">
+        <v>4071.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1937,29 +1931,29 @@
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73" s="6">
-        <v>2954.5</v>
+        <v>17254.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="6">
-        <v>17254.5</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="5">
+        <v>478.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
@@ -1968,26 +1962,26 @@
         <v>8</v>
       </c>
       <c r="D75" s="5">
-        <v>478.1</v>
+        <v>162.1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D76" s="5">
-        <v>162.1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -1995,13 +1989,13 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="5">
-        <v>194</v>
+      <c r="D77" s="6">
+        <v>6720.8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -2009,22 +2003,22 @@
       <c r="C78" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="6">
-        <v>6720.8</v>
+      <c r="D78" s="5">
+        <v>559</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="5">
-        <v>559</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1065.7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2032,13 +2026,13 @@
         <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="6">
-        <v>1065.7</v>
+        <v>5</v>
+      </c>
+      <c r="D80" s="5">
+        <v>605</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2049,24 +2043,24 @@
         <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81" s="5">
-        <v>605</v>
+        <v>761</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="5">
-        <v>761</v>
+        <v>3</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1641</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2074,32 +2068,32 @@
         <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6">
-        <v>1641</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>1521</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>2</v>
@@ -2108,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>5455</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2116,13 +2110,13 @@
         <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D86" s="6">
-        <v>1090.7</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2130,27 +2124,27 @@
         <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>2657</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>2021</v>
+        <v>13213</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2161,10 +2155,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="6">
-        <v>13213</v>
+        <v>7</v>
+      </c>
+      <c r="D89" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2172,13 +2166,13 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="5">
-        <v>10.4</v>
+        <v>6</v>
+      </c>
+      <c r="D90" s="6">
+        <v>26881.4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2186,55 +2180,55 @@
         <v>49</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>26881.4</v>
+        <v>71426.600000000006</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="6">
-        <v>71426.600000000006</v>
+        <v>3</v>
+      </c>
+      <c r="D92" s="5">
+        <v>204.6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="5">
-        <v>204.6</v>
+        <v>6</v>
+      </c>
+      <c r="D93" s="6">
+        <v>3974</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="6">
-        <v>3974</v>
+        <v>7</v>
+      </c>
+      <c r="D94" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2242,18 +2236,18 @@
         <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D95" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2261,13 +2255,13 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="6">
-        <v>9823</v>
+      <c r="D96" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2276,12 +2270,12 @@
         <v>6</v>
       </c>
       <c r="D97" s="5">
-        <v>408</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2290,40 +2284,38 @@
         <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>408.5</v>
+        <v>979</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" s="5">
-        <v>979</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="5">
-        <v>174</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2335,7 +2327,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2343,13 +2335,13 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="6">
-        <v>1970</v>
+      <c r="D102" s="5">
+        <v>808.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2357,13 +2349,13 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="5">
-        <v>808.5</v>
+      <c r="D103" s="6">
+        <v>1209.7</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2371,62 +2363,62 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="6">
-        <v>1209.7</v>
-      </c>
+      <c r="D104" s="7"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>3823</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D106" s="6">
-        <v>3823</v>
+        <v>7889</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="6">
-        <v>7889</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>223</v>
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3599</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2437,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D109" s="6">
-        <v>3599</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2448,32 +2440,32 @@
         <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" s="6">
-        <v>1238.2</v>
+        <v>7944.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="6">
-        <v>7944.2</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="5">
+        <v>82.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
@@ -2482,12 +2474,12 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>82.2</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
@@ -2496,21 +2488,21 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>81.400000000000006</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="5">
-        <v>204</v>
+        <v>3</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2518,13 +2510,13 @@
         <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>2039</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2535,24 +2527,24 @@
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>2382</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D117" s="6">
-        <v>9039</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2563,10 +2555,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="6">
-        <v>2346</v>
+        <v>7</v>
+      </c>
+      <c r="D118" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2574,13 +2566,13 @@
         <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="5">
-        <v>257</v>
+        <v>5</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2602.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2591,15 +2583,15 @@
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>2602.5</v>
+        <v>2292.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
@@ -2608,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>2292.4</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2616,69 +2608,69 @@
         <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122" s="6">
-        <v>5275.6</v>
+        <v>4674</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="6">
-        <v>4674</v>
+        <v>8</v>
+      </c>
+      <c r="D123" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="5">
-        <v>363</v>
+        <v>704.4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>704.4</v>
+        <v>490.8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" s="5">
-        <v>490.8</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2686,32 +2678,32 @@
         <v>103</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="5">
-        <v>850.5</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>312.3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2720,12 +2712,12 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>312.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2734,12 +2726,12 @@
         <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>508.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2753,63 +2745,63 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" s="5">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1978.7</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D133" s="5">
-        <v>307</v>
+        <v>354</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" s="6">
-        <v>1978.7</v>
+        <v>6</v>
+      </c>
+      <c r="D134" s="5">
+        <v>895.9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="5">
-        <v>354</v>
+        <v>3</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1982.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>4</v>
@@ -2817,8 +2809,8 @@
       <c r="C136" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="5">
-        <v>895.9</v>
+      <c r="D136" s="6">
+        <v>1350.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2826,55 +2818,55 @@
         <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137" s="6">
-        <v>1982.6</v>
+        <v>1856.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>1350.6</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>1856.6</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" s="6">
-        <v>3286</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2882,74 +2874,74 @@
         <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D141" s="6">
-        <v>1966.5</v>
+        <v>1913.4</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="6">
-        <v>2859</v>
+        <v>6</v>
+      </c>
+      <c r="D142" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1913.4</v>
+        <v>8</v>
+      </c>
+      <c r="D143" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="5">
-        <v>630</v>
+        <v>3</v>
+      </c>
+      <c r="D144" s="6">
+        <v>2180</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" s="5">
-        <v>519</v>
+        <v>5</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1228</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>2</v>
@@ -2958,12 +2950,12 @@
         <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>2180</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>4</v>
@@ -2972,7 +2964,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>1228</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2980,88 +2972,88 @@
         <v>64</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D148" s="6">
-        <v>2900</v>
+        <v>1072.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="6">
-        <v>5867</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>1072.5</v>
+        <v>4013.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D151" s="6">
-        <v>1312</v>
+        <v>3722.6</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D152" s="6">
-        <v>1628.5</v>
+        <v>8</v>
+      </c>
+      <c r="D152" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D153" s="6">
-        <v>3722.6</v>
+        <v>8</v>
+      </c>
+      <c r="D153" s="5">
+        <v>509.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3070,12 +3062,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>68.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3084,12 +3076,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>509.5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3101,7 +3093,7 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3110,12 +3102,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3123,53 +3115,53 @@
       <c r="C158" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="5">
+        <v>200.6</v>
+      </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="5">
-        <v>208</v>
+        <v>3</v>
+      </c>
+      <c r="D159" s="6">
+        <v>4336</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="5">
-        <v>200.6</v>
+        <v>6</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1052.2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="6">
-        <v>4336</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D161" s="7"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>4</v>
@@ -3178,62 +3170,48 @@
         <v>6</v>
       </c>
       <c r="D162" s="6">
-        <v>1052.2</v>
+        <v>3058.4</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D163" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1089</v>
+      </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D164" s="6">
-        <v>3058.4</v>
+        <v>8</v>
+      </c>
+      <c r="D164" s="5">
+        <v>196.7</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1089</v>
-      </c>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="5">
-        <v>196.7</v>
-      </c>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для пищеварения НФП</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D164"/>
+      <selection activeCell="A2" sqref="A2:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1180,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>2113.5</v>
+        <v>3107.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1250,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="6">
-        <v>1591.2</v>
+        <v>1266.2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1446,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>8452.2000000000007</v>
+        <v>5345.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1684,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>1595.5</v>
+        <v>2710.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1990,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="6">
-        <v>6720.8</v>
+        <v>9335.7999999999993</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2032,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="D80" s="5">
-        <v>605</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2363,7 +2366,9 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="5">
+        <v>427</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
@@ -2390,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="D106" s="6">
-        <v>7889</v>
+        <v>10665</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2810,7 +2815,7 @@
         <v>6</v>
       </c>
       <c r="D136" s="6">
-        <v>1350.6</v>
+        <v>2054.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3067,7 +3072,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3076,12 +3081,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>156</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3089,11 +3094,13 @@
       <c r="C156" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D156" s="7"/>
+      <c r="D156" s="5">
+        <v>156</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3101,13 +3108,11 @@
       <c r="C157" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D157" s="5">
-        <v>208</v>
-      </c>
+      <c r="D157" s="7"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3116,21 +3121,21 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>200.6</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="6">
-        <v>4336</v>
+        <v>8</v>
+      </c>
+      <c r="D159" s="5">
+        <v>200.6</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3138,74 +3143,82 @@
         <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D160" s="6">
-        <v>1052.2</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D161" s="6">
+        <v>1052.2</v>
+      </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="6">
-        <v>3058.4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D163" s="6">
-        <v>1089</v>
+        <v>3058.4</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="6">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B164" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="5">
+      <c r="B165" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="5">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="113">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -242,12 +242,6 @@
     <t>Можжевельник плоды НФП</t>
   </si>
   <si>
-    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
-  </si>
-  <si>
     <t>Фиточай Стройная жизнь НФП</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Щедрость природы Фиточай при простуде НФП</t>
   </si>
   <si>
-    <t>Щедрость природы Фиточай успокоительный НФП</t>
-  </si>
-  <si>
     <t>Ольха соплодия НФП</t>
   </si>
   <si>
@@ -275,13 +266,7 @@
     <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
   </si>
   <si>
-    <t>Щедрость природы Фиточай очищающий НФП</t>
-  </si>
-  <si>
     <t>Щедрость природы Фиточай кардиологический НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
   </si>
   <si>
     <t>Фиточай "Опалиховский" НФП</t>
@@ -909,7 +894,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D165"/>
+      <selection activeCell="A2" sqref="A2:D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1006,7 +991,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1216,7 +1201,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
@@ -1272,7 +1257,7 @@
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1286,7 +1271,7 @@
     </row>
     <row r="27" spans="1:4" ht="22.5">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -1300,7 +1285,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -1314,7 +1299,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>4</v>
@@ -1384,7 +1369,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
@@ -1426,7 +1411,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
@@ -1468,7 +1453,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>4</v>
@@ -1482,7 +1467,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>11</v>
@@ -1552,7 +1537,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>4</v>
@@ -1617,7 +1602,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>1856</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1692,7 +1677,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
@@ -1762,7 +1747,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>4</v>
@@ -1799,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="6">
-        <v>1608</v>
+        <v>2620.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1849,12 +1834,14 @@
         <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D67" s="6">
+        <v>7607.5</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
@@ -1864,24 +1851,24 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D68" s="6">
-        <v>7607.5</v>
+        <v>5531.4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69" s="6">
-        <v>5531.4</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1892,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6">
-        <v>2022</v>
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1903,13 +1890,13 @@
         <v>42</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5">
-        <v>641.5</v>
+        <v>5</v>
+      </c>
+      <c r="D71" s="6">
+        <v>3359.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1920,29 +1907,29 @@
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>4071.5</v>
+        <v>17254.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="6">
-        <v>17254.5</v>
+        <v>8</v>
+      </c>
+      <c r="D73" s="5">
+        <v>478.1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1951,26 +1938,26 @@
         <v>8</v>
       </c>
       <c r="D74" s="5">
-        <v>478.1</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D75" s="5">
-        <v>162.1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1978,13 +1965,13 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="5">
-        <v>194</v>
+      <c r="D76" s="6">
+        <v>9335.7999999999993</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -1992,22 +1979,22 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="6">
-        <v>9335.7999999999993</v>
+      <c r="D77" s="5">
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="5">
-        <v>559</v>
+        <v>3</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1065.7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2015,13 +2002,13 @@
         <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1065.7</v>
+        <v>5</v>
+      </c>
+      <c r="D79" s="5">
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2032,24 +2019,24 @@
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80" s="5">
-        <v>416</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="5">
-        <v>761</v>
+        <v>3</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1641</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2057,32 +2044,32 @@
         <v>46</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>1641</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>1521</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
@@ -2091,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>8342</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2099,13 +2086,13 @@
         <v>48</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D85" s="6">
-        <v>1090.7</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2113,27 +2100,27 @@
         <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>2657</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>2021</v>
+        <v>13213</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2144,10 +2131,10 @@
         <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="6">
-        <v>13213</v>
+        <v>7</v>
+      </c>
+      <c r="D88" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2155,13 +2142,13 @@
         <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5">
-        <v>10.4</v>
+        <v>6</v>
+      </c>
+      <c r="D89" s="6">
+        <v>26881.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2169,55 +2156,55 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
-        <v>26881.4</v>
+        <v>71426.600000000006</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="6">
-        <v>71426.600000000006</v>
+        <v>3</v>
+      </c>
+      <c r="D91" s="5">
+        <v>204.6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="5">
-        <v>204.6</v>
+        <v>6</v>
+      </c>
+      <c r="D92" s="6">
+        <v>3974</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="6">
-        <v>3974</v>
+        <v>7</v>
+      </c>
+      <c r="D93" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2225,18 +2212,18 @@
         <v>51</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D94" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>4</v>
@@ -2244,13 +2231,13 @@
       <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="6">
-        <v>9823</v>
+      <c r="D95" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2259,12 +2246,12 @@
         <v>6</v>
       </c>
       <c r="D96" s="5">
-        <v>408</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2273,40 +2260,40 @@
         <v>6</v>
       </c>
       <c r="D97" s="5">
-        <v>408.5</v>
+        <v>979</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5">
-        <v>979</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D99" s="5">
-        <v>174</v>
+        <v>808.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2314,93 +2301,97 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="7"/>
+      <c r="D100" s="5">
+        <v>427</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D101" s="6">
+        <v>3823</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="5">
-        <v>808.5</v>
+        <v>5</v>
+      </c>
+      <c r="D102" s="6">
+        <v>10665</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="6">
-        <v>1209.7</v>
+        <v>8</v>
+      </c>
+      <c r="D103" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="5">
-        <v>427</v>
+        <v>3</v>
+      </c>
+      <c r="D104" s="6">
+        <v>3599</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D105" s="6">
-        <v>3823</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D106" s="6">
-        <v>10665</v>
+        <v>7944.2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
@@ -2409,110 +2400,110 @@
         <v>8</v>
       </c>
       <c r="D107" s="5">
-        <v>223</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="6">
-        <v>1238.2</v>
+        <v>8</v>
+      </c>
+      <c r="D109" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D110" s="6">
-        <v>7944.2</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="5">
-        <v>82.2</v>
+        <v>5</v>
+      </c>
+      <c r="D111" s="6">
+        <v>2382</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="5">
-        <v>81.400000000000006</v>
+        <v>6</v>
+      </c>
+      <c r="D112" s="6">
+        <v>9039</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="5">
-        <v>204</v>
+        <v>3</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2346</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="6">
-        <v>2039</v>
+        <v>7</v>
+      </c>
+      <c r="D114" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>4</v>
@@ -2521,12 +2512,12 @@
         <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>2382</v>
+        <v>2602.5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>4</v>
@@ -2535,54 +2526,54 @@
         <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>9039</v>
+        <v>2292.4</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>2346</v>
+        <v>5275.6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="D118" s="6">
+        <v>4674</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="6">
-        <v>2602.5</v>
+        <v>8</v>
+      </c>
+      <c r="D119" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
@@ -2590,69 +2581,69 @@
       <c r="C120" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="6">
-        <v>2292.4</v>
+      <c r="D120" s="5">
+        <v>704.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="6">
-        <v>5275.6</v>
+        <v>8</v>
+      </c>
+      <c r="D121" s="5">
+        <v>490.8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="6">
-        <v>4674</v>
+        <v>7</v>
+      </c>
+      <c r="D122" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="5">
-        <v>363</v>
+        <v>6</v>
+      </c>
+      <c r="D123" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" s="5">
-        <v>704.4</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
@@ -2661,138 +2652,138 @@
         <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>490.8</v>
+        <v>307</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>850.5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D127" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="5">
-        <v>312.3</v>
+        <v>5</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1978.7</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D129" s="5">
-        <v>307</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D130" s="5">
-        <v>302</v>
+        <v>895.9</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="5">
-        <v>307</v>
+        <v>3</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1982.6</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132" s="6">
-        <v>1978.7</v>
+        <v>2054.6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="5">
-        <v>354</v>
+        <v>5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>3605.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="5">
-        <v>895.9</v>
+        <v>3</v>
+      </c>
+      <c r="D134" s="6">
+        <v>6107</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>2</v>
@@ -2801,236 +2792,236 @@
         <v>3</v>
       </c>
       <c r="D135" s="6">
-        <v>1982.6</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D136" s="6">
-        <v>2054.6</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137" s="6">
-        <v>1856.6</v>
+        <v>1913.4</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="6">
-        <v>6107</v>
+        <v>6</v>
+      </c>
+      <c r="D138" s="5">
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="6">
-        <v>1966.5</v>
+        <v>8</v>
+      </c>
+      <c r="D139" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D140" s="6">
-        <v>2859</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141" s="6">
-        <v>1913.4</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="5">
-        <v>630</v>
+        <v>3</v>
+      </c>
+      <c r="D142" s="6">
+        <v>2900</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="5">
-        <v>519</v>
+        <v>5</v>
+      </c>
+      <c r="D143" s="6">
+        <v>5867</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D144" s="6">
-        <v>2180</v>
+        <v>1072.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D145" s="6">
-        <v>1228</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" s="6">
-        <v>2900</v>
+        <v>4013.5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D147" s="6">
-        <v>5867</v>
+        <v>3722.6</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1072.5</v>
+        <v>8</v>
+      </c>
+      <c r="D148" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="6">
-        <v>1312</v>
+        <v>8</v>
+      </c>
+      <c r="D149" s="5">
+        <v>256.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="6">
-        <v>4013.5</v>
+        <v>8</v>
+      </c>
+      <c r="D150" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="6">
-        <v>3722.6</v>
+        <v>8</v>
+      </c>
+      <c r="D151" s="5">
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3039,7 +3030,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>68.5</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3053,66 +3044,68 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>509.5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="5">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="D154" s="6">
+        <v>4336</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="5">
-        <v>209</v>
+        <v>6</v>
+      </c>
+      <c r="D155" s="6">
+        <v>1052.2</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="5">
-        <v>156</v>
+        <v>6</v>
+      </c>
+      <c r="D156" s="6">
+        <v>3058.4</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D157" s="5">
+        <v>726</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3121,104 +3114,50 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>208</v>
+        <v>196.7</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="5">
-        <v>200.6</v>
-      </c>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="7"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="6">
-        <v>4336</v>
-      </c>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="6"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1052.2</v>
-      </c>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
       <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="6">
-        <v>3058.4</v>
-      </c>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="6">
-        <v>1089</v>
-      </c>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="5">
-        <v>196.7</v>
-      </c>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="5"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="5">
-        <v>173.9</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>279</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1504,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>3044.3</v>
+        <v>2972.3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1742,7 +1742,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>13838.6</v>
+        <v>13838.4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="6">
-        <v>1955</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1797,8 +1797,8 @@
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="6">
-        <v>1124</v>
+      <c r="D64" s="5">
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1854,7 +1854,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="6">
-        <v>5531.4</v>
+        <v>5463.4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1938,7 +1938,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="5">
-        <v>107.2</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="6">
-        <v>9335.7999999999993</v>
+        <v>9267.7999999999993</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1980,7 +1980,7 @@
         <v>5</v>
       </c>
       <c r="D77" s="5">
-        <v>559</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2148,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>26881.4</v>
+        <v>26741.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2259,9 +2259,7 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="5">
-        <v>979</v>
-      </c>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
@@ -2288,7 +2286,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="5">
-        <v>808.5</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2330,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="6">
-        <v>10665</v>
+        <v>9165</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2456,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="D111" s="6">
-        <v>2382</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2512,7 +2510,7 @@
         <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>2602.5</v>
+        <v>2242.5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2582,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="5">
-        <v>704.4</v>
+        <v>560.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2596,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="5">
-        <v>490.8</v>
+        <v>475.8</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2708,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="D129" s="5">
-        <v>354</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2834,7 +2832,7 @@
         <v>6</v>
       </c>
       <c r="D138" s="5">
-        <v>630</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2918,7 +2916,7 @@
         <v>6</v>
       </c>
       <c r="D144" s="6">
-        <v>1072.5</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2960,7 +2958,7 @@
         <v>6</v>
       </c>
       <c r="D147" s="6">
-        <v>3722.6</v>
+        <v>3649.4</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3086,7 +3084,7 @@
         <v>6</v>
       </c>
       <c r="D156" s="6">
-        <v>3058.4</v>
+        <v>2950.4</v>
       </c>
     </row>
     <row r="157" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="115">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -366,6 +366,12 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай для пищеварения НФП</t>
+  </si>
+  <si>
+    <t>Сбор Арфазетин-Э НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай очищающий НФП</t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D158"/>
+      <selection activeCell="A2" sqref="A2:D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1168,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>3107.5</v>
+        <v>2582.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1224,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>1221</v>
+        <v>2352.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1252,7 +1258,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>2443.4</v>
+        <v>2401.4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
@@ -1447,8 +1453,8 @@
       <c r="C39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="5">
-        <v>685</v>
+      <c r="D39" s="6">
+        <v>1699</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1462,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1559.8</v>
+        <v>1333.8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1742,7 +1748,7 @@
         <v>5</v>
       </c>
       <c r="D60" s="6">
-        <v>13838.4</v>
+        <v>13046.7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1784,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="6">
-        <v>2620.5</v>
+        <v>2578.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1854,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="6">
-        <v>5463.4</v>
+        <v>5135.3999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1868,7 +1874,7 @@
         <v>3</v>
       </c>
       <c r="D69" s="6">
-        <v>2022</v>
+        <v>1465.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1910,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>17254.5</v>
+        <v>16926.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1966,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="6">
-        <v>9267.7999999999993</v>
+        <v>8756</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2022,7 +2028,7 @@
         <v>6</v>
       </c>
       <c r="D80" s="5">
-        <v>761</v>
+        <v>646.9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2050,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>1521</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2148,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>26741.4</v>
+        <v>26287.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2181,7 +2187,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>4</v>
@@ -2189,41 +2195,39 @@
       <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="6">
-        <v>3974</v>
+      <c r="D92" s="5">
+        <v>713</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5">
-        <v>900</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="6">
-        <v>9823</v>
+        <v>7</v>
+      </c>
+      <c r="D94" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>4</v>
@@ -2231,13 +2235,13 @@
       <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="5">
-        <v>408</v>
+      <c r="D95" s="6">
+        <v>9823</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2246,12 +2250,12 @@
         <v>6</v>
       </c>
       <c r="D96" s="5">
-        <v>408.5</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2259,39 +2263,39 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="5">
+        <v>408.5</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="5">
-        <v>174</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D98" s="7"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" s="5">
-        <v>408.5</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2300,21 +2304,21 @@
         <v>6</v>
       </c>
       <c r="D100" s="5">
-        <v>427</v>
+        <v>408.5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="6">
-        <v>3823</v>
+        <v>6</v>
+      </c>
+      <c r="D101" s="5">
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2322,41 +2326,41 @@
         <v>53</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D102" s="6">
-        <v>9165</v>
+        <v>3823</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="5">
-        <v>223</v>
+        <v>5</v>
+      </c>
+      <c r="D103" s="6">
+        <v>9040</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D104" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2367,10 +2371,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>1238.2</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2378,32 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" s="6">
-        <v>7944.2</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D107" s="6">
+        <v>10351.200000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
@@ -2412,12 +2416,12 @@
         <v>8</v>
       </c>
       <c r="D108" s="5">
-        <v>81.400000000000006</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>4</v>
@@ -2426,21 +2430,21 @@
         <v>8</v>
       </c>
       <c r="D109" s="5">
-        <v>204</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2448,13 +2452,13 @@
         <v>55</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D111" s="6">
-        <v>2005</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2465,24 +2469,24 @@
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112" s="6">
-        <v>9039</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D113" s="6">
-        <v>2346</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2493,10 +2497,10 @@
         <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" s="5">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="D114" s="6">
+        <v>2346</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2504,13 +2508,13 @@
         <v>56</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2242.5</v>
+        <v>7</v>
+      </c>
+      <c r="D115" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2521,15 +2525,15 @@
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116" s="6">
-        <v>2292.4</v>
+        <v>2242.5</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>4</v>
@@ -2538,7 +2542,7 @@
         <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>5275.6</v>
+        <v>1964.4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2546,69 +2550,69 @@
         <v>57</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D118" s="6">
-        <v>4674</v>
+        <v>7919.6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D119" s="6">
+        <v>10550</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D120" s="5">
-        <v>560.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D121" s="5">
-        <v>475.8</v>
+        <v>560.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" s="5">
-        <v>850.5</v>
+        <v>475.8</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2616,32 +2620,32 @@
         <v>98</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D123" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D123" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="5">
-        <v>312.3</v>
+        <v>6</v>
+      </c>
+      <c r="D124" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
@@ -2650,12 +2654,12 @@
         <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>307</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
@@ -2664,12 +2668,12 @@
         <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
@@ -2678,21 +2682,21 @@
         <v>8</v>
       </c>
       <c r="D127" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="6">
-        <v>1978.7</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2703,15 +2707,15 @@
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D129" s="5">
-        <v>282</v>
+        <v>5</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1678.7</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2720,21 +2724,21 @@
         <v>6</v>
       </c>
       <c r="D130" s="5">
-        <v>895.9</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="6">
-        <v>1982.6</v>
+        <v>6</v>
+      </c>
+      <c r="D131" s="5">
+        <v>845.9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2742,13 +2746,13 @@
         <v>60</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D132" s="6">
-        <v>2054.6</v>
+        <v>3067.6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2756,32 +2760,32 @@
         <v>60</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" s="6">
-        <v>3605.6</v>
+        <v>2054.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D134" s="6">
-        <v>6107</v>
+        <v>3605.6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>2</v>
@@ -2790,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="6">
-        <v>1966.5</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2798,13 +2802,13 @@
         <v>62</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D136" s="6">
-        <v>2859</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2815,15 +2819,15 @@
         <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137" s="6">
-        <v>1913.4</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>4</v>
@@ -2831,8 +2835,8 @@
       <c r="C138" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="5">
-        <v>486</v>
+      <c r="D138" s="6">
+        <v>1913.4</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2843,24 +2847,24 @@
         <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D139" s="5">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="6">
-        <v>2180</v>
+        <v>8</v>
+      </c>
+      <c r="D140" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2868,27 +2872,27 @@
         <v>63</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>1813</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D142" s="6">
-        <v>2900</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2896,13 +2900,13 @@
         <v>64</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>5867</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2913,38 +2917,38 @@
         <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>1070</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D145" s="5">
+        <v>970</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>4013.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2955,29 +2959,29 @@
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>3649.4</v>
+        <v>4013.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="5">
-        <v>68.5</v>
+        <v>6</v>
+      </c>
+      <c r="D148" s="6">
+        <v>3649.4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>4</v>
@@ -2986,12 +2990,12 @@
         <v>8</v>
       </c>
       <c r="D149" s="5">
-        <v>256.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
@@ -3000,12 +3004,12 @@
         <v>8</v>
       </c>
       <c r="D150" s="5">
-        <v>200</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
@@ -3014,12 +3018,12 @@
         <v>8</v>
       </c>
       <c r="D151" s="5">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3028,12 +3032,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>156</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3042,90 +3046,106 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="6">
-        <v>4336</v>
+        <v>8</v>
+      </c>
+      <c r="D154" s="5">
+        <v>416.3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="6">
-        <v>1052.2</v>
+        <v>8</v>
+      </c>
+      <c r="D155" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D156" s="6">
-        <v>2950.4</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="5">
-        <v>726</v>
+        <v>6</v>
+      </c>
+      <c r="D157" s="6">
+        <v>1052.2</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="6">
+        <v>2950.4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B158" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="5">
+      <c r="B160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="5">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="7"/>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="6"/>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1846,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="D67" s="6">
-        <v>7607.5</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="D68" s="6">
-        <v>5135.3999999999996</v>
+        <v>7876.9</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1916,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="D72" s="6">
-        <v>16926.5</v>
+        <v>16126.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2070,7 +2070,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>8342</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2154,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>26287.4</v>
+        <v>24947.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>6</v>
       </c>
       <c r="D113" s="6">
-        <v>9039</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2556,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="6">
-        <v>7919.6</v>
+        <v>7119.6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="D158" s="6">
-        <v>2950.4</v>
+        <v>2550.4</v>
       </c>
     </row>
     <row r="159" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="117">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -372,6 +372,12 @@
   </si>
   <si>
     <t>Щедрость природы Фиточай очищающий НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D160"/>
+      <selection activeCell="A2" sqref="A2:D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1202,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>8183.1</v>
+        <v>5353.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1258,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>2401.4</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
@@ -1426,7 +1432,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="5">
-        <v>388.2</v>
+        <v>306.60000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1468,7 +1474,7 @@
         <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1333.8</v>
+        <v>1078.8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1510,7 +1516,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>2972.3</v>
+        <v>1752.3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1566,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="D47" s="6">
-        <v>1815</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1608,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="6">
-        <v>3779</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1650,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="6">
-        <v>1593.5</v>
+        <v>1312.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1705,8 +1711,8 @@
       <c r="C57" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="6">
-        <v>1122.2</v>
+      <c r="D57" s="5">
+        <v>789.7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2056,7 +2062,7 @@
         <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>1346</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2098,7 +2104,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="6">
-        <v>2657</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2263,9 +2269,7 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="5">
-        <v>408.5</v>
-      </c>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
@@ -2295,7 +2299,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2303,13 +2307,13 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="5">
-        <v>408.5</v>
+      <c r="D100" s="6">
+        <v>1407</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2317,78 +2321,78 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="5">
-        <v>427</v>
+      <c r="D101" s="6">
+        <v>3999.5</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="6">
-        <v>3823</v>
+        <v>6</v>
+      </c>
+      <c r="D102" s="5">
+        <v>408.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="6">
-        <v>9040</v>
+        <v>6</v>
+      </c>
+      <c r="D103" s="5">
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="5">
-        <v>223</v>
+        <v>3</v>
+      </c>
+      <c r="D104" s="6">
+        <v>3823</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D105" s="6">
-        <v>3599</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" s="6">
-        <v>1238.2</v>
+        <v>8</v>
+      </c>
+      <c r="D106" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2396,46 +2400,46 @@
         <v>54</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D107" s="6">
-        <v>10351.200000000001</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>82.2</v>
+        <v>7</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1238.2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="5">
-        <v>81.400000000000006</v>
+        <v>6</v>
+      </c>
+      <c r="D109" s="6">
+        <v>10351.200000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
@@ -2444,35 +2448,35 @@
         <v>8</v>
       </c>
       <c r="D110" s="5">
-        <v>204</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="5">
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="6">
-        <v>2005</v>
+        <v>8</v>
+      </c>
+      <c r="D112" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2480,41 +2484,41 @@
         <v>55</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D113" s="6">
-        <v>7439</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D114" s="6">
-        <v>2346</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="5">
-        <v>257</v>
+        <v>6</v>
+      </c>
+      <c r="D115" s="6">
+        <v>7439</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2522,13 +2526,13 @@
         <v>56</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D116" s="6">
-        <v>2242.5</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2536,74 +2540,74 @@
         <v>56</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1964.4</v>
+        <v>7</v>
+      </c>
+      <c r="D117" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118" s="6">
-        <v>7119.6</v>
+        <v>2242.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D119" s="6">
-        <v>10550</v>
+        <v>1964.4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="5">
-        <v>363</v>
+        <v>6</v>
+      </c>
+      <c r="D120" s="6">
+        <v>7119.6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="5">
-        <v>560.4</v>
+        <v>3</v>
+      </c>
+      <c r="D121" s="6">
+        <v>10550</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
@@ -2612,68 +2616,68 @@
         <v>8</v>
       </c>
       <c r="D122" s="5">
-        <v>475.8</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D123" s="5">
-        <v>850.5</v>
+        <v>560.4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D124" s="5">
+        <v>475.8</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D125" s="5">
-        <v>312.3</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="5">
-        <v>307</v>
+        <v>6</v>
+      </c>
+      <c r="D126" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
@@ -2682,12 +2686,12 @@
         <v>8</v>
       </c>
       <c r="D127" s="5">
-        <v>302</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2701,63 +2705,63 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="6">
-        <v>1678.7</v>
+        <v>8</v>
+      </c>
+      <c r="D129" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D131" s="5">
-        <v>845.9</v>
+        <v>5</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1678.7</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="6">
-        <v>3067.6</v>
+        <v>6</v>
+      </c>
+      <c r="D132" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
@@ -2765,8 +2769,8 @@
       <c r="C133" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="6">
-        <v>2054.6</v>
+      <c r="D133" s="5">
+        <v>845.9</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2774,55 +2778,55 @@
         <v>60</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D134" s="6">
-        <v>3605.6</v>
+        <v>3067.6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D135" s="6">
-        <v>4967</v>
+        <v>1799.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D136" s="6">
-        <v>1966.5</v>
+        <v>3605.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D137" s="6">
-        <v>2859</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2830,74 +2834,74 @@
         <v>62</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>1913.4</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" s="5">
-        <v>486</v>
+        <v>5</v>
+      </c>
+      <c r="D139" s="6">
+        <v>2859</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="5">
-        <v>519</v>
+        <v>6</v>
+      </c>
+      <c r="D140" s="6">
+        <v>2295.9</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="6">
-        <v>2180</v>
+        <v>6</v>
+      </c>
+      <c r="D141" s="5">
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D142" s="6">
-        <v>1813</v>
+        <v>8</v>
+      </c>
+      <c r="D142" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>2</v>
@@ -2906,12 +2910,12 @@
         <v>3</v>
       </c>
       <c r="D143" s="6">
-        <v>2900</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>4</v>
@@ -2920,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>5867</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2928,88 +2932,88 @@
         <v>64</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="5">
-        <v>970</v>
+        <v>3</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1940</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D146" s="6">
-        <v>1312</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="6">
-        <v>4013.5</v>
+        <v>6</v>
+      </c>
+      <c r="D147" s="5">
+        <v>970</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D148" s="6">
-        <v>3649.4</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" s="5">
-        <v>68.5</v>
+        <v>5</v>
+      </c>
+      <c r="D149" s="6">
+        <v>4013.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" s="5">
-        <v>256.5</v>
+        <v>6</v>
+      </c>
+      <c r="D150" s="6">
+        <v>2619.4</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
@@ -3018,12 +3022,12 @@
         <v>8</v>
       </c>
       <c r="D151" s="5">
-        <v>200</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3032,12 +3036,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>209</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3046,12 +3050,12 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>156</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3060,12 +3064,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>416.3</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3074,90 +3078,106 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>208</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="6">
-        <v>4336</v>
+        <v>8</v>
+      </c>
+      <c r="D156" s="5">
+        <v>416.3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" s="6">
-        <v>1052.2</v>
+        <v>8</v>
+      </c>
+      <c r="D157" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D158" s="6">
-        <v>2550.4</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="5">
-        <v>726</v>
+        <v>6</v>
+      </c>
+      <c r="D159" s="6">
+        <v>1052.2</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="6">
+        <v>2550.4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B160" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="5">
+      <c r="B162" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="5">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="7"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="117">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -368,9 +368,6 @@
     <t>Щедрость природы Фиточай для пищеварения НФП</t>
   </si>
   <si>
-    <t>Сбор Арфазетин-Э НФП</t>
-  </si>
-  <si>
     <t>Щедрость природы Фиточай очищающий НФП</t>
   </si>
   <si>
@@ -378,6 +375,9 @@
   </si>
   <si>
     <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D162"/>
+      <selection activeCell="A2" sqref="A2:D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -942,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1991</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>1780</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>4101</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1208,7 +1208,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>5353.1</v>
+        <v>9550.6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1236,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>2352.5</v>
+        <v>2342.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1418,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="5">
-        <v>105.4</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1446,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>5345.5</v>
+        <v>8806.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="D39" s="6">
-        <v>1699</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1787,49 +1787,49 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="6">
-        <v>2578.5</v>
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="5">
-        <v>574</v>
+        <v>5</v>
+      </c>
+      <c r="D64" s="6">
+        <v>2578.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="6">
-        <v>14400</v>
+      <c r="D65" s="5">
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>2096</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1846,13 +1846,13 @@
         <v>41</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="6">
-        <v>3868</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1863,24 +1863,24 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="6">
-        <v>7876.9</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>1465.5</v>
+        <v>7876.9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1891,10 +1891,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5">
-        <v>641.5</v>
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1465.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1902,13 +1902,13 @@
         <v>42</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="6">
-        <v>3359.5</v>
+        <v>7</v>
+      </c>
+      <c r="D71" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1919,29 +1919,29 @@
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="6">
-        <v>16126.5</v>
+        <v>3359.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="5">
-        <v>478.1</v>
+        <v>6</v>
+      </c>
+      <c r="D73" s="6">
+        <v>16126.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1950,26 +1950,26 @@
         <v>8</v>
       </c>
       <c r="D74" s="5">
-        <v>94.1</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D75" s="5">
-        <v>194</v>
+        <v>94.1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1977,13 +1977,13 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="6">
-        <v>8756</v>
+      <c r="D76" s="5">
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -1991,22 +1991,22 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="5">
-        <v>412</v>
+      <c r="D77" s="6">
+        <v>8131</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="6">
-        <v>1065.7</v>
+        <v>5</v>
+      </c>
+      <c r="D78" s="5">
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2014,13 +2014,13 @@
         <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="5">
-        <v>416</v>
+        <v>3</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1065.7</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2031,24 +2031,24 @@
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="5">
-        <v>646.9</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1641</v>
+        <v>6</v>
+      </c>
+      <c r="D81" s="5">
+        <v>646.9</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2056,32 +2056,32 @@
         <v>46</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>1000</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6">
-        <v>7542</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>1090.7</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2098,13 +2098,13 @@
         <v>48</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>2477</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2112,27 +2112,27 @@
         <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="6">
-        <v>2021</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>13213</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2143,10 +2143,10 @@
         <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="5">
-        <v>10.4</v>
+        <v>3</v>
+      </c>
+      <c r="D88" s="6">
+        <v>13213</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2154,13 +2154,13 @@
         <v>49</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="6">
-        <v>24947.4</v>
+        <v>7</v>
+      </c>
+      <c r="D89" s="5">
+        <v>10.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2168,41 +2168,41 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="6">
-        <v>71426.600000000006</v>
+        <v>24947.4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="5">
-        <v>204.6</v>
+        <v>5</v>
+      </c>
+      <c r="D91" s="6">
+        <v>68456.600000000006</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" s="5">
-        <v>713</v>
+        <v>204.6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2299,7 +2299,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2349,22 +2349,22 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="5">
-        <v>427</v>
+      <c r="D103" s="6">
+        <v>1005</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="6">
-        <v>3823</v>
+        <v>6</v>
+      </c>
+      <c r="D104" s="5">
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2372,41 +2372,41 @@
         <v>53</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>9040</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="5">
-        <v>223</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="6">
+        <v>9040</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="6">
-        <v>3599</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2417,10 +2417,10 @@
         <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D108" s="6">
-        <v>1238.2</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2428,32 +2428,32 @@
         <v>54</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" s="6">
-        <v>10351.200000000001</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D110" s="6">
+        <v>10351.200000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
@@ -2462,12 +2462,12 @@
         <v>8</v>
       </c>
       <c r="D111" s="5">
-        <v>81.400000000000006</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
@@ -2476,21 +2476,21 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>204</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D113" s="5">
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2498,13 +2498,13 @@
         <v>55</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D114" s="6">
-        <v>2005</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2515,24 +2515,24 @@
         <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>7439</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>2346</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2543,10 +2543,10 @@
         <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="5">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="D117" s="6">
+        <v>2346</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2554,13 +2554,13 @@
         <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="6">
-        <v>2242.5</v>
+        <v>7</v>
+      </c>
+      <c r="D118" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2571,15 +2571,15 @@
         <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119" s="6">
-        <v>1964.4</v>
+        <v>2242.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
@@ -2588,7 +2588,7 @@
         <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>7119.6</v>
+        <v>1964.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2596,69 +2596,69 @@
         <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>10550</v>
+        <v>7119.6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D122" s="6">
+        <v>10550</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D123" s="5">
-        <v>560.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="5">
-        <v>475.8</v>
+        <v>560.4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>850.5</v>
+        <v>475.8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2666,32 +2666,32 @@
         <v>98</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D126" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D126" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" s="5">
-        <v>312.3</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2700,12 +2700,12 @@
         <v>8</v>
       </c>
       <c r="D128" s="5">
-        <v>307</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2714,12 +2714,12 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>302</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2728,21 +2728,21 @@
         <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="6">
-        <v>1678.7</v>
+        <v>8</v>
+      </c>
+      <c r="D131" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2753,15 +2753,15 @@
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="5">
-        <v>257</v>
+        <v>5</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1678.7</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>4</v>
@@ -2770,21 +2770,21 @@
         <v>6</v>
       </c>
       <c r="D133" s="5">
-        <v>845.9</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="6">
-        <v>3067.6</v>
+        <v>6</v>
+      </c>
+      <c r="D134" s="5">
+        <v>845.9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2792,13 +2792,13 @@
         <v>60</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D135" s="6">
-        <v>1799.6</v>
+        <v>3067.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2806,32 +2806,32 @@
         <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" s="6">
-        <v>3605.6</v>
+        <v>1799.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D137" s="6">
-        <v>4967</v>
+        <v>3605.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>2</v>
@@ -2840,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>1966.5</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2848,13 +2848,13 @@
         <v>62</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>2859</v>
+        <v>1966.5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2865,15 +2865,15 @@
         <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D140" s="6">
-        <v>2295.9</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>4</v>
@@ -2881,8 +2881,8 @@
       <c r="C141" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="5">
-        <v>486</v>
+      <c r="D141" s="6">
+        <v>2295.9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2893,24 +2893,24 @@
         <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D142" s="5">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D143" s="6">
-        <v>2180</v>
+        <v>8</v>
+      </c>
+      <c r="D143" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2918,27 +2918,27 @@
         <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144" s="6">
-        <v>1228</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" s="6">
-        <v>1940</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2946,13 +2946,13 @@
         <v>64</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>5867</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2963,38 +2963,38 @@
         <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="5">
-        <v>970</v>
+        <v>5</v>
+      </c>
+      <c r="D147" s="6">
+        <v>5867</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D148" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D148" s="5">
+        <v>970</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" s="6">
-        <v>4013.5</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3005,29 +3005,29 @@
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>2619.4</v>
+        <v>4013.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="5">
-        <v>68.5</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="6">
+        <v>2619.4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3036,12 +3036,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>256.5</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3050,12 +3050,12 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>200</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3064,12 +3064,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3078,12 +3078,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>156</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3092,12 +3092,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>416.3</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3106,21 +3106,21 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>208</v>
+        <v>416.3</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="6">
-        <v>4336</v>
+        <v>8</v>
+      </c>
+      <c r="D158" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3128,18 +3128,18 @@
         <v>67</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D159" s="6">
-        <v>1052.2</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
@@ -3148,42 +3148,50 @@
         <v>6</v>
       </c>
       <c r="D160" s="6">
-        <v>2550.4</v>
+        <v>1052.2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="5">
-        <v>726</v>
+        <v>6</v>
+      </c>
+      <c r="D161" s="6">
+        <v>2550.4</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B162" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" s="5">
+      <c r="B163" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="5">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -970,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>1751.5</v>
+        <v>1581.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="5">
-        <v>552.70000000000005</v>
+        <v>472.7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1030</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1586,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="5">
-        <v>772.5</v>
+        <v>717.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1599,9 +1599,7 @@
       <c r="C49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="5">
-        <v>25</v>
-      </c>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
@@ -1880,7 +1878,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>7876.9</v>
+        <v>7631.9</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2174,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="6">
-        <v>24947.4</v>
+        <v>24702.400000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2448,7 +2446,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="6">
-        <v>10351.200000000001</v>
+        <v>10106.200000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2490,7 +2488,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>204</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2546,7 +2544,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="6">
-        <v>2346</v>
+        <v>1781.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2602,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>7119.6</v>
+        <v>6794.6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2938,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="D145" s="6">
-        <v>1228</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3134,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="6">
-        <v>4336</v>
+        <v>3533.5</v>
       </c>
     </row>
     <row r="160" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай успокоительный НФП</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D163"/>
+      <selection activeCell="A2" sqref="A2:D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -984,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>884.5</v>
+        <v>484.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1640,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="6">
-        <v>1995</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2213,7 +2216,9 @@
       <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="6">
+        <v>6097</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
@@ -2291,9 +2296,7 @@
       <c r="C99" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="5">
-        <v>174</v>
-      </c>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
@@ -2530,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>7439</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2572,7 +2575,7 @@
         <v>5</v>
       </c>
       <c r="D119" s="6">
-        <v>2242.5</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3123,16 +3126,16 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="6">
-        <v>3533.5</v>
+        <v>8</v>
+      </c>
+      <c r="D159" s="5">
+        <v>406</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3140,18 +3143,18 @@
         <v>67</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D160" s="6">
-        <v>1052.2</v>
+        <v>3533.5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>4</v>
@@ -3160,42 +3163,50 @@
         <v>6</v>
       </c>
       <c r="D161" s="6">
-        <v>2550.4</v>
+        <v>1052.2</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="5">
-        <v>726</v>
+        <v>6</v>
+      </c>
+      <c r="D162" s="6">
+        <v>2550.4</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="5">
+      <c r="B164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="5">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="116">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Багульник болотный побеги НФП</t>
   </si>
   <si>
-    <t>Бадан корневища НФП</t>
-  </si>
-  <si>
     <t>Береза листья НФП</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>Фиточай Лактафитол НФП</t>
   </si>
   <si>
-    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
-  </si>
-  <si>
     <t>Щедрость природы Фиточай для пищеварения НФП</t>
   </si>
   <si>
@@ -374,13 +368,13 @@
     <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
   </si>
   <si>
-    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
-  </si>
-  <si>
     <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
   </si>
   <si>
     <t>Щедрость природы Фиточай успокоительный НФП</t>
+  </si>
+  <si>
+    <t>Сбор Арфазетин-Э НФП</t>
   </si>
 </sst>
 </file>
@@ -909,7 +903,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D164"/>
+      <selection activeCell="A2" sqref="A2:D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1006,7 +1000,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1071,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1082,24 +1076,24 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>300</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>105.9</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1943</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1107,27 +1101,27 @@
         <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1943</v>
+        <v>1905.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2189.5</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="5">
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1138,24 +1132,24 @@
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
-        <v>211</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1018</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>1018</v>
+        <v>2847.3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1163,116 +1157,116 @@
         <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>2847.3</v>
+        <v>2582.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6">
-        <v>2582.5</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="6">
-        <v>5341</v>
+        <v>9550.6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6">
-        <v>9550.6</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>130.69999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5">
-        <v>130.69999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2342.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="6">
-        <v>2342.5</v>
+        <v>1266.2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="6">
-        <v>1266.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22.5">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6">
-        <v>2228</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>4</v>
@@ -1280,13 +1274,11 @@
       <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="22.5">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
@@ -1295,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="5">
-        <v>50</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1309,21 +1301,21 @@
         <v>8</v>
       </c>
       <c r="D28" s="5">
-        <v>98.3</v>
+        <v>338.9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5">
-        <v>338.9</v>
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1079.7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1337,21 +1329,21 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>1598.2</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6">
-        <v>1789</v>
+        <v>1623.4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1362,15 +1354,15 @@
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1973.4</v>
+        <v>8</v>
+      </c>
+      <c r="D32" s="5">
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
@@ -1379,12 +1371,12 @@
         <v>8</v>
       </c>
       <c r="D33" s="5">
-        <v>125</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
@@ -1393,12 +1385,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>157</v>
+        <v>364.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
@@ -1407,119 +1399,119 @@
         <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>364.5</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="5">
-        <v>40.4</v>
+        <v>306.60000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="5">
-        <v>306.60000000000002</v>
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>8806.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
-        <v>8806.5</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="6">
-        <v>1349</v>
+        <v>1078.8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1078.8</v>
+        <v>5</v>
+      </c>
+      <c r="D40" s="5">
+        <v>886</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5">
-        <v>886</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>4526</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>4526</v>
+        <v>2983.3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43" s="6">
-        <v>1752.3</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1527,69 +1519,69 @@
         <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="6">
-        <v>2926</v>
+      <c r="D44" s="5">
+        <v>337.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="5">
-        <v>337.5</v>
+        <v>418.7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5">
-        <v>501.7</v>
+        <v>3</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2085</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1290</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>717.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="5">
-        <v>717.5</v>
+        <v>5</v>
+      </c>
+      <c r="D48" s="6">
+        <v>3194</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1600,22 +1592,24 @@
         <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D49" s="5">
+        <v>666</v>
+      </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" s="6">
-        <v>3194</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1628,22 +1622,22 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="5">
-        <v>666</v>
+      <c r="D51" s="6">
+        <v>1312.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1470</v>
+        <v>6</v>
+      </c>
+      <c r="D52" s="5">
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1651,27 +1645,27 @@
         <v>33</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" s="6">
-        <v>1312.5</v>
+        <v>2117.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D54" s="5">
-        <v>595</v>
+        <v>145.75</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1679,41 +1673,41 @@
         <v>34</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="6">
-        <v>2710.5</v>
+        <v>5</v>
+      </c>
+      <c r="D55" s="5">
+        <v>789.7</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="5">
-        <v>145.75</v>
+        <v>3</v>
+      </c>
+      <c r="D56" s="6">
+        <v>9790.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5">
-        <v>789.7</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <v>12315.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1721,27 +1715,27 @@
         <v>36</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6">
-        <v>9790.5</v>
+        <v>13046.7</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="6">
-        <v>12315.5</v>
+        <v>8</v>
+      </c>
+      <c r="D59" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1749,27 +1743,27 @@
         <v>37</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6">
-        <v>13046.7</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="5">
-        <v>67.7</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1777,27 +1771,27 @@
         <v>38</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" s="6">
-        <v>1550</v>
+        <v>2578.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5">
-        <v>400</v>
+        <v>3</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1252</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1805,27 +1799,27 @@
         <v>39</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" s="6">
-        <v>2578.5</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="5">
-        <v>474</v>
+      <c r="D65" s="6">
+        <v>3111</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1833,27 +1827,27 @@
         <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" s="6">
-        <v>14400</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67" s="6">
-        <v>2096</v>
+        <v>13020.9</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1861,13 +1855,13 @@
         <v>41</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" s="6">
-        <v>3868</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1875,102 +1869,102 @@
         <v>41</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="6">
-        <v>7631.9</v>
+        <v>7</v>
+      </c>
+      <c r="D69" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" s="6">
-        <v>1465.5</v>
+        <v>3359.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5">
-        <v>641.5</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="6">
+        <v>17389</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="6">
-        <v>3359.5</v>
+        <v>8</v>
+      </c>
+      <c r="D72" s="5">
+        <v>478.1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="6">
-        <v>16126.5</v>
+        <v>8</v>
+      </c>
+      <c r="D73" s="5">
+        <v>94.1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D74" s="5">
-        <v>478.1</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="5">
-        <v>94.1</v>
+        <v>5</v>
+      </c>
+      <c r="D75" s="6">
+        <v>7756</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1979,21 +1973,21 @@
         <v>5</v>
       </c>
       <c r="D76" s="5">
-        <v>194</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>8131</v>
+        <v>1065.7</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2007,21 +2001,21 @@
         <v>5</v>
       </c>
       <c r="D78" s="5">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1065.7</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="5">
+        <v>646.9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2029,13 +2023,13 @@
         <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5">
-        <v>416</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1641</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2046,10 +2040,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="5">
-        <v>646.9</v>
+        <v>5</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2063,21 +2057,21 @@
         <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>1641</v>
+        <v>7542</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>1000</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2085,27 +2079,27 @@
         <v>47</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D84" s="6">
-        <v>7542</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" s="6">
-        <v>1090.7</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2113,13 +2107,13 @@
         <v>48</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" s="6">
-        <v>2477</v>
+        <v>13213</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2127,41 +2121,41 @@
         <v>48</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D87" s="6">
-        <v>2021</v>
+        <v>1550.4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D88" s="6">
-        <v>13213</v>
+        <v>24642.400000000001</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5">
-        <v>10.4</v>
+        <v>5</v>
+      </c>
+      <c r="D89" s="6">
+        <v>75261.600000000006</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2169,74 +2163,74 @@
         <v>49</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="6">
-        <v>24702.400000000001</v>
+        <v>3</v>
+      </c>
+      <c r="D90" s="5">
+        <v>204.6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="6">
-        <v>68456.600000000006</v>
+        <v>6</v>
+      </c>
+      <c r="D91" s="5">
+        <v>599.70000000000005</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="5">
-        <v>204.6</v>
+        <v>6</v>
+      </c>
+      <c r="D92" s="6">
+        <v>2097</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="6">
-        <v>6097</v>
+        <v>7</v>
+      </c>
+      <c r="D93" s="5">
+        <v>900</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D94" s="6">
+        <v>5600</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>4</v>
@@ -2244,13 +2238,13 @@
       <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="6">
-        <v>9823</v>
+      <c r="D95" s="5">
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2259,12 +2253,12 @@
         <v>6</v>
       </c>
       <c r="D96" s="5">
-        <v>408</v>
+        <v>414.7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2272,11 +2266,13 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="6">
+        <v>1215</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
@@ -2284,23 +2280,27 @@
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="6">
+        <v>1407</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D99" s="5">
+        <v>408.5</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2309,12 +2309,12 @@
         <v>6</v>
       </c>
       <c r="D100" s="6">
-        <v>1407</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2322,50 +2322,50 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="6">
-        <v>3999.5</v>
+      <c r="D101" s="5">
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="5">
-        <v>408.5</v>
+        <v>3</v>
+      </c>
+      <c r="D102" s="6">
+        <v>3141</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103" s="6">
-        <v>1005</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>427</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2379,7 +2379,7 @@
         <v>3</v>
       </c>
       <c r="D105" s="6">
-        <v>3141</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2387,111 +2387,111 @@
         <v>53</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D106" s="6">
-        <v>9040</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>223</v>
+        <v>6</v>
+      </c>
+      <c r="D107" s="6">
+        <v>10023.200000000001</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>2932</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <v>82.2</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="6">
-        <v>1238.2</v>
+        <v>8</v>
+      </c>
+      <c r="D109" s="5">
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="6">
-        <v>10106.200000000001</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="5">
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="5">
-        <v>82.2</v>
+        <v>3</v>
+      </c>
+      <c r="D111" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="5">
-        <v>81.400000000000006</v>
+        <v>5</v>
+      </c>
+      <c r="D112" s="6">
+        <v>2870</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="5">
-        <v>124</v>
+        <v>6</v>
+      </c>
+      <c r="D113" s="6">
+        <v>9743</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2505,7 +2505,7 @@
         <v>3</v>
       </c>
       <c r="D114" s="6">
-        <v>2039</v>
+        <v>1781.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>55</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2005</v>
+        <v>7</v>
+      </c>
+      <c r="D115" s="5">
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2530,24 +2530,24 @@
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116" s="6">
-        <v>9743</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>1781.5</v>
+        <v>1881.4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2555,13 +2555,13 @@
         <v>56</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5">
-        <v>257</v>
+        <v>6</v>
+      </c>
+      <c r="D118" s="6">
+        <v>6794.6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2569,32 +2569,32 @@
         <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D119" s="6">
-        <v>1895</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="6">
-        <v>1964.4</v>
+        <v>8</v>
+      </c>
+      <c r="D120" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
@@ -2602,41 +2602,41 @@
       <c r="C121" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="6">
-        <v>6794.6</v>
+      <c r="D121" s="5">
+        <v>964.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="6">
-        <v>10550</v>
+        <v>8</v>
+      </c>
+      <c r="D122" s="5">
+        <v>475.8</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D123" s="5">
-        <v>363</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
@@ -2644,13 +2644,13 @@
       <c r="C124" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="5">
-        <v>560.4</v>
+      <c r="D124" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
@@ -2659,40 +2659,40 @@
         <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>475.8</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>850.5</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D127" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2701,49 +2701,49 @@
         <v>8</v>
       </c>
       <c r="D128" s="5">
-        <v>312.3</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="5">
-        <v>157</v>
+        <v>5</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1678.7</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D130" s="5">
-        <v>302</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D131" s="5">
-        <v>307</v>
+        <v>845.9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2751,13 +2751,13 @@
         <v>59</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D132" s="6">
-        <v>1678.7</v>
+        <v>3067.6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2770,22 +2770,22 @@
       <c r="C133" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="5">
-        <v>257</v>
+      <c r="D133" s="6">
+        <v>1799.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="5">
-        <v>845.9</v>
+        <v>5</v>
+      </c>
+      <c r="D134" s="6">
+        <v>3205.6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2799,35 +2799,35 @@
         <v>3</v>
       </c>
       <c r="D135" s="6">
-        <v>3067.6</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D136" s="6">
-        <v>1799.6</v>
+        <v>1966.2</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D137" s="6">
-        <v>3605.6</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2835,41 +2835,41 @@
         <v>61</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D138" s="6">
-        <v>4967</v>
+        <v>2295.9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="6">
-        <v>1966.5</v>
+        <v>6</v>
+      </c>
+      <c r="D139" s="5">
+        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="6">
-        <v>2859</v>
+        <v>8</v>
+      </c>
+      <c r="D140" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2877,41 +2877,41 @@
         <v>62</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D141" s="6">
-        <v>2295.9</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="5">
-        <v>486</v>
+        <v>5</v>
+      </c>
+      <c r="D142" s="6">
+        <v>1704</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="5">
-        <v>519</v>
+        <v>3</v>
+      </c>
+      <c r="D143" s="6">
+        <v>1940</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2919,13 +2919,13 @@
         <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>2180</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2936,24 +2936,24 @@
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1704</v>
+        <v>6</v>
+      </c>
+      <c r="D145" s="5">
+        <v>970</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>1940</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2967,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>5867</v>
+        <v>4013.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2980,55 +2980,55 @@
       <c r="C148" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="5">
-        <v>970</v>
+      <c r="D148" s="6">
+        <v>2529.4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="6">
-        <v>1312</v>
+        <v>8</v>
+      </c>
+      <c r="D149" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="6">
-        <v>4013.5</v>
+        <v>8</v>
+      </c>
+      <c r="D150" s="5">
+        <v>256.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="6">
-        <v>2619.4</v>
+        <v>8</v>
+      </c>
+      <c r="D151" s="5">
+        <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3037,12 +3037,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>68.5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3051,12 +3051,12 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>256.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3065,12 +3065,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>200</v>
+        <v>416.3</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3079,12 +3079,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3093,49 +3093,49 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>156</v>
+        <v>406</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="5">
-        <v>416.3</v>
+        <v>3</v>
+      </c>
+      <c r="D157" s="6">
+        <v>3533.5</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="5">
-        <v>208</v>
+        <v>6</v>
+      </c>
+      <c r="D158" s="6">
+        <v>1052.2</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="5">
-        <v>406</v>
+        <v>6</v>
+      </c>
+      <c r="D159" s="6">
+        <v>3239.9</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3149,64 +3149,40 @@
         <v>3</v>
       </c>
       <c r="D160" s="6">
-        <v>3533.5</v>
+        <v>1923.5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="6">
-        <v>1052.2</v>
+        <v>8</v>
+      </c>
+      <c r="D161" s="5">
+        <v>196.7</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="6">
-        <v>2550.4</v>
-      </c>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D163" s="5">
-        <v>726</v>
-      </c>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" s="5">
-        <v>196.7</v>
-      </c>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1427,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>8806.5</v>
+        <v>6138.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2617,7 +2617,7 @@
         <v>8</v>
       </c>
       <c r="D122" s="5">
-        <v>475.8</v>
+        <v>460.8</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2939,7 +2939,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="5">
-        <v>970</v>
+        <v>967.5</v>
       </c>
     </row>
     <row r="146" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="117">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Сбор Арфазетин-Э НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
   </si>
 </sst>
 </file>
@@ -903,7 +906,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D161"/>
+      <selection activeCell="A2" sqref="A2:D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1065,7 +1068,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1107,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1905.5</v>
+        <v>1761.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1177,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="6">
-        <v>5341</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1191,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="D20" s="6">
-        <v>9550.6</v>
+        <v>5765.1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1219,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="6">
-        <v>2342.5</v>
+        <v>1742.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1497,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>2983.3</v>
+        <v>1383.3</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1819,7 +1822,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>3111</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1847,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="6">
-        <v>13020.9</v>
+        <v>13020.7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2057,7 +2060,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>7542</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2113,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="6">
-        <v>13213</v>
+        <v>18406</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2141,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="D88" s="6">
-        <v>24642.400000000001</v>
+        <v>24641.8</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2266,27 +2269,25 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="6">
-        <v>1215</v>
-      </c>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1407</v>
+        <v>7</v>
+      </c>
+      <c r="D98" s="5">
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2294,13 +2295,13 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="5">
-        <v>408.5</v>
+      <c r="D99" s="6">
+        <v>1407</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
@@ -2308,13 +2309,13 @@
       <c r="C100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="6">
-        <v>1005</v>
+      <c r="D100" s="5">
+        <v>408.5</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2322,22 +2323,22 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="5">
-        <v>427</v>
+      <c r="D101" s="6">
+        <v>1005</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="6">
-        <v>3141</v>
+        <v>6</v>
+      </c>
+      <c r="D102" s="5">
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2345,41 +2346,41 @@
         <v>52</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D103" s="6">
-        <v>8957</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="5">
-        <v>223</v>
+        <v>5</v>
+      </c>
+      <c r="D104" s="6">
+        <v>8957</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>2932</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2390,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>1238.2</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2401,32 +2402,32 @@
         <v>53</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107" s="6">
-        <v>10023.200000000001</v>
+        <v>1238.2</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>82.2</v>
+        <v>6</v>
+      </c>
+      <c r="D108" s="6">
+        <v>10023.200000000001</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>4</v>
@@ -2435,12 +2436,12 @@
         <v>8</v>
       </c>
       <c r="D109" s="5">
-        <v>81.400000000000006</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>4</v>
@@ -2449,21 +2450,21 @@
         <v>8</v>
       </c>
       <c r="D110" s="5">
-        <v>124</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="6">
-        <v>2039</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="5">
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2471,13 +2472,13 @@
         <v>54</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D112" s="6">
-        <v>2870</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2488,24 +2489,24 @@
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113" s="6">
-        <v>9743</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D114" s="6">
-        <v>1781.5</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2516,10 +2517,10 @@
         <v>2</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" s="5">
-        <v>257</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1781.5</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2527,13 +2528,13 @@
         <v>55</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="6">
-        <v>1895</v>
+        <v>7</v>
+      </c>
+      <c r="D116" s="5">
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2544,15 +2545,15 @@
         <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117" s="6">
-        <v>1881.4</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>4</v>
@@ -2561,7 +2562,7 @@
         <v>6</v>
       </c>
       <c r="D118" s="6">
-        <v>6794.6</v>
+        <v>1881.4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2569,69 +2570,69 @@
         <v>56</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D119" s="6">
-        <v>9000</v>
+        <v>6794.6</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D120" s="5">
-        <v>363</v>
+        <v>3</v>
+      </c>
+      <c r="D120" s="6">
+        <v>9000</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121" s="5">
-        <v>964.4</v>
+        <v>363</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D122" s="5">
-        <v>460.8</v>
+        <v>964.4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" s="5">
-        <v>850.5</v>
+        <v>460.8</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2639,32 +2640,32 @@
         <v>97</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="6">
-        <v>11575.9</v>
+        <v>7</v>
+      </c>
+      <c r="D124" s="5">
+        <v>850.5</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="5">
-        <v>312.3</v>
+        <v>6</v>
+      </c>
+      <c r="D125" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
@@ -2673,12 +2674,12 @@
         <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>309</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>4</v>
@@ -2687,12 +2688,12 @@
         <v>8</v>
       </c>
       <c r="D127" s="5">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
@@ -2701,21 +2702,21 @@
         <v>8</v>
       </c>
       <c r="D128" s="5">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="6">
-        <v>1678.7</v>
+        <v>8</v>
+      </c>
+      <c r="D129" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2726,15 +2727,15 @@
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" s="5">
-        <v>197</v>
+        <v>5</v>
+      </c>
+      <c r="D130" s="6">
+        <v>1081.7</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2743,21 +2744,21 @@
         <v>6</v>
       </c>
       <c r="D131" s="5">
-        <v>845.9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="6">
-        <v>3067.6</v>
+        <v>6</v>
+      </c>
+      <c r="D132" s="5">
+        <v>845.9</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2765,13 +2766,13 @@
         <v>59</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D133" s="6">
-        <v>1799.6</v>
+        <v>3067.6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2779,32 +2780,32 @@
         <v>59</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134" s="6">
-        <v>3205.6</v>
+        <v>1799.6</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D135" s="6">
-        <v>4967</v>
+        <v>3205.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>2</v>
@@ -2813,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="6">
-        <v>1966.2</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2821,13 +2822,13 @@
         <v>61</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D137" s="6">
-        <v>2859</v>
+        <v>1966.2</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2838,15 +2839,15 @@
         <v>4</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138" s="6">
-        <v>2295.9</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>4</v>
@@ -2854,8 +2855,8 @@
       <c r="C139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="5">
-        <v>366</v>
+      <c r="D139" s="6">
+        <v>1495.9</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2866,24 +2867,24 @@
         <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D140" s="5">
-        <v>519</v>
+        <v>366</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1670</v>
+        <v>8</v>
+      </c>
+      <c r="D141" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2891,27 +2892,27 @@
         <v>62</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D142" s="6">
-        <v>1704</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D143" s="6">
-        <v>1940</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2919,13 +2920,13 @@
         <v>63</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D144" s="6">
-        <v>5867</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2936,38 +2937,38 @@
         <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="5">
-        <v>967.5</v>
+        <v>5</v>
+      </c>
+      <c r="D145" s="6">
+        <v>5867</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="6">
-        <v>1312</v>
+        <v>6</v>
+      </c>
+      <c r="D146" s="5">
+        <v>967.5</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D147" s="6">
-        <v>4013.5</v>
+        <v>4308.5</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2978,29 +2979,29 @@
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D148" s="6">
-        <v>2529.4</v>
+        <v>4738.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D149" s="5">
-        <v>68.5</v>
+        <v>929.4</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>4</v>
@@ -3008,13 +3009,13 @@
       <c r="C150" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D150" s="5">
-        <v>256.5</v>
+      <c r="D150" s="6">
+        <v>2300</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
@@ -3023,12 +3024,12 @@
         <v>8</v>
       </c>
       <c r="D151" s="5">
-        <v>200</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
@@ -3037,12 +3038,12 @@
         <v>8</v>
       </c>
       <c r="D152" s="5">
-        <v>209</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3051,12 +3052,12 @@
         <v>8</v>
       </c>
       <c r="D153" s="5">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3065,12 +3066,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>416.3</v>
+        <v>209</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3079,12 +3080,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>208</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3093,90 +3094,106 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>406</v>
+        <v>416.3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D157" s="6">
-        <v>3533.5</v>
+        <v>8</v>
+      </c>
+      <c r="D157" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="6">
-        <v>1052.2</v>
+        <v>8</v>
+      </c>
+      <c r="D158" s="5">
+        <v>406</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D159" s="6">
-        <v>3239.9</v>
+        <v>3533.5</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D160" s="6">
-        <v>1923.5</v>
+        <v>1052.2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="6">
+        <v>3239.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="6">
+        <v>1923.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B161" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="5">
+      <c r="B163" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="5">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>1943</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1514,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="D43" s="6">
-        <v>2926</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1528,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="5">
-        <v>337.5</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1976,7 +1976,7 @@
         <v>5</v>
       </c>
       <c r="D76" s="5">
-        <v>412</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2158,7 +2158,7 @@
         <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>75261.600000000006</v>
+        <v>72468.100000000006</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2200,7 +2200,7 @@
         <v>6</v>
       </c>
       <c r="D92" s="6">
-        <v>2097</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2241,9 +2241,7 @@
       <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="5">
-        <v>408</v>
-      </c>
+      <c r="D95" s="7"/>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
@@ -2478,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="6">
-        <v>2039</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2814,7 +2812,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="6">
-        <v>4967</v>
+        <v>3892</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2912,7 +2910,7 @@
         <v>5</v>
       </c>
       <c r="D143" s="6">
-        <v>1704</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="144" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D163"/>
+      <selection activeCell="A2" sqref="A2:D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -942,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1441</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -970,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>1581.5</v>
+        <v>1306.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1096,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="6">
-        <v>1418</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1110,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1761.5</v>
+        <v>1741.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1138,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="6">
-        <v>1018</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1180,7 +1183,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="6">
-        <v>4841</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1222,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="6">
-        <v>1742.5</v>
+        <v>2767.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1332,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>1789</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1416,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="5">
-        <v>306.60000000000002</v>
+        <v>296.60000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1430,7 +1433,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>6138.5</v>
+        <v>6128.5</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1458,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="D39" s="6">
-        <v>1078.8</v>
+        <v>1068.8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1472,7 +1475,7 @@
         <v>5</v>
       </c>
       <c r="D40" s="5">
-        <v>886</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1486,7 +1489,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="6">
-        <v>4526</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1508,55 +1511,55 @@
         <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="6">
-        <v>2426</v>
+        <v>8</v>
+      </c>
+      <c r="D43" s="5">
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="5">
-        <v>169.5</v>
+      <c r="D44" s="6">
+        <v>2426</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
-        <v>418.7</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="6">
-        <v>2085</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="5">
+        <v>386.8</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1564,13 +1567,13 @@
         <v>30</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5">
-        <v>717.5</v>
+        <v>3</v>
+      </c>
+      <c r="D47" s="6">
+        <v>2075</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1578,41 +1581,41 @@
         <v>30</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="6">
-        <v>3194</v>
+        <v>6</v>
+      </c>
+      <c r="D48" s="5">
+        <v>717.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="5">
-        <v>666</v>
+      <c r="D49" s="6">
+        <v>3194</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1470</v>
+        <v>5</v>
+      </c>
+      <c r="D50" s="5">
+        <v>666</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1620,13 +1623,13 @@
         <v>32</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" s="6">
-        <v>1312.5</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1637,80 +1640,80 @@
         <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="5">
-        <v>535</v>
+        <v>5</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1312.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="6">
-        <v>2117.5</v>
+        <v>6</v>
+      </c>
+      <c r="D53" s="5">
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="5">
-        <v>145.75</v>
+        <v>3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2117.5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D55" s="5">
-        <v>789.7</v>
+        <v>145.75</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="6">
-        <v>9790.5</v>
+        <v>5</v>
+      </c>
+      <c r="D56" s="5">
+        <v>789.7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="6">
-        <v>12315.5</v>
+        <v>15918.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1718,41 +1721,41 @@
         <v>36</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>13046.7</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="5">
-        <v>67.7</v>
+        <v>5</v>
+      </c>
+      <c r="D59" s="6">
+        <v>13046.7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="6">
-        <v>1550</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1763,57 +1766,57 @@
         <v>2</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5">
-        <v>400</v>
+        <v>3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1550</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="6">
-        <v>2578.5</v>
+        <v>7</v>
+      </c>
+      <c r="D62" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" s="6">
-        <v>1252</v>
+        <v>2578.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="6">
-        <v>14400</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>2</v>
@@ -1822,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>2539</v>
+        <v>14390</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1830,13 +1833,13 @@
         <v>40</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>3693</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1847,24 +1850,24 @@
         <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" s="6">
-        <v>13020.7</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D68" s="6">
-        <v>3262</v>
+        <v>13264.7</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1875,10 +1878,10 @@
         <v>2</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5">
-        <v>641.5</v>
+        <v>3</v>
+      </c>
+      <c r="D69" s="6">
+        <v>3262</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1886,13 +1889,13 @@
         <v>41</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="6">
-        <v>3359.5</v>
+        <v>7</v>
+      </c>
+      <c r="D70" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1903,29 +1906,29 @@
         <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="6">
-        <v>17389</v>
+        <v>3359.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="5">
-        <v>478.1</v>
+        <v>6</v>
+      </c>
+      <c r="D72" s="6">
+        <v>16779</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1934,26 +1937,26 @@
         <v>8</v>
       </c>
       <c r="D73" s="5">
-        <v>94.1</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D74" s="5">
-        <v>194</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
@@ -1961,13 +1964,13 @@
       <c r="C75" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="6">
-        <v>7756</v>
+      <c r="D75" s="5">
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1975,22 +1978,22 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="5">
-        <v>248</v>
+      <c r="D76" s="6">
+        <v>7756</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1065.7</v>
+        <v>5</v>
+      </c>
+      <c r="D77" s="5">
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1998,13 +2001,13 @@
         <v>44</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="5">
-        <v>416</v>
+        <v>3</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1065.7</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2015,24 +2018,24 @@
         <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" s="5">
-        <v>646.9</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="6">
-        <v>1641</v>
+        <v>6</v>
+      </c>
+      <c r="D80" s="5">
+        <v>646.9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2040,32 +2043,32 @@
         <v>45</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" s="6">
-        <v>1000</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6">
-        <v>6802</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>2</v>
@@ -2074,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="6">
-        <v>1090.7</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2082,13 +2085,13 @@
         <v>47</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>2477</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2096,27 +2099,27 @@
         <v>47</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" s="6">
-        <v>2021</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6">
-        <v>18406</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2127,10 +2130,10 @@
         <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D87" s="6">
-        <v>1550.4</v>
+        <v>18376</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2138,13 +2141,13 @@
         <v>48</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" s="6">
-        <v>24641.8</v>
+        <v>1550.4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2152,46 +2155,46 @@
         <v>48</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" s="6">
-        <v>72468.100000000006</v>
+        <v>24241.8</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="5">
-        <v>204.6</v>
+        <v>5</v>
+      </c>
+      <c r="D90" s="6">
+        <v>72468.100000000006</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" s="5">
-        <v>599.70000000000005</v>
+        <v>204.6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>4</v>
@@ -2199,53 +2202,55 @@
       <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="6">
-        <v>2142</v>
+      <c r="D92" s="5">
+        <v>599.70000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5">
-        <v>900</v>
+        <v>6</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2142</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D94" s="6">
-        <v>5600</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D95" s="5">
+        <v>900</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
@@ -2253,13 +2258,13 @@
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="5">
-        <v>414.7</v>
+      <c r="D96" s="6">
+        <v>5600</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -2271,21 +2276,21 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D98" s="5">
-        <v>357</v>
+        <v>414.7</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
@@ -2293,27 +2298,25 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="6">
-        <v>1407</v>
-      </c>
+      <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100" s="5">
-        <v>408.5</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2322,12 +2325,12 @@
         <v>6</v>
       </c>
       <c r="D101" s="6">
-        <v>1005</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2335,55 +2338,53 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="5">
-        <v>427</v>
+      <c r="D102" s="6">
+        <v>3004.5</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="6">
-        <v>3141</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104" s="6">
-        <v>8957</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D105" s="5">
-        <v>223</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>2</v>
@@ -2392,124 +2393,124 @@
         <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>2932</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D107" s="6">
-        <v>1238.2</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="6">
-        <v>10023.200000000001</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="5">
-        <v>82.2</v>
+        <v>3</v>
+      </c>
+      <c r="D109" s="6">
+        <v>2932</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="5">
-        <v>81.400000000000006</v>
+        <v>7</v>
+      </c>
+      <c r="D110" s="6">
+        <v>1218.2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="5">
-        <v>124</v>
+        <v>6</v>
+      </c>
+      <c r="D111" s="6">
+        <v>9479.9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="6">
-        <v>1622</v>
+        <v>8</v>
+      </c>
+      <c r="D112" s="5">
+        <v>77.5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="6">
-        <v>2870</v>
+        <v>8</v>
+      </c>
+      <c r="D113" s="5">
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="6">
-        <v>9743</v>
+        <v>8</v>
+      </c>
+      <c r="D114" s="5">
+        <v>105.7</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>2</v>
@@ -2518,35 +2519,35 @@
         <v>3</v>
       </c>
       <c r="D115" s="6">
-        <v>1781.5</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="5">
-        <v>185</v>
+        <v>5</v>
+      </c>
+      <c r="D116" s="6">
+        <v>2370</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
-        <v>1895</v>
+        <v>8523</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2554,60 +2555,60 @@
         <v>55</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D118" s="6">
-        <v>1881.4</v>
+        <v>1781.5</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D119" s="6">
-        <v>6794.6</v>
+        <v>7</v>
+      </c>
+      <c r="D119" s="5">
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D120" s="6">
-        <v>9000</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" s="5">
-        <v>363</v>
+        <v>6</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1881.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="4" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>4</v>
@@ -2615,41 +2616,41 @@
       <c r="C122" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="5">
-        <v>964.4</v>
+      <c r="D122" s="6">
+        <v>5784.6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="5">
-        <v>460.8</v>
+        <v>3</v>
+      </c>
+      <c r="D123" s="6">
+        <v>9000</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" s="5">
-        <v>850.5</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
@@ -2657,13 +2658,13 @@
       <c r="C125" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="6">
-        <v>11575.9</v>
+      <c r="D125" s="5">
+        <v>964.4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>4</v>
@@ -2672,40 +2673,40 @@
         <v>8</v>
       </c>
       <c r="D126" s="5">
-        <v>312.3</v>
+        <v>450.8</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" s="5">
-        <v>309</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="5">
-        <v>302</v>
+        <v>6</v>
+      </c>
+      <c r="D128" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2714,68 +2715,68 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>307</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D130" s="6">
-        <v>1081.7</v>
+        <v>8</v>
+      </c>
+      <c r="D130" s="5">
+        <v>309</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>197</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D132" s="5">
-        <v>845.9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D133" s="6">
-        <v>3067.6</v>
+        <v>1081.7</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
@@ -2783,27 +2784,27 @@
       <c r="C134" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="6">
-        <v>1799.6</v>
+      <c r="D134" s="5">
+        <v>197</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3205.6</v>
+        <v>6</v>
+      </c>
+      <c r="D135" s="5">
+        <v>845.9</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>2</v>
@@ -2812,166 +2813,166 @@
         <v>3</v>
       </c>
       <c r="D136" s="6">
-        <v>3892</v>
+        <v>3047.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D137" s="6">
-        <v>1966.2</v>
+        <v>1789.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="6">
-        <v>2859</v>
+        <v>3205.6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>1495.9</v>
+        <v>3882</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="4" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="5">
-        <v>366</v>
+        <v>3</v>
+      </c>
+      <c r="D140" s="6">
+        <v>1966.2</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="5">
-        <v>519</v>
+        <v>5</v>
+      </c>
+      <c r="D141" s="6">
+        <v>2359</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D142" s="6">
-        <v>1670</v>
+        <v>1495.9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="4" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D143" s="6">
-        <v>1308</v>
+        <v>6</v>
+      </c>
+      <c r="D143" s="5">
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="6">
-        <v>1940</v>
+        <v>8</v>
+      </c>
+      <c r="D144" s="5">
+        <v>519</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D145" s="6">
-        <v>5867</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="5">
-        <v>967.5</v>
+        <v>5</v>
+      </c>
+      <c r="D146" s="6">
+        <v>1308</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="6">
-        <v>4308.5</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>4</v>
@@ -2980,12 +2981,12 @@
         <v>5</v>
       </c>
       <c r="D148" s="6">
-        <v>4738.5</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>4</v>
@@ -2994,54 +2995,54 @@
         <v>6</v>
       </c>
       <c r="D149" s="5">
-        <v>929.4</v>
+        <v>967.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D150" s="6">
-        <v>2300</v>
+        <v>3658.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="4" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" s="5">
-        <v>68.5</v>
+        <v>5</v>
+      </c>
+      <c r="D151" s="6">
+        <v>4738.5</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D152" s="5">
-        <v>256.5</v>
+        <v>546.1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3049,13 +3050,13 @@
       <c r="C153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="5">
-        <v>200</v>
+      <c r="D153" s="6">
+        <v>2300</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3064,12 +3065,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>209</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3078,12 +3079,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>75</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3092,12 +3093,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>416.3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3106,12 +3107,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3120,54 +3121,54 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>406</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="6">
-        <v>3533.5</v>
+        <v>8</v>
+      </c>
+      <c r="D159" s="5">
+        <v>416.3</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="6">
-        <v>1052.2</v>
+        <v>8</v>
+      </c>
+      <c r="D160" s="5">
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D161" s="6">
-        <v>3239.9</v>
+        <v>8</v>
+      </c>
+      <c r="D161" s="5">
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>2</v>
@@ -3176,40 +3177,64 @@
         <v>3</v>
       </c>
       <c r="D162" s="6">
-        <v>1923.5</v>
+        <v>3533.5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1052.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="6">
+        <v>2934.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1923.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" s="5">
+      <c r="B166" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="5">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="5"/>
-    </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="5"/>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -1155,7 +1155,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6">
-        <v>2847.3</v>
+        <v>1901.3</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1601,7 +1601,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="6">
-        <v>3194</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1797,7 +1797,7 @@
         <v>5</v>
       </c>
       <c r="D63" s="6">
-        <v>2578.5</v>
+        <v>2218.5</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2202,9 +2202,7 @@
       <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="5">
-        <v>599.70000000000005</v>
-      </c>
+      <c r="D92" s="7"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
@@ -2216,9 +2214,7 @@
       <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="6">
-        <v>2142</v>
-      </c>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
@@ -2393,7 +2389,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="6">
-        <v>3141</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="107" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="119">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
+  </si>
+  <si>
+    <t>Бадан корневища НФП</t>
   </si>
 </sst>
 </file>
@@ -973,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>1306.5</v>
+        <v>1281.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1062,7 +1065,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -1071,21 +1074,21 @@
         <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>200</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="5">
-        <v>105.9</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1093,27 +1096,27 @@
         <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1408</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>105.9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1741.5</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1121,27 +1124,27 @@
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <v>211</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1285.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1008</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="5">
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1149,27 +1152,27 @@
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6">
-        <v>1901.3</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>2582.5</v>
+        <v>1901.3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1177,13 +1180,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>4323</v>
+        <v>2087.5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1194,38 +1197,38 @@
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>5765.1</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>130.69999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5765.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="6">
-        <v>2767.5</v>
+        <v>8</v>
+      </c>
+      <c r="D22" s="5">
+        <v>130.69999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1233,13 +1236,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" s="6">
-        <v>1266.2</v>
+        <v>2767.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1250,42 +1253,44 @@
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="22.5">
+        <v>5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>966.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5">
-        <v>54</v>
+        <v>6</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1890.6</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5">
       <c r="A26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22.5">
+      <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1293,12 +1298,12 @@
         <v>8</v>
       </c>
       <c r="D27" s="5">
-        <v>98.3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -1307,26 +1312,26 @@
         <v>8</v>
       </c>
       <c r="D28" s="5">
-        <v>338.9</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1079.7</v>
+        <v>8</v>
+      </c>
+      <c r="D29" s="5">
+        <v>338.9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
@@ -1335,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="6">
-        <v>1179</v>
+        <v>1079.7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1343,32 +1348,32 @@
         <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="6">
-        <v>1623.4</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1623.4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
@@ -1377,12 +1382,12 @@
         <v>8</v>
       </c>
       <c r="D33" s="5">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>4</v>
@@ -1391,12 +1396,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="5">
-        <v>364.5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
@@ -1405,35 +1410,35 @@
         <v>8</v>
       </c>
       <c r="D35" s="5">
-        <v>40.4</v>
+        <v>364.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" s="5">
-        <v>296.60000000000002</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6">
-        <v>6128.5</v>
+        <v>6</v>
+      </c>
+      <c r="D37" s="5">
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1441,27 +1446,27 @@
         <v>27</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>1349</v>
+        <v>6128.5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="6">
-        <v>1068.8</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1469,27 +1474,27 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="5">
-        <v>486</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>1231.8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="6">
-        <v>3582</v>
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1497,13 +1502,13 @@
         <v>28</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>1383.3</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1514,10 +1519,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="5">
-        <v>715</v>
+        <v>6</v>
+      </c>
+      <c r="D43" s="6">
+        <v>1301.3</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1525,55 +1530,55 @@
         <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="6">
-        <v>2426</v>
+        <v>8</v>
+      </c>
+      <c r="D44" s="5">
+        <v>715</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5">
-        <v>169.5</v>
+      <c r="D45" s="6">
+        <v>2426</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" s="5">
-        <v>386.8</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="6">
-        <v>2075</v>
+        <v>6</v>
+      </c>
+      <c r="D47" s="5">
+        <v>386.8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1581,13 +1586,13 @@
         <v>30</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="5">
-        <v>717.5</v>
+        <v>3</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1552</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1595,41 +1600,41 @@
         <v>30</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="6">
-        <v>2763</v>
+        <v>6</v>
+      </c>
+      <c r="D49" s="5">
+        <v>594.5</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="5">
-        <v>666</v>
+      <c r="D50" s="6">
+        <v>2763</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1470</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>666</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1637,13 +1642,13 @@
         <v>32</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" s="6">
-        <v>1312.5</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1654,80 +1659,80 @@
         <v>4</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="5">
-        <v>535</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1312.5</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="6">
-        <v>2117.5</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="5">
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="5">
-        <v>145.75</v>
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>2117.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D56" s="5">
-        <v>789.7</v>
+        <v>145.75</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="6">
-        <v>15918.5</v>
+        <v>5</v>
+      </c>
+      <c r="D57" s="5">
+        <v>789.7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>12315.5</v>
+        <v>25218.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1735,41 +1740,41 @@
         <v>36</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="6">
-        <v>13046.7</v>
+        <v>12315.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="5">
-        <v>67.7</v>
+        <v>5</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13046.7</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1550</v>
+        <v>8</v>
+      </c>
+      <c r="D61" s="5">
+        <v>67.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1780,57 +1785,57 @@
         <v>2</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5">
-        <v>400</v>
+        <v>3</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1550</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="6">
-        <v>2218.5</v>
+        <v>7</v>
+      </c>
+      <c r="D63" s="5">
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" s="6">
-        <v>1242</v>
+        <v>2218.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="6">
-        <v>14390</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>2</v>
@@ -1839,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="D66" s="6">
-        <v>2539</v>
+        <v>14390</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1847,13 +1852,13 @@
         <v>40</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" s="6">
-        <v>2727</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1864,24 +1869,24 @@
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="6">
-        <v>13264.7</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>3262</v>
+        <v>12778.7</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1892,10 +1897,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5">
-        <v>641.5</v>
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>2542</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1903,13 +1908,13 @@
         <v>41</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="6">
-        <v>3359.5</v>
+        <v>7</v>
+      </c>
+      <c r="D71" s="5">
+        <v>641.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1920,29 +1925,29 @@
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="6">
-        <v>16779</v>
+        <v>3359.5</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="5">
-        <v>478.1</v>
+        <v>6</v>
+      </c>
+      <c r="D73" s="6">
+        <v>16498</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
@@ -1951,26 +1956,26 @@
         <v>8</v>
       </c>
       <c r="D74" s="5">
-        <v>92.7</v>
+        <v>478.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D75" s="5">
-        <v>194</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1978,13 +1983,13 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="6">
-        <v>7756</v>
+      <c r="D76" s="5">
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>4</v>
@@ -1992,22 +1997,22 @@
       <c r="C77" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="5">
-        <v>248</v>
+      <c r="D77" s="6">
+        <v>7756</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="6">
-        <v>1065.7</v>
+        <v>5</v>
+      </c>
+      <c r="D78" s="5">
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2015,14 +2020,12 @@
         <v>44</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="5">
-        <v>416</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D79" s="7"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
@@ -2032,24 +2035,24 @@
         <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="5">
-        <v>646.9</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1091</v>
+        <v>6</v>
+      </c>
+      <c r="D81" s="5">
+        <v>549.20000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2057,32 +2060,32 @@
         <v>45</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>1000</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6">
-        <v>6802</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>2</v>
@@ -2091,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="6">
-        <v>1090.7</v>
+        <v>6802</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2099,13 +2102,13 @@
         <v>47</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" s="6">
-        <v>2477</v>
+        <v>1090.7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2113,27 +2116,27 @@
         <v>47</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="6">
-        <v>1477</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
-        <v>18376</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2144,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D88" s="6">
-        <v>1550.4</v>
+        <v>18296</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2155,13 +2158,13 @@
         <v>48</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D89" s="6">
-        <v>24241.8</v>
+        <v>1550.4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2169,44 +2172,46 @@
         <v>48</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="6">
-        <v>72468.100000000006</v>
+        <v>23878.799999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="5">
-        <v>204.6</v>
+        <v>5</v>
+      </c>
+      <c r="D91" s="6">
+        <v>66795.100000000006</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D92" s="5">
+        <v>204.6</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>4</v>
@@ -2214,7 +2219,9 @@
       <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="5">
+        <v>819.5</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
@@ -2224,7 +2231,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D94" s="6">
         <v>7980</v>
@@ -2268,7 +2275,9 @@
       <c r="C97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="5">
+        <v>409</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
@@ -2294,7 +2303,9 @@
       <c r="C99" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="6">
+        <v>1982</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
@@ -2320,9 +2331,7 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="6">
-        <v>1407</v>
-      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
@@ -2348,7 +2357,9 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="5">
+        <v>819</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
@@ -2403,7 +2414,7 @@
         <v>5</v>
       </c>
       <c r="D107" s="6">
-        <v>8957</v>
+        <v>11634</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2459,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="D111" s="6">
-        <v>9479.9</v>
+        <v>9397.9</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2599,7 +2610,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>1881.4</v>
+        <v>1600.4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2655,7 +2666,7 @@
         <v>6</v>
       </c>
       <c r="D125" s="5">
-        <v>964.4</v>
+        <v>800.4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2766,8 +2777,8 @@
       <c r="C133" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="6">
-        <v>1081.7</v>
+      <c r="D133" s="5">
+        <v>732.1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2781,7 +2792,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="5">
-        <v>197</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2795,7 +2806,7 @@
         <v>6</v>
       </c>
       <c r="D135" s="5">
-        <v>845.9</v>
+        <v>681.9</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2823,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="D137" s="6">
-        <v>1789.6</v>
+        <v>1534.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2851,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>3882</v>
+        <v>5833.5</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2907,7 +2918,7 @@
         <v>6</v>
       </c>
       <c r="D143" s="5">
-        <v>366</v>
+        <v>202</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3033,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="D152" s="5">
-        <v>546.1</v>
+        <v>423.1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3145,7 +3156,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="5">
-        <v>208</v>
+        <v>108</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3201,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="D164" s="6">
-        <v>2934.9</v>
+        <v>2811.9</v>
       </c>
     </row>
     <row r="165" spans="1:4">

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>Сбор Арфазетин-Э НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
   </si>
   <si>
     <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
@@ -912,7 +909,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D166"/>
+      <selection activeCell="A2" sqref="A2:D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -1065,7 +1062,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>4</v>
@@ -1214,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>5765.1</v>
+        <v>8925.1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1788,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="D62" s="6">
-        <v>1550</v>
+        <v>2279.5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1886,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>12778.7</v>
+        <v>12728.3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1942,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="D73" s="6">
-        <v>16498</v>
+        <v>16405.599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2079,8 +2076,8 @@
       <c r="C83" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="6">
-        <v>1000</v>
+      <c r="D83" s="5">
+        <v>975</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2107,8 +2104,8 @@
       <c r="C85" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="6">
-        <v>1090.7</v>
+      <c r="D85" s="5">
+        <v>546.70000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2309,21 +2306,19 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="5">
-        <v>357</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D100" s="7"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
@@ -2331,11 +2326,13 @@
       <c r="C101" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="6">
+        <v>3004.5</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
@@ -2343,13 +2340,13 @@
       <c r="C102" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="6">
-        <v>3004.5</v>
+      <c r="D102" s="5">
+        <v>819</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
@@ -2357,13 +2354,11 @@
       <c r="C103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="5">
-        <v>819</v>
-      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
@@ -2371,22 +2366,22 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="6">
-        <v>1005</v>
+      <c r="D104" s="5">
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="5">
-        <v>427</v>
+        <v>3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>4691</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2394,41 +2389,41 @@
         <v>52</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D106" s="6">
-        <v>4691</v>
+        <v>11634</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="6">
-        <v>11634</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="5">
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="5">
-        <v>223</v>
+        <v>3</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2932</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2439,10 +2434,10 @@
         <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D109" s="6">
-        <v>2932</v>
+        <v>1218.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2450,32 +2445,32 @@
         <v>53</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D110" s="6">
-        <v>1218.2</v>
+        <v>9397.9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111" s="6">
-        <v>9397.9</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="5">
+        <v>77.5</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>4</v>
@@ -2484,12 +2479,12 @@
         <v>8</v>
       </c>
       <c r="D112" s="5">
-        <v>77.5</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>4</v>
@@ -2498,21 +2493,21 @@
         <v>8</v>
       </c>
       <c r="D113" s="5">
-        <v>81.400000000000006</v>
+        <v>105.7</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="4" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="5">
-        <v>105.7</v>
+        <v>3</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1622</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2520,13 +2515,13 @@
         <v>54</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D115" s="6">
-        <v>1622</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2537,24 +2532,24 @@
         <v>4</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6">
-        <v>2370</v>
+        <v>8388.6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D117" s="6">
-        <v>8523</v>
+        <v>1781.5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2565,10 +2560,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="6">
-        <v>1781.5</v>
+        <v>7</v>
+      </c>
+      <c r="D118" s="5">
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2576,13 +2571,13 @@
         <v>55</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="5">
-        <v>175</v>
+        <v>5</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1895</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2593,15 +2588,15 @@
         <v>4</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D120" s="6">
-        <v>1895</v>
+        <v>1600.4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>4</v>
@@ -2610,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="D121" s="6">
-        <v>1600.4</v>
+        <v>5692.2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2618,69 +2613,69 @@
         <v>56</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D122" s="6">
-        <v>5784.6</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="6">
-        <v>9000</v>
+        <v>8</v>
+      </c>
+      <c r="D123" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D124" s="5">
-        <v>363</v>
+        <v>800.4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D125" s="5">
-        <v>800.4</v>
+        <v>450.8</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" s="5">
-        <v>450.8</v>
+        <v>850.5</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2688,32 +2683,32 @@
         <v>97</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="5">
-        <v>850.5</v>
+        <v>6</v>
+      </c>
+      <c r="D127" s="6">
+        <v>11575.9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="4" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D128" s="6">
-        <v>11575.9</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="5">
+        <v>312.3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>4</v>
@@ -2722,12 +2717,12 @@
         <v>8</v>
       </c>
       <c r="D129" s="5">
-        <v>312.3</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="4" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>4</v>
@@ -2736,12 +2731,12 @@
         <v>8</v>
       </c>
       <c r="D130" s="5">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>4</v>
@@ -2750,21 +2745,21 @@
         <v>8</v>
       </c>
       <c r="D131" s="5">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D132" s="5">
-        <v>307</v>
+        <v>743.4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2775,15 +2770,15 @@
         <v>4</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" s="5">
-        <v>732.1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="4" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>4</v>
@@ -2792,21 +2787,21 @@
         <v>6</v>
       </c>
       <c r="D134" s="5">
-        <v>115</v>
+        <v>681.9</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="4" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D135" s="5">
-        <v>681.9</v>
+        <v>3</v>
+      </c>
+      <c r="D135" s="6">
+        <v>3047.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2814,13 +2809,13 @@
         <v>59</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D136" s="6">
-        <v>3047.6</v>
+        <v>1534.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2828,32 +2823,32 @@
         <v>59</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137" s="6">
-        <v>1534.6</v>
+        <v>3205.6</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D138" s="6">
-        <v>3205.6</v>
+        <v>5833.5</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>2</v>
@@ -2862,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="6">
-        <v>5833.5</v>
+        <v>1966.2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2870,13 +2865,13 @@
         <v>61</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D140" s="6">
-        <v>1966.2</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2887,15 +2882,15 @@
         <v>4</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D141" s="6">
-        <v>2359</v>
+        <v>1495.9</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="4" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>4</v>
@@ -2903,8 +2898,8 @@
       <c r="C142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="6">
-        <v>1495.9</v>
+      <c r="D142" s="5">
+        <v>202</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2915,24 +2910,24 @@
         <v>4</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D143" s="5">
-        <v>202</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="4" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="5">
-        <v>519</v>
+        <v>3</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1670</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2940,27 +2935,27 @@
         <v>62</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D145" s="6">
-        <v>1670</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D146" s="6">
-        <v>1308</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2968,13 +2963,13 @@
         <v>63</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D147" s="6">
-        <v>1940</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2985,38 +2980,38 @@
         <v>4</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" s="6">
-        <v>5867</v>
+        <v>6</v>
+      </c>
+      <c r="D148" s="5">
+        <v>967.5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D149" s="5">
-        <v>967.5</v>
+        <v>3</v>
+      </c>
+      <c r="D149" s="6">
+        <v>3658.5</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D150" s="6">
-        <v>3658.5</v>
+        <v>4738.5</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3027,10 +3022,10 @@
         <v>4</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D151" s="6">
-        <v>4738.5</v>
+        <v>6</v>
+      </c>
+      <c r="D151" s="5">
+        <v>423.1</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3041,15 +3036,15 @@
         <v>4</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D152" s="5">
-        <v>423.1</v>
+        <v>8</v>
+      </c>
+      <c r="D152" s="6">
+        <v>2300</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>4</v>
@@ -3057,13 +3052,13 @@
       <c r="C153" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D153" s="6">
-        <v>2300</v>
+      <c r="D153" s="5">
+        <v>68.5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="4" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>4</v>
@@ -3072,12 +3067,12 @@
         <v>8</v>
       </c>
       <c r="D154" s="5">
-        <v>68.5</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>4</v>
@@ -3086,12 +3081,12 @@
         <v>8</v>
       </c>
       <c r="D155" s="5">
-        <v>256.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="4" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>4</v>
@@ -3100,12 +3095,12 @@
         <v>8</v>
       </c>
       <c r="D156" s="5">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>4</v>
@@ -3114,12 +3109,12 @@
         <v>8</v>
       </c>
       <c r="D157" s="5">
-        <v>209</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="4" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>4</v>
@@ -3128,12 +3123,12 @@
         <v>8</v>
       </c>
       <c r="D158" s="5">
-        <v>75</v>
+        <v>416.3</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="4" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>4</v>
@@ -3142,12 +3137,12 @@
         <v>8</v>
       </c>
       <c r="D159" s="5">
-        <v>416.3</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="4" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>4</v>
@@ -3156,21 +3151,21 @@
         <v>8</v>
       </c>
       <c r="D160" s="5">
-        <v>108</v>
+        <v>406</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="4" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" s="5">
-        <v>406</v>
+        <v>3</v>
+      </c>
+      <c r="D161" s="6">
+        <v>3533.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3178,18 +3173,18 @@
         <v>66</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D162" s="6">
-        <v>3533.5</v>
+        <v>1052.2</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="4" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>4</v>
@@ -3198,50 +3193,42 @@
         <v>6</v>
       </c>
       <c r="D163" s="6">
-        <v>1052.2</v>
+        <v>2761.5</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D164" s="6">
-        <v>2811.9</v>
+        <v>1923.5</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="4" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="6">
-        <v>1923.5</v>
+        <v>8</v>
+      </c>
+      <c r="D165" s="5">
+        <v>196.7</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" s="5">
-        <v>196.7</v>
-      </c>
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="5"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="98">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -104,283 +104,223 @@
     <t>Девясил корневища и корни НФП</t>
   </si>
   <si>
+    <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
+  </si>
+  <si>
+    <t>Дуб кора НФП</t>
+  </si>
+  <si>
+    <t>Зверобой трава НФП</t>
+  </si>
+  <si>
+    <t>Золототысячник трава НФП</t>
+  </si>
+  <si>
+    <t>Крапива листья НФП</t>
+  </si>
+  <si>
+    <t>Кровохлебка корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Крушина кора НФП</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами НФП</t>
+  </si>
+  <si>
+    <t>Лапчатка прямостоячая корневища НФП</t>
+  </si>
+  <si>
+    <t>Лен семена НФП</t>
+  </si>
+  <si>
+    <t>Липа цветки НФП</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья НФП</t>
+  </si>
+  <si>
+    <t>Мелисса лекарственная трава НФП</t>
+  </si>
+  <si>
+    <t>Морская капуста (ламинарии слоевища) НФП</t>
+  </si>
+  <si>
+    <t>Мята перечная листья НФП</t>
+  </si>
+  <si>
+    <t>Ноготки цветки НФП</t>
+  </si>
+  <si>
+    <t>Ортосифон тычиночный (Почечный чай) листья НФП</t>
+  </si>
+  <si>
+    <t>Пастушья сумка трава НФП</t>
+  </si>
+  <si>
+    <t>Пижма цветки НФП</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья НФП</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава НФП</t>
+  </si>
+  <si>
+    <t>Пустырник трава НФП</t>
+  </si>
+  <si>
+    <t>Ромашка цветки НФП</t>
+  </si>
+  <si>
+    <t>Рябина плоды НФП</t>
+  </si>
+  <si>
+    <t>Сбор Грудной №4 НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сенна листья НФП</t>
+  </si>
+  <si>
+    <t>Солодка корни НФП</t>
+  </si>
+  <si>
+    <t>Толокнянка листья НФП</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава НФП</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды НФП</t>
+  </si>
+  <si>
+    <t>ФармаЦветик Чай для кормящих мам НФП</t>
+  </si>
+  <si>
+    <t>Хвощ полевой трава НФП</t>
+  </si>
+  <si>
+    <t>Чабрец трава НФП</t>
+  </si>
+  <si>
+    <t>Чага НФП</t>
+  </si>
+  <si>
+    <t>Череда трава НФП</t>
+  </si>
+  <si>
+    <t>Чистотел трава НФП</t>
+  </si>
+  <si>
+    <t>Шалфей листья НФП</t>
+  </si>
+  <si>
+    <t>Шиповник плоды НФП</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные НФП</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья НФП</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик при простуде" НФП</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Стройная жизнь НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Стройная жизнь экстра плюс НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай диабетический НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для иммунитета НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай при простуде НФП</t>
+  </si>
+  <si>
+    <t>Ольха соплодия НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай кардиологический НФП</t>
+  </si>
+  <si>
+    <t>Фиточай "Опалиховский" НФП</t>
+  </si>
+  <si>
+    <t>Душица трава НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
+  </si>
+  <si>
+    <t>Сбор Бруснивер НФП</t>
+  </si>
+  <si>
+    <t>Сбор Элекасол НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Лактафитол НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для пищеварения НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай очищающий НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай успокоительный НФП</t>
+  </si>
+  <si>
+    <t>Сбор Арфазетин-Э НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
+  </si>
+  <si>
+    <t>Бадан корневища НФП</t>
+  </si>
+  <si>
+    <t>Пищевая продукция (моно), ф/п</t>
+  </si>
+  <si>
     <t>Детский травяной чай "ФармаЦветик для животика" НФП</t>
   </si>
   <si>
-    <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
-  </si>
-  <si>
-    <t>Дуб кора НФП</t>
-  </si>
-  <si>
-    <t>Зверобой трава НФП</t>
-  </si>
-  <si>
-    <t>Золототысячник трава НФП</t>
-  </si>
-  <si>
-    <t>Крапива листья НФП</t>
-  </si>
-  <si>
-    <t>Кровохлебка корневища и корни НФП</t>
-  </si>
-  <si>
-    <t>Крушина кора НФП</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами НФП</t>
-  </si>
-  <si>
-    <t>Лапчатка прямостоячая корневища НФП</t>
-  </si>
-  <si>
-    <t>Лен семена НФП</t>
-  </si>
-  <si>
-    <t>Липа цветки НФП</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья НФП</t>
-  </si>
-  <si>
-    <t>Мелисса лекарственная трава НФП</t>
-  </si>
-  <si>
-    <t>Морская капуста (ламинарии слоевища) НФП</t>
-  </si>
-  <si>
-    <t>Мята перечная листья НФП</t>
-  </si>
-  <si>
-    <t>Ноготки цветки НФП</t>
-  </si>
-  <si>
-    <t>Ортосифон тычиночный (Почечный чай) листья НФП</t>
-  </si>
-  <si>
-    <t>Пастушья сумка трава НФП</t>
-  </si>
-  <si>
-    <t>Пижма цветки НФП</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья НФП</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава НФП</t>
-  </si>
-  <si>
-    <t>Пустырник трава НФП</t>
-  </si>
-  <si>
-    <t>Ромашка цветки НФП</t>
-  </si>
-  <si>
-    <t>Рябина плоды НФП</t>
-  </si>
-  <si>
-    <t>Сбор Грудной №4 НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
-  </si>
-  <si>
-    <t>Сенна листья НФП</t>
-  </si>
-  <si>
-    <t>Солодка корни НФП</t>
-  </si>
-  <si>
-    <t>Толокнянка листья НФП</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава НФП</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды НФП</t>
-  </si>
-  <si>
-    <t>ФармаЦветик Чай для кормящих мам НФП</t>
-  </si>
-  <si>
-    <t>Хвощ полевой трава НФП</t>
-  </si>
-  <si>
-    <t>Чабрец трава НФП</t>
-  </si>
-  <si>
-    <t>Чага НФП</t>
-  </si>
-  <si>
-    <t>Череда трава НФП</t>
-  </si>
-  <si>
-    <t>Чистотел трава НФП</t>
-  </si>
-  <si>
-    <t>Шалфей листья НФП</t>
-  </si>
-  <si>
-    <t>Шиповник плоды НФП</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные НФП</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья НФП</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик при простуде" НФП</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды НФП</t>
-  </si>
-  <si>
-    <t>Фиточай Стройная жизнь НФП</t>
-  </si>
-  <si>
-    <t>Фиточай Стройная жизнь экстра плюс НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай диабетический НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай для иммунитета НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай при простуде НФП</t>
-  </si>
-  <si>
-    <t>Ольха соплодия НФП</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
-  </si>
-  <si>
     <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
   </si>
   <si>
-    <t>Щедрость природы Фиточай кардиологический НФП</t>
-  </si>
-  <si>
-    <t>Фиточай "Опалиховский" НФП</t>
-  </si>
-  <si>
-    <t>Анис обыкновенный плоды НФП</t>
-  </si>
-  <si>
-    <t>Бузина черная цветки НФП</t>
-  </si>
-  <si>
-    <t>Галега трава НФП</t>
-  </si>
-  <si>
-    <t>Гибискус цветки (каркадэ) НФП</t>
-  </si>
-  <si>
-    <t>Донник трава НФП</t>
-  </si>
-  <si>
-    <t>Душица трава НФП</t>
-  </si>
-  <si>
-    <t>Кориандр плоды НФП</t>
-  </si>
-  <si>
-    <t>Лаванда цветки НФП</t>
-  </si>
-  <si>
-    <t>Мальва цветки НФП</t>
-  </si>
-  <si>
-    <t>Облепиха листья НФП</t>
-  </si>
-  <si>
-    <t>Одуванчик корни НФП</t>
-  </si>
-  <si>
-    <t>Смородина черная листья НФП</t>
-  </si>
-  <si>
-    <t>Сорго лимонное трава НФП</t>
-  </si>
-  <si>
-    <t>Тимьян обыкновенный трава НФП</t>
-  </si>
-  <si>
-    <t>Тмин плоды НФП</t>
-  </si>
-  <si>
-    <t>Фасоль обыкновенная плодов створки НФП</t>
-  </si>
-  <si>
-    <t>Фенхель плоды НФП</t>
-  </si>
-  <si>
     <t>Фиалка трехцветная трава НФП</t>
-  </si>
-  <si>
-    <t>Хмель сырец шишки НФП</t>
-  </si>
-  <si>
-    <t>Черника обыкновенная побеги НФП</t>
-  </si>
-  <si>
-    <t>Шлемник байкальский корни НФП</t>
-  </si>
-  <si>
-    <t>Элеутерококк корневища и корни НФП</t>
-  </si>
-  <si>
-    <t>Яблоня плоды НФП</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
-  </si>
-  <si>
-    <t>Сбор Желудочный №3 НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
-  </si>
-  <si>
-    <t>Сбор Бруснивер НФП</t>
-  </si>
-  <si>
-    <t>Сбор Элекасол НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Фиточай Лактафитол НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай для пищеварения НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай очищающий НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай успокоительный НФП</t>
-  </si>
-  <si>
-    <t>Сбор Арфазетин-Э НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
-  </si>
-  <si>
-    <t>Бадан корневища НФП</t>
   </si>
 </sst>
 </file>
@@ -909,7 +849,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D165"/>
+      <selection activeCell="A2" sqref="A2:D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -945,7 +885,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1431</v>
+        <v>1696.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -959,26 +899,24 @@
         <v>5</v>
       </c>
       <c r="D3" s="5">
-        <v>350</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1281.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -986,153 +924,153 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
-        <v>484.5</v>
+      <c r="D5" s="6">
+        <v>1522</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="5">
-        <v>199.5</v>
+        <v>278.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="5">
-        <v>472.7</v>
+        <v>460.1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
-        <v>1413</v>
+      <c r="D8" s="5">
+        <v>913</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9" s="6">
-        <v>1308</v>
+        <v>1744.7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
-        <v>9704.4</v>
+        <v>1176.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5">
-        <v>278.5</v>
+        <v>912.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1512.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
-        <v>105.9</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2343</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="6">
-        <v>1408</v>
+        <v>2156.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6">
-        <v>1285.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>1826.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22.5">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -1141,40 +1079,40 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.5">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1008</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="5">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="6">
-        <v>1901.3</v>
+        <v>1657.7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>2</v>
@@ -1183,12 +1121,12 @@
         <v>3</v>
       </c>
       <c r="D19" s="6">
-        <v>2087.5</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -1197,21 +1135,21 @@
         <v>5</v>
       </c>
       <c r="D20" s="6">
-        <v>4323</v>
+        <v>1623.4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6">
-        <v>8925.1</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
+        <v>106.4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1225,124 +1163,124 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>130.69999999999999</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2767.5</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="5">
+        <v>102.5</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" s="5">
-        <v>966.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="6">
-        <v>1890.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="22.5">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="22.5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1515.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5">
-        <v>114</v>
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1486</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5">
-        <v>98.3</v>
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4206</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5">
-        <v>338.9</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1308</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1079.7</v>
+        <v>5</v>
+      </c>
+      <c r="D30" s="5">
+        <v>169.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>2</v>
@@ -1351,208 +1289,208 @@
         <v>3</v>
       </c>
       <c r="D31" s="6">
-        <v>1179</v>
+        <v>1633.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="6">
-        <v>1623.4</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1430</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5">
-        <v>157</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="6">
+        <v>2966.5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5">
-        <v>364.5</v>
+        <v>5</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1732.5</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5">
-        <v>40.4</v>
+        <v>3</v>
+      </c>
+      <c r="D36" s="6">
+        <v>2130</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="5">
-        <v>215</v>
+        <v>876.2</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="6">
-        <v>6128.5</v>
+        <v>20103</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>1349</v>
+        <v>11979.5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>1231.8</v>
+        <v>11715</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5">
-        <v>486</v>
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1874.5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="6">
-        <v>3582</v>
+        <v>1775.5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>1301.3</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="5">
-        <v>715</v>
+        <v>3</v>
+      </c>
+      <c r="D44" s="6">
+        <v>13090</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="6">
-        <v>2426</v>
+        <v>3</v>
+      </c>
+      <c r="D45" s="5">
+        <v>965</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>4</v>
@@ -1560,27 +1498,25 @@
       <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="5">
-        <v>169.5</v>
+      <c r="D46" s="6">
+        <v>1673.6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5">
-        <v>386.8</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>2</v>
@@ -1589,40 +1525,40 @@
         <v>3</v>
       </c>
       <c r="D48" s="6">
-        <v>1552</v>
+        <v>2873.5</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="5">
-        <v>594.5</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="6">
+        <v>3545</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="6">
-        <v>2763</v>
+      <c r="D50" s="5">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>4</v>
@@ -1630,27 +1566,27 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="5">
-        <v>666</v>
+      <c r="D51" s="6">
+        <v>8145</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="6">
-        <v>1470</v>
+        <v>5</v>
+      </c>
+      <c r="D52" s="5">
+        <v>541.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>4</v>
@@ -1658,13 +1594,13 @@
       <c r="C53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="6">
-        <v>1312.5</v>
+      <c r="D53" s="5">
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>4</v>
@@ -1673,12 +1609,12 @@
         <v>6</v>
       </c>
       <c r="D54" s="5">
-        <v>429</v>
+        <v>315.7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>2</v>
@@ -1687,194 +1623,192 @@
         <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>2117.5</v>
+        <v>1655.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="5">
-        <v>145.75</v>
+        <v>5</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1451</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="5">
-        <v>789.7</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <v>8400.7999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="6">
-        <v>25218.5</v>
+        <v>1415.3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
-        <v>12315.5</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" s="6">
-        <v>13046.7</v>
+        <v>12146</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="5">
-        <v>67.7</v>
+        <v>5</v>
+      </c>
+      <c r="D61" s="6">
+        <v>46077.1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D62" s="6">
-        <v>2279.5</v>
+      <c r="D62" s="5">
+        <v>204.6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5">
-        <v>400</v>
+        <v>6</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1219</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2218.5</v>
+        <v>6</v>
+      </c>
+      <c r="D64" s="5">
+        <v>243.5</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1242</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D66" s="6">
-        <v>14390</v>
+        <v>9860</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="6">
-        <v>2539</v>
+        <v>6</v>
+      </c>
+      <c r="D67" s="5">
+        <v>817</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="6">
-        <v>2244</v>
+        <v>6</v>
+      </c>
+      <c r="D68" s="5">
+        <v>813</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1883,54 +1817,52 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>12728.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="6">
-        <v>2542</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5">
-        <v>641.5</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="6">
+        <v>9966.5</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="6">
-        <v>3359.5</v>
+        <v>6</v>
+      </c>
+      <c r="D72" s="5">
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>4</v>
@@ -1939,40 +1871,38 @@
         <v>6</v>
       </c>
       <c r="D73" s="6">
-        <v>16405.599999999999</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="5">
-        <v>478.1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="5">
-        <v>92.7</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="6">
+        <v>4898.7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
@@ -1980,427 +1910,429 @@
       <c r="C76" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="5">
-        <v>194</v>
+      <c r="D76" s="6">
+        <v>8647</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" s="6">
-        <v>7756</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="5">
-        <v>248</v>
+        <v>3</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1209</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D79" s="6">
+        <v>2516.4</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="5">
-        <v>416</v>
+        <v>3</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2386.5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="5">
-        <v>549.20000000000005</v>
+        <v>5</v>
+      </c>
+      <c r="D81" s="6">
+        <v>2353.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="6">
-        <v>1091</v>
+        <v>6629.7</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D83" s="5">
-        <v>975</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="6">
-        <v>6802</v>
+        <v>5</v>
+      </c>
+      <c r="D84" s="5">
+        <v>305.39999999999998</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D85" s="5">
-        <v>546.70000000000005</v>
+        <v>300</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="6">
-        <v>2049</v>
+        <v>8</v>
+      </c>
+      <c r="D86" s="5">
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="6">
-        <v>1477</v>
+        <v>8</v>
+      </c>
+      <c r="D87" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="6">
-        <v>18296</v>
+        <v>8</v>
+      </c>
+      <c r="D88" s="5">
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>1550.4</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>23878.799999999999</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>66795.100000000006</v>
+        <v>1470.4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="5">
-        <v>204.6</v>
+      <c r="D92" s="6">
+        <v>4897.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="5">
-        <v>819.5</v>
+        <v>3</v>
+      </c>
+      <c r="D93" s="6">
+        <v>2007</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
-        <v>7980</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5">
-        <v>900</v>
+        <v>3</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1906.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6">
-        <v>5600</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" s="5">
-        <v>409</v>
+        <v>741</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="5">
-        <v>414.7</v>
+        <v>5</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1970</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D99" s="6">
-        <v>1982</v>
+        <v>2996.5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D100" s="6">
+        <v>3490.4</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="6">
-        <v>3004.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" s="5">
-        <v>819</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D103" s="5">
+        <v>209</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D104" s="5">
-        <v>427</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="6">
-        <v>4691</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="5">
+        <v>316.3</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="6">
-        <v>11634</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>4</v>
@@ -2409,12 +2341,12 @@
         <v>8</v>
       </c>
       <c r="D107" s="5">
-        <v>223</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>2</v>
@@ -2423,812 +2355,364 @@
         <v>3</v>
       </c>
       <c r="D108" s="6">
-        <v>2932</v>
+        <v>3905.5</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D109" s="6">
-        <v>1218.2</v>
+        <v>1560.5</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="6">
-        <v>9397.9</v>
-      </c>
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="5">
-        <v>77.5</v>
-      </c>
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="5"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="5">
-        <v>81.400000000000006</v>
-      </c>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="5"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="5">
-        <v>105.7</v>
-      </c>
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="5"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="6">
-        <v>1622</v>
-      </c>
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D115" s="6">
-        <v>2370</v>
-      </c>
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="6">
-        <v>8388.6</v>
-      </c>
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="6">
-        <v>1781.5</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5">
-        <v>175</v>
-      </c>
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="5"/>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="6">
-        <v>1895</v>
-      </c>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D120" s="6">
-        <v>1600.4</v>
-      </c>
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" s="6">
-        <v>5692.2</v>
-      </c>
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="6">
-        <v>9000</v>
-      </c>
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="5">
-        <v>363</v>
-      </c>
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="5"/>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" s="5">
-        <v>800.4</v>
-      </c>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="5"/>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="5">
-        <v>450.8</v>
-      </c>
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="5"/>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" s="5">
-        <v>850.5</v>
-      </c>
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="5"/>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" s="6">
-        <v>11575.9</v>
-      </c>
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="5">
-        <v>312.3</v>
-      </c>
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="5"/>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" s="5">
-        <v>309</v>
-      </c>
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="5"/>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" s="5">
-        <v>302</v>
-      </c>
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="5"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" s="5">
-        <v>307</v>
-      </c>
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="5"/>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="5">
-        <v>743.4</v>
-      </c>
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="5"/>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="5">
-        <v>115</v>
-      </c>
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="5"/>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="5">
-        <v>681.9</v>
-      </c>
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="6">
-        <v>3047.6</v>
-      </c>
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="5"/>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="6">
-        <v>1534.6</v>
-      </c>
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="5"/>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D137" s="6">
-        <v>3205.6</v>
-      </c>
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D138" s="6">
-        <v>5833.5</v>
-      </c>
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="6">
-        <v>1966.2</v>
-      </c>
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" s="6">
-        <v>2359</v>
-      </c>
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D141" s="6">
-        <v>1495.9</v>
-      </c>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="5"/>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" s="5">
-        <v>202</v>
-      </c>
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="5">
-        <v>519</v>
-      </c>
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D144" s="6">
-        <v>1670</v>
-      </c>
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="5"/>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D145" s="6">
-        <v>1308</v>
-      </c>
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="5"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="6">
-        <v>1890</v>
-      </c>
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" s="6">
-        <v>5867</v>
-      </c>
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" s="5">
-        <v>967.5</v>
-      </c>
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D149" s="6">
-        <v>3658.5</v>
-      </c>
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D150" s="6">
-        <v>4738.5</v>
-      </c>
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="5"/>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" s="5">
-        <v>423.1</v>
-      </c>
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" s="6">
-        <v>2300</v>
-      </c>
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" s="5">
-        <v>68.5</v>
-      </c>
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" s="5">
-        <v>256.5</v>
-      </c>
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" s="5">
-        <v>200</v>
-      </c>
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="5"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" s="5">
-        <v>209</v>
-      </c>
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="5"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="5">
-        <v>75</v>
-      </c>
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="5"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" s="5">
-        <v>416.3</v>
-      </c>
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" s="5">
-        <v>110.8</v>
-      </c>
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="5"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="5">
-        <v>406</v>
-      </c>
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="5"/>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D161" s="6">
-        <v>3533.5</v>
-      </c>
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="5"/>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D162" s="6">
-        <v>1052.2</v>
-      </c>
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" s="6">
-        <v>2761.5</v>
-      </c>
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="6">
-        <v>1923.5</v>
-      </c>
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="5"/>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" s="5">
-        <v>196.7</v>
-      </c>
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="4"/>

--- a/data/semifinished_stocks.xlsx
+++ b/data/semifinished_stocks.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$106</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="94">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -50,277 +50,265 @@
     <t>Лекарств. продукция (сборы), ф/п</t>
   </si>
   <si>
+    <t>Пищевая продукция (сборы), ф/п</t>
+  </si>
+  <si>
+    <t>Цельное</t>
+  </si>
+  <si>
+    <t>РПС</t>
+  </si>
+  <si>
+    <t>Крупный порошок с РПС</t>
+  </si>
+  <si>
+    <t>Целевое назначение</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Аир корневища НФП</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги НФП</t>
+  </si>
+  <si>
+    <t>Береза листья НФП</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки НФП</t>
+  </si>
+  <si>
+    <t>Боярышник плоды НФП</t>
+  </si>
+  <si>
+    <t>Брусника листья НФП</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями НФП</t>
+  </si>
+  <si>
+    <t>Горец птичий (спорыш) трава НФП</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
+  </si>
+  <si>
+    <t>Дуб кора НФП</t>
+  </si>
+  <si>
+    <t>Зверобой трава НФП</t>
+  </si>
+  <si>
+    <t>Кровохлебка корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Крушина кора НФП</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами НФП</t>
+  </si>
+  <si>
+    <t>Лапчатка прямостоячая корневища НФП</t>
+  </si>
+  <si>
+    <t>Лен семена НФП</t>
+  </si>
+  <si>
+    <t>Липа цветки НФП</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья НФП</t>
+  </si>
+  <si>
+    <t>Мелисса лекарственная трава НФП</t>
+  </si>
+  <si>
+    <t>Морская капуста (ламинарии слоевища) НФП</t>
+  </si>
+  <si>
+    <t>Мята перечная листья НФП</t>
+  </si>
+  <si>
+    <t>Ноготки цветки НФП</t>
+  </si>
+  <si>
+    <t>Ортосифон тычиночный (Почечный чай) листья НФП</t>
+  </si>
+  <si>
+    <t>Пастушья сумка трава НФП</t>
+  </si>
+  <si>
+    <t>Пижма цветки НФП</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья НФП</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава НФП</t>
+  </si>
+  <si>
+    <t>Пустырник трава НФП</t>
+  </si>
+  <si>
+    <t>Ромашка цветки НФП</t>
+  </si>
+  <si>
+    <t>Сбор Грудной №4 НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сенна листья НФП</t>
+  </si>
+  <si>
+    <t>Толокнянка листья НФП</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава НФП</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды НФП</t>
+  </si>
+  <si>
+    <t>ФармаЦветик Чай для кормящих мам НФП</t>
+  </si>
+  <si>
+    <t>Хвощ полевой трава НФП</t>
+  </si>
+  <si>
+    <t>Чабрец трава НФП</t>
+  </si>
+  <si>
+    <t>Чага НФП</t>
+  </si>
+  <si>
+    <t>Череда трава НФП</t>
+  </si>
+  <si>
+    <t>Чистотел трава НФП</t>
+  </si>
+  <si>
+    <t>Шалфей листья НФП</t>
+  </si>
+  <si>
+    <t>Шиповник плоды НФП</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные НФП</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья НФП</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик при простуде" НФП</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Стройная жизнь НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Стройная жизнь экстра плюс НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для иммунитета НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай кардиологический НФП</t>
+  </si>
+  <si>
+    <t>Душица трава НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Лактафитол НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для пищеварения НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай успокоительный НФП</t>
+  </si>
+  <si>
+    <t>Сбор Арфазетин-Э НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для животика" НФП</t>
+  </si>
+  <si>
+    <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Фиалка трехцветная трава НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
+  </si>
+  <si>
     <t>Лекарств. продукция (сборы), пачка</t>
   </si>
   <si>
-    <t>Пищевая продукция (сборы), ф/п</t>
-  </si>
-  <si>
-    <t>Цельное</t>
-  </si>
-  <si>
-    <t>РПС</t>
-  </si>
-  <si>
-    <t>Крупный порошок с РПС</t>
-  </si>
-  <si>
-    <t>Целевое назначение</t>
-  </si>
-  <si>
-    <t>Остаток</t>
-  </si>
-  <si>
-    <t>Аир корневища НФП</t>
-  </si>
-  <si>
-    <t>Алтей корни НФП</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги НФП</t>
-  </si>
-  <si>
-    <t>Береза листья НФП</t>
-  </si>
-  <si>
     <t>Березовые почки НФП</t>
   </si>
   <si>
-    <t>Бессмертник песчаный цветки НФП</t>
-  </si>
-  <si>
-    <t>Боярышник плоды НФП</t>
-  </si>
-  <si>
-    <t>Брусника листья НФП</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями НФП</t>
-  </si>
-  <si>
-    <t>Горец птичий (спорыш) трава НФП</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
-  </si>
-  <si>
-    <t>Дуб кора НФП</t>
-  </si>
-  <si>
-    <t>Зверобой трава НФП</t>
-  </si>
-  <si>
     <t>Золототысячник трава НФП</t>
   </si>
   <si>
+    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай диабетический НФП</t>
+  </si>
+  <si>
+    <t>Сбор Бруснивер НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Элекасол НФП</t>
+  </si>
+  <si>
     <t>Крапива листья НФП</t>
   </si>
   <si>
-    <t>Кровохлебка корневища и корни НФП</t>
-  </si>
-  <si>
-    <t>Крушина кора НФП</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами НФП</t>
-  </si>
-  <si>
-    <t>Лапчатка прямостоячая корневища НФП</t>
-  </si>
-  <si>
-    <t>Лен семена НФП</t>
-  </si>
-  <si>
-    <t>Липа цветки НФП</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья НФП</t>
-  </si>
-  <si>
-    <t>Мелисса лекарственная трава НФП</t>
-  </si>
-  <si>
-    <t>Морская капуста (ламинарии слоевища) НФП</t>
-  </si>
-  <si>
-    <t>Мята перечная листья НФП</t>
-  </si>
-  <si>
-    <t>Ноготки цветки НФП</t>
-  </si>
-  <si>
-    <t>Ортосифон тычиночный (Почечный чай) листья НФП</t>
-  </si>
-  <si>
-    <t>Пастушья сумка трава НФП</t>
-  </si>
-  <si>
-    <t>Пижма цветки НФП</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья НФП</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава НФП</t>
-  </si>
-  <si>
-    <t>Пустырник трава НФП</t>
-  </si>
-  <si>
-    <t>Ромашка цветки НФП</t>
+    <t>Солодка корни НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай очищающий НФП</t>
   </si>
   <si>
     <t>Рябина плоды НФП</t>
   </si>
   <si>
-    <t>Сбор Грудной №4 НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
-  </si>
-  <si>
-    <t>Сенна листья НФП</t>
-  </si>
-  <si>
-    <t>Солодка корни НФП</t>
-  </si>
-  <si>
-    <t>Толокнянка листья НФП</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава НФП</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды НФП</t>
-  </si>
-  <si>
-    <t>ФармаЦветик Чай для кормящих мам НФП</t>
-  </si>
-  <si>
-    <t>Хвощ полевой трава НФП</t>
-  </si>
-  <si>
-    <t>Чабрец трава НФП</t>
-  </si>
-  <si>
-    <t>Чага НФП</t>
-  </si>
-  <si>
-    <t>Череда трава НФП</t>
-  </si>
-  <si>
-    <t>Чистотел трава НФП</t>
-  </si>
-  <si>
-    <t>Шалфей листья НФП</t>
-  </si>
-  <si>
-    <t>Шиповник плоды НФП</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные НФП</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья НФП</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик при простуде" НФП</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды НФП</t>
-  </si>
-  <si>
-    <t>Фиточай Стройная жизнь НФП</t>
-  </si>
-  <si>
-    <t>Фиточай Стройная жизнь экстра плюс НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай диабетический НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай для иммунитета НФП</t>
+    <t>Сбор Фитопектол №2 (Грудной сбор №2) НФП</t>
   </si>
   <si>
     <t>Щедрость природы Фиточай при простуде НФП</t>
-  </si>
-  <si>
-    <t>Ольха соплодия НФП</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай кардиологический НФП</t>
-  </si>
-  <si>
-    <t>Фиточай "Опалиховский" НФП</t>
-  </si>
-  <si>
-    <t>Душица трава НФП</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
-  </si>
-  <si>
-    <t>Сбор Желудочный №3 НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
-  </si>
-  <si>
-    <t>Сбор Бруснивер НФП</t>
-  </si>
-  <si>
-    <t>Сбор Элекасол НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Фиточай Лактафитол НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай для пищеварения НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай очищающий НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай успокоительный НФП</t>
-  </si>
-  <si>
-    <t>Сбор Арфазетин-Э НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
-  </si>
-  <si>
-    <t>Бадан корневища НФП</t>
-  </si>
-  <si>
-    <t>Пищевая продукция (моно), ф/п</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик для животика" НФП</t>
-  </si>
-  <si>
-    <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
-  </si>
-  <si>
-    <t>Фиалка трехцветная трава НФП</t>
   </si>
 </sst>
 </file>
@@ -849,7 +837,7 @@
   <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D109"/>
+      <selection activeCell="A2" sqref="A2:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
@@ -868,15 +856,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -885,12 +873,12 @@
         <v>3</v>
       </c>
       <c r="D2" s="6">
-        <v>1696.5</v>
+        <v>1592.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -899,122 +887,120 @@
         <v>5</v>
       </c>
       <c r="D3" s="5">
-        <v>175</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D4" s="5">
+        <v>80.599999999999994</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1522</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>177.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="5">
-        <v>278.5</v>
+        <v>889.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="5">
-        <v>460.1</v>
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1715</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="5">
-        <v>913</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="6">
-        <v>1744.7</v>
-      </c>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="6">
-        <v>1176.5</v>
+        <v>1798.7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>912.3</v>
+        <v>520.4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>2</v>
@@ -1022,293 +1008,281 @@
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="6">
-        <v>1512.5</v>
+      <c r="D12" s="5">
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="22.5">
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.5">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1052.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2156.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1826.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22.5">
-      <c r="A16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="22.5">
-      <c r="A17" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5">
-        <v>114</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1657.7</v>
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1970</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="5">
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1623.4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>106.4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5">
-        <v>82</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5">
-        <v>102.5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D24" s="5">
-        <v>111</v>
+        <v>674.2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="6">
-        <v>8779</v>
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>390.1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="6">
-        <v>1515.4</v>
+        <v>1563.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="6">
-        <v>1486</v>
+        <v>1549.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="6">
-        <v>4206</v>
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="6">
-        <v>1308</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="5">
-        <v>169.5</v>
+      <c r="D30" s="6">
+        <v>1449</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6">
-        <v>1633.5</v>
+        <v>1596.2</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6">
-        <v>2488</v>
+        <v>3</v>
+      </c>
+      <c r="D32" s="5">
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
@@ -1317,12 +1291,12 @@
         <v>5</v>
       </c>
       <c r="D33" s="6">
-        <v>1430</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>2</v>
@@ -1331,12 +1305,12 @@
         <v>3</v>
       </c>
       <c r="D34" s="6">
-        <v>2966.5</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>4</v>
@@ -1344,55 +1318,55 @@
       <c r="C35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="6">
-        <v>1732.5</v>
+      <c r="D35" s="5">
+        <v>935</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="6">
-        <v>2130</v>
+        <v>9300</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="5">
-        <v>876.2</v>
+        <v>3</v>
+      </c>
+      <c r="D37" s="6">
+        <v>10228</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
-        <v>20103</v>
+        <v>8628.7999999999993</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>2</v>
@@ -1401,12 +1375,12 @@
         <v>3</v>
       </c>
       <c r="D39" s="6">
-        <v>11979.5</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>4</v>
@@ -1415,68 +1389,68 @@
         <v>5</v>
       </c>
       <c r="D40" s="6">
-        <v>11715</v>
+        <v>2903.9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="6">
-        <v>1874.5</v>
+      <c r="D41" s="5">
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>1775.5</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="6">
-        <v>2236</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6">
-        <v>13090</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>2</v>
@@ -1484,13 +1458,13 @@
       <c r="C45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="5">
-        <v>965</v>
+      <c r="D45" s="6">
+        <v>1185</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>4</v>
@@ -1498,39 +1472,39 @@
       <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="6">
-        <v>1673.6</v>
+      <c r="D46" s="5">
+        <v>887</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D47" s="6">
+        <v>5838</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="6">
-        <v>2873.5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>4</v>
@@ -1538,27 +1512,27 @@
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="6">
-        <v>3545</v>
+      <c r="D49" s="5">
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1073</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>4</v>
@@ -1566,55 +1540,55 @@
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6">
-        <v>8145</v>
+      <c r="D51" s="5">
+        <v>917</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="5">
-        <v>541.5</v>
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>3913</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="5">
-        <v>206</v>
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1707</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="5">
-        <v>315.7</v>
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2107</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>2</v>
@@ -1623,110 +1597,106 @@
         <v>3</v>
       </c>
       <c r="D55" s="6">
-        <v>1655.5</v>
+        <v>6409</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="6">
-        <v>1451</v>
+        <v>13512.3</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="6">
-        <v>8400.7999999999993</v>
+      <c r="D57" s="5">
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="4" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1415.3</v>
+        <v>6</v>
+      </c>
+      <c r="D58" s="5">
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>2246</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="D60" s="6">
-        <v>12146</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6">
-        <v>46077.1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="4" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="5">
-        <v>204.6</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>4</v>
@@ -1734,13 +1704,13 @@
       <c r="C63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="6">
-        <v>1219</v>
+      <c r="D63" s="5">
+        <v>818</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="4" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>4</v>
@@ -1748,25 +1718,23 @@
       <c r="C64" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="5">
-        <v>243.5</v>
-      </c>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="4" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
@@ -1775,26 +1743,26 @@
         <v>6</v>
       </c>
       <c r="D66" s="6">
-        <v>9860</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D67" s="5">
-        <v>817</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
@@ -1803,12 +1771,12 @@
         <v>6</v>
       </c>
       <c r="D68" s="5">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="4" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>4</v>
@@ -1817,12 +1785,12 @@
         <v>6</v>
       </c>
       <c r="D69" s="6">
-        <v>1000</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
@@ -1830,191 +1798,193 @@
       <c r="C70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="5">
+        <v>811</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="4" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71" s="6">
-        <v>9966.5</v>
+        <v>2264.6999999999998</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="4" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="5">
-        <v>812</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="6">
+        <v>4318.3999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" s="6">
-        <v>1800</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="4" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D74" s="5">
+        <v>900.5</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" s="6">
-        <v>4898.7</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6">
-        <v>8647</v>
+        <v>3</v>
+      </c>
+      <c r="D76" s="5">
+        <v>885</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="6">
-        <v>3085</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="6">
-        <v>1209</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="6">
-        <v>2516.4</v>
+        <v>7</v>
+      </c>
+      <c r="D79" s="5">
+        <v>363</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="6">
-        <v>2386.5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D80" s="7"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="4" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="6">
-        <v>2353.5</v>
+        <v>7</v>
+      </c>
+      <c r="D81" s="5">
+        <v>108.5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="6">
-        <v>6629.7</v>
+        <v>7</v>
+      </c>
+      <c r="D82" s="5">
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" s="5">
-        <v>363</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
@@ -2022,69 +1992,69 @@
       <c r="C84" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="5">
-        <v>305.39999999999998</v>
+      <c r="D84" s="6">
+        <v>3291</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="5">
-        <v>300</v>
+        <v>3</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1500</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="4" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="5">
-        <v>161</v>
+        <v>5</v>
+      </c>
+      <c r="D86" s="6">
+        <v>3474</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="5">
-        <v>302</v>
+        <v>3</v>
+      </c>
+      <c r="D87" s="6">
+        <v>2169</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D88" s="5">
-        <v>307</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>4</v>
@@ -2093,12 +2063,12 @@
         <v>5</v>
       </c>
       <c r="D89" s="6">
-        <v>1908</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>2</v>
@@ -2107,26 +2077,26 @@
         <v>3</v>
       </c>
       <c r="D90" s="6">
-        <v>3665</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D91" s="6">
-        <v>1470.4</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>2</v>
@@ -2134,249 +2104,205 @@
       <c r="C92" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="6">
-        <v>4897.5</v>
+      <c r="D92" s="5">
+        <v>144.80000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D93" s="6">
-        <v>2007</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D93" s="7"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="6">
-        <v>2640</v>
+        <v>3</v>
+      </c>
+      <c r="D94" s="5">
+        <v>807.3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
-        <v>1906.5</v>
+        <v>2415.5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="4" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="6">
-        <v>1235</v>
+        <v>7</v>
+      </c>
+      <c r="D96" s="5">
+        <v>207.5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="5">
-        <v>741</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D97" s="7"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="4" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1970</v>
+        <v>7</v>
+      </c>
+      <c r="D98" s="5">
+        <v>112.8</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="6">
-        <v>2996.5</v>
+        <v>7</v>
+      </c>
+      <c r="D99" s="5">
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="4" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="6">
-        <v>3490.4</v>
+        <v>7</v>
+      </c>
+      <c r="D100" s="5">
+        <v>219.8</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D101" s="5">
+        <v>218</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="5">
-        <v>100</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D102" s="7"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="5">
-        <v>209</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="4" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D104" s="5">
-        <v>154</v>
+        <v>582.5</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="5">
-        <v>316.3</v>
-      </c>
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="5"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="7"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="5">
-        <v>406</v>
-      </c>
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="6">
-        <v>3905.5</v>
-      </c>
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="5"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="6">
-        <v>1560.5</v>
-      </c>
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="5"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4"/>
